--- a/public/data/latest/owid-covid-latest.xlsx
+++ b/public/data/latest/owid-covid-latest.xlsx
@@ -3581,16 +3581,16 @@
         <v>1.4</v>
       </c>
       <c r="R15">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="S15">
-        <v>4.885</v>
+        <v>6.44</v>
       </c>
       <c r="T15">
-        <v>119</v>
+        <v>182</v>
       </c>
       <c r="U15">
-        <v>13.213</v>
+        <v>20.208</v>
       </c>
       <c r="Z15">
         <v>395705</v>
@@ -4588,22 +4588,22 @@
         <v>1.16</v>
       </c>
       <c r="R22">
-        <v>107</v>
+        <v>147</v>
       </c>
       <c r="S22">
-        <v>9.231999999999999</v>
+        <v>12.684</v>
       </c>
       <c r="T22">
-        <v>427</v>
+        <v>512</v>
       </c>
       <c r="U22">
-        <v>36.843</v>
+        <v>44.177</v>
       </c>
       <c r="X22">
-        <v>303.761</v>
+        <v>386.239</v>
       </c>
       <c r="Y22">
-        <v>26.21</v>
+        <v>33.326</v>
       </c>
       <c r="Z22">
         <v>25207</v>
@@ -4660,7 +4660,7 @@
         <v>3788</v>
       </c>
       <c r="AT22">
-        <v>52.78</v>
+        <v>47.22</v>
       </c>
       <c r="AU22">
         <v>11589616</v>
@@ -5912,16 +5912,16 @@
         <v>1.62</v>
       </c>
       <c r="R33">
-        <v>98</v>
+        <v>131</v>
       </c>
       <c r="S33">
-        <v>14.104</v>
+        <v>18.853</v>
       </c>
       <c r="T33">
-        <v>1013</v>
+        <v>1490</v>
       </c>
       <c r="U33">
-        <v>145.788</v>
+        <v>214.436</v>
       </c>
       <c r="AA33">
         <v>3903521</v>
@@ -6537,16 +6537,16 @@
         <v>1.43</v>
       </c>
       <c r="R38">
-        <v>274</v>
+        <v>288</v>
       </c>
       <c r="S38">
-        <v>7.26</v>
+        <v>7.631</v>
       </c>
       <c r="T38">
-        <v>687</v>
+        <v>706</v>
       </c>
       <c r="U38">
-        <v>18.202</v>
+        <v>18.706</v>
       </c>
       <c r="Z38">
         <v>122418</v>
@@ -8073,16 +8073,16 @@
         <v>1.39</v>
       </c>
       <c r="T50">
-        <v>166</v>
+        <v>192</v>
       </c>
       <c r="U50">
-        <v>40.436</v>
+        <v>46.769</v>
       </c>
       <c r="X50">
-        <v>147.695</v>
+        <v>177.031</v>
       </c>
       <c r="Y50">
-        <v>35.977</v>
+        <v>43.123</v>
       </c>
       <c r="Z50">
         <v>8073</v>
@@ -8421,28 +8421,28 @@
         <v>0.75</v>
       </c>
       <c r="R53">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="S53">
-        <v>64.18899999999999</v>
+        <v>55.18</v>
       </c>
       <c r="T53">
-        <v>286</v>
+        <v>240</v>
       </c>
       <c r="U53">
-        <v>322.07</v>
+        <v>270.269</v>
       </c>
       <c r="V53">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="W53">
-        <v>41.666</v>
+        <v>30.405</v>
       </c>
       <c r="X53">
-        <v>150</v>
+        <v>88</v>
       </c>
       <c r="Y53">
-        <v>168.918</v>
+        <v>99.099</v>
       </c>
       <c r="Z53">
         <v>44374</v>
@@ -8594,28 +8594,28 @@
         <v>1.04</v>
       </c>
       <c r="R54">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="S54">
-        <v>1.121</v>
+        <v>1.401</v>
       </c>
       <c r="T54">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="U54">
-        <v>4.856</v>
+        <v>4.389</v>
       </c>
       <c r="V54">
-        <v>24.034</v>
+        <v>27.038</v>
       </c>
       <c r="W54">
-        <v>2.244</v>
+        <v>2.525</v>
       </c>
       <c r="X54">
-        <v>92.129</v>
+        <v>102.143</v>
       </c>
       <c r="Y54">
-        <v>8.603</v>
+        <v>9.538</v>
       </c>
       <c r="Z54">
         <v>94598</v>
@@ -8898,22 +8898,22 @@
         <v>1.07</v>
       </c>
       <c r="R56">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="S56">
-        <v>2.244</v>
+        <v>2.59</v>
       </c>
       <c r="T56">
-        <v>80</v>
+        <v>107</v>
       </c>
       <c r="U56">
-        <v>13.812</v>
+        <v>18.473</v>
       </c>
       <c r="X56">
-        <v>92.512</v>
+        <v>137.276</v>
       </c>
       <c r="Y56">
-        <v>15.972</v>
+        <v>23.7</v>
       </c>
       <c r="Z56">
         <v>39326</v>
@@ -8970,7 +8970,7 @@
         <v>10261</v>
       </c>
       <c r="AT56">
-        <v>35.19</v>
+        <v>38.89</v>
       </c>
       <c r="AU56">
         <v>5792203</v>
@@ -10068,28 +10068,28 @@
         <v>1.28</v>
       </c>
       <c r="R65">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="S65">
-        <v>4.523</v>
+        <v>7.538</v>
       </c>
       <c r="T65">
-        <v>60</v>
+        <v>91</v>
       </c>
       <c r="U65">
-        <v>45.23</v>
+        <v>68.59999999999999</v>
       </c>
       <c r="V65">
-        <v>0.998</v>
+        <v>5.989</v>
       </c>
       <c r="W65">
-        <v>0.752</v>
+        <v>4.515</v>
       </c>
       <c r="X65">
-        <v>45.916</v>
+        <v>72.866</v>
       </c>
       <c r="Y65">
-        <v>34.613</v>
+        <v>54.93</v>
       </c>
       <c r="Z65">
         <v>4982</v>
@@ -10841,16 +10841,16 @@
         <v>1.17</v>
       </c>
       <c r="R72">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="S72">
-        <v>3.249</v>
+        <v>4.151</v>
       </c>
       <c r="T72">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="U72">
-        <v>18.048</v>
+        <v>15.882</v>
       </c>
       <c r="Z72">
         <v>9705</v>
@@ -11002,28 +11002,28 @@
         <v>1.12</v>
       </c>
       <c r="R73">
-        <v>1556</v>
+        <v>1852</v>
       </c>
       <c r="S73">
-        <v>23.03</v>
+        <v>27.411</v>
       </c>
       <c r="T73">
-        <v>8685</v>
+        <v>9798</v>
       </c>
       <c r="U73">
-        <v>128.544</v>
+        <v>145.018</v>
       </c>
       <c r="V73">
-        <v>1082.911</v>
+        <v>1121.049</v>
       </c>
       <c r="W73">
-        <v>16.028</v>
+        <v>16.592</v>
       </c>
       <c r="X73">
-        <v>4380.823</v>
+        <v>4817.4</v>
       </c>
       <c r="Y73">
-        <v>64.839</v>
+        <v>71.301</v>
       </c>
       <c r="Z73">
         <v>994320</v>
@@ -11644,11 +11644,17 @@
       <c r="Q78">
         <v>1.41</v>
       </c>
+      <c r="R78">
+        <v>512</v>
+      </c>
+      <c r="S78">
+        <v>6.111</v>
+      </c>
       <c r="X78">
-        <v>417.073</v>
+        <v>660.869</v>
       </c>
       <c r="Y78">
-        <v>4.978</v>
+        <v>7.888</v>
       </c>
       <c r="AA78">
         <v>68260213</v>
@@ -11945,10 +11951,10 @@
         <v>1.11</v>
       </c>
       <c r="V81">
-        <v>93.35299999999999</v>
+        <v>112.802</v>
       </c>
       <c r="W81">
-        <v>8.956</v>
+        <v>10.822</v>
       </c>
       <c r="Z81">
         <v>101661</v>
@@ -13176,10 +13182,10 @@
         <v>1.23</v>
       </c>
       <c r="T92">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="U92">
-        <v>7.867</v>
+        <v>8.592000000000001</v>
       </c>
       <c r="Z92">
         <v>21092</v>
@@ -13231,6 +13237,9 @@
       </c>
       <c r="AS92">
         <v>1088</v>
+      </c>
+      <c r="AT92">
+        <v>27.78</v>
       </c>
       <c r="AU92">
         <v>9660350</v>
@@ -13328,16 +13337,16 @@
         <v>1.07</v>
       </c>
       <c r="T93">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="U93">
-        <v>70.33</v>
+        <v>87.91200000000001</v>
       </c>
       <c r="X93">
-        <v>26.24</v>
+        <v>14.057</v>
       </c>
       <c r="Y93">
-        <v>76.895</v>
+        <v>41.194</v>
       </c>
       <c r="Z93">
         <v>2385</v>
@@ -14099,28 +14108,28 @@
         <v>1.15</v>
       </c>
       <c r="R99">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="S99">
-        <v>6.278</v>
+        <v>9.721</v>
       </c>
       <c r="T99">
-        <v>208</v>
+        <v>248</v>
       </c>
       <c r="U99">
-        <v>42.124</v>
+        <v>50.225</v>
       </c>
       <c r="V99">
-        <v>8.952</v>
+        <v>13.925</v>
       </c>
       <c r="W99">
-        <v>1.813</v>
+        <v>2.82</v>
       </c>
       <c r="X99">
-        <v>102.447</v>
+        <v>158.147</v>
       </c>
       <c r="Y99">
-        <v>20.748</v>
+        <v>32.028</v>
       </c>
       <c r="AI99">
         <v>6456918</v>
@@ -14298,28 +14307,28 @@
         <v>1.46</v>
       </c>
       <c r="R101">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="S101">
-        <v>16.521</v>
+        <v>16.752</v>
       </c>
       <c r="T101">
-        <v>961</v>
+        <v>1112</v>
       </c>
       <c r="U101">
-        <v>111.027</v>
+        <v>128.473</v>
       </c>
       <c r="V101">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="W101">
-        <v>70.59099999999999</v>
+        <v>70.47499999999999</v>
       </c>
       <c r="X101">
-        <v>1146</v>
+        <v>1153</v>
       </c>
       <c r="Y101">
-        <v>132.401</v>
+        <v>133.209</v>
       </c>
       <c r="Z101">
         <v>152604</v>
@@ -14480,22 +14489,22 @@
         <v>1.06</v>
       </c>
       <c r="R102">
-        <v>299</v>
+        <v>384</v>
       </c>
       <c r="S102">
-        <v>4.945</v>
+        <v>6.351</v>
       </c>
       <c r="T102">
-        <v>2930</v>
+        <v>3546</v>
       </c>
       <c r="U102">
-        <v>48.46</v>
+        <v>58.649</v>
       </c>
       <c r="X102">
-        <v>960.026</v>
+        <v>1231.712</v>
       </c>
       <c r="Y102">
-        <v>15.878</v>
+        <v>20.372</v>
       </c>
       <c r="Z102">
         <v>160870</v>
@@ -15989,10 +15998,10 @@
         <v>1.24</v>
       </c>
       <c r="T114">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="U114">
-        <v>26.508</v>
+        <v>30.75</v>
       </c>
       <c r="V114">
         <v>18.786</v>
@@ -16001,10 +16010,10 @@
         <v>9.960000000000001</v>
       </c>
       <c r="X114">
-        <v>44.493</v>
+        <v>46.471</v>
       </c>
       <c r="Y114">
-        <v>23.589</v>
+        <v>24.637</v>
       </c>
       <c r="Z114">
         <v>10234</v>
@@ -16748,22 +16757,22 @@
         <v>1.28</v>
       </c>
       <c r="T120">
-        <v>261</v>
+        <v>334</v>
       </c>
       <c r="U120">
-        <v>95.875</v>
+        <v>122.691</v>
       </c>
       <c r="V120">
-        <v>16.563</v>
+        <v>30.203</v>
       </c>
       <c r="W120">
-        <v>6.084</v>
+        <v>11.095</v>
       </c>
       <c r="X120">
-        <v>26.306</v>
+        <v>134.454</v>
       </c>
       <c r="Y120">
-        <v>9.663</v>
+        <v>49.39</v>
       </c>
       <c r="Z120">
         <v>14429</v>
@@ -16915,22 +16924,22 @@
         <v>0.89</v>
       </c>
       <c r="R121">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="S121">
-        <v>11.183</v>
+        <v>9.585000000000001</v>
       </c>
       <c r="T121">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="U121">
-        <v>33.548</v>
+        <v>39.938</v>
       </c>
       <c r="X121">
-        <v>5.999</v>
+        <v>12.997</v>
       </c>
       <c r="Y121">
-        <v>9.583</v>
+        <v>20.763</v>
       </c>
       <c r="Z121">
         <v>4305</v>
@@ -17814,10 +17823,10 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="V128">
-        <v>0.858</v>
+        <v>2.574</v>
       </c>
       <c r="W128">
-        <v>1.943</v>
+        <v>5.83</v>
       </c>
       <c r="X128">
         <v>22.31</v>
@@ -19778,28 +19787,28 @@
         <v>0.84</v>
       </c>
       <c r="R144">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="S144">
-        <v>11.789</v>
+        <v>11.672</v>
       </c>
       <c r="T144">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="U144">
-        <v>27.663</v>
+        <v>27.488</v>
       </c>
       <c r="V144">
-        <v>113.198</v>
+        <v>88.59</v>
       </c>
       <c r="W144">
-        <v>6.606</v>
+        <v>5.17</v>
       </c>
       <c r="X144">
-        <v>414.404</v>
+        <v>401.608</v>
       </c>
       <c r="Y144">
-        <v>24.185</v>
+        <v>23.438</v>
       </c>
       <c r="AA144">
         <v>12083348</v>
@@ -20530,13 +20539,13 @@
         <v>176657.429</v>
       </c>
       <c r="H151">
-        <v>948735</v>
+        <v>948736</v>
       </c>
       <c r="I151">
-        <v>2366</v>
+        <v>2367</v>
       </c>
       <c r="J151">
-        <v>1661</v>
+        <v>1661.143</v>
       </c>
       <c r="K151">
         <v>75282.992</v>
@@ -20548,13 +20557,13 @@
         <v>298.371</v>
       </c>
       <c r="N151">
-        <v>1602.397</v>
+        <v>1602.399</v>
       </c>
       <c r="O151">
-        <v>3.996</v>
+        <v>3.998</v>
       </c>
       <c r="P151">
-        <v>2.805</v>
+        <v>2.806</v>
       </c>
       <c r="AI151">
         <v>535103305</v>
@@ -20815,16 +20824,16 @@
         <v>1.3</v>
       </c>
       <c r="T154">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="U154">
-        <v>6.087</v>
+        <v>4.611</v>
       </c>
       <c r="V154">
-        <v>5.05</v>
+        <v>2.02</v>
       </c>
       <c r="W154">
-        <v>0.9320000000000001</v>
+        <v>0.373</v>
       </c>
       <c r="X154">
         <v>31.31</v>
@@ -22155,16 +22164,10 @@
         <v>1.18</v>
       </c>
       <c r="T164">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="U164">
-        <v>8.191000000000001</v>
-      </c>
-      <c r="X164">
-        <v>3.988</v>
-      </c>
-      <c r="Y164">
-        <v>0.105</v>
+        <v>8.375999999999999</v>
       </c>
       <c r="Z164">
         <v>39320</v>
@@ -22316,22 +22319,22 @@
         <v>0.98</v>
       </c>
       <c r="R165">
-        <v>184</v>
+        <v>157</v>
       </c>
       <c r="S165">
-        <v>18.045</v>
+        <v>15.397</v>
       </c>
       <c r="T165">
-        <v>849</v>
+        <v>744</v>
       </c>
       <c r="U165">
-        <v>83.262</v>
+        <v>72.965</v>
       </c>
       <c r="X165">
-        <v>94.08499999999999</v>
+        <v>77.248</v>
       </c>
       <c r="Y165">
-        <v>9.227</v>
+        <v>7.576</v>
       </c>
       <c r="Z165">
         <v>58231</v>
@@ -22632,16 +22635,16 @@
         <v>1.44</v>
       </c>
       <c r="R167">
-        <v>79</v>
+        <v>112</v>
       </c>
       <c r="S167">
-        <v>4.107</v>
+        <v>5.822</v>
       </c>
       <c r="X167">
-        <v>423.991</v>
+        <v>671.817</v>
       </c>
       <c r="Y167">
-        <v>22.04</v>
+        <v>34.922</v>
       </c>
       <c r="AA167">
         <v>8889244</v>
@@ -24099,6 +24102,9 @@
       <c r="AS178">
         <v>1018</v>
       </c>
+      <c r="AT178">
+        <v>36.11</v>
+      </c>
       <c r="AU178">
         <v>6804596</v>
       </c>
@@ -24605,16 +24611,16 @@
         <v>1.23</v>
       </c>
       <c r="T183">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="U183">
-        <v>9.891</v>
+        <v>8.242000000000001</v>
       </c>
       <c r="X183">
-        <v>2.001</v>
+        <v>3.001</v>
       </c>
       <c r="Y183">
-        <v>0.366</v>
+        <v>0.55</v>
       </c>
       <c r="Z183">
         <v>11094</v>
@@ -24769,28 +24775,28 @@
         <v>1.4</v>
       </c>
       <c r="R184">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="S184">
-        <v>3.367</v>
+        <v>4.329</v>
       </c>
       <c r="T184">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="U184">
-        <v>14.912</v>
+        <v>20.684</v>
       </c>
       <c r="V184">
-        <v>3.968</v>
+        <v>5.952</v>
       </c>
       <c r="W184">
-        <v>1.909</v>
+        <v>2.863</v>
       </c>
       <c r="X184">
-        <v>19.838</v>
+        <v>38.685</v>
       </c>
       <c r="Y184">
-        <v>9.542999999999999</v>
+        <v>18.608</v>
       </c>
       <c r="Z184">
         <v>2058</v>
@@ -25575,16 +25581,16 @@
         <v>0.89</v>
       </c>
       <c r="V191">
-        <v>72.10899999999999</v>
+        <v>55.316</v>
       </c>
       <c r="W191">
-        <v>1.542</v>
+        <v>1.183</v>
       </c>
       <c r="X191">
-        <v>1648.625</v>
+        <v>1311.788</v>
       </c>
       <c r="Y191">
-        <v>35.261</v>
+        <v>28.057</v>
       </c>
       <c r="AA191">
         <v>52887516</v>
@@ -25787,7 +25793,7 @@
         <v>13314</v>
       </c>
       <c r="AT192">
-        <v>81.48</v>
+        <v>79.63</v>
       </c>
       <c r="AU192">
         <v>21413250</v>
@@ -26114,22 +26120,22 @@
         <v>1.43</v>
       </c>
       <c r="R195">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="S195">
-        <v>2.871</v>
+        <v>2.772</v>
       </c>
       <c r="T195">
-        <v>125</v>
+        <v>173</v>
       </c>
       <c r="U195">
-        <v>12.377</v>
+        <v>17.13</v>
       </c>
       <c r="V195">
-        <v>12.713</v>
+        <v>16.624</v>
       </c>
       <c r="W195">
-        <v>1.259</v>
+        <v>1.646</v>
       </c>
       <c r="Z195">
         <v>12950</v>
@@ -26278,22 +26284,22 @@
         <v>1.58</v>
       </c>
       <c r="R196">
-        <v>144</v>
+        <v>163</v>
       </c>
       <c r="S196">
-        <v>16.639</v>
+        <v>18.834</v>
       </c>
       <c r="T196">
-        <v>594</v>
+        <v>604</v>
       </c>
       <c r="U196">
-        <v>68.634</v>
+        <v>69.789</v>
       </c>
       <c r="X196">
-        <v>289</v>
+        <v>307</v>
       </c>
       <c r="Y196">
-        <v>33.393</v>
+        <v>35.472</v>
       </c>
       <c r="Z196">
         <v>19622</v>
@@ -28275,22 +28281,22 @@
         <v>1.01</v>
       </c>
       <c r="R212">
-        <v>918</v>
+        <v>925</v>
       </c>
       <c r="S212">
-        <v>13.523</v>
+        <v>13.626</v>
       </c>
       <c r="T212">
-        <v>6303</v>
+        <v>6321</v>
       </c>
       <c r="U212">
-        <v>92.84699999999999</v>
+        <v>93.11199999999999</v>
       </c>
       <c r="X212">
-        <v>5389</v>
+        <v>5392</v>
       </c>
       <c r="Y212">
-        <v>79.383</v>
+        <v>79.42700000000001</v>
       </c>
       <c r="Z212">
         <v>661103</v>
@@ -28415,13 +28421,13 @@
         <v>137927.143</v>
       </c>
       <c r="H213">
-        <v>624257</v>
+        <v>624258</v>
       </c>
       <c r="I213">
-        <v>1145</v>
+        <v>1146</v>
       </c>
       <c r="J213">
-        <v>820.2859999999999</v>
+        <v>820.429</v>
       </c>
       <c r="K213">
         <v>112251.879</v>
@@ -28433,28 +28439,28 @@
         <v>416.695</v>
       </c>
       <c r="N213">
-        <v>1885.958</v>
+        <v>1885.961</v>
       </c>
       <c r="O213">
-        <v>3.459</v>
+        <v>3.462</v>
       </c>
       <c r="P213">
-        <v>2.478</v>
+        <v>2.479</v>
       </c>
       <c r="Q213">
         <v>1.27</v>
       </c>
       <c r="R213">
-        <v>21418</v>
+        <v>22029</v>
       </c>
       <c r="S213">
-        <v>64.706</v>
+        <v>66.55200000000001</v>
       </c>
       <c r="T213">
-        <v>83222</v>
+        <v>85746</v>
       </c>
       <c r="U213">
-        <v>251.424</v>
+        <v>259.049</v>
       </c>
       <c r="X213">
         <v>80570</v>
@@ -29319,13 +29325,13 @@
         <v>653479.714</v>
       </c>
       <c r="H221">
-        <v>4392966</v>
+        <v>4392967</v>
       </c>
       <c r="I221">
-        <v>10814</v>
+        <v>10815</v>
       </c>
       <c r="J221">
-        <v>9778.143</v>
+        <v>9778.286</v>
       </c>
       <c r="K221">
         <v>26851.703</v>

--- a/public/data/latest/owid-covid-latest.xlsx
+++ b/public/data/latest/owid-covid-latest.xlsx
@@ -3307,40 +3307,40 @@
         <v>508</v>
       </c>
       <c r="E13">
-        <v>67031762</v>
+        <v>67068333</v>
       </c>
       <c r="F13">
-        <v>231642</v>
+        <v>268213</v>
       </c>
       <c r="G13">
-        <v>259565.429</v>
+        <v>264789.857</v>
       </c>
       <c r="H13">
-        <v>986874</v>
+        <v>987414</v>
       </c>
       <c r="I13">
-        <v>4324</v>
+        <v>4864</v>
       </c>
       <c r="J13">
-        <v>4507</v>
+        <v>4584.143</v>
       </c>
       <c r="K13">
-        <v>14446.975</v>
+        <v>14454.857</v>
       </c>
       <c r="L13">
-        <v>49.924</v>
+        <v>57.806</v>
       </c>
       <c r="M13">
-        <v>55.943</v>
+        <v>57.069</v>
       </c>
       <c r="N13">
-        <v>212.695</v>
+        <v>212.812</v>
       </c>
       <c r="O13">
-        <v>0.9320000000000001</v>
+        <v>1.048</v>
       </c>
       <c r="P13">
-        <v>0.971</v>
+        <v>0.988</v>
       </c>
       <c r="AI13">
         <v>3171004575</v>
@@ -13456,40 +13456,40 @@
         <v>508</v>
       </c>
       <c r="E94">
-        <v>32322258</v>
+        <v>32358829</v>
       </c>
       <c r="F94">
-        <v>0</v>
+        <v>36571</v>
       </c>
       <c r="G94">
-        <v>29204.571</v>
+        <v>34429</v>
       </c>
       <c r="H94">
-        <v>433049</v>
+        <v>433589</v>
       </c>
       <c r="I94">
-        <v>0</v>
+        <v>540</v>
       </c>
       <c r="J94">
-        <v>399.286</v>
+        <v>476.429</v>
       </c>
       <c r="K94">
-        <v>23421.852</v>
+        <v>23448.352</v>
       </c>
       <c r="L94">
-        <v>0</v>
+        <v>26.501</v>
       </c>
       <c r="M94">
-        <v>21.163</v>
+        <v>24.948</v>
       </c>
       <c r="N94">
-        <v>313.803</v>
+        <v>314.194</v>
       </c>
       <c r="O94">
-        <v>0</v>
+        <v>0.391</v>
       </c>
       <c r="P94">
-        <v>0.289</v>
+        <v>0.345</v>
       </c>
       <c r="Q94">
         <v>0.9399999999999999</v>
@@ -29295,40 +29295,40 @@
         <v>508</v>
       </c>
       <c r="E221">
-        <v>209963660</v>
+        <v>210000231</v>
       </c>
       <c r="F221">
-        <v>660038</v>
+        <v>696609</v>
       </c>
       <c r="G221">
-        <v>649931.714</v>
+        <v>655156.143</v>
       </c>
       <c r="H221">
-        <v>4403038</v>
+        <v>4403578</v>
       </c>
       <c r="I221">
-        <v>10071</v>
+        <v>10611</v>
       </c>
       <c r="J221">
-        <v>9747.286</v>
+        <v>9824.429</v>
       </c>
       <c r="K221">
-        <v>26936.38</v>
+        <v>26941.072</v>
       </c>
       <c r="L221">
-        <v>84.67700000000001</v>
+        <v>89.36799999999999</v>
       </c>
       <c r="M221">
-        <v>83.38</v>
+        <v>84.05</v>
       </c>
       <c r="N221">
-        <v>564.869</v>
+        <v>564.938</v>
       </c>
       <c r="O221">
-        <v>1.292</v>
+        <v>1.361</v>
       </c>
       <c r="P221">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="Q221">
         <v>1.04</v>

--- a/public/data/latest/owid-covid-latest.xlsx
+++ b/public/data/latest/owid-covid-latest.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1053" uniqueCount="521">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1053" uniqueCount="520">
   <si>
     <t>iso_code</t>
   </si>
@@ -1546,25 +1546,22 @@
     <t>2021-08-06</t>
   </si>
   <si>
+    <t>2021-08-13</t>
+  </si>
+  <si>
     <t>2021-08-18</t>
   </si>
   <si>
-    <t>2021-08-13</t>
-  </si>
-  <si>
     <t>2021-08-16</t>
   </si>
   <si>
     <t>2021-08-17</t>
   </si>
   <si>
-    <t>2021-08-11</t>
+    <t>2021-08-15</t>
   </si>
   <si>
     <t>2021-08-09</t>
-  </si>
-  <si>
-    <t>2021-08-15</t>
   </si>
   <si>
     <t>people tested</t>
@@ -2285,31 +2282,31 @@
         <v>0.652</v>
       </c>
       <c r="AI3">
-        <v>87424312</v>
+        <v>88631426</v>
       </c>
       <c r="AJ3">
-        <v>59384819</v>
+        <v>60075365</v>
       </c>
       <c r="AK3">
-        <v>30810285</v>
+        <v>31374048</v>
       </c>
       <c r="AM3">
-        <v>1440040</v>
+        <v>1203334</v>
       </c>
       <c r="AN3">
-        <v>1144843</v>
+        <v>1094171</v>
       </c>
       <c r="AO3">
-        <v>6.52</v>
+        <v>6.61</v>
       </c>
       <c r="AP3">
-        <v>4.43</v>
+        <v>4.48</v>
       </c>
       <c r="AQ3">
-        <v>2.3</v>
+        <v>2.34</v>
       </c>
       <c r="AS3">
-        <v>854</v>
+        <v>816</v>
       </c>
       <c r="AU3">
         <v>1340598113</v>
@@ -2615,7 +2612,7 @@
         <v>16.5</v>
       </c>
       <c r="AH6" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="AI6">
         <v>91660</v>
@@ -3007,34 +3004,34 @@
         <v>10.2</v>
       </c>
       <c r="AH10" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AI10">
-        <v>37234519</v>
+        <v>37689167</v>
       </c>
       <c r="AJ10">
-        <v>26784800</v>
+        <v>26902913</v>
       </c>
       <c r="AK10">
-        <v>10449719</v>
+        <v>10786254</v>
       </c>
       <c r="AM10">
-        <v>292587</v>
+        <v>454648</v>
       </c>
       <c r="AN10">
-        <v>247055</v>
+        <v>275239</v>
       </c>
       <c r="AO10">
-        <v>82.38</v>
+        <v>83.39</v>
       </c>
       <c r="AP10">
-        <v>59.26</v>
+        <v>59.53</v>
       </c>
       <c r="AQ10">
-        <v>23.12</v>
+        <v>23.87</v>
       </c>
       <c r="AS10">
-        <v>5466</v>
+        <v>6090</v>
       </c>
       <c r="AT10">
         <v>75.93000000000001</v>
@@ -3159,7 +3156,7 @@
         <v>20.8</v>
       </c>
       <c r="AH11" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AI11">
         <v>220236</v>
@@ -3242,34 +3239,34 @@
         <v>300</v>
       </c>
       <c r="D12" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="AI12">
-        <v>143030</v>
+        <v>143396</v>
       </c>
       <c r="AJ12">
-        <v>74788</v>
+        <v>74987</v>
       </c>
       <c r="AK12">
-        <v>68242</v>
+        <v>68409</v>
       </c>
       <c r="AM12">
-        <v>424</v>
+        <v>366</v>
       </c>
       <c r="AN12">
-        <v>304</v>
+        <v>326</v>
       </c>
       <c r="AO12">
-        <v>133.97</v>
+        <v>134.31</v>
       </c>
       <c r="AP12">
-        <v>70.05</v>
+        <v>70.23</v>
       </c>
       <c r="AQ12">
-        <v>63.92</v>
+        <v>64.06999999999999</v>
       </c>
       <c r="AS12">
-        <v>2847</v>
+        <v>3053</v>
       </c>
       <c r="AU12">
         <v>106766</v>
@@ -3343,37 +3340,37 @@
         <v>0.988</v>
       </c>
       <c r="AI13">
-        <v>3171004575</v>
+        <v>3194462231</v>
       </c>
       <c r="AJ13">
-        <v>1506734560</v>
+        <v>1515812394</v>
       </c>
       <c r="AK13">
-        <v>1154432275</v>
+        <v>1158716408</v>
       </c>
       <c r="AL13">
-        <v>9273844</v>
+        <v>9589106</v>
       </c>
       <c r="AM13">
-        <v>26503042</v>
+        <v>23046360</v>
       </c>
       <c r="AN13">
-        <v>25874539</v>
+        <v>25903444</v>
       </c>
       <c r="AO13">
-        <v>68.34</v>
+        <v>68.84999999999999</v>
       </c>
       <c r="AP13">
-        <v>32.47</v>
+        <v>32.67</v>
       </c>
       <c r="AQ13">
-        <v>24.88</v>
+        <v>24.97</v>
       </c>
       <c r="AR13">
-        <v>0.2</v>
+        <v>0.21</v>
       </c>
       <c r="AS13">
-        <v>5577</v>
+        <v>5583</v>
       </c>
       <c r="AU13">
         <v>4639847425</v>
@@ -3456,34 +3453,34 @@
         <v>464.5</v>
       </c>
       <c r="AH14" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AI14">
-        <v>15892260</v>
+        <v>16201270</v>
       </c>
       <c r="AJ14">
-        <v>10264706</v>
+        <v>10430071</v>
       </c>
       <c r="AK14">
-        <v>5627554</v>
+        <v>5771199</v>
       </c>
       <c r="AM14">
-        <v>273869</v>
+        <v>309010</v>
       </c>
       <c r="AN14">
-        <v>239750</v>
+        <v>246421</v>
       </c>
       <c r="AO14">
-        <v>62.32</v>
+        <v>63.53</v>
       </c>
       <c r="AP14">
-        <v>40.25</v>
+        <v>40.9</v>
       </c>
       <c r="AQ14">
-        <v>22.07</v>
+        <v>22.63</v>
       </c>
       <c r="AS14">
-        <v>9402</v>
+        <v>9664</v>
       </c>
       <c r="AT14">
         <v>68.06</v>
@@ -3620,34 +3617,34 @@
         <v>406.1</v>
       </c>
       <c r="AH15" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AI15">
-        <v>10245849</v>
+        <v>10275681</v>
       </c>
       <c r="AJ15">
-        <v>5412659</v>
+        <v>5422320</v>
       </c>
       <c r="AK15">
-        <v>5061419</v>
+        <v>5084278</v>
       </c>
       <c r="AM15">
-        <v>24307</v>
+        <v>23977</v>
       </c>
       <c r="AN15">
-        <v>21245</v>
+        <v>20763</v>
       </c>
       <c r="AO15">
-        <v>113.76</v>
+        <v>114.09</v>
       </c>
       <c r="AP15">
-        <v>60.1</v>
+        <v>60.21</v>
       </c>
       <c r="AQ15">
-        <v>56.2</v>
+        <v>56.45</v>
       </c>
       <c r="AS15">
-        <v>2359</v>
+        <v>2305</v>
       </c>
       <c r="AT15">
         <v>56.02</v>
@@ -3772,34 +3769,34 @@
         <v>4.9</v>
       </c>
       <c r="AH16" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AI16">
-        <v>5932734</v>
+        <v>5991016</v>
       </c>
       <c r="AJ16">
-        <v>3526467</v>
+        <v>3574157</v>
       </c>
       <c r="AK16">
-        <v>2406267</v>
+        <v>2416859</v>
       </c>
       <c r="AM16">
-        <v>66519</v>
+        <v>58282</v>
       </c>
       <c r="AN16">
-        <v>55632</v>
+        <v>54775</v>
       </c>
       <c r="AO16">
-        <v>58.51</v>
+        <v>59.09</v>
       </c>
       <c r="AP16">
-        <v>34.78</v>
+        <v>35.25</v>
       </c>
       <c r="AQ16">
-        <v>23.73</v>
+        <v>23.84</v>
       </c>
       <c r="AS16">
-        <v>5487</v>
+        <v>5402</v>
       </c>
       <c r="AT16">
         <v>61.11</v>
@@ -4043,34 +4040,34 @@
         <v>107</v>
       </c>
       <c r="AH18" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="AI18">
-        <v>2436360</v>
+        <v>2438316</v>
       </c>
       <c r="AJ18">
-        <v>1129009</v>
+        <v>1129629</v>
       </c>
       <c r="AK18">
-        <v>1074086</v>
+        <v>1074838</v>
       </c>
       <c r="AM18">
-        <v>2355</v>
+        <v>1956</v>
       </c>
       <c r="AN18">
-        <v>5419</v>
+        <v>4388</v>
       </c>
       <c r="AO18">
-        <v>143.18</v>
+        <v>143.3</v>
       </c>
       <c r="AP18">
-        <v>66.34999999999999</v>
+        <v>66.39</v>
       </c>
       <c r="AQ18">
-        <v>63.12</v>
+        <v>63.17</v>
       </c>
       <c r="AS18">
-        <v>3185</v>
+        <v>2579</v>
       </c>
       <c r="AT18">
         <v>53.7</v>
@@ -4192,34 +4189,34 @@
         <v>4.8</v>
       </c>
       <c r="AH19" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AI19">
-        <v>21767854</v>
+        <v>22166720</v>
       </c>
       <c r="AJ19">
-        <v>15898019</v>
+        <v>16083447</v>
       </c>
       <c r="AK19">
-        <v>5869835</v>
+        <v>6083273</v>
       </c>
       <c r="AM19">
-        <v>335512</v>
+        <v>398866</v>
       </c>
       <c r="AN19">
-        <v>283151</v>
+        <v>281177</v>
       </c>
       <c r="AO19">
-        <v>13.22</v>
+        <v>13.46</v>
       </c>
       <c r="AP19">
-        <v>9.65</v>
+        <v>9.77</v>
       </c>
       <c r="AQ19">
-        <v>3.56</v>
+        <v>3.69</v>
       </c>
       <c r="AS19">
-        <v>1719</v>
+        <v>1707</v>
       </c>
       <c r="AU19">
         <v>164689383</v>
@@ -4469,7 +4466,7 @@
         <v>16.8</v>
       </c>
       <c r="AH21" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AI21">
         <v>2684863</v>
@@ -4633,34 +4630,34 @@
         <v>23.8</v>
       </c>
       <c r="AH22" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AI22">
-        <v>15688921</v>
+        <v>15733985</v>
       </c>
       <c r="AJ22">
-        <v>8312487</v>
+        <v>8322087</v>
       </c>
       <c r="AK22">
-        <v>7721507</v>
+        <v>7757994</v>
       </c>
       <c r="AM22">
-        <v>34897</v>
+        <v>32509</v>
       </c>
       <c r="AN22">
-        <v>43897</v>
+        <v>39235</v>
       </c>
       <c r="AO22">
-        <v>135.37</v>
+        <v>135.76</v>
       </c>
       <c r="AP22">
-        <v>71.72</v>
+        <v>71.81</v>
       </c>
       <c r="AQ22">
-        <v>66.62</v>
+        <v>66.94</v>
       </c>
       <c r="AS22">
-        <v>3788</v>
+        <v>3385</v>
       </c>
       <c r="AT22">
         <v>47.22</v>
@@ -4779,7 +4776,7 @@
         <v>21.1</v>
       </c>
       <c r="AH23" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AI23">
         <v>212380</v>
@@ -4984,7 +4981,7 @@
         <v>312</v>
       </c>
       <c r="D25" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="AI25">
         <v>83297</v>
@@ -5228,34 +5225,34 @@
         <v>10.2</v>
       </c>
       <c r="AH27" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AI27">
-        <v>5154253</v>
+        <v>5215804</v>
       </c>
       <c r="AJ27">
-        <v>3012437</v>
+        <v>3023644</v>
       </c>
       <c r="AK27">
-        <v>2141816</v>
+        <v>2192160</v>
       </c>
       <c r="AM27">
-        <v>57947</v>
+        <v>61551</v>
       </c>
       <c r="AN27">
-        <v>39308</v>
+        <v>39112</v>
       </c>
       <c r="AO27">
-        <v>44.16</v>
+        <v>44.68</v>
       </c>
       <c r="AP27">
-        <v>25.81</v>
+        <v>25.9</v>
       </c>
       <c r="AQ27">
-        <v>18.35</v>
+        <v>18.78</v>
       </c>
       <c r="AS27">
-        <v>3367</v>
+        <v>3351</v>
       </c>
       <c r="AU27">
         <v>11673029</v>
@@ -5374,7 +5371,7 @@
         <v>12.1</v>
       </c>
       <c r="AH28" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AI28">
         <v>865306</v>
@@ -5624,31 +5621,31 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AI30">
-        <v>168157560</v>
+        <v>173650317</v>
       </c>
       <c r="AJ30">
-        <v>121838235</v>
+        <v>124755667</v>
       </c>
       <c r="AK30">
-        <v>51152090</v>
+        <v>53240329</v>
       </c>
       <c r="AM30">
-        <v>3518987</v>
+        <v>1909168</v>
       </c>
       <c r="AN30">
-        <v>1992422</v>
+        <v>2007246</v>
       </c>
       <c r="AO30">
-        <v>79.11</v>
+        <v>81.69</v>
       </c>
       <c r="AP30">
-        <v>57.32</v>
+        <v>58.69</v>
       </c>
       <c r="AQ30">
-        <v>24.06</v>
+        <v>25.05</v>
       </c>
       <c r="AS30">
-        <v>9373</v>
+        <v>9443</v>
       </c>
       <c r="AT30">
         <v>51.39</v>
@@ -5707,7 +5704,7 @@
         <v>318</v>
       </c>
       <c r="D31" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="AI31">
         <v>29172</v>
@@ -5945,34 +5942,34 @@
         <v>22.1</v>
       </c>
       <c r="AH33" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AI33">
-        <v>2188957</v>
+        <v>2201084</v>
       </c>
       <c r="AJ33">
         <v>1089066</v>
       </c>
       <c r="AK33">
-        <v>1094904</v>
+        <v>1102320</v>
       </c>
       <c r="AM33">
-        <v>12789</v>
+        <v>12127</v>
       </c>
       <c r="AN33">
-        <v>8876</v>
+        <v>8918</v>
       </c>
       <c r="AO33">
-        <v>31.5</v>
+        <v>31.68</v>
       </c>
       <c r="AP33">
         <v>15.67</v>
       </c>
       <c r="AQ33">
-        <v>15.76</v>
+        <v>15.86</v>
       </c>
       <c r="AS33">
-        <v>1277</v>
+        <v>1283</v>
       </c>
       <c r="AU33">
         <v>6948445</v>
@@ -6576,34 +6573,34 @@
         <v>30.8</v>
       </c>
       <c r="AH38" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AI38">
-        <v>51936190</v>
+        <v>52074770</v>
       </c>
       <c r="AJ38">
-        <v>27495708</v>
+        <v>27540252</v>
       </c>
       <c r="AK38">
-        <v>24440482</v>
+        <v>24534518</v>
       </c>
       <c r="AM38">
-        <v>125714</v>
+        <v>138580</v>
       </c>
       <c r="AN38">
-        <v>135340</v>
+        <v>133175</v>
       </c>
       <c r="AO38">
-        <v>137.61</v>
+        <v>137.98</v>
       </c>
       <c r="AP38">
-        <v>72.84999999999999</v>
+        <v>72.97</v>
       </c>
       <c r="AQ38">
-        <v>64.76000000000001</v>
+        <v>65.01000000000001</v>
       </c>
       <c r="AS38">
-        <v>3586</v>
+        <v>3529</v>
       </c>
       <c r="AT38">
         <v>60.65</v>
@@ -6710,7 +6707,7 @@
         <v>2.034</v>
       </c>
       <c r="AH39" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AI39">
         <v>236976</v>
@@ -6787,7 +6784,7 @@
         <v>327</v>
       </c>
       <c r="D40" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AI40">
         <v>99635</v>
@@ -7001,28 +6998,28 @@
         <v>1</v>
       </c>
       <c r="AI42">
-        <v>40649</v>
+        <v>45390</v>
       </c>
       <c r="AJ42">
-        <v>29786</v>
+        <v>33525</v>
       </c>
       <c r="AK42">
-        <v>10863</v>
+        <v>11865</v>
       </c>
       <c r="AN42">
-        <v>639</v>
+        <v>677</v>
       </c>
       <c r="AO42">
-        <v>0.25</v>
+        <v>0.28</v>
       </c>
       <c r="AP42">
-        <v>0.18</v>
+        <v>0.2</v>
       </c>
       <c r="AQ42">
         <v>0.07000000000000001</v>
       </c>
       <c r="AS42">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="AT42">
         <v>25</v>
@@ -7141,34 +7138,40 @@
         <v>65.59999999999999</v>
       </c>
       <c r="AH43" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AI43">
-        <v>26785123</v>
+        <v>27626715</v>
       </c>
       <c r="AJ43">
-        <v>14246757</v>
+        <v>14288449</v>
       </c>
       <c r="AK43">
-        <v>13048158</v>
+        <v>13151703</v>
+      </c>
+      <c r="AL43">
+        <v>700858</v>
       </c>
       <c r="AM43">
-        <v>56600</v>
+        <v>182333</v>
       </c>
       <c r="AN43">
-        <v>56983</v>
+        <v>137400</v>
       </c>
       <c r="AO43">
-        <v>140.12</v>
+        <v>144.52</v>
       </c>
       <c r="AP43">
-        <v>74.53</v>
+        <v>74.75</v>
       </c>
       <c r="AQ43">
-        <v>68.26000000000001</v>
+        <v>68.8</v>
+      </c>
+      <c r="AR43">
+        <v>3.67</v>
       </c>
       <c r="AS43">
-        <v>2981</v>
+        <v>7188</v>
       </c>
       <c r="AT43">
         <v>74.06999999999999</v>
@@ -7269,25 +7272,25 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AI44">
-        <v>1900127000</v>
+        <v>1912419000</v>
       </c>
       <c r="AK44">
         <v>777046000</v>
       </c>
       <c r="AM44">
-        <v>12854000</v>
+        <v>12292000</v>
       </c>
       <c r="AN44">
-        <v>11412714</v>
+        <v>11424143</v>
       </c>
       <c r="AO44">
-        <v>132.02</v>
+        <v>132.87</v>
       </c>
       <c r="AQ44">
         <v>53.99</v>
       </c>
       <c r="AS44">
-        <v>7929</v>
+        <v>7937</v>
       </c>
       <c r="AU44">
         <v>1439323774</v>
@@ -7409,34 +7412,34 @@
         <v>11.1</v>
       </c>
       <c r="AH45" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AI45">
-        <v>32192874</v>
+        <v>32463196</v>
       </c>
       <c r="AJ45">
-        <v>20978540</v>
+        <v>21179816</v>
       </c>
       <c r="AK45">
-        <v>13880688</v>
+        <v>13958104</v>
       </c>
       <c r="AM45">
-        <v>95948</v>
+        <v>270322</v>
       </c>
       <c r="AN45">
-        <v>187019</v>
+        <v>187701</v>
       </c>
       <c r="AO45">
-        <v>63.27</v>
+        <v>63.8</v>
       </c>
       <c r="AP45">
-        <v>41.23</v>
+        <v>41.62</v>
       </c>
       <c r="AQ45">
-        <v>27.28</v>
+        <v>27.43</v>
       </c>
       <c r="AS45">
-        <v>3675</v>
+        <v>3689</v>
       </c>
       <c r="AT45">
         <v>41.67</v>
@@ -7662,28 +7665,28 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AI47">
-        <v>255988</v>
+        <v>273790</v>
       </c>
       <c r="AJ47">
-        <v>160945</v>
+        <v>172162</v>
       </c>
       <c r="AK47">
-        <v>95043</v>
+        <v>101628</v>
       </c>
       <c r="AN47">
-        <v>4092</v>
+        <v>2543</v>
       </c>
       <c r="AO47">
-        <v>4.64</v>
+        <v>4.96</v>
       </c>
       <c r="AP47">
-        <v>2.92</v>
+        <v>3.12</v>
       </c>
       <c r="AQ47">
-        <v>1.72</v>
+        <v>1.84</v>
       </c>
       <c r="AS47">
-        <v>742</v>
+        <v>461</v>
       </c>
       <c r="AT47">
         <v>51.85</v>
@@ -7808,7 +7811,7 @@
         <v>5.3</v>
       </c>
       <c r="AH48" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="AI48">
         <v>3848155</v>
@@ -7960,7 +7963,7 @@
         <v>23.9</v>
       </c>
       <c r="AH49" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="AI49">
         <v>1246309</v>
@@ -8112,34 +8115,34 @@
         <v>27.2</v>
       </c>
       <c r="AH50" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="AI50">
-        <v>3182592</v>
+        <v>3191520</v>
       </c>
       <c r="AJ50">
-        <v>1684554</v>
+        <v>1688016</v>
       </c>
       <c r="AK50">
-        <v>1558636</v>
+        <v>1564842</v>
       </c>
       <c r="AM50">
-        <v>6054</v>
+        <v>8928</v>
       </c>
       <c r="AN50">
-        <v>5960</v>
+        <v>6089</v>
       </c>
       <c r="AO50">
-        <v>77.52</v>
+        <v>77.73999999999999</v>
       </c>
       <c r="AP50">
-        <v>41.03</v>
+        <v>41.12</v>
       </c>
       <c r="AQ50">
-        <v>37.97</v>
+        <v>38.12</v>
       </c>
       <c r="AS50">
-        <v>1452</v>
+        <v>1483</v>
       </c>
       <c r="AT50">
         <v>33.8</v>
@@ -8240,31 +8243,31 @@
         <v>1.04</v>
       </c>
       <c r="AI51">
-        <v>12225378</v>
+        <v>12287005</v>
       </c>
       <c r="AJ51">
-        <v>4854330</v>
+        <v>4874336</v>
       </c>
       <c r="AK51">
-        <v>3047933</v>
+        <v>3066844</v>
       </c>
       <c r="AM51">
-        <v>154757</v>
+        <v>61627</v>
       </c>
       <c r="AN51">
-        <v>186518</v>
+        <v>183597</v>
       </c>
       <c r="AO51">
-        <v>107.93</v>
+        <v>108.48</v>
       </c>
       <c r="AP51">
-        <v>42.86</v>
+        <v>43.03</v>
       </c>
       <c r="AQ51">
-        <v>26.91</v>
+        <v>27.08</v>
       </c>
       <c r="AS51">
-        <v>16467</v>
+        <v>16209</v>
       </c>
       <c r="AT51">
         <v>65.28</v>
@@ -8320,7 +8323,7 @@
         <v>339</v>
       </c>
       <c r="D52" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AI52">
         <v>179876</v>
@@ -8472,34 +8475,34 @@
         <v>119.4</v>
       </c>
       <c r="AH53" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AI53">
-        <v>1056083</v>
+        <v>1060680</v>
       </c>
       <c r="AJ53">
-        <v>558543</v>
+        <v>561189</v>
       </c>
       <c r="AK53">
-        <v>497540</v>
+        <v>499491</v>
       </c>
       <c r="AM53">
-        <v>4613</v>
+        <v>4597</v>
       </c>
       <c r="AN53">
-        <v>3409</v>
+        <v>3431</v>
       </c>
       <c r="AO53">
-        <v>118.93</v>
+        <v>119.45</v>
       </c>
       <c r="AP53">
-        <v>62.9</v>
+        <v>63.2</v>
       </c>
       <c r="AQ53">
-        <v>56.03</v>
+        <v>56.25</v>
       </c>
       <c r="AS53">
-        <v>3839</v>
+        <v>3864</v>
       </c>
       <c r="AT53">
         <v>40.74</v>
@@ -8639,34 +8642,34 @@
         <v>500</v>
       </c>
       <c r="AH54" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AI54">
-        <v>11090060</v>
+        <v>11136725</v>
       </c>
       <c r="AJ54">
-        <v>5849107</v>
+        <v>5859177</v>
       </c>
       <c r="AK54">
-        <v>5419022</v>
+        <v>5458160</v>
       </c>
       <c r="AM54">
-        <v>43787</v>
+        <v>43939</v>
       </c>
       <c r="AN54">
-        <v>34100</v>
+        <v>34143</v>
       </c>
       <c r="AO54">
-        <v>103.56</v>
+        <v>103.99</v>
       </c>
       <c r="AP54">
-        <v>54.62</v>
+        <v>54.71</v>
       </c>
       <c r="AQ54">
-        <v>50.6</v>
+        <v>50.97</v>
       </c>
       <c r="AS54">
-        <v>3184</v>
+        <v>3188</v>
       </c>
       <c r="AT54">
         <v>37.04</v>
@@ -8782,7 +8785,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AH55" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="AI55">
         <v>86244</v>
@@ -8943,34 +8946,34 @@
         <v>55</v>
       </c>
       <c r="AH56" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AI56">
-        <v>8206273</v>
+        <v>8248309</v>
       </c>
       <c r="AJ56">
-        <v>4348348</v>
+        <v>4353824</v>
       </c>
       <c r="AK56">
-        <v>3904382</v>
+        <v>3940951</v>
       </c>
       <c r="AM56">
-        <v>44765</v>
+        <v>42036</v>
       </c>
       <c r="AN56">
-        <v>59434</v>
+        <v>47085</v>
       </c>
       <c r="AO56">
-        <v>141.68</v>
+        <v>142.4</v>
       </c>
       <c r="AP56">
-        <v>75.06999999999999</v>
+        <v>75.17</v>
       </c>
       <c r="AQ56">
-        <v>67.41</v>
+        <v>68.04000000000001</v>
       </c>
       <c r="AS56">
-        <v>10261</v>
+        <v>8129</v>
       </c>
       <c r="AT56">
         <v>38.89</v>
@@ -9071,28 +9074,28 @@
         <v>1.45</v>
       </c>
       <c r="AI57">
-        <v>53064</v>
+        <v>54229</v>
       </c>
       <c r="AJ57">
-        <v>32548</v>
+        <v>33388</v>
       </c>
       <c r="AK57">
-        <v>20516</v>
+        <v>20841</v>
       </c>
       <c r="AN57">
-        <v>365</v>
+        <v>166</v>
       </c>
       <c r="AO57">
-        <v>5.37</v>
+        <v>5.49</v>
       </c>
       <c r="AP57">
-        <v>3.29</v>
+        <v>3.38</v>
       </c>
       <c r="AQ57">
-        <v>2.08</v>
+        <v>2.11</v>
       </c>
       <c r="AS57">
-        <v>369</v>
+        <v>168</v>
       </c>
       <c r="AU57">
         <v>988002</v>
@@ -9300,34 +9303,34 @@
         <v>14.9</v>
       </c>
       <c r="AH59" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="AI59">
-        <v>10697563</v>
+        <v>10743683</v>
       </c>
       <c r="AJ59">
-        <v>5683833</v>
+        <v>5696721</v>
       </c>
       <c r="AK59">
-        <v>4480873</v>
+        <v>4501030</v>
       </c>
       <c r="AM59">
-        <v>39245</v>
+        <v>46120</v>
       </c>
       <c r="AN59">
-        <v>20506</v>
+        <v>23173</v>
       </c>
       <c r="AO59">
-        <v>98.61</v>
+        <v>99.04000000000001</v>
       </c>
       <c r="AP59">
-        <v>52.4</v>
+        <v>52.51</v>
       </c>
       <c r="AQ59">
-        <v>41.31</v>
+        <v>41.49</v>
       </c>
       <c r="AS59">
-        <v>1890</v>
+        <v>2136</v>
       </c>
       <c r="AT59">
         <v>60.19</v>
@@ -9455,7 +9458,7 @@
         <v>6.7</v>
       </c>
       <c r="AH60" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="AI60">
         <v>15516237</v>
@@ -9708,31 +9711,31 @@
         <v>0.99</v>
       </c>
       <c r="AI62">
-        <v>5417193</v>
+        <v>5509567</v>
       </c>
       <c r="AJ62">
-        <v>3306114</v>
+        <v>3324137</v>
       </c>
       <c r="AK62">
-        <v>2111079</v>
+        <v>2185430</v>
       </c>
       <c r="AM62">
-        <v>89742</v>
+        <v>92374</v>
       </c>
       <c r="AN62">
-        <v>66600</v>
+        <v>66227</v>
       </c>
       <c r="AO62">
-        <v>83.52</v>
+        <v>84.94</v>
       </c>
       <c r="AP62">
-        <v>50.97</v>
+        <v>51.25</v>
       </c>
       <c r="AQ62">
-        <v>32.55</v>
+        <v>33.69</v>
       </c>
       <c r="AS62">
-        <v>10268</v>
+        <v>10210</v>
       </c>
       <c r="AT62">
         <v>32.41</v>
@@ -9860,31 +9863,31 @@
         <v>115.7</v>
       </c>
       <c r="AH63" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AI63">
-        <v>325449</v>
+        <v>329229</v>
       </c>
       <c r="AJ63">
-        <v>187837</v>
+        <v>189524</v>
       </c>
       <c r="AK63">
-        <v>137612</v>
+        <v>139705</v>
       </c>
       <c r="AN63">
-        <v>1128</v>
+        <v>1202</v>
       </c>
       <c r="AO63">
-        <v>23.2</v>
+        <v>23.47</v>
       </c>
       <c r="AP63">
-        <v>13.39</v>
+        <v>13.51</v>
       </c>
       <c r="AQ63">
-        <v>9.81</v>
+        <v>9.960000000000001</v>
       </c>
       <c r="AS63">
-        <v>804</v>
+        <v>857</v>
       </c>
       <c r="AU63">
         <v>1402985</v>
@@ -10119,34 +10122,34 @@
         <v>19.1</v>
       </c>
       <c r="AH65" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AI65">
-        <v>1224290</v>
+        <v>1230051</v>
       </c>
       <c r="AJ65">
-        <v>700717</v>
+        <v>703975</v>
       </c>
       <c r="AK65">
-        <v>523573</v>
+        <v>526076</v>
       </c>
       <c r="AM65">
-        <v>5290</v>
+        <v>5785</v>
       </c>
       <c r="AN65">
-        <v>4892</v>
+        <v>4902</v>
       </c>
       <c r="AO65">
-        <v>92.29000000000001</v>
+        <v>92.73</v>
       </c>
       <c r="AP65">
-        <v>52.82</v>
+        <v>53.07</v>
       </c>
       <c r="AQ65">
-        <v>39.47</v>
+        <v>39.66</v>
       </c>
       <c r="AS65">
-        <v>3688</v>
+        <v>3695</v>
       </c>
       <c r="AU65">
         <v>1326539</v>
@@ -10393,7 +10396,7 @@
         <v>8.300000000000001</v>
       </c>
       <c r="AH67" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AI67">
         <v>2326531</v>
@@ -10512,31 +10515,31 @@
         <v>1.751</v>
       </c>
       <c r="AI68">
-        <v>709975712</v>
+        <v>713528970</v>
       </c>
       <c r="AJ68">
-        <v>389872058</v>
+        <v>391296151</v>
       </c>
       <c r="AK68">
-        <v>334143224</v>
+        <v>336362405</v>
       </c>
       <c r="AM68">
-        <v>1605008</v>
+        <v>1789539</v>
       </c>
       <c r="AN68">
-        <v>3054507</v>
+        <v>3044344</v>
       </c>
       <c r="AO68">
-        <v>94.83</v>
+        <v>95.3</v>
       </c>
       <c r="AP68">
-        <v>52.07</v>
+        <v>52.26</v>
       </c>
       <c r="AQ68">
-        <v>44.63</v>
+        <v>44.93</v>
       </c>
       <c r="AS68">
-        <v>4080</v>
+        <v>4066</v>
       </c>
       <c r="AU68">
         <v>748680069</v>
@@ -10589,31 +10592,31 @@
         <v>0.745</v>
       </c>
       <c r="AI69">
-        <v>509005826</v>
+        <v>511347715</v>
       </c>
       <c r="AJ69">
-        <v>279647621</v>
+        <v>280591178</v>
       </c>
       <c r="AK69">
-        <v>243609797</v>
+        <v>245112323</v>
       </c>
       <c r="AM69">
-        <v>1041763</v>
+        <v>1028931</v>
       </c>
       <c r="AN69">
-        <v>1736875</v>
+        <v>1724142</v>
       </c>
       <c r="AO69">
-        <v>114.4</v>
+        <v>114.93</v>
       </c>
       <c r="AP69">
-        <v>62.85</v>
+        <v>63.07</v>
       </c>
       <c r="AQ69">
-        <v>54.75</v>
+        <v>55.09</v>
       </c>
       <c r="AS69">
-        <v>3904</v>
+        <v>3875</v>
       </c>
       <c r="AU69">
         <v>444919060</v>
@@ -10630,34 +10633,34 @@
         <v>356</v>
       </c>
       <c r="D70" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="AI70">
-        <v>69722</v>
+        <v>69950</v>
       </c>
       <c r="AJ70">
-        <v>36181</v>
+        <v>36266</v>
       </c>
       <c r="AK70">
-        <v>33541</v>
+        <v>33684</v>
       </c>
       <c r="AM70">
-        <v>124</v>
+        <v>228</v>
       </c>
       <c r="AN70">
-        <v>190</v>
+        <v>158</v>
       </c>
       <c r="AO70">
-        <v>142.68</v>
+        <v>143.15</v>
       </c>
       <c r="AP70">
-        <v>74.04000000000001</v>
+        <v>74.22</v>
       </c>
       <c r="AQ70">
-        <v>68.64</v>
+        <v>68.93000000000001</v>
       </c>
       <c r="AS70">
-        <v>3888</v>
+        <v>3233</v>
       </c>
       <c r="AU70">
         <v>48865</v>
@@ -10880,34 +10883,34 @@
         <v>24.4</v>
       </c>
       <c r="AH72" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AI72">
-        <v>6299839</v>
+        <v>6354388</v>
       </c>
       <c r="AJ72">
-        <v>3876306</v>
+        <v>3892948</v>
       </c>
       <c r="AK72">
-        <v>2423533</v>
+        <v>2461440</v>
       </c>
       <c r="AM72">
-        <v>52606</v>
+        <v>54549</v>
       </c>
       <c r="AN72">
-        <v>35684</v>
+        <v>38767</v>
       </c>
       <c r="AO72">
-        <v>113.7</v>
+        <v>114.69</v>
       </c>
       <c r="AP72">
-        <v>69.95999999999999</v>
+        <v>70.26000000000001</v>
       </c>
       <c r="AQ72">
-        <v>43.74</v>
+        <v>44.42</v>
       </c>
       <c r="AS72">
-        <v>6440</v>
+        <v>6997</v>
       </c>
       <c r="AT72">
         <v>43.98</v>
@@ -11047,34 +11050,34 @@
         <v>28.6</v>
       </c>
       <c r="AH73" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="AI73">
-        <v>81862129</v>
+        <v>82393710</v>
       </c>
       <c r="AJ73">
-        <v>46635460</v>
+        <v>46842436</v>
       </c>
       <c r="AK73">
-        <v>36190813</v>
+        <v>36520482</v>
       </c>
       <c r="AM73">
-        <v>544012</v>
+        <v>515906</v>
       </c>
       <c r="AN73">
-        <v>436449</v>
+        <v>434558</v>
       </c>
       <c r="AO73">
-        <v>121.16</v>
+        <v>121.95</v>
       </c>
       <c r="AP73">
-        <v>69.02</v>
+        <v>69.33</v>
       </c>
       <c r="AQ73">
-        <v>53.57</v>
+        <v>54.05</v>
       </c>
       <c r="AS73">
-        <v>6460</v>
+        <v>6432</v>
       </c>
       <c r="AT73">
         <v>66.2</v>
@@ -11255,7 +11258,7 @@
         <v>198.7</v>
       </c>
       <c r="AH75" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="AI75">
         <v>120627</v>
@@ -11523,7 +11526,7 @@
         <v>10.5</v>
       </c>
       <c r="AH77" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AI77">
         <v>883570</v>
@@ -11678,34 +11681,34 @@
         <v>25.6</v>
       </c>
       <c r="AH78" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AI78">
-        <v>98706065</v>
+        <v>99042466</v>
       </c>
       <c r="AJ78">
-        <v>52944132</v>
+        <v>53066487</v>
       </c>
       <c r="AK78">
-        <v>48419275</v>
+        <v>48652173</v>
       </c>
       <c r="AM78">
-        <v>403234</v>
+        <v>309641</v>
       </c>
       <c r="AN78">
-        <v>315215</v>
+        <v>295537</v>
       </c>
       <c r="AO78">
-        <v>117.81</v>
+        <v>118.21</v>
       </c>
       <c r="AP78">
-        <v>63.19</v>
+        <v>63.34</v>
       </c>
       <c r="AQ78">
-        <v>57.79</v>
+        <v>58.07</v>
       </c>
       <c r="AS78">
-        <v>3762</v>
+        <v>3527</v>
       </c>
       <c r="AT78">
         <v>62.04</v>
@@ -11984,34 +11987,34 @@
         <v>28.4</v>
       </c>
       <c r="AH81" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="AI81">
-        <v>11076656</v>
+        <v>11101460</v>
       </c>
       <c r="AJ81">
-        <v>5872951</v>
+        <v>5883293</v>
       </c>
       <c r="AK81">
-        <v>5563987</v>
+        <v>5579852</v>
       </c>
       <c r="AM81">
-        <v>29081</v>
+        <v>24804</v>
       </c>
       <c r="AN81">
-        <v>24337</v>
+        <v>23561</v>
       </c>
       <c r="AO81">
-        <v>106.27</v>
+        <v>106.51</v>
       </c>
       <c r="AP81">
-        <v>56.35</v>
+        <v>56.44</v>
       </c>
       <c r="AQ81">
-        <v>53.38</v>
+        <v>53.53</v>
       </c>
       <c r="AS81">
-        <v>2335</v>
+        <v>2260</v>
       </c>
       <c r="AT81">
         <v>48.61</v>
@@ -12070,34 +12073,34 @@
         <v>368</v>
       </c>
       <c r="D82" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="AI82">
-        <v>68767</v>
+        <v>69605</v>
       </c>
       <c r="AJ82">
-        <v>38755</v>
+        <v>38984</v>
       </c>
       <c r="AK82">
-        <v>30012</v>
+        <v>30621</v>
       </c>
       <c r="AM82">
         <v>46</v>
       </c>
       <c r="AN82">
-        <v>482</v>
+        <v>363</v>
       </c>
       <c r="AO82">
-        <v>121.13</v>
+        <v>122.6</v>
       </c>
       <c r="AP82">
-        <v>68.26000000000001</v>
+        <v>68.67</v>
       </c>
       <c r="AQ82">
-        <v>52.86</v>
+        <v>53.94</v>
       </c>
       <c r="AS82">
-        <v>8490</v>
+        <v>6394</v>
       </c>
       <c r="AU82">
         <v>56772</v>
@@ -12302,34 +12305,34 @@
         <v>3</v>
       </c>
       <c r="AH84" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="AI84">
-        <v>3423977</v>
+        <v>3528413</v>
       </c>
       <c r="AJ84">
-        <v>2809079</v>
+        <v>2859182</v>
       </c>
       <c r="AK84">
-        <v>614898</v>
+        <v>669231</v>
       </c>
       <c r="AM84">
-        <v>108158</v>
+        <v>104436</v>
       </c>
       <c r="AN84">
-        <v>79527</v>
+        <v>80224</v>
       </c>
       <c r="AO84">
-        <v>19.11</v>
+        <v>19.69</v>
       </c>
       <c r="AP84">
-        <v>15.68</v>
+        <v>15.96</v>
       </c>
       <c r="AQ84">
-        <v>3.43</v>
+        <v>3.74</v>
       </c>
       <c r="AS84">
-        <v>4439</v>
+        <v>4478</v>
       </c>
       <c r="AT84">
         <v>52.78</v>
@@ -12385,7 +12388,7 @@
         <v>371</v>
       </c>
       <c r="D85" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AI85">
         <v>97600</v>
@@ -13072,34 +13075,34 @@
         <v>16666.7</v>
       </c>
       <c r="AH91" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AI91">
-        <v>6821454</v>
+        <v>6881098</v>
       </c>
       <c r="AJ91">
-        <v>3829807</v>
+        <v>3858537</v>
       </c>
       <c r="AK91">
-        <v>2991647</v>
+        <v>3022561</v>
       </c>
       <c r="AM91">
-        <v>59907</v>
+        <v>59537</v>
       </c>
       <c r="AN91">
-        <v>62900</v>
+        <v>61993</v>
       </c>
       <c r="AO91">
-        <v>90.98999999999999</v>
+        <v>91.78</v>
       </c>
       <c r="AP91">
-        <v>51.08</v>
+        <v>51.47</v>
       </c>
       <c r="AQ91">
-        <v>39.9</v>
+        <v>40.32</v>
       </c>
       <c r="AS91">
-        <v>8390</v>
+        <v>8269</v>
       </c>
       <c r="AT91">
         <v>62.96</v>
@@ -13215,7 +13218,7 @@
         <v>101.5</v>
       </c>
       <c r="AH92" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AI92">
         <v>10555046</v>
@@ -13370,7 +13373,7 @@
         <v>8.818</v>
       </c>
       <c r="AH93" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AI93">
         <v>477205</v>
@@ -13519,34 +13522,34 @@
         <v>51.6</v>
       </c>
       <c r="AH94" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="AI94">
-        <v>562151515</v>
+        <v>566595708</v>
       </c>
       <c r="AJ94">
-        <v>437698591</v>
+        <v>441116044</v>
       </c>
       <c r="AK94">
-        <v>124452924</v>
+        <v>125479664</v>
       </c>
       <c r="AM94">
-        <v>5631199</v>
+        <v>4444193</v>
       </c>
       <c r="AN94">
-        <v>5497214</v>
+        <v>5237892</v>
       </c>
       <c r="AO94">
-        <v>40.74</v>
+        <v>41.06</v>
       </c>
       <c r="AP94">
-        <v>31.72</v>
+        <v>31.96</v>
       </c>
       <c r="AQ94">
-        <v>9.02</v>
+        <v>9.09</v>
       </c>
       <c r="AS94">
-        <v>3983</v>
+        <v>3796</v>
       </c>
       <c r="AT94">
         <v>74.54000000000001</v>
@@ -13674,34 +13677,34 @@
         <v>4.6</v>
       </c>
       <c r="AH95" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="AI95">
-        <v>84595839</v>
+        <v>86414456</v>
       </c>
       <c r="AJ95">
-        <v>55192494</v>
+        <v>56045931</v>
       </c>
       <c r="AK95">
-        <v>29403345</v>
+        <v>30368525</v>
       </c>
       <c r="AM95">
-        <v>454240</v>
+        <v>1818617</v>
       </c>
       <c r="AN95">
-        <v>919071</v>
+        <v>1051464</v>
       </c>
       <c r="AO95">
-        <v>30.93</v>
+        <v>31.59</v>
       </c>
       <c r="AP95">
-        <v>20.18</v>
+        <v>20.49</v>
       </c>
       <c r="AQ95">
-        <v>10.75</v>
+        <v>11.1</v>
       </c>
       <c r="AS95">
-        <v>3360</v>
+        <v>3844</v>
       </c>
       <c r="AT95">
         <v>68.98</v>
@@ -13858,7 +13861,7 @@
         <v>2.5</v>
       </c>
       <c r="AH97" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AI97">
         <v>19894523</v>
@@ -14004,7 +14007,7 @@
         <v>4.5</v>
       </c>
       <c r="AH98" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="AI98">
         <v>2102550</v>
@@ -14135,31 +14138,31 @@
         <v>32.028</v>
       </c>
       <c r="AI99">
-        <v>6456918</v>
+        <v>6499009</v>
       </c>
       <c r="AJ99">
-        <v>3543634</v>
+        <v>3559460</v>
       </c>
       <c r="AK99">
-        <v>3141316</v>
+        <v>3168178</v>
       </c>
       <c r="AM99">
-        <v>20935</v>
+        <v>42091</v>
       </c>
       <c r="AN99">
-        <v>37835</v>
+        <v>37382</v>
       </c>
       <c r="AO99">
-        <v>130.77</v>
+        <v>131.62</v>
       </c>
       <c r="AP99">
-        <v>71.77</v>
+        <v>72.09</v>
       </c>
       <c r="AQ99">
-        <v>63.62</v>
+        <v>64.16</v>
       </c>
       <c r="AS99">
-        <v>7662</v>
+        <v>7571</v>
       </c>
       <c r="AT99">
         <v>48.15</v>
@@ -14358,40 +14361,40 @@
         <v>20.7</v>
       </c>
       <c r="AH101" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AI101">
-        <v>12503731</v>
+        <v>12584839</v>
       </c>
       <c r="AJ101">
-        <v>5871448</v>
+        <v>5881685</v>
       </c>
       <c r="AK101">
-        <v>5431121</v>
+        <v>5436366</v>
       </c>
       <c r="AL101">
-        <v>1201162</v>
+        <v>1266788</v>
       </c>
       <c r="AM101">
-        <v>81332</v>
+        <v>80283</v>
       </c>
       <c r="AN101">
-        <v>78825</v>
+        <v>80467</v>
       </c>
       <c r="AO101">
-        <v>144.46</v>
+        <v>145.4</v>
       </c>
       <c r="AP101">
-        <v>67.83</v>
+        <v>67.95</v>
       </c>
       <c r="AQ101">
-        <v>62.75</v>
+        <v>62.81</v>
       </c>
       <c r="AR101">
-        <v>13.88</v>
+        <v>14.64</v>
       </c>
       <c r="AS101">
-        <v>9107</v>
+        <v>9297</v>
       </c>
       <c r="AT101">
         <v>52.78</v>
@@ -14534,34 +14537,34 @@
         <v>32.4</v>
       </c>
       <c r="AH102" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AI102">
-        <v>74556087</v>
+        <v>74804729</v>
       </c>
       <c r="AJ102">
-        <v>41104041</v>
+        <v>41235476</v>
       </c>
       <c r="AK102">
-        <v>34857420</v>
+        <v>34977882</v>
       </c>
       <c r="AM102">
-        <v>251437</v>
+        <v>234338</v>
       </c>
       <c r="AN102">
-        <v>220210</v>
+        <v>206448</v>
       </c>
       <c r="AO102">
-        <v>123.31</v>
+        <v>123.72</v>
       </c>
       <c r="AP102">
-        <v>67.98</v>
+        <v>68.2</v>
       </c>
       <c r="AQ102">
-        <v>57.65</v>
+        <v>57.85</v>
       </c>
       <c r="AS102">
-        <v>3642</v>
+        <v>3415</v>
       </c>
       <c r="AT102">
         <v>50</v>
@@ -14686,7 +14689,7 @@
         <v>3.5</v>
       </c>
       <c r="AH103" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="AI103">
         <v>391076</v>
@@ -14835,34 +14838,34 @@
         <v>6.3</v>
       </c>
       <c r="AH104" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="AI104">
-        <v>114664353</v>
+        <v>115739998</v>
       </c>
       <c r="AJ104">
-        <v>64673876</v>
+        <v>65212896</v>
       </c>
       <c r="AK104">
-        <v>49990477</v>
+        <v>50527102</v>
       </c>
       <c r="AM104">
-        <v>1312843</v>
+        <v>1075645</v>
       </c>
       <c r="AN104">
-        <v>1083255</v>
+        <v>1080071</v>
       </c>
       <c r="AO104">
-        <v>90.66</v>
+        <v>91.51000000000001</v>
       </c>
       <c r="AP104">
-        <v>51.14</v>
+        <v>51.56</v>
       </c>
       <c r="AQ104">
-        <v>39.53</v>
+        <v>39.95</v>
       </c>
       <c r="AS104">
-        <v>8565</v>
+        <v>8540</v>
       </c>
       <c r="AT104">
         <v>50.46</v>
@@ -14921,28 +14924,28 @@
         <v>514</v>
       </c>
       <c r="AI105">
-        <v>145657</v>
+        <v>146439</v>
       </c>
       <c r="AJ105">
-        <v>75249</v>
+        <v>75506</v>
       </c>
       <c r="AK105">
-        <v>70408</v>
+        <v>70933</v>
       </c>
       <c r="AN105">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AO105">
-        <v>144.11</v>
+        <v>144.88</v>
       </c>
       <c r="AP105">
-        <v>74.45</v>
+        <v>74.7</v>
       </c>
       <c r="AQ105">
-        <v>69.66</v>
+        <v>70.18000000000001</v>
       </c>
       <c r="AS105">
-        <v>2167</v>
+        <v>2177</v>
       </c>
       <c r="AU105">
         <v>101073</v>
@@ -15025,34 +15028,34 @@
         <v>25.3</v>
       </c>
       <c r="AH106" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AI106">
-        <v>5953209</v>
+        <v>5999613</v>
       </c>
       <c r="AJ106">
-        <v>3306810</v>
+        <v>3318184</v>
       </c>
       <c r="AK106">
-        <v>2646399</v>
+        <v>2681429</v>
       </c>
       <c r="AM106">
-        <v>56137</v>
+        <v>46404</v>
       </c>
       <c r="AN106">
-        <v>38390</v>
+        <v>44458</v>
       </c>
       <c r="AO106">
-        <v>58.35</v>
+        <v>58.8</v>
       </c>
       <c r="AP106">
-        <v>32.41</v>
+        <v>32.52</v>
       </c>
       <c r="AQ106">
-        <v>25.94</v>
+        <v>26.28</v>
       </c>
       <c r="AS106">
-        <v>3763</v>
+        <v>4357</v>
       </c>
       <c r="AU106">
         <v>10203140</v>
@@ -15144,31 +15147,31 @@
         <v>1.02</v>
       </c>
       <c r="AI107">
-        <v>11003032</v>
+        <v>11096951</v>
       </c>
       <c r="AJ107">
-        <v>6183445</v>
+        <v>6229329</v>
       </c>
       <c r="AK107">
-        <v>4819587</v>
+        <v>4867622</v>
       </c>
       <c r="AM107">
-        <v>94448</v>
+        <v>93919</v>
       </c>
       <c r="AN107">
-        <v>88336</v>
+        <v>84797</v>
       </c>
       <c r="AO107">
-        <v>58.6</v>
+        <v>59.1</v>
       </c>
       <c r="AP107">
-        <v>32.93</v>
+        <v>33.18</v>
       </c>
       <c r="AQ107">
-        <v>25.67</v>
+        <v>25.92</v>
       </c>
       <c r="AS107">
-        <v>4705</v>
+        <v>4516</v>
       </c>
       <c r="AT107">
         <v>62.96</v>
@@ -15272,31 +15275,31 @@
         <v>1.14</v>
       </c>
       <c r="AI108">
-        <v>2154825</v>
+        <v>2221704</v>
       </c>
       <c r="AJ108">
-        <v>1393905</v>
+        <v>1454102</v>
       </c>
       <c r="AK108">
-        <v>760920</v>
+        <v>767602</v>
       </c>
       <c r="AM108">
-        <v>20440</v>
+        <v>66879</v>
       </c>
       <c r="AN108">
-        <v>38977</v>
+        <v>42803</v>
       </c>
       <c r="AO108">
-        <v>4.01</v>
+        <v>4.13</v>
       </c>
       <c r="AP108">
-        <v>2.59</v>
+        <v>2.7</v>
       </c>
       <c r="AQ108">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="AS108">
-        <v>725</v>
+        <v>796</v>
       </c>
       <c r="AT108">
         <v>72.22</v>
@@ -15522,7 +15525,7 @@
         <v>7.7</v>
       </c>
       <c r="AH110" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AI110">
         <v>601701</v>
@@ -15644,7 +15647,7 @@
         <v>25.2</v>
       </c>
       <c r="AH111" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AJ111">
         <v>2668082</v>
@@ -15748,31 +15751,31 @@
         <v>0.71</v>
       </c>
       <c r="AI112">
-        <v>932744</v>
+        <v>962420</v>
       </c>
       <c r="AJ112">
-        <v>618384</v>
+        <v>627420</v>
       </c>
       <c r="AK112">
-        <v>312948</v>
+        <v>333428</v>
       </c>
       <c r="AM112">
-        <v>21112</v>
+        <v>29676</v>
       </c>
       <c r="AN112">
-        <v>18113</v>
+        <v>20394</v>
       </c>
       <c r="AO112">
-        <v>14.3</v>
+        <v>14.75</v>
       </c>
       <c r="AP112">
-        <v>9.48</v>
+        <v>9.619999999999999</v>
       </c>
       <c r="AQ112">
-        <v>4.8</v>
+        <v>5.11</v>
       </c>
       <c r="AS112">
-        <v>2776</v>
+        <v>3126</v>
       </c>
       <c r="AT112">
         <v>57.41</v>
@@ -16043,34 +16046,34 @@
         <v>79.09999999999999</v>
       </c>
       <c r="AH114" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AI114">
-        <v>1441508</v>
+        <v>1447307</v>
       </c>
       <c r="AJ114">
-        <v>821688</v>
+        <v>825054</v>
       </c>
       <c r="AK114">
-        <v>728979</v>
+        <v>731869</v>
       </c>
       <c r="AM114">
-        <v>5733</v>
+        <v>4383</v>
       </c>
       <c r="AN114">
-        <v>4609</v>
+        <v>4665</v>
       </c>
       <c r="AO114">
-        <v>76.42</v>
+        <v>76.73</v>
       </c>
       <c r="AP114">
-        <v>43.56</v>
+        <v>43.74</v>
       </c>
       <c r="AQ114">
-        <v>38.65</v>
+        <v>38.8</v>
       </c>
       <c r="AS114">
-        <v>2444</v>
+        <v>2473</v>
       </c>
       <c r="AT114">
         <v>41.67</v>
@@ -16171,31 +16174,31 @@
         <v>1.16</v>
       </c>
       <c r="AI115">
-        <v>2257960</v>
+        <v>2272173</v>
       </c>
       <c r="AJ115">
-        <v>1254059</v>
+        <v>1260869</v>
       </c>
       <c r="AK115">
-        <v>1003901</v>
+        <v>1011304</v>
       </c>
       <c r="AM115">
-        <v>14196</v>
+        <v>14213</v>
       </c>
       <c r="AN115">
-        <v>13189</v>
+        <v>13526</v>
       </c>
       <c r="AO115">
-        <v>33.08</v>
+        <v>33.29</v>
       </c>
       <c r="AP115">
-        <v>18.37</v>
+        <v>18.47</v>
       </c>
       <c r="AQ115">
-        <v>14.71</v>
+        <v>14.82</v>
       </c>
       <c r="AS115">
-        <v>1932</v>
+        <v>1982</v>
       </c>
       <c r="AU115">
         <v>6825442</v>
@@ -16519,7 +16522,7 @@
         <v>1.399</v>
       </c>
       <c r="AH118" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="AI118">
         <v>889957</v>
@@ -16656,34 +16659,34 @@
         <v>14.5</v>
       </c>
       <c r="AH119" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AI119">
-        <v>41498</v>
+        <v>41741</v>
       </c>
       <c r="AJ119">
-        <v>21413</v>
+        <v>21618</v>
       </c>
       <c r="AK119">
-        <v>20355</v>
+        <v>20391</v>
       </c>
       <c r="AM119">
-        <v>285</v>
+        <v>243</v>
       </c>
       <c r="AN119">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="AO119">
-        <v>108.81</v>
+        <v>109.45</v>
       </c>
       <c r="AP119">
-        <v>56.15</v>
+        <v>56.69</v>
       </c>
       <c r="AQ119">
-        <v>53.37</v>
+        <v>53.47</v>
       </c>
       <c r="AS119">
-        <v>5323</v>
+        <v>5061</v>
       </c>
       <c r="AU119">
         <v>38137</v>
@@ -16799,7 +16802,7 @@
         <v>25</v>
       </c>
       <c r="AH120" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AI120">
         <v>2989653</v>
@@ -16966,34 +16969,34 @@
         <v>87.8</v>
       </c>
       <c r="AH121" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AI121">
-        <v>748777</v>
+        <v>749999</v>
       </c>
       <c r="AJ121">
-        <v>400727</v>
+        <v>401351</v>
       </c>
       <c r="AK121">
-        <v>348050</v>
+        <v>348648</v>
       </c>
       <c r="AM121">
-        <v>1462</v>
+        <v>1222</v>
       </c>
       <c r="AN121">
-        <v>1531</v>
+        <v>1394</v>
       </c>
       <c r="AO121">
-        <v>119.62</v>
+        <v>119.81</v>
       </c>
       <c r="AP121">
-        <v>64.02</v>
+        <v>64.12</v>
       </c>
       <c r="AQ121">
-        <v>55.6</v>
+        <v>55.7</v>
       </c>
       <c r="AS121">
-        <v>2446</v>
+        <v>2227</v>
       </c>
       <c r="AT121">
         <v>37.96</v>
@@ -17052,7 +17055,7 @@
         <v>408</v>
       </c>
       <c r="D122" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AI122">
         <v>568863</v>
@@ -17180,7 +17183,7 @@
         <v>33.3</v>
       </c>
       <c r="AH123" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AT123">
         <v>53.7</v>
@@ -17430,34 +17433,34 @@
         <v>7.4</v>
       </c>
       <c r="AH125" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="AI125">
-        <v>29368856</v>
+        <v>29886548</v>
       </c>
       <c r="AJ125">
-        <v>17625760</v>
+        <v>17806570</v>
       </c>
       <c r="AK125">
-        <v>11743096</v>
+        <v>12079978</v>
       </c>
       <c r="AM125">
-        <v>531114</v>
+        <v>517692</v>
       </c>
       <c r="AN125">
-        <v>486648</v>
+        <v>485352</v>
       </c>
       <c r="AO125">
-        <v>90.73999999999999</v>
+        <v>92.34</v>
       </c>
       <c r="AP125">
-        <v>54.46</v>
+        <v>55.02</v>
       </c>
       <c r="AQ125">
-        <v>36.28</v>
+        <v>37.32</v>
       </c>
       <c r="AS125">
-        <v>15036</v>
+        <v>14996</v>
       </c>
       <c r="AU125">
         <v>32365998</v>
@@ -17579,7 +17582,7 @@
         <v>49.6</v>
       </c>
       <c r="AH126" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="AI126">
         <v>653886</v>
@@ -17859,34 +17862,34 @@
         <v>54.9</v>
       </c>
       <c r="AH128" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AI128">
-        <v>787194</v>
+        <v>788292</v>
       </c>
       <c r="AJ128">
-        <v>409095</v>
+        <v>409498</v>
       </c>
       <c r="AK128">
-        <v>406325</v>
+        <v>407154</v>
       </c>
       <c r="AM128">
-        <v>1179</v>
+        <v>1098</v>
       </c>
       <c r="AN128">
-        <v>1180</v>
+        <v>1075</v>
       </c>
       <c r="AO128">
-        <v>178.28</v>
+        <v>178.53</v>
       </c>
       <c r="AP128">
-        <v>92.65000000000001</v>
+        <v>92.73999999999999</v>
       </c>
       <c r="AQ128">
-        <v>92.02</v>
+        <v>92.20999999999999</v>
       </c>
       <c r="AS128">
-        <v>2672</v>
+        <v>2435</v>
       </c>
       <c r="AT128">
         <v>43.52</v>
@@ -18314,34 +18317,34 @@
         <v>2.4</v>
       </c>
       <c r="AH132" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="AI132">
-        <v>78765073</v>
+        <v>79399398</v>
       </c>
       <c r="AJ132">
-        <v>55307523</v>
+        <v>55643238</v>
       </c>
       <c r="AK132">
-        <v>29903441</v>
+        <v>30219721</v>
       </c>
       <c r="AM132">
-        <v>1191607</v>
+        <v>634325</v>
       </c>
       <c r="AN132">
-        <v>825532</v>
+        <v>803950</v>
       </c>
       <c r="AO132">
-        <v>61.09</v>
+        <v>61.58</v>
       </c>
       <c r="AP132">
-        <v>42.9</v>
+        <v>43.16</v>
       </c>
       <c r="AQ132">
-        <v>23.19</v>
+        <v>23.44</v>
       </c>
       <c r="AS132">
-        <v>6403</v>
+        <v>6235</v>
       </c>
       <c r="AT132">
         <v>67.13</v>
@@ -18534,10 +18537,10 @@
         <v>27.8</v>
       </c>
       <c r="AH134" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AI134">
-        <v>1188946</v>
+        <v>1200189</v>
       </c>
       <c r="AJ134">
         <v>573001</v>
@@ -18546,13 +18549,13 @@
         <v>572799</v>
       </c>
       <c r="AM134">
-        <v>15022</v>
+        <v>11243</v>
       </c>
       <c r="AN134">
-        <v>9836</v>
+        <v>10240</v>
       </c>
       <c r="AO134">
-        <v>29.47</v>
+        <v>29.75</v>
       </c>
       <c r="AP134">
         <v>14.2</v>
@@ -18561,7 +18564,7 @@
         <v>14.2</v>
       </c>
       <c r="AS134">
-        <v>2438</v>
+        <v>2538</v>
       </c>
       <c r="AT134">
         <v>51.85</v>
@@ -18760,31 +18763,31 @@
         <v>1.02</v>
       </c>
       <c r="AI136">
-        <v>4254734</v>
+        <v>4261009</v>
       </c>
       <c r="AJ136">
-        <v>2221121</v>
+        <v>2222451</v>
       </c>
       <c r="AK136">
-        <v>2033613</v>
+        <v>2038558</v>
       </c>
       <c r="AM136">
-        <v>4554</v>
+        <v>6275</v>
       </c>
       <c r="AN136">
-        <v>5268</v>
+        <v>5204</v>
       </c>
       <c r="AO136">
-        <v>129.79</v>
+        <v>129.98</v>
       </c>
       <c r="AP136">
-        <v>67.75</v>
+        <v>67.79000000000001</v>
       </c>
       <c r="AQ136">
-        <v>62.03</v>
+        <v>62.18</v>
       </c>
       <c r="AS136">
-        <v>1607</v>
+        <v>1587</v>
       </c>
       <c r="AT136">
         <v>59.26</v>
@@ -18888,31 +18891,31 @@
         <v>1.46</v>
       </c>
       <c r="AI137">
-        <v>364762</v>
+        <v>367434</v>
       </c>
       <c r="AJ137">
-        <v>197605</v>
+        <v>198891</v>
       </c>
       <c r="AK137">
-        <v>167157</v>
+        <v>168543</v>
       </c>
       <c r="AM137">
-        <v>2427</v>
+        <v>2672</v>
       </c>
       <c r="AN137">
-        <v>1937</v>
+        <v>1969</v>
       </c>
       <c r="AO137">
-        <v>58.08</v>
+        <v>58.5</v>
       </c>
       <c r="AP137">
-        <v>31.46</v>
+        <v>31.67</v>
       </c>
       <c r="AQ137">
-        <v>26.61</v>
+        <v>26.84</v>
       </c>
       <c r="AS137">
-        <v>3084</v>
+        <v>3135</v>
       </c>
       <c r="AU137">
         <v>628062</v>
@@ -19078,34 +19081,34 @@
         <v>4.3</v>
       </c>
       <c r="AH139" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="AI139">
-        <v>29303420</v>
+        <v>29856013</v>
       </c>
       <c r="AJ139">
-        <v>16961675</v>
+        <v>17156411</v>
       </c>
       <c r="AK139">
-        <v>12341745</v>
+        <v>12699602</v>
       </c>
       <c r="AM139">
-        <v>582260</v>
+        <v>552593</v>
       </c>
       <c r="AN139">
-        <v>335782</v>
+        <v>360265</v>
       </c>
       <c r="AO139">
-        <v>79.39</v>
+        <v>80.89</v>
       </c>
       <c r="AP139">
-        <v>45.95</v>
+        <v>46.48</v>
       </c>
       <c r="AQ139">
-        <v>33.44</v>
+        <v>34.41</v>
       </c>
       <c r="AS139">
-        <v>9097</v>
+        <v>9760</v>
       </c>
       <c r="AU139">
         <v>36910558</v>
@@ -19227,7 +19230,7 @@
         <v>4.1</v>
       </c>
       <c r="AH140" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="AI140">
         <v>1487560</v>
@@ -19376,7 +19379,7 @@
         <v>3.4</v>
       </c>
       <c r="AH141" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="AT141">
         <v>66.2</v>
@@ -19504,7 +19507,7 @@
         <v>8</v>
       </c>
       <c r="AH142" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="AI142">
         <v>268556</v>
@@ -19656,34 +19659,34 @@
         <v>4.1</v>
       </c>
       <c r="AH143" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AI143">
-        <v>8435662</v>
+        <v>8526673</v>
       </c>
       <c r="AJ143">
-        <v>4785902</v>
+        <v>4817985</v>
       </c>
       <c r="AK143">
-        <v>3649760</v>
+        <v>3708688</v>
       </c>
       <c r="AM143">
-        <v>84133</v>
+        <v>91011</v>
       </c>
       <c r="AN143">
-        <v>139536</v>
+        <v>144415</v>
       </c>
       <c r="AO143">
-        <v>28.95</v>
+        <v>29.26</v>
       </c>
       <c r="AP143">
-        <v>16.43</v>
+        <v>16.54</v>
       </c>
       <c r="AQ143">
-        <v>12.53</v>
+        <v>12.73</v>
       </c>
       <c r="AS143">
-        <v>4789</v>
+        <v>4956</v>
       </c>
       <c r="AT143">
         <v>64.81</v>
@@ -19829,31 +19832,31 @@
         <v>15.9</v>
       </c>
       <c r="AH144" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="AI144">
-        <v>21656612</v>
+        <v>21731346</v>
       </c>
       <c r="AJ144">
-        <v>11905671</v>
+        <v>11925013</v>
       </c>
       <c r="AK144">
-        <v>10532376</v>
+        <v>10589191</v>
       </c>
       <c r="AN144">
-        <v>83080</v>
+        <v>46274</v>
       </c>
       <c r="AO144">
-        <v>126.39</v>
+        <v>126.83</v>
       </c>
       <c r="AP144">
-        <v>69.48</v>
+        <v>69.59</v>
       </c>
       <c r="AQ144">
-        <v>61.47</v>
+        <v>61.8</v>
       </c>
       <c r="AS144">
-        <v>4849</v>
+        <v>2701</v>
       </c>
       <c r="AT144">
         <v>36.11</v>
@@ -20034,7 +20037,7 @@
         <v>1448.5</v>
       </c>
       <c r="AH146" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AI146">
         <v>2610013</v>
@@ -20418,7 +20421,7 @@
         <v>11.4</v>
       </c>
       <c r="AH149" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="AI149">
         <v>3967013</v>
@@ -20566,31 +20569,31 @@
         <v>2.933</v>
       </c>
       <c r="AI151">
-        <v>535103305</v>
+        <v>537219174</v>
       </c>
       <c r="AJ151">
-        <v>308654864</v>
+        <v>309704173</v>
       </c>
       <c r="AK151">
-        <v>237951010</v>
+        <v>238944123</v>
       </c>
       <c r="AM151">
-        <v>934827</v>
+        <v>1269361</v>
       </c>
       <c r="AN151">
-        <v>2146390</v>
+        <v>2101609</v>
       </c>
       <c r="AO151">
-        <v>90.38</v>
+        <v>90.73999999999999</v>
       </c>
       <c r="AP151">
-        <v>52.13</v>
+        <v>52.31</v>
       </c>
       <c r="AQ151">
-        <v>40.19</v>
+        <v>40.36</v>
       </c>
       <c r="AS151">
-        <v>3625</v>
+        <v>3550</v>
       </c>
       <c r="AU151">
         <v>592072204</v>
@@ -20667,34 +20670,34 @@
         <v>9.199999999999999</v>
       </c>
       <c r="AH152" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AI152">
-        <v>1033584</v>
+        <v>1115988</v>
       </c>
       <c r="AJ152">
-        <v>571392</v>
+        <v>624819</v>
       </c>
       <c r="AK152">
-        <v>462192</v>
+        <v>491169</v>
       </c>
       <c r="AM152">
-        <v>16884</v>
+        <v>18133</v>
       </c>
       <c r="AN152">
-        <v>12693</v>
+        <v>14184</v>
       </c>
       <c r="AO152">
-        <v>49.61</v>
+        <v>53.57</v>
       </c>
       <c r="AP152">
-        <v>27.43</v>
+        <v>29.99</v>
       </c>
       <c r="AQ152">
-        <v>22.18</v>
+        <v>23.58</v>
       </c>
       <c r="AS152">
-        <v>6093</v>
+        <v>6808</v>
       </c>
       <c r="AU152">
         <v>2083380</v>
@@ -20744,7 +20747,7 @@
         <v>438</v>
       </c>
       <c r="D153" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="AI153">
         <v>302854</v>
@@ -20866,34 +20869,34 @@
         <v>31.6</v>
       </c>
       <c r="AH154" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="AI154">
-        <v>6071556</v>
+        <v>6187398</v>
       </c>
       <c r="AJ154">
-        <v>3775488</v>
+        <v>3787009</v>
       </c>
       <c r="AK154">
-        <v>2296068</v>
+        <v>2400389</v>
       </c>
       <c r="AM154">
-        <v>44740</v>
+        <v>111085</v>
       </c>
       <c r="AN154">
-        <v>47353</v>
+        <v>49076</v>
       </c>
       <c r="AO154">
-        <v>112</v>
+        <v>114.13</v>
       </c>
       <c r="AP154">
-        <v>69.64</v>
+        <v>69.86</v>
       </c>
       <c r="AQ154">
-        <v>42.35</v>
+        <v>44.28</v>
       </c>
       <c r="AS154">
-        <v>8735</v>
+        <v>9053</v>
       </c>
       <c r="AT154">
         <v>47.22</v>
@@ -20988,31 +20991,31 @@
         <v>0.345</v>
       </c>
       <c r="AI155">
-        <v>20009819</v>
+        <v>20318829</v>
       </c>
       <c r="AJ155">
-        <v>12958157</v>
+        <v>13123522</v>
       </c>
       <c r="AK155">
-        <v>7050472</v>
+        <v>7194117</v>
       </c>
       <c r="AM155">
-        <v>273869</v>
+        <v>309010</v>
       </c>
       <c r="AN155">
-        <v>293917</v>
+        <v>293598</v>
       </c>
       <c r="AO155">
-        <v>46.89</v>
+        <v>47.61</v>
       </c>
       <c r="AP155">
-        <v>30.36</v>
+        <v>30.75</v>
       </c>
       <c r="AQ155">
-        <v>16.52</v>
+        <v>16.86</v>
       </c>
       <c r="AS155">
-        <v>6887</v>
+        <v>6879</v>
       </c>
       <c r="AU155">
         <v>42677809</v>
@@ -21217,7 +21220,7 @@
         <v>13.3</v>
       </c>
       <c r="AH157" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AI157">
         <v>44736977</v>
@@ -21366,7 +21369,7 @@
         <v>17.3</v>
       </c>
       <c r="AH158" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AI158">
         <v>1078213</v>
@@ -21506,7 +21509,7 @@
         <v>11.9</v>
       </c>
       <c r="AH159" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AI159">
         <v>3583003</v>
@@ -21771,22 +21774,31 @@
         <v>10.3</v>
       </c>
       <c r="AH161" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AI161">
-        <v>2227705</v>
-      </c>
-      <c r="AM161">
-        <v>3890</v>
+        <v>3278382</v>
+      </c>
+      <c r="AJ161">
+        <v>2249679</v>
+      </c>
+      <c r="AK161">
+        <v>1028703</v>
       </c>
       <c r="AN161">
-        <v>3291</v>
+        <v>50191</v>
       </c>
       <c r="AO161">
-        <v>31.23</v>
+        <v>45.96</v>
+      </c>
+      <c r="AP161">
+        <v>31.54</v>
+      </c>
+      <c r="AQ161">
+        <v>14.42</v>
       </c>
       <c r="AS161">
-        <v>461</v>
+        <v>7037</v>
       </c>
       <c r="AU161">
         <v>7132530</v>
@@ -21887,31 +21899,31 @@
         <v>0.92</v>
       </c>
       <c r="AI162">
-        <v>16393325</v>
+        <v>16518355</v>
       </c>
       <c r="AJ162">
-        <v>9307189</v>
+        <v>9355138</v>
       </c>
       <c r="AK162">
-        <v>7086136</v>
+        <v>7163217</v>
       </c>
       <c r="AM162">
-        <v>62420</v>
+        <v>58995</v>
       </c>
       <c r="AN162">
-        <v>113518</v>
+        <v>112262</v>
       </c>
       <c r="AO162">
-        <v>49.72</v>
+        <v>50.1</v>
       </c>
       <c r="AP162">
-        <v>28.23</v>
+        <v>28.37</v>
       </c>
       <c r="AQ162">
-        <v>21.49</v>
+        <v>21.73</v>
       </c>
       <c r="AS162">
-        <v>3443</v>
+        <v>3405</v>
       </c>
       <c r="AT162">
         <v>74.06999999999999</v>
@@ -22036,13 +22048,13 @@
         <v>4.5</v>
       </c>
       <c r="AH163" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="AI163">
         <v>29127240</v>
       </c>
       <c r="AJ163">
-        <v>16250043</v>
+        <v>18697647</v>
       </c>
       <c r="AK163">
         <v>12877197</v>
@@ -22057,7 +22069,7 @@
         <v>26.58</v>
       </c>
       <c r="AP163">
-        <v>14.83</v>
+        <v>17.06</v>
       </c>
       <c r="AQ163">
         <v>11.75</v>
@@ -22194,34 +22206,34 @@
         <v>235.1</v>
       </c>
       <c r="AH164" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="AI164">
-        <v>35528975</v>
+        <v>35690920</v>
       </c>
       <c r="AJ164">
-        <v>18890548</v>
+        <v>18974615</v>
       </c>
       <c r="AK164">
-        <v>18244397</v>
+        <v>18358017</v>
       </c>
       <c r="AM164">
-        <v>54486</v>
+        <v>69683</v>
       </c>
       <c r="AN164">
-        <v>59264</v>
+        <v>58530</v>
       </c>
       <c r="AO164">
-        <v>93.88</v>
+        <v>94.3</v>
       </c>
       <c r="AP164">
-        <v>49.91</v>
+        <v>50.14</v>
       </c>
       <c r="AQ164">
-        <v>48.21</v>
+        <v>48.51</v>
       </c>
       <c r="AS164">
-        <v>1566</v>
+        <v>1547</v>
       </c>
       <c r="AT164">
         <v>38.89</v>
@@ -22361,34 +22373,34 @@
         <v>24.7</v>
       </c>
       <c r="AH165" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AI165">
-        <v>13791078</v>
+        <v>13870686</v>
       </c>
       <c r="AJ165">
-        <v>7913736</v>
+        <v>7974602</v>
       </c>
       <c r="AK165">
-        <v>6817892</v>
+        <v>6836634</v>
       </c>
       <c r="AM165">
-        <v>80817</v>
+        <v>79608</v>
       </c>
       <c r="AN165">
-        <v>93585</v>
+        <v>91728</v>
       </c>
       <c r="AO165">
-        <v>135.25</v>
+        <v>136.03</v>
       </c>
       <c r="AP165">
-        <v>77.61</v>
+        <v>78.20999999999999</v>
       </c>
       <c r="AQ165">
-        <v>66.86</v>
+        <v>67.05</v>
       </c>
       <c r="AS165">
-        <v>9178</v>
+        <v>8996</v>
       </c>
       <c r="AT165">
         <v>58.33</v>
@@ -22513,34 +22525,34 @@
         <v>25.5</v>
       </c>
       <c r="AH166" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="AI166">
-        <v>4179382</v>
+        <v>4202478</v>
       </c>
       <c r="AJ166">
-        <v>2244116</v>
+        <v>2256097</v>
       </c>
       <c r="AK166">
-        <v>1935266</v>
+        <v>1946381</v>
       </c>
       <c r="AM166">
-        <v>16591</v>
+        <v>23096</v>
       </c>
       <c r="AN166">
-        <v>20118</v>
+        <v>21380</v>
       </c>
       <c r="AO166">
-        <v>145.06</v>
+        <v>145.87</v>
       </c>
       <c r="AP166">
-        <v>77.89</v>
+        <v>78.31</v>
       </c>
       <c r="AQ166">
-        <v>67.17</v>
+        <v>67.56</v>
       </c>
       <c r="AS166">
-        <v>6983</v>
+        <v>7421</v>
       </c>
       <c r="AU166">
         <v>2881060</v>
@@ -22665,31 +22677,31 @@
         <v>32.1</v>
       </c>
       <c r="AH167" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AI167">
-        <v>9613888</v>
+        <v>9627879</v>
       </c>
       <c r="AJ167">
-        <v>5137362</v>
+        <v>5147200</v>
       </c>
       <c r="AK167">
-        <v>5012813</v>
+        <v>5024147</v>
       </c>
       <c r="AM167">
-        <v>13388</v>
+        <v>13991</v>
       </c>
       <c r="AN167">
-        <v>11839</v>
+        <v>11825</v>
       </c>
       <c r="AO167">
-        <v>49.97</v>
+        <v>50.05</v>
       </c>
       <c r="AP167">
-        <v>26.7</v>
+        <v>26.76</v>
       </c>
       <c r="AQ167">
-        <v>26.06</v>
+        <v>26.12</v>
       </c>
       <c r="AS167">
         <v>615</v>
@@ -22811,34 +22823,34 @@
         <v>20.9</v>
       </c>
       <c r="AH168" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AI168">
-        <v>74425863</v>
+        <v>75043301</v>
       </c>
       <c r="AJ168">
-        <v>41258604</v>
+        <v>41551994</v>
       </c>
       <c r="AK168">
-        <v>33167259</v>
+        <v>33491307</v>
       </c>
       <c r="AM168">
-        <v>425209</v>
+        <v>617438</v>
       </c>
       <c r="AN168">
-        <v>916538</v>
+        <v>914215</v>
       </c>
       <c r="AO168">
-        <v>51</v>
+        <v>51.42</v>
       </c>
       <c r="AP168">
-        <v>28.27</v>
+        <v>28.47</v>
       </c>
       <c r="AQ168">
-        <v>22.73</v>
+        <v>22.95</v>
       </c>
       <c r="AS168">
-        <v>6280</v>
+        <v>6265</v>
       </c>
       <c r="AT168">
         <v>46.76</v>
@@ -22963,31 +22975,31 @@
         <v>21.2</v>
       </c>
       <c r="AH169" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="AI169">
-        <v>1073302</v>
+        <v>1344627</v>
       </c>
       <c r="AJ169">
-        <v>680470</v>
+        <v>951795</v>
       </c>
       <c r="AK169">
         <v>392832</v>
       </c>
       <c r="AN169">
-        <v>12921</v>
+        <v>38761</v>
       </c>
       <c r="AO169">
-        <v>8.289999999999999</v>
+        <v>10.38</v>
       </c>
       <c r="AP169">
-        <v>5.25</v>
+        <v>7.35</v>
       </c>
       <c r="AQ169">
         <v>3.03</v>
       </c>
       <c r="AS169">
-        <v>998</v>
+        <v>2993</v>
       </c>
       <c r="AT169">
         <v>54.63</v>
@@ -23112,7 +23124,7 @@
         <v>24.8</v>
       </c>
       <c r="AH170" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="AI170">
         <v>44124</v>
@@ -23213,31 +23225,31 @@
         <v>1.51</v>
       </c>
       <c r="AI171">
-        <v>60032</v>
+        <v>61015</v>
       </c>
       <c r="AJ171">
-        <v>33702</v>
+        <v>34195</v>
       </c>
       <c r="AK171">
-        <v>26330</v>
+        <v>26820</v>
       </c>
       <c r="AM171">
         <v>218</v>
       </c>
       <c r="AN171">
-        <v>209</v>
+        <v>242</v>
       </c>
       <c r="AO171">
-        <v>32.69</v>
+        <v>33.23</v>
       </c>
       <c r="AP171">
-        <v>18.35</v>
+        <v>18.62</v>
       </c>
       <c r="AQ171">
-        <v>14.34</v>
+        <v>14.61</v>
       </c>
       <c r="AS171">
-        <v>1138</v>
+        <v>1318</v>
       </c>
       <c r="AU171">
         <v>183629</v>
@@ -23537,31 +23549,31 @@
         <v>0.06</v>
       </c>
       <c r="AI174">
-        <v>46069</v>
+        <v>46073</v>
       </c>
       <c r="AJ174">
-        <v>23709</v>
+        <v>23712</v>
       </c>
       <c r="AK174">
-        <v>23709</v>
+        <v>23712</v>
       </c>
       <c r="AM174">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AN174">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="AO174">
-        <v>135.74</v>
+        <v>135.76</v>
       </c>
       <c r="AP174">
-        <v>69.86</v>
+        <v>69.87</v>
       </c>
       <c r="AQ174">
-        <v>69.86</v>
+        <v>69.87</v>
       </c>
       <c r="AS174">
-        <v>501</v>
+        <v>295</v>
       </c>
       <c r="AT174">
         <v>38.89</v>
@@ -23778,34 +23790,34 @@
         <v>77.5</v>
       </c>
       <c r="AH176" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AI176">
-        <v>32940547</v>
+        <v>33271819</v>
       </c>
       <c r="AJ176">
-        <v>21109035</v>
+        <v>21196563</v>
       </c>
       <c r="AK176">
-        <v>11831512</v>
+        <v>12075256</v>
       </c>
       <c r="AM176">
-        <v>328469</v>
+        <v>331272</v>
       </c>
       <c r="AN176">
-        <v>291236</v>
+        <v>284815</v>
       </c>
       <c r="AO176">
-        <v>94.62</v>
+        <v>95.56999999999999</v>
       </c>
       <c r="AP176">
-        <v>60.63</v>
+        <v>60.89</v>
       </c>
       <c r="AQ176">
-        <v>33.99</v>
+        <v>34.69</v>
       </c>
       <c r="AS176">
-        <v>8366</v>
+        <v>8181</v>
       </c>
       <c r="AU176">
         <v>34813867</v>
@@ -23924,7 +23936,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="AH177" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AI177">
         <v>1451106</v>
@@ -24073,34 +24085,34 @@
         <v>11</v>
       </c>
       <c r="AH178" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="AI178">
-        <v>5649434</v>
+        <v>5656592</v>
       </c>
       <c r="AJ178">
-        <v>2881963</v>
+        <v>2884393</v>
       </c>
       <c r="AK178">
-        <v>2766182</v>
+        <v>2768776</v>
       </c>
       <c r="AM178">
-        <v>8814</v>
+        <v>7158</v>
       </c>
       <c r="AN178">
-        <v>6927</v>
+        <v>6752</v>
       </c>
       <c r="AO178">
-        <v>83.02</v>
+        <v>83.13</v>
       </c>
       <c r="AP178">
-        <v>42.35</v>
+        <v>42.39</v>
       </c>
       <c r="AQ178">
-        <v>40.65</v>
+        <v>40.69</v>
       </c>
       <c r="AS178">
-        <v>1018</v>
+        <v>992</v>
       </c>
       <c r="AT178">
         <v>36.11</v>
@@ -24436,7 +24448,7 @@
         <v>655.9</v>
       </c>
       <c r="AH181" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="AI181">
         <v>8547113</v>
@@ -24519,7 +24531,7 @@
         <v>466</v>
       </c>
       <c r="D182" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="AI182">
         <v>47084</v>
@@ -24647,34 +24659,34 @@
         <v>142.9</v>
       </c>
       <c r="AH183" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AI183">
-        <v>4440531</v>
+        <v>4455343</v>
       </c>
       <c r="AJ183">
-        <v>2331722</v>
+        <v>2339231</v>
       </c>
       <c r="AK183">
-        <v>2108809</v>
+        <v>2116112</v>
       </c>
       <c r="AM183">
-        <v>540</v>
+        <v>7495</v>
       </c>
       <c r="AN183">
-        <v>7754</v>
+        <v>8548</v>
       </c>
       <c r="AO183">
-        <v>81.33</v>
+        <v>81.61</v>
       </c>
       <c r="AP183">
-        <v>42.71</v>
+        <v>42.85</v>
       </c>
       <c r="AQ183">
-        <v>38.63</v>
+        <v>38.76</v>
       </c>
       <c r="AS183">
-        <v>1420</v>
+        <v>1566</v>
       </c>
       <c r="AT183">
         <v>43.98</v>
@@ -24823,34 +24835,34 @@
         <v>7.9</v>
       </c>
       <c r="AH184" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AI184">
-        <v>1826160</v>
+        <v>1835638</v>
       </c>
       <c r="AJ184">
-        <v>964120</v>
+        <v>968269</v>
       </c>
       <c r="AK184">
-        <v>862040</v>
+        <v>867369</v>
       </c>
       <c r="AM184">
-        <v>7544</v>
+        <v>8974</v>
       </c>
       <c r="AN184">
-        <v>5434</v>
+        <v>5424</v>
       </c>
       <c r="AO184">
-        <v>87.84</v>
+        <v>88.3</v>
       </c>
       <c r="AP184">
-        <v>46.38</v>
+        <v>46.58</v>
       </c>
       <c r="AQ184">
-        <v>41.47</v>
+        <v>41.72</v>
       </c>
       <c r="AS184">
-        <v>2614</v>
+        <v>2609</v>
       </c>
       <c r="AT184">
         <v>29.63</v>
@@ -25135,31 +25147,31 @@
         <v>1.08</v>
       </c>
       <c r="AI187">
-        <v>9962111</v>
+        <v>10167749</v>
       </c>
       <c r="AJ187">
-        <v>7702298</v>
+        <v>7808653</v>
       </c>
       <c r="AK187">
-        <v>4482893</v>
+        <v>4629371</v>
       </c>
       <c r="AM187">
-        <v>170413</v>
+        <v>205638</v>
       </c>
       <c r="AN187">
-        <v>137633</v>
+        <v>140285</v>
       </c>
       <c r="AO187">
-        <v>16.8</v>
+        <v>17.14</v>
       </c>
       <c r="AP187">
-        <v>12.99</v>
+        <v>13.17</v>
       </c>
       <c r="AQ187">
-        <v>7.56</v>
+        <v>7.81</v>
       </c>
       <c r="AS187">
-        <v>2321</v>
+        <v>2365</v>
       </c>
       <c r="AT187">
         <v>51.85</v>
@@ -25257,37 +25269,37 @@
         <v>3.028</v>
       </c>
       <c r="AI188">
-        <v>314245871</v>
+        <v>322592853</v>
       </c>
       <c r="AJ188">
-        <v>213986387</v>
+        <v>217735361</v>
       </c>
       <c r="AK188">
-        <v>107372960</v>
+        <v>110862753</v>
       </c>
       <c r="AL188">
-        <v>113641</v>
+        <v>851351</v>
       </c>
       <c r="AM188">
-        <v>410008</v>
+        <v>2480349</v>
       </c>
       <c r="AN188">
-        <v>2431950</v>
+        <v>3434658</v>
       </c>
       <c r="AO188">
-        <v>72.95</v>
+        <v>74.89</v>
       </c>
       <c r="AP188">
-        <v>49.68</v>
+        <v>50.55</v>
       </c>
       <c r="AQ188">
-        <v>24.93</v>
+        <v>25.74</v>
       </c>
       <c r="AR188">
-        <v>0.03</v>
+        <v>0.2</v>
       </c>
       <c r="AS188">
-        <v>5646</v>
+        <v>7973</v>
       </c>
       <c r="AU188">
         <v>430759772</v>
@@ -25370,34 +25382,34 @@
         <v>14.1</v>
       </c>
       <c r="AH189" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="AI189">
-        <v>33988671</v>
+        <v>34788642</v>
       </c>
       <c r="AJ189">
-        <v>24306127</v>
+        <v>24812397</v>
       </c>
       <c r="AK189">
-        <v>10812327</v>
+        <v>11106027</v>
       </c>
       <c r="AM189">
-        <v>837422</v>
+        <v>793275</v>
       </c>
       <c r="AN189">
-        <v>724661</v>
+        <v>713820</v>
       </c>
       <c r="AO189">
-        <v>66.29000000000001</v>
+        <v>67.84999999999999</v>
       </c>
       <c r="AP189">
-        <v>47.41</v>
+        <v>48.4</v>
       </c>
       <c r="AQ189">
-        <v>21.09</v>
+        <v>21.66</v>
       </c>
       <c r="AS189">
-        <v>14134</v>
+        <v>13923</v>
       </c>
       <c r="AT189">
         <v>50.93</v>
@@ -25593,31 +25605,31 @@
         <v>28.057</v>
       </c>
       <c r="AI191">
-        <v>62193144</v>
+        <v>62665513</v>
       </c>
       <c r="AJ191">
-        <v>35072910</v>
+        <v>35269276</v>
       </c>
       <c r="AK191">
-        <v>30261332</v>
+        <v>30565129</v>
       </c>
       <c r="AM191">
-        <v>469973</v>
+        <v>472369</v>
       </c>
       <c r="AN191">
-        <v>323714</v>
+        <v>316534</v>
       </c>
       <c r="AO191">
-        <v>133.02</v>
+        <v>134.03</v>
       </c>
       <c r="AP191">
-        <v>75.01000000000001</v>
+        <v>75.43000000000001</v>
       </c>
       <c r="AQ191">
-        <v>64.72</v>
+        <v>65.37</v>
       </c>
       <c r="AS191">
-        <v>6924</v>
+        <v>6770</v>
       </c>
       <c r="AT191">
         <v>47.69</v>
@@ -25742,7 +25754,7 @@
         <v>5.2</v>
       </c>
       <c r="AH192" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AI192">
         <v>16920027</v>
@@ -25977,31 +25989,31 @@
         <v>1.11</v>
       </c>
       <c r="AI194">
-        <v>285217</v>
+        <v>288230</v>
       </c>
       <c r="AJ194">
-        <v>194371</v>
+        <v>194779</v>
       </c>
       <c r="AK194">
-        <v>90846</v>
+        <v>93451</v>
       </c>
       <c r="AM194">
-        <v>1928</v>
+        <v>3013</v>
       </c>
       <c r="AN194">
-        <v>2650</v>
+        <v>2892</v>
       </c>
       <c r="AO194">
-        <v>48.62</v>
+        <v>49.13</v>
       </c>
       <c r="AP194">
-        <v>33.13</v>
+        <v>33.2</v>
       </c>
       <c r="AQ194">
-        <v>15.49</v>
+        <v>15.93</v>
       </c>
       <c r="AS194">
-        <v>4517</v>
+        <v>4930</v>
       </c>
       <c r="AU194">
         <v>586634</v>
@@ -26135,34 +26147,34 @@
         <v>20.2</v>
       </c>
       <c r="AH195" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AI195">
-        <v>11592541</v>
+        <v>11666296</v>
       </c>
       <c r="AJ195">
-        <v>6589191</v>
+        <v>6598469</v>
       </c>
       <c r="AK195">
-        <v>5003350</v>
+        <v>5067827</v>
       </c>
       <c r="AM195">
-        <v>97337</v>
+        <v>73755</v>
       </c>
       <c r="AN195">
-        <v>55419</v>
+        <v>52363</v>
       </c>
       <c r="AO195">
-        <v>114.79</v>
+        <v>115.52</v>
       </c>
       <c r="AP195">
-        <v>65.23999999999999</v>
+        <v>65.34</v>
       </c>
       <c r="AQ195">
-        <v>49.54</v>
+        <v>50.18</v>
       </c>
       <c r="AS195">
-        <v>5487</v>
+        <v>5185</v>
       </c>
       <c r="AT195">
         <v>37.04</v>
@@ -26305,34 +26317,34 @@
         <v>8.9</v>
       </c>
       <c r="AH196" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AI196">
-        <v>9301770</v>
+        <v>9329591</v>
       </c>
       <c r="AJ196">
-        <v>4807013</v>
+        <v>4820164</v>
       </c>
       <c r="AK196">
-        <v>4323274</v>
+        <v>4337143</v>
       </c>
       <c r="AM196">
-        <v>22937</v>
+        <v>26218</v>
       </c>
       <c r="AN196">
-        <v>18724</v>
+        <v>19132</v>
       </c>
       <c r="AO196">
-        <v>107.48</v>
+        <v>107.8</v>
       </c>
       <c r="AP196">
-        <v>55.54</v>
+        <v>55.69</v>
       </c>
       <c r="AQ196">
-        <v>49.95</v>
+        <v>50.11</v>
       </c>
       <c r="AS196">
-        <v>2163</v>
+        <v>2211</v>
       </c>
       <c r="AT196">
         <v>44.44</v>
@@ -26546,34 +26558,34 @@
         <v>1806.6</v>
       </c>
       <c r="AH198" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="AI198">
-        <v>9985997</v>
+        <v>10014566</v>
       </c>
       <c r="AJ198">
-        <v>9260988</v>
+        <v>9269265</v>
       </c>
       <c r="AK198">
-        <v>725009</v>
+        <v>745301</v>
       </c>
       <c r="AM198">
-        <v>34963</v>
+        <v>28569</v>
       </c>
       <c r="AN198">
-        <v>78966</v>
+        <v>58826</v>
       </c>
       <c r="AO198">
-        <v>41.93</v>
+        <v>42.05</v>
       </c>
       <c r="AP198">
-        <v>38.88</v>
+        <v>38.92</v>
       </c>
       <c r="AQ198">
-        <v>3.04</v>
+        <v>3.13</v>
       </c>
       <c r="AS198">
-        <v>3316</v>
+        <v>2470</v>
       </c>
       <c r="AT198">
         <v>56.48</v>
@@ -27049,7 +27061,7 @@
         <v>5</v>
       </c>
       <c r="AH202" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AI202">
         <v>491569</v>
@@ -27201,7 +27213,7 @@
         <v>10.8</v>
       </c>
       <c r="AH203" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AT203">
         <v>50.93</v>
@@ -27367,34 +27379,34 @@
         <v>6.7</v>
       </c>
       <c r="AH205" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="AI205">
-        <v>800795</v>
+        <v>813470</v>
       </c>
       <c r="AJ205">
-        <v>461528</v>
+        <v>467029</v>
       </c>
       <c r="AK205">
-        <v>339267</v>
+        <v>346441</v>
       </c>
       <c r="AM205">
-        <v>13067</v>
+        <v>12675</v>
       </c>
       <c r="AN205">
-        <v>16122</v>
+        <v>14787</v>
       </c>
       <c r="AO205">
-        <v>57.22</v>
+        <v>58.13</v>
       </c>
       <c r="AP205">
-        <v>32.98</v>
+        <v>33.37</v>
       </c>
       <c r="AQ205">
-        <v>24.24</v>
+        <v>24.75</v>
       </c>
       <c r="AS205">
-        <v>11520</v>
+        <v>10566</v>
       </c>
       <c r="AU205">
         <v>1399491</v>
@@ -27510,7 +27522,7 @@
         <v>5.2</v>
       </c>
       <c r="AH206" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="AI206">
         <v>4782139</v>
@@ -27638,37 +27650,37 @@
         <v>0.87</v>
       </c>
       <c r="AI207">
-        <v>86413722</v>
+        <v>87195574</v>
       </c>
       <c r="AJ207">
-        <v>45025676</v>
+        <v>45304742</v>
       </c>
       <c r="AK207">
-        <v>34128107</v>
+        <v>34446015</v>
       </c>
       <c r="AL207">
-        <v>7195181</v>
+        <v>7444817</v>
       </c>
       <c r="AM207">
-        <v>1409452</v>
+        <v>781852</v>
       </c>
       <c r="AN207">
-        <v>967800</v>
+        <v>822795</v>
       </c>
       <c r="AO207">
-        <v>102.46</v>
+        <v>103.39</v>
       </c>
       <c r="AP207">
-        <v>53.39</v>
+        <v>53.72</v>
       </c>
       <c r="AQ207">
-        <v>40.47</v>
+        <v>40.84</v>
       </c>
       <c r="AR207">
-        <v>8.529999999999999</v>
+        <v>8.83</v>
       </c>
       <c r="AS207">
-        <v>11475</v>
+        <v>9756</v>
       </c>
       <c r="AT207">
         <v>50</v>
@@ -27727,7 +27739,7 @@
         <v>491</v>
       </c>
       <c r="D208" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="AI208">
         <v>49107</v>
@@ -27840,7 +27852,7 @@
         <v>17</v>
       </c>
       <c r="AH209" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="AI209">
         <v>1235052</v>
@@ -27986,34 +27998,34 @@
         <v>13.1</v>
       </c>
       <c r="AH210" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AI210">
-        <v>7823001</v>
+        <v>7952028</v>
       </c>
       <c r="AJ210">
-        <v>4914253</v>
+        <v>4971750</v>
       </c>
       <c r="AK210">
-        <v>2908748</v>
+        <v>2980278</v>
       </c>
       <c r="AM210">
-        <v>120004</v>
+        <v>129027</v>
       </c>
       <c r="AN210">
-        <v>116365</v>
+        <v>111467</v>
       </c>
       <c r="AO210">
-        <v>17.89</v>
+        <v>18.18</v>
       </c>
       <c r="AP210">
-        <v>11.24</v>
+        <v>11.37</v>
       </c>
       <c r="AQ210">
-        <v>6.65</v>
+        <v>6.81</v>
       </c>
       <c r="AS210">
-        <v>2661</v>
+        <v>2549</v>
       </c>
       <c r="AU210">
         <v>43733759</v>
@@ -28135,34 +28147,34 @@
         <v>228.8</v>
       </c>
       <c r="AH211" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AI211">
-        <v>17506683</v>
+        <v>17566410</v>
       </c>
       <c r="AJ211">
-        <v>8218775</v>
+        <v>8258517</v>
       </c>
       <c r="AK211">
-        <v>7259423</v>
+        <v>7279364</v>
       </c>
       <c r="AM211">
-        <v>52433</v>
+        <v>59727</v>
       </c>
       <c r="AN211">
-        <v>37267</v>
+        <v>39727</v>
       </c>
       <c r="AO211">
-        <v>177.01</v>
+        <v>177.61</v>
       </c>
       <c r="AP211">
-        <v>83.09999999999999</v>
+        <v>83.5</v>
       </c>
       <c r="AQ211">
-        <v>73.40000000000001</v>
+        <v>73.59999999999999</v>
       </c>
       <c r="AS211">
-        <v>3768</v>
+        <v>4017</v>
       </c>
       <c r="AT211">
         <v>65.28</v>
@@ -28302,34 +28314,34 @@
         <v>26.3</v>
       </c>
       <c r="AH212" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AI212">
-        <v>88401088</v>
+        <v>88617595</v>
       </c>
       <c r="AJ212">
-        <v>47413242</v>
+        <v>47460526</v>
       </c>
       <c r="AK212">
-        <v>40987846</v>
+        <v>41157069</v>
       </c>
       <c r="AM212">
-        <v>189699</v>
+        <v>216507</v>
       </c>
       <c r="AN212">
-        <v>204568</v>
+        <v>204737</v>
       </c>
       <c r="AO212">
-        <v>130.22</v>
+        <v>130.54</v>
       </c>
       <c r="AP212">
-        <v>69.84</v>
+        <v>69.91</v>
       </c>
       <c r="AQ212">
-        <v>60.38</v>
+        <v>60.63</v>
       </c>
       <c r="AS212">
-        <v>3013</v>
+        <v>3016</v>
       </c>
       <c r="AT212">
         <v>38.43</v>
@@ -28472,34 +28484,34 @@
         <v>7</v>
       </c>
       <c r="AH213" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AI213">
-        <v>358599835</v>
+        <v>359623380</v>
       </c>
       <c r="AJ213">
-        <v>199325940</v>
+        <v>199887548</v>
       </c>
       <c r="AK213">
-        <v>169186268</v>
+        <v>169592873</v>
       </c>
       <c r="AM213">
-        <v>704840</v>
+        <v>1023545</v>
       </c>
       <c r="AN213">
-        <v>770613</v>
+        <v>823355</v>
       </c>
       <c r="AO213">
-        <v>107.22</v>
+        <v>107.53</v>
       </c>
       <c r="AP213">
-        <v>59.6</v>
+        <v>59.77</v>
       </c>
       <c r="AQ213">
-        <v>50.59</v>
+        <v>50.71</v>
       </c>
       <c r="AS213">
-        <v>2304</v>
+        <v>2462</v>
       </c>
       <c r="AT213">
         <v>56.02</v>
@@ -28624,40 +28636,40 @@
         <v>89.40000000000001</v>
       </c>
       <c r="AH214" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AI214">
-        <v>5181600</v>
+        <v>5228992</v>
       </c>
       <c r="AJ214">
-        <v>2637938</v>
+        <v>2636164</v>
       </c>
       <c r="AK214">
-        <v>2430021</v>
+        <v>2442335</v>
       </c>
       <c r="AL214">
-        <v>113641</v>
+        <v>150493</v>
       </c>
       <c r="AM214">
-        <v>57546</v>
+        <v>51969</v>
       </c>
       <c r="AN214">
-        <v>29583</v>
+        <v>33299</v>
       </c>
       <c r="AO214">
-        <v>149.17</v>
+        <v>150.53</v>
       </c>
       <c r="AP214">
-        <v>75.94</v>
+        <v>75.89</v>
       </c>
       <c r="AQ214">
-        <v>69.95</v>
+        <v>70.31</v>
       </c>
       <c r="AR214">
-        <v>3.27</v>
+        <v>4.33</v>
       </c>
       <c r="AS214">
-        <v>8516</v>
+        <v>9586</v>
       </c>
       <c r="AT214">
         <v>55.56</v>
@@ -29162,34 +29174,34 @@
         <v>16.3</v>
       </c>
       <c r="AH219" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="AI219">
-        <v>15518869</v>
+        <v>15922537</v>
       </c>
       <c r="AJ219">
-        <v>14032444</v>
+        <v>14359868</v>
       </c>
       <c r="AK219">
-        <v>1486425</v>
+        <v>1562669</v>
       </c>
       <c r="AM219">
-        <v>247307</v>
+        <v>403668</v>
       </c>
       <c r="AN219">
-        <v>596715</v>
+        <v>546245</v>
       </c>
       <c r="AO219">
-        <v>15.94</v>
+        <v>16.36</v>
       </c>
       <c r="AP219">
-        <v>14.42</v>
+        <v>14.75</v>
       </c>
       <c r="AQ219">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AS219">
-        <v>6130</v>
+        <v>5612</v>
       </c>
       <c r="AT219">
         <v>79.17</v>
@@ -29334,37 +29346,37 @@
         <v>1.04</v>
       </c>
       <c r="AI221">
-        <v>4837763594</v>
+        <v>4876753483</v>
       </c>
       <c r="AJ221">
-        <v>2491590845</v>
+        <v>2507746966</v>
       </c>
       <c r="AK221">
-        <v>1871760226</v>
+        <v>1883453854</v>
       </c>
       <c r="AL221">
-        <v>9387485</v>
+        <v>10440457</v>
       </c>
       <c r="AM221">
-        <v>31166794</v>
+        <v>30097953</v>
       </c>
       <c r="AN221">
-        <v>34946146</v>
+        <v>35871822</v>
       </c>
       <c r="AO221">
-        <v>62.06</v>
+        <v>62.56</v>
       </c>
       <c r="AP221">
-        <v>31.96</v>
+        <v>32.17</v>
       </c>
       <c r="AQ221">
-        <v>24.01</v>
+        <v>24.16</v>
       </c>
       <c r="AR221">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="AS221">
-        <v>4483</v>
+        <v>4602</v>
       </c>
       <c r="AU221">
         <v>7794798729</v>
@@ -29587,34 +29599,34 @@
         <v>16.5</v>
       </c>
       <c r="AH223" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AI223">
-        <v>531885</v>
+        <v>536479</v>
       </c>
       <c r="AJ223">
-        <v>308373</v>
+        <v>308604</v>
       </c>
       <c r="AK223">
-        <v>223512</v>
+        <v>227875</v>
       </c>
       <c r="AM223">
-        <v>4680</v>
+        <v>4594</v>
       </c>
       <c r="AN223">
-        <v>2924</v>
+        <v>2947</v>
       </c>
       <c r="AO223">
-        <v>2.89</v>
+        <v>2.92</v>
       </c>
       <c r="AP223">
         <v>1.68</v>
       </c>
       <c r="AQ223">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="AS223">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AT223">
         <v>50.93</v>
@@ -29742,34 +29754,34 @@
         <v>8.699999999999999</v>
       </c>
       <c r="AH224" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AI224">
-        <v>3542340</v>
+        <v>3620937</v>
       </c>
       <c r="AJ224">
-        <v>2193046</v>
+        <v>2233265</v>
       </c>
       <c r="AK224">
-        <v>1349294</v>
+        <v>1387672</v>
       </c>
       <c r="AM224">
-        <v>91381</v>
+        <v>78597</v>
       </c>
       <c r="AN224">
-        <v>75000</v>
+        <v>61097</v>
       </c>
       <c r="AO224">
-        <v>23.83</v>
+        <v>24.36</v>
       </c>
       <c r="AP224">
-        <v>14.76</v>
+        <v>15.03</v>
       </c>
       <c r="AQ224">
-        <v>9.08</v>
+        <v>9.34</v>
       </c>
       <c r="AS224">
-        <v>5046</v>
+        <v>4111</v>
       </c>
       <c r="AT224">
         <v>73.15000000000001</v>

--- a/public/data/latest/owid-covid-latest.xlsx
+++ b/public/data/latest/owid-covid-latest.xlsx
@@ -3340,22 +3340,22 @@
         <v>0.988</v>
       </c>
       <c r="AI13">
-        <v>3194462231</v>
+        <v>3194490628</v>
       </c>
       <c r="AJ13">
-        <v>1515812394</v>
+        <v>1515829522</v>
       </c>
       <c r="AK13">
-        <v>1158716408</v>
+        <v>1158727672</v>
       </c>
       <c r="AL13">
         <v>9589106</v>
       </c>
       <c r="AM13">
-        <v>23046360</v>
+        <v>23074757</v>
       </c>
       <c r="AN13">
-        <v>25903444</v>
+        <v>25907500</v>
       </c>
       <c r="AO13">
         <v>68.84999999999999</v>
@@ -3370,7 +3370,7 @@
         <v>0.21</v>
       </c>
       <c r="AS13">
-        <v>5583</v>
+        <v>5584</v>
       </c>
       <c r="AU13">
         <v>4639847425</v>
@@ -7141,37 +7141,31 @@
         <v>517</v>
       </c>
       <c r="AI43">
-        <v>27626715</v>
+        <v>26844428</v>
       </c>
       <c r="AJ43">
-        <v>14288449</v>
+        <v>14282882</v>
       </c>
       <c r="AK43">
-        <v>13151703</v>
-      </c>
-      <c r="AL43">
-        <v>700858</v>
+        <v>13074044</v>
       </c>
       <c r="AM43">
-        <v>182333</v>
+        <v>55724</v>
       </c>
       <c r="AN43">
-        <v>137400</v>
+        <v>52896</v>
       </c>
       <c r="AO43">
-        <v>144.52</v>
+        <v>140.43</v>
       </c>
       <c r="AP43">
-        <v>74.75</v>
+        <v>74.72</v>
       </c>
       <c r="AQ43">
-        <v>68.8</v>
-      </c>
-      <c r="AR43">
-        <v>3.67</v>
+        <v>68.39</v>
       </c>
       <c r="AS43">
-        <v>7188</v>
+        <v>2767</v>
       </c>
       <c r="AT43">
         <v>74.06999999999999</v>
@@ -8118,31 +8112,31 @@
         <v>516</v>
       </c>
       <c r="AI50">
-        <v>3191520</v>
+        <v>3200638</v>
       </c>
       <c r="AJ50">
-        <v>1688016</v>
+        <v>1691778</v>
       </c>
       <c r="AK50">
-        <v>1564842</v>
+        <v>1571296</v>
       </c>
       <c r="AM50">
-        <v>8928</v>
+        <v>9118</v>
       </c>
       <c r="AN50">
-        <v>6089</v>
+        <v>6122</v>
       </c>
       <c r="AO50">
-        <v>77.73999999999999</v>
+        <v>77.95999999999999</v>
       </c>
       <c r="AP50">
-        <v>41.12</v>
+        <v>41.21</v>
       </c>
       <c r="AQ50">
-        <v>38.12</v>
+        <v>38.28</v>
       </c>
       <c r="AS50">
-        <v>1483</v>
+        <v>1491</v>
       </c>
       <c r="AT50">
         <v>33.8</v>
@@ -10515,31 +10509,31 @@
         <v>1.751</v>
       </c>
       <c r="AI68">
-        <v>713528970</v>
+        <v>713565891</v>
       </c>
       <c r="AJ68">
-        <v>391296151</v>
+        <v>391311070</v>
       </c>
       <c r="AK68">
-        <v>336362405</v>
+        <v>336385505</v>
       </c>
       <c r="AM68">
-        <v>1789539</v>
+        <v>1825161</v>
       </c>
       <c r="AN68">
-        <v>3044344</v>
+        <v>3049607</v>
       </c>
       <c r="AO68">
-        <v>95.3</v>
+        <v>95.31</v>
       </c>
       <c r="AP68">
-        <v>52.26</v>
+        <v>52.27</v>
       </c>
       <c r="AQ68">
         <v>44.93</v>
       </c>
       <c r="AS68">
-        <v>4066</v>
+        <v>4073</v>
       </c>
       <c r="AU68">
         <v>748680069</v>
@@ -10592,31 +10586,31 @@
         <v>0.745</v>
       </c>
       <c r="AI69">
-        <v>511347715</v>
+        <v>511384636</v>
       </c>
       <c r="AJ69">
-        <v>280591178</v>
+        <v>280606097</v>
       </c>
       <c r="AK69">
-        <v>245112323</v>
+        <v>245135423</v>
       </c>
       <c r="AM69">
-        <v>1028931</v>
+        <v>1064553</v>
       </c>
       <c r="AN69">
-        <v>1724142</v>
+        <v>1729406</v>
       </c>
       <c r="AO69">
-        <v>114.93</v>
+        <v>114.94</v>
       </c>
       <c r="AP69">
         <v>63.07</v>
       </c>
       <c r="AQ69">
-        <v>55.09</v>
+        <v>55.1</v>
       </c>
       <c r="AS69">
-        <v>3875</v>
+        <v>3887</v>
       </c>
       <c r="AU69">
         <v>444919060</v>
@@ -11529,31 +11523,31 @@
         <v>517</v>
       </c>
       <c r="AI77">
-        <v>883570</v>
+        <v>907665</v>
       </c>
       <c r="AJ77">
-        <v>625267</v>
+        <v>640703</v>
       </c>
       <c r="AK77">
-        <v>258303</v>
+        <v>266962</v>
       </c>
       <c r="AM77">
-        <v>23981</v>
+        <v>24095</v>
       </c>
       <c r="AN77">
-        <v>23950</v>
+        <v>23759</v>
       </c>
       <c r="AO77">
-        <v>22.15</v>
+        <v>22.75</v>
       </c>
       <c r="AP77">
-        <v>15.67</v>
+        <v>16.06</v>
       </c>
       <c r="AQ77">
-        <v>6.48</v>
+        <v>6.69</v>
       </c>
       <c r="AS77">
-        <v>6004</v>
+        <v>5956</v>
       </c>
       <c r="AU77">
         <v>3989175</v>
@@ -15751,31 +15745,31 @@
         <v>0.71</v>
       </c>
       <c r="AI112">
-        <v>962420</v>
+        <v>963766</v>
       </c>
       <c r="AJ112">
-        <v>627420</v>
+        <v>627819</v>
       </c>
       <c r="AK112">
-        <v>333428</v>
+        <v>334370</v>
       </c>
       <c r="AM112">
-        <v>29676</v>
+        <v>31022</v>
       </c>
       <c r="AN112">
-        <v>20394</v>
+        <v>20587</v>
       </c>
       <c r="AO112">
-        <v>14.75</v>
+        <v>14.77</v>
       </c>
       <c r="AP112">
         <v>9.619999999999999</v>
       </c>
       <c r="AQ112">
-        <v>5.11</v>
+        <v>5.13</v>
       </c>
       <c r="AS112">
-        <v>3126</v>
+        <v>3155</v>
       </c>
       <c r="AT112">
         <v>57.41</v>
@@ -16174,31 +16168,31 @@
         <v>1.16</v>
       </c>
       <c r="AI115">
-        <v>2272173</v>
+        <v>2275129</v>
       </c>
       <c r="AJ115">
-        <v>1260869</v>
+        <v>1262162</v>
       </c>
       <c r="AK115">
-        <v>1011304</v>
+        <v>1012967</v>
       </c>
       <c r="AM115">
-        <v>14213</v>
+        <v>17169</v>
       </c>
       <c r="AN115">
-        <v>13526</v>
+        <v>13948</v>
       </c>
       <c r="AO115">
-        <v>33.29</v>
+        <v>33.33</v>
       </c>
       <c r="AP115">
-        <v>18.47</v>
+        <v>18.49</v>
       </c>
       <c r="AQ115">
-        <v>14.82</v>
+        <v>14.84</v>
       </c>
       <c r="AS115">
-        <v>1982</v>
+        <v>2044</v>
       </c>
       <c r="AU115">
         <v>6825442</v>
@@ -16805,31 +16799,31 @@
         <v>517</v>
       </c>
       <c r="AI120">
-        <v>2989653</v>
+        <v>3017456</v>
       </c>
       <c r="AJ120">
-        <v>1585632</v>
+        <v>1596789</v>
       </c>
       <c r="AK120">
-        <v>1404021</v>
+        <v>1420667</v>
       </c>
       <c r="AM120">
-        <v>25799</v>
+        <v>26504</v>
       </c>
       <c r="AN120">
-        <v>18443</v>
+        <v>18331</v>
       </c>
       <c r="AO120">
-        <v>109.82</v>
+        <v>110.84</v>
       </c>
       <c r="AP120">
-        <v>58.25</v>
+        <v>58.66</v>
       </c>
       <c r="AQ120">
-        <v>51.57</v>
+        <v>52.19</v>
       </c>
       <c r="AS120">
-        <v>6775</v>
+        <v>6734</v>
       </c>
       <c r="AU120">
         <v>2722291</v>
@@ -25269,37 +25263,37 @@
         <v>3.028</v>
       </c>
       <c r="AI188">
-        <v>322592853</v>
+        <v>321810566</v>
       </c>
       <c r="AJ188">
-        <v>217735361</v>
+        <v>217729794</v>
       </c>
       <c r="AK188">
-        <v>110862753</v>
+        <v>110785094</v>
       </c>
       <c r="AL188">
-        <v>851351</v>
+        <v>150493</v>
       </c>
       <c r="AM188">
         <v>2480349</v>
       </c>
       <c r="AN188">
-        <v>3434658</v>
+        <v>3345796</v>
       </c>
       <c r="AO188">
-        <v>74.89</v>
+        <v>74.70999999999999</v>
       </c>
       <c r="AP188">
         <v>50.55</v>
       </c>
       <c r="AQ188">
-        <v>25.74</v>
+        <v>25.72</v>
       </c>
       <c r="AR188">
-        <v>0.2</v>
+        <v>0.03</v>
       </c>
       <c r="AS188">
-        <v>7973</v>
+        <v>7767</v>
       </c>
       <c r="AU188">
         <v>430759772</v>
@@ -29346,22 +29340,22 @@
         <v>1.04</v>
       </c>
       <c r="AI221">
-        <v>4876753483</v>
+        <v>4876036514</v>
       </c>
       <c r="AJ221">
-        <v>2507746966</v>
+        <v>2507773446</v>
       </c>
       <c r="AK221">
-        <v>1883453854</v>
+        <v>1883410559</v>
       </c>
       <c r="AL221">
-        <v>10440457</v>
+        <v>9739599</v>
       </c>
       <c r="AM221">
-        <v>30097953</v>
+        <v>30161972</v>
       </c>
       <c r="AN221">
-        <v>35871822</v>
+        <v>35792280</v>
       </c>
       <c r="AO221">
         <v>62.56</v>
@@ -29373,10 +29367,10 @@
         <v>24.16</v>
       </c>
       <c r="AR221">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="AS221">
-        <v>4602</v>
+        <v>4592</v>
       </c>
       <c r="AU221">
         <v>7794798729</v>

--- a/public/data/latest/owid-covid-latest.xlsx
+++ b/public/data/latest/owid-covid-latest.xlsx
@@ -7141,31 +7141,37 @@
         <v>517</v>
       </c>
       <c r="AI43">
-        <v>26844428</v>
+        <v>27626715</v>
       </c>
       <c r="AJ43">
-        <v>14282882</v>
+        <v>14288449</v>
       </c>
       <c r="AK43">
-        <v>13074044</v>
+        <v>13151703</v>
+      </c>
+      <c r="AL43">
+        <v>700858</v>
       </c>
       <c r="AM43">
-        <v>55724</v>
+        <v>182333</v>
       </c>
       <c r="AN43">
-        <v>52896</v>
+        <v>137400</v>
       </c>
       <c r="AO43">
-        <v>140.43</v>
+        <v>144.52</v>
       </c>
       <c r="AP43">
-        <v>74.72</v>
+        <v>74.75</v>
       </c>
       <c r="AQ43">
-        <v>68.39</v>
+        <v>68.8</v>
+      </c>
+      <c r="AR43">
+        <v>3.67</v>
       </c>
       <c r="AS43">
-        <v>2767</v>
+        <v>7188</v>
       </c>
       <c r="AT43">
         <v>74.06999999999999</v>
@@ -25263,37 +25269,37 @@
         <v>3.028</v>
       </c>
       <c r="AI188">
-        <v>321810566</v>
+        <v>322592853</v>
       </c>
       <c r="AJ188">
-        <v>217729794</v>
+        <v>217735361</v>
       </c>
       <c r="AK188">
-        <v>110785094</v>
+        <v>110862753</v>
       </c>
       <c r="AL188">
-        <v>150493</v>
+        <v>851351</v>
       </c>
       <c r="AM188">
         <v>2480349</v>
       </c>
       <c r="AN188">
-        <v>3345796</v>
+        <v>3434658</v>
       </c>
       <c r="AO188">
-        <v>74.70999999999999</v>
+        <v>74.89</v>
       </c>
       <c r="AP188">
         <v>50.55</v>
       </c>
       <c r="AQ188">
-        <v>25.72</v>
+        <v>25.74</v>
       </c>
       <c r="AR188">
-        <v>0.03</v>
+        <v>0.2</v>
       </c>
       <c r="AS188">
-        <v>7767</v>
+        <v>7973</v>
       </c>
       <c r="AU188">
         <v>430759772</v>
@@ -29340,25 +29346,25 @@
         <v>1.04</v>
       </c>
       <c r="AI221">
-        <v>4876036514</v>
+        <v>4876818801</v>
       </c>
       <c r="AJ221">
-        <v>2507773446</v>
+        <v>2507779013</v>
       </c>
       <c r="AK221">
-        <v>1883410559</v>
+        <v>1883488218</v>
       </c>
       <c r="AL221">
-        <v>9739599</v>
+        <v>10440457</v>
       </c>
       <c r="AM221">
         <v>30161972</v>
       </c>
       <c r="AN221">
-        <v>35792280</v>
+        <v>35881143</v>
       </c>
       <c r="AO221">
-        <v>62.56</v>
+        <v>62.57</v>
       </c>
       <c r="AP221">
         <v>32.17</v>
@@ -29367,10 +29373,10 @@
         <v>24.16</v>
       </c>
       <c r="AR221">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="AS221">
-        <v>4592</v>
+        <v>4603</v>
       </c>
       <c r="AU221">
         <v>7794798729</v>

--- a/public/data/latest/owid-covid-latest.xlsx
+++ b/public/data/latest/owid-covid-latest.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1053" uniqueCount="520">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1057" uniqueCount="520">
   <si>
     <t>iso_code</t>
   </si>
@@ -2594,22 +2594,22 @@
         <v>0.82</v>
       </c>
       <c r="AA6">
-        <v>206208</v>
+        <v>207446</v>
       </c>
       <c r="AB6">
-        <v>2668.841</v>
+        <v>2684.864</v>
       </c>
       <c r="AD6">
-        <v>210</v>
+        <v>177</v>
       </c>
       <c r="AE6">
-        <v>2.718</v>
+        <v>2.291</v>
       </c>
       <c r="AF6">
-        <v>0.061</v>
+        <v>0.095</v>
       </c>
       <c r="AG6">
-        <v>16.5</v>
+        <v>10.5</v>
       </c>
       <c r="AH6" t="s">
         <v>516</v>
@@ -2980,28 +2980,28 @@
         <v>0.75</v>
       </c>
       <c r="Z10">
-        <v>38213</v>
+        <v>29710</v>
       </c>
       <c r="AA10">
-        <v>12652709</v>
+        <v>12766144</v>
       </c>
       <c r="AB10">
-        <v>279.953</v>
+        <v>282.463</v>
       </c>
       <c r="AC10">
-        <v>0.845</v>
+        <v>0.657</v>
       </c>
       <c r="AD10">
-        <v>34141</v>
+        <v>33888</v>
       </c>
       <c r="AE10">
-        <v>0.755</v>
+        <v>0.75</v>
       </c>
       <c r="AF10">
-        <v>0.098</v>
+        <v>0.08400000000000001</v>
       </c>
       <c r="AG10">
-        <v>10.2</v>
+        <v>11.9</v>
       </c>
       <c r="AH10" t="s">
         <v>517</v>
@@ -3132,28 +3132,28 @@
         <v>1.26</v>
       </c>
       <c r="Z11">
-        <v>6447</v>
+        <v>7514</v>
       </c>
       <c r="AA11">
-        <v>1415538</v>
+        <v>1461464</v>
       </c>
       <c r="AB11">
-        <v>477.7</v>
+        <v>493.199</v>
       </c>
       <c r="AC11">
-        <v>2.176</v>
+        <v>2.536</v>
       </c>
       <c r="AD11">
-        <v>6162</v>
+        <v>6561</v>
       </c>
       <c r="AE11">
-        <v>2.079</v>
+        <v>2.214</v>
       </c>
       <c r="AF11">
-        <v>0.048</v>
+        <v>0.062</v>
       </c>
       <c r="AG11">
-        <v>20.8</v>
+        <v>16.2</v>
       </c>
       <c r="AH11" t="s">
         <v>517</v>
@@ -3429,28 +3429,28 @@
         <v>1.43</v>
       </c>
       <c r="Z14">
-        <v>243020</v>
+        <v>206177</v>
       </c>
       <c r="AA14">
-        <v>28177587</v>
+        <v>28776897</v>
       </c>
       <c r="AB14">
-        <v>1105.009</v>
+        <v>1128.511</v>
       </c>
       <c r="AC14">
-        <v>9.529999999999999</v>
+        <v>8.085000000000001</v>
       </c>
       <c r="AD14">
-        <v>203730</v>
+        <v>202250</v>
       </c>
       <c r="AE14">
-        <v>7.989</v>
+        <v>7.931</v>
       </c>
       <c r="AF14">
-        <v>0.002</v>
+        <v>0.003</v>
       </c>
       <c r="AG14">
-        <v>464.5</v>
+        <v>348.4</v>
       </c>
       <c r="AH14" t="s">
         <v>517</v>
@@ -3593,28 +3593,28 @@
         <v>20.208</v>
       </c>
       <c r="Z15">
-        <v>395705</v>
+        <v>269632</v>
       </c>
       <c r="AA15">
-        <v>71577449</v>
+        <v>72424887</v>
       </c>
       <c r="AB15">
-        <v>7947.398</v>
+        <v>8041.491</v>
       </c>
       <c r="AC15">
-        <v>43.936</v>
+        <v>29.938</v>
       </c>
       <c r="AD15">
-        <v>327749</v>
+        <v>330898</v>
       </c>
       <c r="AE15">
-        <v>36.391</v>
+        <v>36.74</v>
       </c>
       <c r="AF15">
-        <v>0.002</v>
+        <v>0.003</v>
       </c>
       <c r="AG15">
-        <v>406.1</v>
+        <v>353.2</v>
       </c>
       <c r="AH15" t="s">
         <v>517</v>
@@ -3745,28 +3745,28 @@
         <v>1.72</v>
       </c>
       <c r="Z16">
-        <v>13945</v>
+        <v>32747</v>
       </c>
       <c r="AA16">
-        <v>4220135</v>
+        <v>4252882</v>
       </c>
       <c r="AB16">
-        <v>416.221</v>
+        <v>419.45</v>
       </c>
       <c r="AC16">
-        <v>1.375</v>
+        <v>3.23</v>
       </c>
       <c r="AD16">
-        <v>12334</v>
+        <v>16170</v>
       </c>
       <c r="AE16">
-        <v>1.216</v>
+        <v>1.595</v>
       </c>
       <c r="AF16">
-        <v>0.205</v>
+        <v>0.187</v>
       </c>
       <c r="AG16">
-        <v>4.9</v>
+        <v>5.3</v>
       </c>
       <c r="AH16" t="s">
         <v>517</v>
@@ -4016,28 +4016,28 @@
         <v>1.02</v>
       </c>
       <c r="Z18">
-        <v>14387</v>
+        <v>29353</v>
       </c>
       <c r="AA18">
-        <v>5693371</v>
+        <v>5722724</v>
       </c>
       <c r="AB18">
-        <v>3345.926</v>
+        <v>3363.177</v>
       </c>
       <c r="AC18">
-        <v>8.455</v>
+        <v>17.25</v>
       </c>
       <c r="AD18">
-        <v>13353</v>
+        <v>16160</v>
       </c>
       <c r="AE18">
-        <v>7.847</v>
+        <v>9.497</v>
       </c>
       <c r="AF18">
-        <v>0.008999999999999999</v>
+        <v>0.007</v>
       </c>
       <c r="AG18">
-        <v>107</v>
+        <v>148.3</v>
       </c>
       <c r="AH18" t="s">
         <v>518</v>
@@ -4165,28 +4165,28 @@
         <v>0.68</v>
       </c>
       <c r="Z19">
-        <v>33015</v>
+        <v>41014</v>
       </c>
       <c r="AA19">
-        <v>8404313</v>
+        <v>8517620</v>
       </c>
       <c r="AB19">
-        <v>51.031</v>
+        <v>51.719</v>
       </c>
       <c r="AC19">
-        <v>0.2</v>
+        <v>0.249</v>
       </c>
       <c r="AD19">
-        <v>41872</v>
+        <v>38497</v>
       </c>
       <c r="AE19">
-        <v>0.254</v>
+        <v>0.234</v>
       </c>
       <c r="AF19">
-        <v>0.207</v>
+        <v>0.187</v>
       </c>
       <c r="AG19">
-        <v>4.8</v>
+        <v>5.4</v>
       </c>
       <c r="AH19" t="s">
         <v>517</v>
@@ -4442,28 +4442,28 @@
         <v>1.09</v>
       </c>
       <c r="Z21">
-        <v>20129</v>
+        <v>20457</v>
       </c>
       <c r="AA21">
-        <v>7463902</v>
+        <v>7603034</v>
       </c>
       <c r="AB21">
-        <v>789.888</v>
+        <v>804.612</v>
       </c>
       <c r="AC21">
-        <v>2.13</v>
+        <v>2.165</v>
       </c>
       <c r="AD21">
-        <v>16682</v>
+        <v>17564</v>
       </c>
       <c r="AE21">
-        <v>1.765</v>
+        <v>1.859</v>
       </c>
       <c r="AF21">
-        <v>0.059</v>
+        <v>0.063</v>
       </c>
       <c r="AG21">
-        <v>16.8</v>
+        <v>15.8</v>
       </c>
       <c r="AH21" t="s">
         <v>517</v>
@@ -4606,28 +4606,28 @@
         <v>33.326</v>
       </c>
       <c r="Z22">
-        <v>25207</v>
+        <v>45218</v>
       </c>
       <c r="AA22">
-        <v>18051588</v>
+        <v>18193868</v>
       </c>
       <c r="AB22">
-        <v>1557.566</v>
+        <v>1569.842</v>
       </c>
       <c r="AC22">
-        <v>2.175</v>
+        <v>3.902</v>
       </c>
       <c r="AD22">
-        <v>49941</v>
+        <v>49342</v>
       </c>
       <c r="AE22">
-        <v>4.309</v>
+        <v>4.257</v>
       </c>
       <c r="AF22">
-        <v>0.042</v>
+        <v>0.044</v>
       </c>
       <c r="AG22">
-        <v>23.8</v>
+        <v>22.7</v>
       </c>
       <c r="AH22" t="s">
         <v>517</v>
@@ -4758,22 +4758,22 @@
         <v>1.34</v>
       </c>
       <c r="AA23">
-        <v>194029</v>
+        <v>202015</v>
       </c>
       <c r="AB23">
-        <v>487.975</v>
+        <v>508.059</v>
       </c>
       <c r="AD23">
-        <v>1028</v>
+        <v>1141</v>
       </c>
       <c r="AE23">
-        <v>2.585</v>
+        <v>2.87</v>
       </c>
       <c r="AF23">
-        <v>0.047</v>
+        <v>0.064</v>
       </c>
       <c r="AG23">
-        <v>21.1</v>
+        <v>15.7</v>
       </c>
       <c r="AH23" t="s">
         <v>517</v>
@@ -5201,28 +5201,28 @@
         <v>1.01</v>
       </c>
       <c r="Z27">
-        <v>8850</v>
+        <v>8445</v>
       </c>
       <c r="AA27">
-        <v>2160529</v>
+        <v>2207227</v>
       </c>
       <c r="AB27">
-        <v>185.087</v>
+        <v>189.088</v>
       </c>
       <c r="AC27">
-        <v>0.758</v>
+        <v>0.723</v>
       </c>
       <c r="AD27">
-        <v>6050</v>
+        <v>6671</v>
       </c>
       <c r="AE27">
-        <v>0.518</v>
+        <v>0.571</v>
       </c>
       <c r="AF27">
-        <v>0.098</v>
+        <v>0.09</v>
       </c>
       <c r="AG27">
-        <v>10.2</v>
+        <v>11.1</v>
       </c>
       <c r="AH27" t="s">
         <v>517</v>
@@ -5347,28 +5347,28 @@
         <v>1.88</v>
       </c>
       <c r="Z28">
-        <v>1820</v>
+        <v>2312</v>
       </c>
       <c r="AA28">
-        <v>1103356</v>
+        <v>1111191</v>
       </c>
       <c r="AB28">
-        <v>336.305</v>
+        <v>338.694</v>
       </c>
       <c r="AC28">
-        <v>0.555</v>
+        <v>0.705</v>
       </c>
       <c r="AD28">
-        <v>2166</v>
+        <v>2249</v>
       </c>
       <c r="AE28">
-        <v>0.66</v>
+        <v>0.6860000000000001</v>
       </c>
       <c r="AF28">
-        <v>0.083</v>
+        <v>0.115</v>
       </c>
       <c r="AG28">
-        <v>12.1</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="AH28" t="s">
         <v>517</v>
@@ -5859,7 +5859,7 @@
         <v>0.838</v>
       </c>
     </row>
-    <row r="33" spans="1:61">
+    <row r="33" spans="1:62">
       <c r="A33" t="s">
         <v>93</v>
       </c>
@@ -5930,16 +5930,16 @@
         <v>561.783</v>
       </c>
       <c r="AD33">
-        <v>18318</v>
+        <v>19030</v>
       </c>
       <c r="AE33">
-        <v>2.636</v>
+        <v>2.739</v>
       </c>
       <c r="AF33">
-        <v>0.045</v>
+        <v>0.056</v>
       </c>
       <c r="AG33">
-        <v>22.1</v>
+        <v>18</v>
       </c>
       <c r="AH33" t="s">
         <v>517</v>
@@ -6014,7 +6014,7 @@
         <v>0.8159999999999999</v>
       </c>
     </row>
-    <row r="34" spans="1:61">
+    <row r="34" spans="1:62">
       <c r="A34" t="s">
         <v>94</v>
       </c>
@@ -6139,7 +6139,7 @@
         <v>0.452</v>
       </c>
     </row>
-    <row r="35" spans="1:61">
+    <row r="35" spans="1:62">
       <c r="A35" t="s">
         <v>95</v>
       </c>
@@ -6234,7 +6234,7 @@
         <v>0.433</v>
       </c>
     </row>
-    <row r="36" spans="1:61">
+    <row r="36" spans="1:62">
       <c r="A36" t="s">
         <v>96</v>
       </c>
@@ -6365,7 +6365,7 @@
         <v>0.594</v>
       </c>
     </row>
-    <row r="37" spans="1:61">
+    <row r="37" spans="1:62">
       <c r="A37" t="s">
         <v>97</v>
       </c>
@@ -6484,7 +6484,7 @@
         <v>0.5629999999999999</v>
       </c>
     </row>
-    <row r="38" spans="1:61">
+    <row r="38" spans="1:62">
       <c r="A38" t="s">
         <v>98</v>
       </c>
@@ -6549,28 +6549,28 @@
         <v>18.706</v>
       </c>
       <c r="Z38">
-        <v>122418</v>
+        <v>76230</v>
       </c>
       <c r="AA38">
-        <v>39453066</v>
+        <v>39653674</v>
       </c>
       <c r="AB38">
-        <v>1045.332</v>
+        <v>1050.647</v>
       </c>
       <c r="AC38">
-        <v>3.244</v>
+        <v>2.02</v>
       </c>
       <c r="AD38">
-        <v>61233</v>
+        <v>64931</v>
       </c>
       <c r="AE38">
-        <v>1.622</v>
+        <v>1.72</v>
       </c>
       <c r="AF38">
-        <v>0.032</v>
+        <v>0.034</v>
       </c>
       <c r="AG38">
-        <v>30.8</v>
+        <v>29</v>
       </c>
       <c r="AH38" t="s">
         <v>517</v>
@@ -6648,7 +6648,7 @@
         <v>0.929</v>
       </c>
     </row>
-    <row r="39" spans="1:61">
+    <row r="39" spans="1:62">
       <c r="A39" t="s">
         <v>99</v>
       </c>
@@ -6701,10 +6701,10 @@
         <v>1.08</v>
       </c>
       <c r="Z39">
-        <v>1131</v>
+        <v>1532</v>
       </c>
       <c r="AC39">
-        <v>2.034</v>
+        <v>2.755</v>
       </c>
       <c r="AH39" t="s">
         <v>517</v>
@@ -6773,7 +6773,7 @@
         <v>0.665</v>
       </c>
     </row>
-    <row r="40" spans="1:61">
+    <row r="40" spans="1:62">
       <c r="A40" t="s">
         <v>100</v>
       </c>
@@ -6829,7 +6829,7 @@
         <v>83.92</v>
       </c>
     </row>
-    <row r="41" spans="1:61">
+    <row r="41" spans="1:62">
       <c r="A41" t="s">
         <v>101</v>
       </c>
@@ -6945,7 +6945,7 @@
         <v>0.397</v>
       </c>
     </row>
-    <row r="42" spans="1:61">
+    <row r="42" spans="1:62">
       <c r="A42" t="s">
         <v>102</v>
       </c>
@@ -7061,7 +7061,7 @@
         <v>0.398</v>
       </c>
     </row>
-    <row r="43" spans="1:61">
+    <row r="43" spans="1:62">
       <c r="A43" t="s">
         <v>103</v>
       </c>
@@ -7114,28 +7114,28 @@
         <v>0.84</v>
       </c>
       <c r="Z43">
-        <v>55843</v>
+        <v>68052</v>
       </c>
       <c r="AA43">
-        <v>19287869</v>
+        <v>19421472</v>
       </c>
       <c r="AB43">
-        <v>1008.98</v>
+        <v>1015.969</v>
       </c>
       <c r="AC43">
-        <v>2.921</v>
+        <v>3.56</v>
       </c>
       <c r="AD43">
-        <v>52652</v>
+        <v>53303</v>
       </c>
       <c r="AE43">
-        <v>2.754</v>
+        <v>2.788</v>
       </c>
       <c r="AF43">
-        <v>0.015</v>
+        <v>0.014</v>
       </c>
       <c r="AG43">
-        <v>65.59999999999999</v>
+        <v>73.2</v>
       </c>
       <c r="AH43" t="s">
         <v>517</v>
@@ -7218,8 +7218,11 @@
       <c r="BI43">
         <v>0.851</v>
       </c>
+      <c r="BJ43">
+        <v>5.93</v>
+      </c>
     </row>
-    <row r="44" spans="1:61">
+    <row r="44" spans="1:62">
       <c r="A44" t="s">
         <v>104</v>
       </c>
@@ -7335,7 +7338,7 @@
         <v>0.761</v>
       </c>
     </row>
-    <row r="45" spans="1:61">
+    <row r="45" spans="1:62">
       <c r="A45" t="s">
         <v>105</v>
       </c>
@@ -7388,28 +7391,28 @@
         <v>0.64</v>
       </c>
       <c r="Z45">
-        <v>63692</v>
+        <v>56605</v>
       </c>
       <c r="AA45">
-        <v>23364574</v>
+        <v>23532461</v>
       </c>
       <c r="AB45">
-        <v>459.183</v>
+        <v>462.483</v>
       </c>
       <c r="AC45">
-        <v>1.252</v>
+        <v>1.112</v>
       </c>
       <c r="AD45">
-        <v>55957</v>
+        <v>50486</v>
       </c>
       <c r="AE45">
-        <v>1.1</v>
+        <v>0.992</v>
       </c>
       <c r="AF45">
-        <v>0.09</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="AG45">
-        <v>11.1</v>
+        <v>11.8</v>
       </c>
       <c r="AH45" t="s">
         <v>517</v>
@@ -7490,7 +7493,7 @@
         <v>0.767</v>
       </c>
     </row>
-    <row r="46" spans="1:61">
+    <row r="46" spans="1:62">
       <c r="A46" t="s">
         <v>106</v>
       </c>
@@ -7612,7 +7615,7 @@
         <v>0.554</v>
       </c>
     </row>
-    <row r="47" spans="1:61">
+    <row r="47" spans="1:62">
       <c r="A47" t="s">
         <v>107</v>
       </c>
@@ -7734,7 +7737,7 @@
         <v>0.574</v>
       </c>
     </row>
-    <row r="48" spans="1:61">
+    <row r="48" spans="1:62">
       <c r="A48" t="s">
         <v>108</v>
       </c>
@@ -7787,28 +7790,28 @@
         <v>1.17</v>
       </c>
       <c r="Z48">
-        <v>8576</v>
+        <v>4357</v>
       </c>
       <c r="AA48">
-        <v>1550945</v>
+        <v>1577767</v>
       </c>
       <c r="AB48">
-        <v>304.458</v>
+        <v>309.724</v>
       </c>
       <c r="AC48">
-        <v>1.684</v>
+        <v>0.855</v>
       </c>
       <c r="AD48">
-        <v>7064</v>
+        <v>7530</v>
       </c>
       <c r="AE48">
-        <v>1.387</v>
+        <v>1.478</v>
       </c>
       <c r="AF48">
-        <v>0.19</v>
+        <v>0.178</v>
       </c>
       <c r="AG48">
-        <v>5.3</v>
+        <v>5.6</v>
       </c>
       <c r="AH48" t="s">
         <v>516</v>
@@ -7886,7 +7889,7 @@
         <v>0.8100000000000001</v>
       </c>
     </row>
-    <row r="49" spans="1:61">
+    <row r="49" spans="1:62">
       <c r="A49" t="s">
         <v>109</v>
       </c>
@@ -7939,28 +7942,28 @@
         <v>1.22</v>
       </c>
       <c r="Z49">
-        <v>4379</v>
+        <v>4241</v>
       </c>
       <c r="AA49">
-        <v>826678</v>
+        <v>847957</v>
       </c>
       <c r="AB49">
-        <v>31.339</v>
+        <v>32.146</v>
       </c>
       <c r="AC49">
-        <v>0.166</v>
+        <v>0.161</v>
       </c>
       <c r="AD49">
-        <v>3523</v>
+        <v>3665</v>
       </c>
       <c r="AE49">
-        <v>0.134</v>
+        <v>0.139</v>
       </c>
       <c r="AF49">
-        <v>0.042</v>
+        <v>0.053</v>
       </c>
       <c r="AG49">
-        <v>23.9</v>
+        <v>18.9</v>
       </c>
       <c r="AH49" t="s">
         <v>519</v>
@@ -8026,7 +8029,7 @@
         <v>0.538</v>
       </c>
     </row>
-    <row r="50" spans="1:61">
+    <row r="50" spans="1:62">
       <c r="A50" t="s">
         <v>110</v>
       </c>
@@ -8094,25 +8097,25 @@
         <v>8073</v>
       </c>
       <c r="AA50">
-        <v>2417389</v>
+        <v>2437230</v>
       </c>
       <c r="AB50">
-        <v>588.85</v>
+        <v>593.684</v>
       </c>
       <c r="AC50">
         <v>1.966</v>
       </c>
       <c r="AD50">
-        <v>7604</v>
+        <v>8115</v>
       </c>
       <c r="AE50">
-        <v>1.852</v>
+        <v>1.977</v>
       </c>
       <c r="AF50">
-        <v>0.037</v>
+        <v>0.042</v>
       </c>
       <c r="AG50">
-        <v>27.2</v>
+        <v>24</v>
       </c>
       <c r="AH50" t="s">
         <v>516</v>
@@ -8190,7 +8193,7 @@
         <v>0.851</v>
       </c>
     </row>
-    <row r="51" spans="1:61">
+    <row r="51" spans="1:62">
       <c r="A51" t="s">
         <v>111</v>
       </c>
@@ -8312,7 +8315,7 @@
         <v>0.783</v>
       </c>
     </row>
-    <row r="52" spans="1:61">
+    <row r="52" spans="1:62">
       <c r="A52" t="s">
         <v>112</v>
       </c>
@@ -8374,7 +8377,7 @@
         <v>78.88</v>
       </c>
     </row>
-    <row r="53" spans="1:61">
+    <row r="53" spans="1:62">
       <c r="A53" t="s">
         <v>113</v>
       </c>
@@ -8546,8 +8549,11 @@
       <c r="BI53">
         <v>0.887</v>
       </c>
+      <c r="BJ53">
+        <v>-27.04</v>
+      </c>
     </row>
-    <row r="54" spans="1:61">
+    <row r="54" spans="1:62">
       <c r="A54" t="s">
         <v>114</v>
       </c>
@@ -8624,16 +8630,16 @@
         <v>9.538</v>
       </c>
       <c r="Z54">
-        <v>94598</v>
+        <v>90885</v>
       </c>
       <c r="AC54">
-        <v>8.834</v>
+        <v>8.487</v>
       </c>
       <c r="AD54">
-        <v>100317</v>
+        <v>98008</v>
       </c>
       <c r="AE54">
-        <v>9.368</v>
+        <v>9.151999999999999</v>
       </c>
       <c r="AF54">
         <v>0.002</v>
@@ -8714,7 +8720,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="55" spans="1:61">
+    <row r="55" spans="1:62">
       <c r="A55" t="s">
         <v>115</v>
       </c>
@@ -8767,22 +8773,22 @@
         <v>0.98</v>
       </c>
       <c r="Z55">
-        <v>2528</v>
+        <v>2415</v>
       </c>
       <c r="AC55">
-        <v>0.028</v>
+        <v>0.027</v>
       </c>
       <c r="AD55">
-        <v>2301</v>
+        <v>1888</v>
       </c>
       <c r="AE55">
-        <v>0.026</v>
+        <v>0.021</v>
       </c>
       <c r="AF55">
-        <v>0.102</v>
+        <v>0.09</v>
       </c>
       <c r="AG55">
-        <v>9.800000000000001</v>
+        <v>11.1</v>
       </c>
       <c r="AH55" t="s">
         <v>519</v>
@@ -8851,7 +8857,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="56" spans="1:61">
+    <row r="56" spans="1:62">
       <c r="A56" t="s">
         <v>116</v>
       </c>
@@ -8922,28 +8928,28 @@
         <v>23.7</v>
       </c>
       <c r="Z56">
-        <v>39326</v>
+        <v>40586</v>
       </c>
       <c r="AA56">
-        <v>38769412</v>
+        <v>38964678</v>
       </c>
       <c r="AB56">
-        <v>6693.379</v>
+        <v>6727.091</v>
       </c>
       <c r="AC56">
-        <v>6.789</v>
+        <v>7.007</v>
       </c>
       <c r="AD56">
-        <v>55498</v>
+        <v>59547</v>
       </c>
       <c r="AE56">
-        <v>9.582000000000001</v>
+        <v>10.281</v>
       </c>
       <c r="AF56">
-        <v>0.018</v>
+        <v>0.017</v>
       </c>
       <c r="AG56">
-        <v>55</v>
+        <v>59.5</v>
       </c>
       <c r="AH56" t="s">
         <v>517</v>
@@ -9021,7 +9027,7 @@
         <v>0.9399999999999999</v>
       </c>
     </row>
-    <row r="57" spans="1:61">
+    <row r="57" spans="1:62">
       <c r="A57" t="s">
         <v>117</v>
       </c>
@@ -9140,7 +9146,7 @@
         <v>0.524</v>
       </c>
     </row>
-    <row r="58" spans="1:61">
+    <row r="58" spans="1:62">
       <c r="A58" t="s">
         <v>118</v>
       </c>
@@ -9232,7 +9238,7 @@
         <v>0.742</v>
       </c>
     </row>
-    <row r="59" spans="1:61">
+    <row r="59" spans="1:62">
       <c r="A59" t="s">
         <v>119</v>
       </c>
@@ -9285,22 +9291,22 @@
         <v>0.83</v>
       </c>
       <c r="AA59">
-        <v>1875579</v>
+        <v>1910033</v>
       </c>
       <c r="AB59">
-        <v>172.898</v>
+        <v>176.074</v>
       </c>
       <c r="AD59">
-        <v>4177</v>
+        <v>4922</v>
       </c>
       <c r="AE59">
-        <v>0.385</v>
+        <v>0.454</v>
       </c>
       <c r="AF59">
-        <v>0.067</v>
+        <v>0.053</v>
       </c>
       <c r="AG59">
-        <v>14.9</v>
+        <v>18.8</v>
       </c>
       <c r="AH59" t="s">
         <v>519</v>
@@ -9381,7 +9387,7 @@
         <v>0.756</v>
       </c>
     </row>
-    <row r="60" spans="1:61">
+    <row r="60" spans="1:62">
       <c r="A60" t="s">
         <v>120</v>
       </c>
@@ -9434,28 +9440,28 @@
         <v>0.61</v>
       </c>
       <c r="Z60">
-        <v>3980</v>
+        <v>3623</v>
       </c>
       <c r="AA60">
-        <v>1624890</v>
+        <v>1628513</v>
       </c>
       <c r="AB60">
-        <v>92.098</v>
+        <v>92.303</v>
       </c>
       <c r="AC60">
-        <v>0.226</v>
+        <v>0.205</v>
       </c>
       <c r="AD60">
-        <v>2628</v>
+        <v>2597</v>
       </c>
       <c r="AE60">
-        <v>0.149</v>
+        <v>0.147</v>
       </c>
       <c r="AF60">
-        <v>0.149</v>
+        <v>0.188</v>
       </c>
       <c r="AG60">
-        <v>6.7</v>
+        <v>5.3</v>
       </c>
       <c r="AH60" t="s">
         <v>516</v>
@@ -9535,8 +9541,11 @@
       <c r="BI60">
         <v>0.759</v>
       </c>
+      <c r="BJ60">
+        <v>14.09</v>
+      </c>
     </row>
-    <row r="61" spans="1:61">
+    <row r="61" spans="1:62">
       <c r="A61" t="s">
         <v>121</v>
       </c>
@@ -9658,7 +9667,7 @@
         <v>0.707</v>
       </c>
     </row>
-    <row r="62" spans="1:61">
+    <row r="62" spans="1:62">
       <c r="A62" t="s">
         <v>122</v>
       </c>
@@ -9786,7 +9795,7 @@
         <v>0.673</v>
       </c>
     </row>
-    <row r="63" spans="1:61">
+    <row r="63" spans="1:62">
       <c r="A63" t="s">
         <v>123</v>
       </c>
@@ -9839,28 +9848,28 @@
         <v>0.49</v>
       </c>
       <c r="Z63">
-        <v>2355</v>
+        <v>2041</v>
       </c>
       <c r="AA63">
-        <v>185478</v>
+        <v>187519</v>
       </c>
       <c r="AB63">
-        <v>132.202</v>
+        <v>133.657</v>
       </c>
       <c r="AC63">
-        <v>1.679</v>
+        <v>1.455</v>
       </c>
       <c r="AD63">
-        <v>347</v>
+        <v>658</v>
       </c>
       <c r="AE63">
-        <v>0.247</v>
+        <v>0.469</v>
       </c>
       <c r="AF63">
-        <v>0.008999999999999999</v>
+        <v>0.013</v>
       </c>
       <c r="AG63">
-        <v>115.7</v>
+        <v>78.09999999999999</v>
       </c>
       <c r="AH63" t="s">
         <v>517</v>
@@ -9926,7 +9935,7 @@
         <v>0.592</v>
       </c>
     </row>
-    <row r="64" spans="1:61">
+    <row r="64" spans="1:62">
       <c r="A64" t="s">
         <v>124</v>
       </c>
@@ -10021,7 +10030,7 @@
         <v>0.459</v>
       </c>
     </row>
-    <row r="65" spans="1:61">
+    <row r="65" spans="1:62">
       <c r="A65" t="s">
         <v>125</v>
       </c>
@@ -10098,28 +10107,28 @@
         <v>54.93</v>
       </c>
       <c r="Z65">
-        <v>4982</v>
+        <v>4444</v>
       </c>
       <c r="AA65">
-        <v>1700677</v>
+        <v>1714002</v>
       </c>
       <c r="AB65">
-        <v>1282.041</v>
+        <v>1292.086</v>
       </c>
       <c r="AC65">
-        <v>3.756</v>
+        <v>3.35</v>
       </c>
       <c r="AD65">
-        <v>5281</v>
+        <v>4237</v>
       </c>
       <c r="AE65">
-        <v>3.981</v>
+        <v>3.194</v>
       </c>
       <c r="AF65">
-        <v>0.052</v>
+        <v>0.065</v>
       </c>
       <c r="AG65">
-        <v>19.1</v>
+        <v>15.4</v>
       </c>
       <c r="AH65" t="s">
         <v>517</v>
@@ -10193,8 +10202,11 @@
       <c r="BI65">
         <v>0.892</v>
       </c>
+      <c r="BJ65">
+        <v>10.82</v>
+      </c>
     </row>
-    <row r="66" spans="1:61">
+    <row r="66" spans="1:62">
       <c r="A66" t="s">
         <v>126</v>
       </c>
@@ -10319,7 +10331,7 @@
         <v>0.611</v>
       </c>
     </row>
-    <row r="67" spans="1:61">
+    <row r="67" spans="1:62">
       <c r="A67" t="s">
         <v>127</v>
       </c>
@@ -10372,28 +10384,28 @@
         <v>1.3</v>
       </c>
       <c r="Z67">
-        <v>5173</v>
+        <v>7149</v>
       </c>
       <c r="AA67">
-        <v>3120043</v>
+        <v>3142116</v>
       </c>
       <c r="AB67">
-        <v>27.139</v>
+        <v>27.331</v>
       </c>
       <c r="AC67">
-        <v>0.045</v>
+        <v>0.062</v>
       </c>
       <c r="AD67">
-        <v>6436</v>
+        <v>6485</v>
       </c>
       <c r="AE67">
         <v>0.056</v>
       </c>
       <c r="AF67">
-        <v>0.121</v>
+        <v>0.122</v>
       </c>
       <c r="AG67">
-        <v>8.300000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AH67" t="s">
         <v>517</v>
@@ -10468,7 +10480,7 @@
         <v>0.485</v>
       </c>
     </row>
-    <row r="68" spans="1:61">
+    <row r="68" spans="1:62">
       <c r="A68" t="s">
         <v>128</v>
       </c>
@@ -10545,7 +10557,7 @@
         <v>748680069</v>
       </c>
     </row>
-    <row r="69" spans="1:61">
+    <row r="69" spans="1:62">
       <c r="A69" t="s">
         <v>129</v>
       </c>
@@ -10622,7 +10634,7 @@
         <v>444919060</v>
       </c>
     </row>
-    <row r="70" spans="1:61">
+    <row r="70" spans="1:62">
       <c r="A70" t="s">
         <v>130</v>
       </c>
@@ -10672,7 +10684,7 @@
         <v>80.67</v>
       </c>
     </row>
-    <row r="71" spans="1:61">
+    <row r="71" spans="1:62">
       <c r="A71" t="s">
         <v>131</v>
       </c>
@@ -10794,7 +10806,7 @@
         <v>0.743</v>
       </c>
     </row>
-    <row r="72" spans="1:61">
+    <row r="72" spans="1:62">
       <c r="A72" t="s">
         <v>132</v>
       </c>
@@ -10859,28 +10871,28 @@
         <v>15.882</v>
       </c>
       <c r="Z72">
-        <v>9705</v>
+        <v>25000</v>
       </c>
       <c r="AA72">
-        <v>6227325</v>
+        <v>6301305</v>
       </c>
       <c r="AB72">
-        <v>1123.92</v>
+        <v>1137.272</v>
       </c>
       <c r="AC72">
-        <v>1.752</v>
+        <v>4.512</v>
       </c>
       <c r="AD72">
-        <v>18555</v>
+        <v>19317</v>
       </c>
       <c r="AE72">
-        <v>3.349</v>
+        <v>3.486</v>
       </c>
       <c r="AF72">
-        <v>0.041</v>
+        <v>0.037</v>
       </c>
       <c r="AG72">
-        <v>24.4</v>
+        <v>26.8</v>
       </c>
       <c r="AH72" t="s">
         <v>517</v>
@@ -10955,7 +10967,7 @@
         <v>0.9379999999999999</v>
       </c>
     </row>
-    <row r="73" spans="1:61">
+    <row r="73" spans="1:62">
       <c r="A73" t="s">
         <v>133</v>
       </c>
@@ -11032,22 +11044,22 @@
         <v>71.301</v>
       </c>
       <c r="Z73">
-        <v>994320</v>
+        <v>973351</v>
       </c>
       <c r="AC73">
-        <v>14.717</v>
+        <v>14.406</v>
       </c>
       <c r="AD73">
-        <v>742492</v>
+        <v>781128</v>
       </c>
       <c r="AE73">
-        <v>10.989</v>
+        <v>11.561</v>
       </c>
       <c r="AF73">
-        <v>0.035</v>
+        <v>0.034</v>
       </c>
       <c r="AG73">
-        <v>28.6</v>
+        <v>29.4</v>
       </c>
       <c r="AH73" t="s">
         <v>516</v>
@@ -11122,7 +11134,7 @@
         <v>0.901</v>
       </c>
     </row>
-    <row r="74" spans="1:61">
+    <row r="74" spans="1:62">
       <c r="A74" t="s">
         <v>134</v>
       </c>
@@ -11181,7 +11193,7 @@
         <v>77.66</v>
       </c>
     </row>
-    <row r="75" spans="1:61">
+    <row r="75" spans="1:62">
       <c r="A75" t="s">
         <v>135</v>
       </c>
@@ -11246,16 +11258,16 @@
         <v>3.593</v>
       </c>
       <c r="AD75">
-        <v>3381</v>
+        <v>2629</v>
       </c>
       <c r="AE75">
-        <v>1.519</v>
+        <v>1.181</v>
       </c>
       <c r="AF75">
         <v>0.005</v>
       </c>
       <c r="AG75">
-        <v>198.7</v>
+        <v>189.7</v>
       </c>
       <c r="AH75" t="s">
         <v>519</v>
@@ -11324,7 +11336,7 @@
         <v>0.703</v>
       </c>
     </row>
-    <row r="76" spans="1:61">
+    <row r="76" spans="1:62">
       <c r="A76" t="s">
         <v>136</v>
       </c>
@@ -11376,6 +11388,21 @@
       <c r="Q76">
         <v>1.07</v>
       </c>
+      <c r="Z76">
+        <v>1003</v>
+      </c>
+      <c r="AA76">
+        <v>93657</v>
+      </c>
+      <c r="AB76">
+        <v>38.755</v>
+      </c>
+      <c r="AC76">
+        <v>0.415</v>
+      </c>
+      <c r="AH76" t="s">
+        <v>519</v>
+      </c>
       <c r="AI76">
         <v>316363</v>
       </c>
@@ -11449,7 +11476,7 @@
         <v>0.496</v>
       </c>
     </row>
-    <row r="77" spans="1:61">
+    <row r="77" spans="1:62">
       <c r="A77" t="s">
         <v>137</v>
       </c>
@@ -11502,28 +11529,28 @@
         <v>1.19</v>
       </c>
       <c r="Z77">
-        <v>35000</v>
+        <v>57000</v>
       </c>
       <c r="AA77">
-        <v>7198000</v>
+        <v>7515000</v>
       </c>
       <c r="AB77">
-        <v>1804.383</v>
+        <v>1883.848</v>
       </c>
       <c r="AC77">
-        <v>8.773999999999999</v>
+        <v>14.289</v>
       </c>
       <c r="AD77">
-        <v>42571</v>
+        <v>45286</v>
       </c>
       <c r="AE77">
-        <v>10.672</v>
+        <v>11.352</v>
       </c>
       <c r="AF77">
-        <v>0.095</v>
+        <v>0.111</v>
       </c>
       <c r="AG77">
-        <v>10.5</v>
+        <v>9</v>
       </c>
       <c r="AH77" t="s">
         <v>517</v>
@@ -11598,7 +11625,7 @@
         <v>0.8120000000000001</v>
       </c>
     </row>
-    <row r="78" spans="1:61">
+    <row r="78" spans="1:62">
       <c r="A78" t="s">
         <v>138</v>
       </c>
@@ -11663,22 +11690,22 @@
         <v>7.888</v>
       </c>
       <c r="AA78">
-        <v>68260213</v>
+        <v>68790183</v>
       </c>
       <c r="AB78">
-        <v>814.717</v>
+        <v>821.043</v>
       </c>
       <c r="AD78">
-        <v>84058</v>
+        <v>79885</v>
       </c>
       <c r="AE78">
-        <v>1.003</v>
+        <v>0.953</v>
       </c>
       <c r="AF78">
-        <v>0.039</v>
+        <v>0.06</v>
       </c>
       <c r="AG78">
-        <v>25.6</v>
+        <v>16.7</v>
       </c>
       <c r="AH78" t="s">
         <v>517</v>
@@ -11753,7 +11780,7 @@
         <v>0.947</v>
       </c>
     </row>
-    <row r="79" spans="1:61">
+    <row r="79" spans="1:62">
       <c r="A79" t="s">
         <v>139</v>
       </c>
@@ -11854,7 +11881,7 @@
         <v>0.611</v>
       </c>
     </row>
-    <row r="80" spans="1:61">
+    <row r="80" spans="1:62">
       <c r="A80" t="s">
         <v>140</v>
       </c>
@@ -11963,28 +11990,28 @@
         <v>10.822</v>
       </c>
       <c r="Z81">
-        <v>101661</v>
+        <v>102298</v>
       </c>
       <c r="AA81">
-        <v>13837533</v>
+        <v>14451763</v>
       </c>
       <c r="AB81">
-        <v>1327.589</v>
+        <v>1386.519</v>
       </c>
       <c r="AC81">
-        <v>9.753</v>
+        <v>9.815</v>
       </c>
       <c r="AD81">
-        <v>88418</v>
+        <v>87747</v>
       </c>
       <c r="AE81">
-        <v>8.483000000000001</v>
+        <v>8.419</v>
       </c>
       <c r="AF81">
-        <v>0.035</v>
+        <v>0.036</v>
       </c>
       <c r="AG81">
-        <v>28.4</v>
+        <v>27.9</v>
       </c>
       <c r="AH81" t="s">
         <v>519</v>
@@ -12281,25 +12308,25 @@
         <v>1.12</v>
       </c>
       <c r="Z84">
-        <v>2318</v>
+        <v>15284</v>
       </c>
       <c r="AA84">
-        <v>2020393</v>
+        <v>2059534</v>
       </c>
       <c r="AB84">
-        <v>112.773</v>
+        <v>114.958</v>
       </c>
       <c r="AC84">
-        <v>0.129</v>
+        <v>0.853</v>
       </c>
       <c r="AD84">
-        <v>9692</v>
+        <v>9945</v>
       </c>
       <c r="AE84">
-        <v>0.541</v>
+        <v>0.555</v>
       </c>
       <c r="AF84">
-        <v>0.332</v>
+        <v>0.334</v>
       </c>
       <c r="AG84">
         <v>3</v>
@@ -13194,28 +13221,28 @@
         <v>8.592000000000001</v>
       </c>
       <c r="Z92">
-        <v>21092</v>
+        <v>10125</v>
       </c>
       <c r="AA92">
-        <v>5994248</v>
+        <v>6016847</v>
       </c>
       <c r="AB92">
-        <v>620.5</v>
+        <v>622.8390000000001</v>
       </c>
       <c r="AC92">
-        <v>2.183</v>
+        <v>1.048</v>
       </c>
       <c r="AD92">
-        <v>7151</v>
+        <v>7447</v>
       </c>
       <c r="AE92">
-        <v>0.74</v>
+        <v>0.771</v>
       </c>
       <c r="AF92">
-        <v>0.01</v>
+        <v>0.011</v>
       </c>
       <c r="AG92">
-        <v>101.5</v>
+        <v>91.59999999999999</v>
       </c>
       <c r="AH92" t="s">
         <v>517</v>
@@ -13355,22 +13382,22 @@
         <v>41.194</v>
       </c>
       <c r="Z93">
-        <v>2385</v>
+        <v>3349</v>
       </c>
       <c r="AA93">
-        <v>541158</v>
+        <v>551511</v>
       </c>
       <c r="AB93">
-        <v>1585.811</v>
+        <v>1616.149</v>
       </c>
       <c r="AC93">
-        <v>6.989</v>
+        <v>9.814</v>
       </c>
       <c r="AD93">
-        <v>3009</v>
+        <v>3061</v>
       </c>
       <c r="AE93">
-        <v>8.818</v>
+        <v>8.970000000000001</v>
       </c>
       <c r="AH93" t="s">
         <v>517</v>
@@ -13498,28 +13525,28 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="Z94">
-        <v>1823872</v>
+        <v>1797559</v>
       </c>
       <c r="AA94">
-        <v>496629524</v>
+        <v>498427083</v>
       </c>
       <c r="AB94">
-        <v>359.875</v>
+        <v>361.178</v>
       </c>
       <c r="AC94">
-        <v>1.322</v>
+        <v>1.303</v>
       </c>
       <c r="AD94">
-        <v>1907283</v>
+        <v>1910082</v>
       </c>
       <c r="AE94">
-        <v>1.382</v>
+        <v>1.384</v>
       </c>
       <c r="AF94">
-        <v>0.019</v>
+        <v>0.018</v>
       </c>
       <c r="AG94">
-        <v>51.6</v>
+        <v>54.7</v>
       </c>
       <c r="AH94" t="s">
         <v>519</v>
@@ -13656,25 +13683,25 @@
         <v>146481</v>
       </c>
       <c r="AA95">
-        <v>19890644</v>
+        <v>20070696</v>
       </c>
       <c r="AB95">
-        <v>72.72</v>
+        <v>73.378</v>
       </c>
       <c r="AC95">
         <v>0.536</v>
       </c>
       <c r="AD95">
-        <v>122700</v>
+        <v>108192</v>
       </c>
       <c r="AE95">
-        <v>0.449</v>
+        <v>0.396</v>
       </c>
       <c r="AF95">
-        <v>0.215</v>
+        <v>0.21</v>
       </c>
       <c r="AG95">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="AH95" t="s">
         <v>516</v>
@@ -13837,28 +13864,28 @@
         <v>1.12</v>
       </c>
       <c r="Z97">
-        <v>93631</v>
+        <v>94557</v>
       </c>
       <c r="AA97">
-        <v>27078261</v>
+        <v>27579653</v>
       </c>
       <c r="AB97">
-        <v>322.387</v>
+        <v>328.357</v>
       </c>
       <c r="AC97">
-        <v>1.115</v>
+        <v>1.126</v>
       </c>
       <c r="AD97">
-        <v>96984</v>
+        <v>98522</v>
       </c>
       <c r="AE97">
-        <v>1.155</v>
+        <v>1.173</v>
       </c>
       <c r="AF97">
-        <v>0.398</v>
+        <v>0.388</v>
       </c>
       <c r="AG97">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AH97" t="s">
         <v>517</v>
@@ -13983,28 +14010,28 @@
         <v>0.88</v>
       </c>
       <c r="Z98">
-        <v>41613</v>
+        <v>40653</v>
       </c>
       <c r="AA98">
-        <v>13586857</v>
+        <v>13912862</v>
       </c>
       <c r="AB98">
-        <v>337.792</v>
+        <v>345.897</v>
       </c>
       <c r="AC98">
-        <v>1.035</v>
+        <v>1.011</v>
       </c>
       <c r="AD98">
-        <v>43848</v>
+        <v>40077</v>
       </c>
       <c r="AE98">
-        <v>1.09</v>
+        <v>0.996</v>
       </c>
       <c r="AF98">
-        <v>0.221</v>
+        <v>0.207</v>
       </c>
       <c r="AG98">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="AH98" t="s">
         <v>519</v>
@@ -14137,6 +14164,33 @@
       <c r="Y99">
         <v>32.028</v>
       </c>
+      <c r="Z99">
+        <v>21024</v>
+      </c>
+      <c r="AA99">
+        <v>6460831</v>
+      </c>
+      <c r="AB99">
+        <v>1308.444</v>
+      </c>
+      <c r="AC99">
+        <v>4.258</v>
+      </c>
+      <c r="AD99">
+        <v>20683</v>
+      </c>
+      <c r="AE99">
+        <v>4.189</v>
+      </c>
+      <c r="AF99">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="AG99">
+        <v>11.8</v>
+      </c>
+      <c r="AH99" t="s">
+        <v>517</v>
+      </c>
       <c r="AI99">
         <v>6499009</v>
       </c>
@@ -14337,28 +14391,28 @@
         <v>133.209</v>
       </c>
       <c r="Z101">
-        <v>152604</v>
+        <v>146296</v>
       </c>
       <c r="AA101">
-        <v>21286782</v>
+        <v>21734206</v>
       </c>
       <c r="AB101">
-        <v>2459.324</v>
+        <v>2511.016</v>
       </c>
       <c r="AC101">
-        <v>17.631</v>
+        <v>16.902</v>
       </c>
       <c r="AD101">
-        <v>122949</v>
+        <v>129487</v>
       </c>
       <c r="AE101">
-        <v>14.205</v>
+        <v>14.96</v>
       </c>
       <c r="AF101">
-        <v>0.048</v>
+        <v>0.051</v>
       </c>
       <c r="AG101">
-        <v>20.7</v>
+        <v>19.8</v>
       </c>
       <c r="AH101" t="s">
         <v>517</v>
@@ -14513,28 +14567,28 @@
         <v>20.372</v>
       </c>
       <c r="Z102">
-        <v>160870</v>
+        <v>206531</v>
       </c>
       <c r="AA102">
-        <v>80606903</v>
+        <v>81351951</v>
       </c>
       <c r="AB102">
-        <v>1333.187</v>
+        <v>1345.509</v>
       </c>
       <c r="AC102">
-        <v>2.661</v>
+        <v>3.416</v>
       </c>
       <c r="AD102">
-        <v>204571</v>
+        <v>197916</v>
       </c>
       <c r="AE102">
-        <v>3.383</v>
+        <v>3.273</v>
       </c>
       <c r="AF102">
         <v>0.031</v>
       </c>
       <c r="AG102">
-        <v>32.4</v>
+        <v>31.8</v>
       </c>
       <c r="AH102" t="s">
         <v>517</v>
@@ -14665,25 +14719,25 @@
         <v>1.53</v>
       </c>
       <c r="Z103">
-        <v>1856</v>
+        <v>2184</v>
       </c>
       <c r="AA103">
-        <v>520791</v>
+        <v>526075</v>
       </c>
       <c r="AB103">
-        <v>175.874</v>
+        <v>177.658</v>
       </c>
       <c r="AC103">
-        <v>0.627</v>
+        <v>0.738</v>
       </c>
       <c r="AD103">
-        <v>1564</v>
+        <v>1768</v>
       </c>
       <c r="AE103">
-        <v>0.528</v>
+        <v>0.597</v>
       </c>
       <c r="AF103">
-        <v>0.282</v>
+        <v>0.29</v>
       </c>
       <c r="AG103">
         <v>3.5</v>
@@ -14814,28 +14868,28 @@
         <v>1.34</v>
       </c>
       <c r="Z104">
-        <v>104174</v>
+        <v>232366</v>
       </c>
       <c r="AA104">
-        <v>19000346</v>
+        <v>19482275</v>
       </c>
       <c r="AB104">
-        <v>150.228</v>
+        <v>154.039</v>
       </c>
       <c r="AC104">
-        <v>0.824</v>
+        <v>1.837</v>
       </c>
       <c r="AD104">
-        <v>107039</v>
+        <v>123563</v>
       </c>
       <c r="AE104">
-        <v>0.846</v>
+        <v>0.977</v>
       </c>
       <c r="AF104">
-        <v>0.158</v>
+        <v>0.165</v>
       </c>
       <c r="AG104">
-        <v>6.3</v>
+        <v>6.1</v>
       </c>
       <c r="AH104" t="s">
         <v>516</v>
@@ -15004,28 +15058,28 @@
         <v>1.1</v>
       </c>
       <c r="Z106">
-        <v>30370</v>
+        <v>27749</v>
       </c>
       <c r="AA106">
-        <v>8813260</v>
+        <v>8924446</v>
       </c>
       <c r="AB106">
-        <v>863.779</v>
+        <v>874.676</v>
       </c>
       <c r="AC106">
-        <v>2.977</v>
+        <v>2.72</v>
       </c>
       <c r="AD106">
-        <v>23653</v>
+        <v>29880</v>
       </c>
       <c r="AE106">
-        <v>2.318</v>
+        <v>2.929</v>
       </c>
       <c r="AF106">
-        <v>0.039</v>
+        <v>0.033</v>
       </c>
       <c r="AG106">
-        <v>25.3</v>
+        <v>30.6</v>
       </c>
       <c r="AH106" t="s">
         <v>517</v>
@@ -15501,28 +15555,28 @@
         <v>2.18</v>
       </c>
       <c r="Z110">
-        <v>5646</v>
+        <v>11373</v>
       </c>
       <c r="AA110">
-        <v>814832</v>
+        <v>846044</v>
       </c>
       <c r="AB110">
-        <v>421.587</v>
+        <v>437.736</v>
       </c>
       <c r="AC110">
-        <v>2.921</v>
+        <v>5.884</v>
       </c>
       <c r="AD110">
-        <v>6905</v>
+        <v>7711</v>
       </c>
       <c r="AE110">
-        <v>3.573</v>
+        <v>3.99</v>
       </c>
       <c r="AF110">
-        <v>0.131</v>
+        <v>0.194</v>
       </c>
       <c r="AG110">
-        <v>7.7</v>
+        <v>5.2</v>
       </c>
       <c r="AH110" t="s">
         <v>517</v>
@@ -15623,28 +15677,28 @@
         <v>0.59</v>
       </c>
       <c r="Z111">
-        <v>12619</v>
+        <v>9900</v>
       </c>
       <c r="AA111">
-        <v>3565742</v>
+        <v>3631090</v>
       </c>
       <c r="AB111">
-        <v>834.958</v>
+        <v>850.26</v>
       </c>
       <c r="AC111">
-        <v>2.955</v>
+        <v>2.318</v>
       </c>
       <c r="AD111">
-        <v>13496</v>
+        <v>11138</v>
       </c>
       <c r="AE111">
-        <v>3.16</v>
+        <v>2.608</v>
       </c>
       <c r="AF111">
-        <v>0.04</v>
+        <v>0.032</v>
       </c>
       <c r="AG111">
-        <v>25.2</v>
+        <v>31.3</v>
       </c>
       <c r="AH111" t="s">
         <v>517</v>
@@ -16022,28 +16076,28 @@
         <v>24.637</v>
       </c>
       <c r="Z114">
-        <v>10234</v>
+        <v>7873</v>
       </c>
       <c r="AA114">
-        <v>3212193</v>
+        <v>3228603</v>
       </c>
       <c r="AB114">
-        <v>1702.995</v>
+        <v>1711.695</v>
       </c>
       <c r="AC114">
-        <v>5.426</v>
+        <v>4.174</v>
       </c>
       <c r="AD114">
-        <v>8207</v>
+        <v>8359</v>
       </c>
       <c r="AE114">
-        <v>4.351</v>
+        <v>4.432</v>
       </c>
       <c r="AF114">
-        <v>0.013</v>
+        <v>0.014</v>
       </c>
       <c r="AG114">
-        <v>79.09999999999999</v>
+        <v>69.90000000000001</v>
       </c>
       <c r="AH114" t="s">
         <v>517</v>
@@ -16516,10 +16570,10 @@
         <v>0.98</v>
       </c>
       <c r="Z118">
-        <v>9610</v>
+        <v>9109</v>
       </c>
       <c r="AC118">
-        <v>1.399</v>
+        <v>1.326</v>
       </c>
       <c r="AH118" t="s">
         <v>519</v>
@@ -16635,28 +16689,28 @@
         <v>1.68</v>
       </c>
       <c r="Z119">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="AA119">
-        <v>59349</v>
+        <v>59666</v>
       </c>
       <c r="AB119">
-        <v>1556.205</v>
+        <v>1564.517</v>
       </c>
       <c r="AC119">
-        <v>2.57</v>
+        <v>2.176</v>
       </c>
       <c r="AD119">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="AE119">
-        <v>3.487</v>
+        <v>3.304</v>
       </c>
       <c r="AF119">
-        <v>0.06900000000000001</v>
+        <v>0.08799999999999999</v>
       </c>
       <c r="AG119">
-        <v>14.5</v>
+        <v>11.4</v>
       </c>
       <c r="AH119" t="s">
         <v>517</v>
@@ -16778,28 +16832,28 @@
         <v>49.39</v>
       </c>
       <c r="Z120">
-        <v>14429</v>
+        <v>13674</v>
       </c>
       <c r="AA120">
-        <v>4364220</v>
+        <v>4414399</v>
       </c>
       <c r="AB120">
-        <v>1603.142</v>
+        <v>1621.575</v>
       </c>
       <c r="AC120">
-        <v>5.3</v>
+        <v>5.023</v>
       </c>
       <c r="AD120">
-        <v>13942</v>
+        <v>13788</v>
       </c>
       <c r="AE120">
-        <v>5.121</v>
+        <v>5.065</v>
       </c>
       <c r="AF120">
-        <v>0.04</v>
+        <v>0.043</v>
       </c>
       <c r="AG120">
-        <v>25</v>
+        <v>23.3</v>
       </c>
       <c r="AH120" t="s">
         <v>517</v>
@@ -16945,28 +16999,28 @@
         <v>20.763</v>
       </c>
       <c r="Z121">
-        <v>4305</v>
+        <v>3702</v>
       </c>
       <c r="AA121">
-        <v>3357318</v>
+        <v>3371442</v>
       </c>
       <c r="AB121">
-        <v>5363.333</v>
+        <v>5385.897</v>
       </c>
       <c r="AC121">
-        <v>6.877</v>
+        <v>5.914</v>
       </c>
       <c r="AD121">
-        <v>4175</v>
+        <v>4349</v>
       </c>
       <c r="AE121">
-        <v>6.67</v>
+        <v>6.948</v>
       </c>
       <c r="AF121">
-        <v>0.011</v>
+        <v>0.012</v>
       </c>
       <c r="AG121">
-        <v>87.8</v>
+        <v>85.3</v>
       </c>
       <c r="AH121" t="s">
         <v>517</v>
@@ -17159,28 +17213,28 @@
         <v>0.49</v>
       </c>
       <c r="Z123">
-        <v>506</v>
+        <v>525</v>
       </c>
       <c r="AA123">
-        <v>232478</v>
+        <v>235147</v>
       </c>
       <c r="AB123">
-        <v>8.395</v>
+        <v>8.492000000000001</v>
       </c>
       <c r="AC123">
-        <v>0.018</v>
+        <v>0.019</v>
       </c>
       <c r="AD123">
-        <v>505</v>
+        <v>454</v>
       </c>
       <c r="AE123">
-        <v>0.018</v>
+        <v>0.016</v>
       </c>
       <c r="AF123">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="AG123">
-        <v>33.3</v>
+        <v>99.3</v>
       </c>
       <c r="AH123" t="s">
         <v>517</v>
@@ -17409,28 +17463,28 @@
         <v>1.1</v>
       </c>
       <c r="Z125">
-        <v>150590</v>
+        <v>165312</v>
       </c>
       <c r="AA125">
-        <v>24045027</v>
+        <v>24389054</v>
       </c>
       <c r="AB125">
-        <v>742.91</v>
+        <v>753.539</v>
       </c>
       <c r="AC125">
-        <v>4.653</v>
+        <v>5.108</v>
       </c>
       <c r="AD125">
-        <v>153362</v>
+        <v>157651</v>
       </c>
       <c r="AE125">
-        <v>4.738</v>
+        <v>4.871</v>
       </c>
       <c r="AF125">
-        <v>0.135</v>
+        <v>0.132</v>
       </c>
       <c r="AG125">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AH125" t="s">
         <v>516</v>
@@ -17558,28 +17612,28 @@
         <v>1.06</v>
       </c>
       <c r="Z126">
-        <v>5048</v>
+        <v>6750</v>
       </c>
       <c r="AA126">
-        <v>1271880</v>
+        <v>1310121</v>
       </c>
       <c r="AB126">
-        <v>2352.972</v>
+        <v>2423.717</v>
       </c>
       <c r="AC126">
-        <v>9.339</v>
+        <v>12.487</v>
       </c>
       <c r="AD126">
-        <v>5777</v>
+        <v>5463</v>
       </c>
       <c r="AE126">
-        <v>10.687</v>
+        <v>10.107</v>
       </c>
       <c r="AF126">
-        <v>0.02</v>
+        <v>0.022</v>
       </c>
       <c r="AG126">
-        <v>49.6</v>
+        <v>45.3</v>
       </c>
       <c r="AH126" t="s">
         <v>519</v>
@@ -17838,28 +17892,28 @@
         <v>50.528</v>
       </c>
       <c r="Z128">
-        <v>3417</v>
+        <v>3496</v>
       </c>
       <c r="AA128">
-        <v>1129787</v>
+        <v>1152894</v>
       </c>
       <c r="AB128">
-        <v>2558.748</v>
+        <v>2611.081</v>
       </c>
       <c r="AC128">
-        <v>7.739</v>
+        <v>7.918</v>
       </c>
       <c r="AD128">
-        <v>3317</v>
+        <v>3301</v>
       </c>
       <c r="AE128">
-        <v>7.512</v>
+        <v>7.476</v>
       </c>
       <c r="AF128">
-        <v>0.018</v>
+        <v>0.022</v>
       </c>
       <c r="AG128">
-        <v>54.9</v>
+        <v>45.2</v>
       </c>
       <c r="AH128" t="s">
         <v>517</v>
@@ -17937,7 +17991,7 @@
         <v>0.895</v>
       </c>
     </row>
-    <row r="129" spans="1:61">
+    <row r="129" spans="1:62">
       <c r="A129" t="s">
         <v>189</v>
       </c>
@@ -18002,7 +18056,7 @@
         <v>0.704</v>
       </c>
     </row>
-    <row r="130" spans="1:61">
+    <row r="130" spans="1:62">
       <c r="A130" t="s">
         <v>190</v>
       </c>
@@ -18118,7 +18172,7 @@
         <v>0.546</v>
       </c>
     </row>
-    <row r="131" spans="1:61">
+    <row r="131" spans="1:62">
       <c r="A131" t="s">
         <v>191</v>
       </c>
@@ -18240,7 +18294,7 @@
         <v>0.804</v>
       </c>
     </row>
-    <row r="132" spans="1:61">
+    <row r="132" spans="1:62">
       <c r="A132" t="s">
         <v>192</v>
       </c>
@@ -18293,25 +18347,25 @@
         <v>1.13</v>
       </c>
       <c r="Z132">
-        <v>3985</v>
+        <v>18711</v>
       </c>
       <c r="AA132">
-        <v>8635667</v>
+        <v>8802064</v>
       </c>
       <c r="AB132">
-        <v>66.97799999999999</v>
+        <v>68.26900000000001</v>
       </c>
       <c r="AC132">
-        <v>0.031</v>
+        <v>0.145</v>
       </c>
       <c r="AD132">
-        <v>31753</v>
+        <v>30152</v>
       </c>
       <c r="AE132">
-        <v>0.246</v>
+        <v>0.234</v>
       </c>
       <c r="AF132">
-        <v>0.424</v>
+        <v>0.422</v>
       </c>
       <c r="AG132">
         <v>2.4</v>
@@ -18395,7 +18449,7 @@
         <v>0.779</v>
       </c>
     </row>
-    <row r="133" spans="1:61">
+    <row r="133" spans="1:62">
       <c r="A133" t="s">
         <v>193</v>
       </c>
@@ -18466,7 +18520,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="134" spans="1:61">
+    <row r="134" spans="1:62">
       <c r="A134" t="s">
         <v>194</v>
       </c>
@@ -18525,16 +18579,16 @@
         <v>370.083</v>
       </c>
       <c r="AD134">
-        <v>5617</v>
+        <v>5553</v>
       </c>
       <c r="AE134">
-        <v>1.392</v>
+        <v>1.377</v>
       </c>
       <c r="AF134">
-        <v>0.036</v>
+        <v>0.051</v>
       </c>
       <c r="AG134">
-        <v>27.8</v>
+        <v>19.7</v>
       </c>
       <c r="AH134" t="s">
         <v>517</v>
@@ -18615,7 +18669,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="135" spans="1:61">
+    <row r="135" spans="1:62">
       <c r="A135" t="s">
         <v>195</v>
       </c>
@@ -18710,7 +18764,7 @@
         <v>86.75</v>
       </c>
     </row>
-    <row r="136" spans="1:61">
+    <row r="136" spans="1:62">
       <c r="A136" t="s">
         <v>196</v>
       </c>
@@ -18838,7 +18892,7 @@
         <v>0.737</v>
       </c>
     </row>
-    <row r="137" spans="1:61">
+    <row r="137" spans="1:62">
       <c r="A137" t="s">
         <v>197</v>
       </c>
@@ -18960,7 +19014,7 @@
         <v>0.829</v>
       </c>
     </row>
-    <row r="138" spans="1:61">
+    <row r="138" spans="1:62">
       <c r="A138" t="s">
         <v>198</v>
       </c>
@@ -19004,7 +19058,7 @@
         <v>74.16</v>
       </c>
     </row>
-    <row r="139" spans="1:61">
+    <row r="139" spans="1:62">
       <c r="A139" t="s">
         <v>199</v>
       </c>
@@ -19057,28 +19111,28 @@
         <v>1.1</v>
       </c>
       <c r="Z139">
-        <v>51434</v>
+        <v>44125</v>
       </c>
       <c r="AA139">
-        <v>7454027</v>
+        <v>7735577</v>
       </c>
       <c r="AB139">
-        <v>201.948</v>
+        <v>209.576</v>
       </c>
       <c r="AC139">
-        <v>1.393</v>
+        <v>1.195</v>
       </c>
       <c r="AD139">
-        <v>40619</v>
+        <v>40221</v>
       </c>
       <c r="AE139">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AF139">
-        <v>0.231</v>
+        <v>0.215</v>
       </c>
       <c r="AG139">
-        <v>4.3</v>
+        <v>4.7</v>
       </c>
       <c r="AH139" t="s">
         <v>516</v>
@@ -19153,7 +19207,7 @@
         <v>0.6860000000000001</v>
       </c>
     </row>
-    <row r="140" spans="1:61">
+    <row r="140" spans="1:62">
       <c r="A140" t="s">
         <v>200</v>
       </c>
@@ -19206,28 +19260,28 @@
         <v>0.79</v>
       </c>
       <c r="Z140">
-        <v>5604</v>
+        <v>4022</v>
       </c>
       <c r="AA140">
-        <v>789771</v>
+        <v>815154</v>
       </c>
       <c r="AB140">
-        <v>25.268</v>
+        <v>26.08</v>
       </c>
       <c r="AC140">
-        <v>0.179</v>
+        <v>0.129</v>
       </c>
       <c r="AD140">
-        <v>4736</v>
+        <v>3626</v>
       </c>
       <c r="AE140">
-        <v>0.152</v>
+        <v>0.116</v>
       </c>
       <c r="AF140">
-        <v>0.244</v>
+        <v>0.206</v>
       </c>
       <c r="AG140">
-        <v>4.1</v>
+        <v>4.8</v>
       </c>
       <c r="AH140" t="s">
         <v>518</v>
@@ -19302,7 +19356,7 @@
         <v>0.456</v>
       </c>
     </row>
-    <row r="141" spans="1:61">
+    <row r="141" spans="1:62">
       <c r="A141" t="s">
         <v>201</v>
       </c>
@@ -19355,28 +19409,28 @@
         <v>0.88</v>
       </c>
       <c r="Z141">
-        <v>13767</v>
+        <v>11945</v>
       </c>
       <c r="AA141">
-        <v>3298004</v>
+        <v>3383579</v>
       </c>
       <c r="AB141">
-        <v>60.614</v>
+        <v>62.187</v>
       </c>
       <c r="AC141">
-        <v>0.253</v>
+        <v>0.22</v>
       </c>
       <c r="AD141">
-        <v>12631</v>
+        <v>12225</v>
       </c>
       <c r="AE141">
-        <v>0.232</v>
+        <v>0.225</v>
       </c>
       <c r="AF141">
-        <v>0.296</v>
+        <v>0.256</v>
       </c>
       <c r="AG141">
-        <v>3.4</v>
+        <v>3.9</v>
       </c>
       <c r="AH141" t="s">
         <v>519</v>
@@ -19430,7 +19484,7 @@
         <v>0.583</v>
       </c>
     </row>
-    <row r="142" spans="1:61">
+    <row r="142" spans="1:62">
       <c r="A142" t="s">
         <v>202</v>
       </c>
@@ -19483,28 +19537,28 @@
         <v>0.65</v>
       </c>
       <c r="Z142">
-        <v>1567</v>
+        <v>1731</v>
       </c>
       <c r="AA142">
-        <v>631650</v>
+        <v>641771</v>
       </c>
       <c r="AB142">
-        <v>248.591</v>
+        <v>252.575</v>
       </c>
       <c r="AC142">
-        <v>0.617</v>
+        <v>0.681</v>
       </c>
       <c r="AD142">
-        <v>1852</v>
+        <v>1446</v>
       </c>
       <c r="AE142">
-        <v>0.729</v>
+        <v>0.569</v>
       </c>
       <c r="AF142">
-        <v>0.125</v>
+        <v>0.127</v>
       </c>
       <c r="AG142">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="AH142" t="s">
         <v>519</v>
@@ -19582,7 +19636,7 @@
         <v>0.646</v>
       </c>
     </row>
-    <row r="143" spans="1:61">
+    <row r="143" spans="1:62">
       <c r="A143" t="s">
         <v>203</v>
       </c>
@@ -19635,28 +19689,28 @@
         <v>0.98</v>
       </c>
       <c r="Z143">
-        <v>10806</v>
+        <v>11946</v>
       </c>
       <c r="AA143">
-        <v>3729109</v>
+        <v>3803015</v>
       </c>
       <c r="AB143">
-        <v>127.986</v>
+        <v>130.523</v>
       </c>
       <c r="AC143">
-        <v>0.371</v>
+        <v>0.41</v>
       </c>
       <c r="AD143">
-        <v>10395</v>
+        <v>10558</v>
       </c>
       <c r="AE143">
-        <v>0.357</v>
+        <v>0.362</v>
       </c>
       <c r="AF143">
-        <v>0.243</v>
+        <v>0.223</v>
       </c>
       <c r="AG143">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="AH143" t="s">
         <v>517</v>
@@ -19737,7 +19791,7 @@
         <v>0.602</v>
       </c>
     </row>
-    <row r="144" spans="1:61">
+    <row r="144" spans="1:62">
       <c r="A144" t="s">
         <v>204</v>
       </c>
@@ -19814,22 +19868,22 @@
         <v>23.438</v>
       </c>
       <c r="AA144">
-        <v>12083348</v>
+        <v>12348581</v>
       </c>
       <c r="AB144">
-        <v>705.1900000000001</v>
+        <v>720.67</v>
       </c>
       <c r="AD144">
-        <v>16246</v>
+        <v>19402</v>
       </c>
       <c r="AE144">
-        <v>0.948</v>
+        <v>1.132</v>
       </c>
       <c r="AF144">
-        <v>0.063</v>
+        <v>0.073</v>
       </c>
       <c r="AG144">
-        <v>15.9</v>
+        <v>13.7</v>
       </c>
       <c r="AH144" t="s">
         <v>516</v>
@@ -19899,6 +19953,9 @@
       </c>
       <c r="BI144">
         <v>0.944</v>
+      </c>
+      <c r="BJ144">
+        <v>13.34</v>
       </c>
     </row>
     <row r="145" spans="1:61">
@@ -20013,28 +20070,28 @@
         <v>1.23</v>
       </c>
       <c r="Z146">
-        <v>6059</v>
+        <v>12884</v>
       </c>
       <c r="AA146">
-        <v>2564395</v>
+        <v>2584336</v>
       </c>
       <c r="AB146">
-        <v>531.7859999999999</v>
+        <v>535.921</v>
       </c>
       <c r="AC146">
-        <v>1.256</v>
+        <v>2.672</v>
       </c>
       <c r="AD146">
-        <v>5052</v>
+        <v>5966</v>
       </c>
       <c r="AE146">
-        <v>1.048</v>
+        <v>1.237</v>
       </c>
       <c r="AF146">
         <v>0.001</v>
       </c>
       <c r="AG146">
-        <v>1448.5</v>
+        <v>773.4</v>
       </c>
       <c r="AH146" t="s">
         <v>517</v>
@@ -20415,10 +20472,10 @@
         <v>0.036</v>
       </c>
       <c r="AF149">
-        <v>0.08799999999999999</v>
+        <v>0.083</v>
       </c>
       <c r="AG149">
-        <v>11.4</v>
+        <v>12</v>
       </c>
       <c r="AH149" t="s">
         <v>519</v>
@@ -20658,16 +20715,16 @@
         <v>501.796</v>
       </c>
       <c r="AD152">
-        <v>5659</v>
+        <v>7259</v>
       </c>
       <c r="AE152">
-        <v>2.716</v>
+        <v>3.484</v>
       </c>
       <c r="AF152">
-        <v>0.108</v>
+        <v>0.114</v>
       </c>
       <c r="AG152">
-        <v>9.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AH152" t="s">
         <v>517</v>
@@ -20845,28 +20902,28 @@
         <v>5.775</v>
       </c>
       <c r="Z154">
-        <v>8632</v>
+        <v>18859</v>
       </c>
       <c r="AA154">
-        <v>6769438</v>
+        <v>6821287</v>
       </c>
       <c r="AB154">
-        <v>1248.688</v>
+        <v>1258.252</v>
       </c>
       <c r="AC154">
-        <v>1.592</v>
+        <v>3.479</v>
       </c>
       <c r="AD154">
-        <v>16111</v>
+        <v>16339</v>
       </c>
       <c r="AE154">
-        <v>2.972</v>
+        <v>3.014</v>
       </c>
       <c r="AF154">
-        <v>0.032</v>
+        <v>0.033</v>
       </c>
       <c r="AG154">
-        <v>31.6</v>
+        <v>30.4</v>
       </c>
       <c r="AH154" t="s">
         <v>516</v>
@@ -21196,28 +21253,28 @@
         <v>0.99</v>
       </c>
       <c r="Z157">
-        <v>59136</v>
+        <v>55634</v>
       </c>
       <c r="AA157">
-        <v>16950196</v>
+        <v>17063290</v>
       </c>
       <c r="AB157">
-        <v>76.735</v>
+        <v>77.247</v>
       </c>
       <c r="AC157">
-        <v>0.268</v>
+        <v>0.252</v>
       </c>
       <c r="AD157">
-        <v>56965</v>
+        <v>55395</v>
       </c>
       <c r="AE157">
-        <v>0.258</v>
+        <v>0.251</v>
       </c>
       <c r="AF157">
-        <v>0.075</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AG157">
-        <v>13.3</v>
+        <v>14.4</v>
       </c>
       <c r="AH157" t="s">
         <v>517</v>
@@ -21351,22 +21408,22 @@
         <v>1.75</v>
       </c>
       <c r="Z158">
-        <v>5040</v>
+        <v>6857</v>
       </c>
       <c r="AC158">
-        <v>0.988</v>
+        <v>1.344</v>
       </c>
       <c r="AD158">
-        <v>4172</v>
+        <v>5417</v>
       </c>
       <c r="AE158">
-        <v>0.8179999999999999</v>
+        <v>1.062</v>
       </c>
       <c r="AF158">
-        <v>0.058</v>
+        <v>0.115</v>
       </c>
       <c r="AG158">
-        <v>17.3</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="AH158" t="s">
         <v>517</v>
@@ -21485,28 +21542,28 @@
         <v>0.9</v>
       </c>
       <c r="Z159">
-        <v>11724</v>
+        <v>11486</v>
       </c>
       <c r="AA159">
-        <v>3474388</v>
+        <v>3543469</v>
       </c>
       <c r="AB159">
-        <v>805.232</v>
+        <v>821.242</v>
       </c>
       <c r="AC159">
-        <v>2.717</v>
+        <v>2.662</v>
       </c>
       <c r="AD159">
-        <v>10048</v>
+        <v>9869</v>
       </c>
       <c r="AE159">
-        <v>2.329</v>
+        <v>2.287</v>
       </c>
       <c r="AF159">
-        <v>0.08400000000000001</v>
+        <v>0.073</v>
       </c>
       <c r="AG159">
-        <v>11.9</v>
+        <v>13.6</v>
       </c>
       <c r="AH159" t="s">
         <v>517</v>
@@ -21750,28 +21807,28 @@
         <v>0.6</v>
       </c>
       <c r="Z161">
-        <v>3270</v>
+        <v>3481</v>
       </c>
       <c r="AA161">
-        <v>1712947</v>
+        <v>1735964</v>
       </c>
       <c r="AB161">
-        <v>240.16</v>
+        <v>243.387</v>
       </c>
       <c r="AC161">
-        <v>0.458</v>
+        <v>0.488</v>
       </c>
       <c r="AD161">
-        <v>3344</v>
+        <v>3288</v>
       </c>
       <c r="AE161">
-        <v>0.469</v>
+        <v>0.461</v>
       </c>
       <c r="AF161">
-        <v>0.097</v>
+        <v>0.05</v>
       </c>
       <c r="AG161">
-        <v>10.3</v>
+        <v>19.9</v>
       </c>
       <c r="AH161" t="s">
         <v>517</v>
@@ -21898,6 +21955,33 @@
       <c r="Q162">
         <v>0.92</v>
       </c>
+      <c r="Z162">
+        <v>4658</v>
+      </c>
+      <c r="AA162">
+        <v>5037992</v>
+      </c>
+      <c r="AB162">
+        <v>152.797</v>
+      </c>
+      <c r="AC162">
+        <v>0.141</v>
+      </c>
+      <c r="AD162">
+        <v>9406</v>
+      </c>
+      <c r="AE162">
+        <v>0.285</v>
+      </c>
+      <c r="AF162">
+        <v>0.048</v>
+      </c>
+      <c r="AG162">
+        <v>20.8</v>
+      </c>
+      <c r="AH162" t="s">
+        <v>517</v>
+      </c>
       <c r="AI162">
         <v>16518355</v>
       </c>
@@ -21968,7 +22052,7 @@
         <v>0.777</v>
       </c>
       <c r="BJ162">
-        <v>31.67</v>
+        <v>34.93</v>
       </c>
     </row>
     <row r="163" spans="1:62">
@@ -22024,22 +22108,22 @@
         <v>1.26</v>
       </c>
       <c r="Z163">
-        <v>36439</v>
+        <v>64004</v>
       </c>
       <c r="AA163">
-        <v>16624411</v>
+        <v>16810880</v>
       </c>
       <c r="AB163">
-        <v>151.709</v>
+        <v>153.41</v>
       </c>
       <c r="AC163">
-        <v>0.333</v>
+        <v>0.584</v>
       </c>
       <c r="AD163">
-        <v>52869</v>
+        <v>56736</v>
       </c>
       <c r="AE163">
-        <v>0.482</v>
+        <v>0.518</v>
       </c>
       <c r="AF163">
         <v>0.223</v>
@@ -22182,28 +22266,28 @@
         <v>8.375999999999999</v>
       </c>
       <c r="Z164">
-        <v>39320</v>
+        <v>37854</v>
       </c>
       <c r="AA164">
-        <v>18659033</v>
+        <v>18932972</v>
       </c>
       <c r="AB164">
-        <v>493.017</v>
+        <v>500.255</v>
       </c>
       <c r="AC164">
-        <v>1.039</v>
+        <v>1</v>
       </c>
       <c r="AD164">
-        <v>38832</v>
+        <v>39134</v>
       </c>
       <c r="AE164">
-        <v>1.026</v>
+        <v>1.034</v>
       </c>
       <c r="AF164">
-        <v>0.004</v>
+        <v>0.005</v>
       </c>
       <c r="AG164">
-        <v>235.1</v>
+        <v>210.9</v>
       </c>
       <c r="AH164" t="s">
         <v>516</v>
@@ -22349,28 +22433,28 @@
         <v>7.576</v>
       </c>
       <c r="Z165">
-        <v>58231</v>
+        <v>54686</v>
       </c>
       <c r="AA165">
-        <v>16178925</v>
+        <v>16378600</v>
       </c>
       <c r="AB165">
-        <v>1586.681</v>
+        <v>1606.264</v>
       </c>
       <c r="AC165">
-        <v>5.711</v>
+        <v>5.363</v>
       </c>
       <c r="AD165">
-        <v>56869</v>
+        <v>57480</v>
       </c>
       <c r="AE165">
-        <v>5.577</v>
+        <v>5.637</v>
       </c>
       <c r="AF165">
         <v>0.041</v>
       </c>
       <c r="AG165">
-        <v>24.7</v>
+        <v>24.6</v>
       </c>
       <c r="AH165" t="s">
         <v>517</v>
@@ -22501,28 +22585,28 @@
         <v>1.2</v>
       </c>
       <c r="Z166">
-        <v>6085</v>
+        <v>6249</v>
       </c>
       <c r="AA166">
-        <v>2420179</v>
+        <v>2432003</v>
       </c>
       <c r="AB166">
-        <v>840.0309999999999</v>
+        <v>844.135</v>
       </c>
       <c r="AC166">
-        <v>2.112</v>
+        <v>2.169</v>
       </c>
       <c r="AD166">
-        <v>5567</v>
+        <v>5739</v>
       </c>
       <c r="AE166">
-        <v>1.932</v>
+        <v>1.992</v>
       </c>
       <c r="AF166">
         <v>0.039</v>
       </c>
       <c r="AG166">
-        <v>25.5</v>
+        <v>25.6</v>
       </c>
       <c r="AH166" t="s">
         <v>516</v>
@@ -22665,16 +22749,16 @@
         <v>462.075</v>
       </c>
       <c r="AD167">
-        <v>10389</v>
+        <v>12232</v>
       </c>
       <c r="AE167">
-        <v>0.54</v>
+        <v>0.636</v>
       </c>
       <c r="AF167">
-        <v>0.031</v>
+        <v>0.036</v>
       </c>
       <c r="AG167">
-        <v>32.1</v>
+        <v>27.8</v>
       </c>
       <c r="AH167" t="s">
         <v>517</v>
@@ -22805,22 +22889,22 @@
         <v>0.96</v>
       </c>
       <c r="AA168">
-        <v>172840809</v>
+        <v>174175810</v>
       </c>
       <c r="AB168">
-        <v>1184.373</v>
+        <v>1193.521</v>
       </c>
       <c r="AD168">
-        <v>439582</v>
+        <v>432834</v>
       </c>
       <c r="AE168">
-        <v>3.012</v>
+        <v>2.966</v>
       </c>
       <c r="AF168">
         <v>0.048</v>
       </c>
       <c r="AG168">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="AH168" t="s">
         <v>517</v>
@@ -22951,28 +23035,28 @@
         <v>0.77</v>
       </c>
       <c r="Z169">
-        <v>11638</v>
+        <v>10299</v>
       </c>
       <c r="AA169">
-        <v>2242105</v>
+        <v>2260839</v>
       </c>
       <c r="AB169">
-        <v>173.106</v>
+        <v>174.552</v>
       </c>
       <c r="AC169">
-        <v>0.899</v>
+        <v>0.795</v>
       </c>
       <c r="AD169">
-        <v>10947</v>
+        <v>10280</v>
       </c>
       <c r="AE169">
-        <v>0.845</v>
+        <v>0.794</v>
       </c>
       <c r="AF169">
-        <v>0.047</v>
+        <v>0.049</v>
       </c>
       <c r="AG169">
-        <v>21.2</v>
+        <v>20.4</v>
       </c>
       <c r="AH169" t="s">
         <v>519</v>
@@ -23100,28 +23184,28 @@
         <v>1.87</v>
       </c>
       <c r="Z170">
-        <v>252</v>
+        <v>301</v>
       </c>
       <c r="AA170">
-        <v>27817</v>
+        <v>28118</v>
       </c>
       <c r="AB170">
-        <v>522.955</v>
+        <v>528.6130000000001</v>
       </c>
       <c r="AC170">
-        <v>4.738</v>
+        <v>5.659</v>
       </c>
       <c r="AD170">
-        <v>125</v>
+        <v>145</v>
       </c>
       <c r="AE170">
-        <v>2.35</v>
+        <v>2.726</v>
       </c>
       <c r="AF170">
-        <v>0.04</v>
+        <v>0.11</v>
       </c>
       <c r="AG170">
-        <v>24.8</v>
+        <v>9.1</v>
       </c>
       <c r="AH170" t="s">
         <v>516</v>
@@ -23766,28 +23850,28 @@
         <v>0.9</v>
       </c>
       <c r="Z176">
-        <v>79383</v>
+        <v>69991</v>
       </c>
       <c r="AA176">
-        <v>26565684</v>
+        <v>26708643</v>
       </c>
       <c r="AB176">
-        <v>763.078</v>
+        <v>767.184</v>
       </c>
       <c r="AC176">
-        <v>2.28</v>
+        <v>2.01</v>
       </c>
       <c r="AD176">
-        <v>79628</v>
+        <v>75404</v>
       </c>
       <c r="AE176">
-        <v>2.287</v>
+        <v>2.166</v>
       </c>
       <c r="AF176">
-        <v>0.013</v>
+        <v>0.014</v>
       </c>
       <c r="AG176">
-        <v>77.5</v>
+        <v>73.40000000000001</v>
       </c>
       <c r="AH176" t="s">
         <v>517</v>
@@ -23912,28 +23996,28 @@
         <v>0.65</v>
       </c>
       <c r="Z177">
-        <v>2808</v>
+        <v>2571</v>
       </c>
       <c r="AA177">
-        <v>712864</v>
+        <v>720464</v>
       </c>
       <c r="AB177">
-        <v>42.574</v>
+        <v>43.028</v>
       </c>
       <c r="AC177">
-        <v>0.168</v>
+        <v>0.154</v>
       </c>
       <c r="AD177">
-        <v>3317</v>
+        <v>3023</v>
       </c>
       <c r="AE177">
-        <v>0.198</v>
+        <v>0.181</v>
       </c>
       <c r="AF177">
-        <v>0.122</v>
+        <v>0.08799999999999999</v>
       </c>
       <c r="AG177">
-        <v>8.199999999999999</v>
+        <v>11.3</v>
       </c>
       <c r="AH177" t="s">
         <v>517</v>
@@ -24061,28 +24145,28 @@
         <v>1.59</v>
       </c>
       <c r="Z178">
-        <v>11761</v>
+        <v>12869</v>
       </c>
       <c r="AA178">
-        <v>4831558</v>
+        <v>4870940</v>
       </c>
       <c r="AB178">
-        <v>710.043</v>
+        <v>715.831</v>
       </c>
       <c r="AC178">
-        <v>1.728</v>
+        <v>1.891</v>
       </c>
       <c r="AD178">
-        <v>10824</v>
+        <v>11586</v>
       </c>
       <c r="AE178">
-        <v>1.591</v>
+        <v>1.703</v>
       </c>
       <c r="AF178">
-        <v>0.091</v>
+        <v>0.109</v>
       </c>
       <c r="AG178">
-        <v>11</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AH178" t="s">
         <v>516</v>
@@ -24430,22 +24514,22 @@
         <v>0.78</v>
       </c>
       <c r="AA181">
-        <v>16614807</v>
+        <v>16926698</v>
       </c>
       <c r="AB181">
-        <v>2839.971</v>
+        <v>2893.283</v>
       </c>
       <c r="AD181">
-        <v>58372</v>
+        <v>44556</v>
       </c>
       <c r="AE181">
-        <v>9.978</v>
+        <v>7.616</v>
       </c>
       <c r="AF181">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="AG181">
-        <v>655.9</v>
+        <v>801.8</v>
       </c>
       <c r="AH181" t="s">
         <v>519</v>
@@ -24635,22 +24719,22 @@
         <v>0.55</v>
       </c>
       <c r="Z183">
-        <v>11094</v>
+        <v>12873</v>
       </c>
       <c r="AA183">
-        <v>40846316</v>
+        <v>40904258</v>
       </c>
       <c r="AB183">
-        <v>7481.499</v>
+        <v>7492.112</v>
       </c>
       <c r="AC183">
-        <v>2.032</v>
+        <v>2.358</v>
       </c>
       <c r="AD183">
-        <v>13806</v>
+        <v>14379</v>
       </c>
       <c r="AE183">
-        <v>2.529</v>
+        <v>2.634</v>
       </c>
       <c r="AF183">
         <v>0.007</v>
@@ -24811,28 +24895,28 @@
         <v>18.608</v>
       </c>
       <c r="Z184">
-        <v>2058</v>
+        <v>2481</v>
       </c>
       <c r="AA184">
-        <v>1416341</v>
+        <v>1423354</v>
       </c>
       <c r="AB184">
-        <v>681.283</v>
+        <v>684.6559999999999</v>
       </c>
       <c r="AC184">
-        <v>0.99</v>
+        <v>1.193</v>
       </c>
       <c r="AD184">
-        <v>1613</v>
+        <v>1802</v>
       </c>
       <c r="AE184">
-        <v>0.776</v>
+        <v>0.867</v>
       </c>
       <c r="AF184">
-        <v>0.127</v>
+        <v>0.145</v>
       </c>
       <c r="AG184">
-        <v>7.9</v>
+        <v>6.9</v>
       </c>
       <c r="AH184" t="s">
         <v>517</v>
@@ -25358,28 +25442,28 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="Z189">
-        <v>28143</v>
+        <v>39006</v>
       </c>
       <c r="AA189">
-        <v>11784297</v>
+        <v>11865964</v>
       </c>
       <c r="AB189">
-        <v>229.851</v>
+        <v>231.444</v>
       </c>
       <c r="AC189">
-        <v>0.549</v>
+        <v>0.761</v>
       </c>
       <c r="AD189">
-        <v>19733</v>
+        <v>24117</v>
       </c>
       <c r="AE189">
-        <v>0.385</v>
+        <v>0.47</v>
       </c>
       <c r="AF189">
-        <v>0.07099999999999999</v>
+        <v>0.075</v>
       </c>
       <c r="AG189">
-        <v>14.1</v>
+        <v>13.3</v>
       </c>
       <c r="AH189" t="s">
         <v>516</v>
@@ -25604,6 +25688,27 @@
       <c r="Y191">
         <v>28.057</v>
       </c>
+      <c r="AA191">
+        <v>53892999</v>
+      </c>
+      <c r="AB191">
+        <v>1152.673</v>
+      </c>
+      <c r="AD191">
+        <v>132552</v>
+      </c>
+      <c r="AE191">
+        <v>2.835</v>
+      </c>
+      <c r="AF191">
+        <v>0.12</v>
+      </c>
+      <c r="AG191">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AH191" t="s">
+        <v>517</v>
+      </c>
       <c r="AI191">
         <v>62665513</v>
       </c>
@@ -25730,28 +25835,28 @@
         <v>1.38</v>
       </c>
       <c r="Z192">
-        <v>18174</v>
+        <v>22290</v>
       </c>
       <c r="AA192">
-        <v>4668769</v>
+        <v>4725632</v>
       </c>
       <c r="AB192">
-        <v>218.032</v>
+        <v>220.687</v>
       </c>
       <c r="AC192">
-        <v>0.849</v>
+        <v>1.041</v>
       </c>
       <c r="AD192">
-        <v>17993</v>
+        <v>10720</v>
       </c>
       <c r="AE192">
-        <v>0.84</v>
+        <v>0.501</v>
       </c>
       <c r="AF192">
-        <v>0.191</v>
+        <v>0.374</v>
       </c>
       <c r="AG192">
-        <v>5.2</v>
+        <v>2.7</v>
       </c>
       <c r="AH192" t="s">
         <v>517</v>
@@ -26129,22 +26234,22 @@
         <v>1.646</v>
       </c>
       <c r="Z195">
-        <v>12950</v>
+        <v>14839</v>
       </c>
       <c r="AC195">
-        <v>1.282</v>
+        <v>1.469</v>
       </c>
       <c r="AD195">
-        <v>12950</v>
+        <v>14839</v>
       </c>
       <c r="AE195">
-        <v>1.282</v>
+        <v>1.469</v>
       </c>
       <c r="AF195">
-        <v>0.05</v>
+        <v>0.054</v>
       </c>
       <c r="AG195">
-        <v>20.2</v>
+        <v>18.5</v>
       </c>
       <c r="AH195" t="s">
         <v>517</v>
@@ -26293,28 +26398,28 @@
         <v>35.472</v>
       </c>
       <c r="Z196">
-        <v>19622</v>
+        <v>18854</v>
       </c>
       <c r="AA196">
-        <v>8952843</v>
+        <v>9026925</v>
       </c>
       <c r="AB196">
-        <v>1034.458</v>
+        <v>1043.018</v>
       </c>
       <c r="AC196">
-        <v>2.267</v>
+        <v>2.178</v>
       </c>
       <c r="AD196">
-        <v>19564</v>
+        <v>20606</v>
       </c>
       <c r="AE196">
-        <v>2.261</v>
+        <v>2.381</v>
       </c>
       <c r="AF196">
-        <v>0.112</v>
+        <v>0.132</v>
       </c>
       <c r="AG196">
-        <v>8.9</v>
+        <v>7.6</v>
       </c>
       <c r="AH196" t="s">
         <v>517</v>
@@ -26534,28 +26639,28 @@
         <v>0.85</v>
       </c>
       <c r="Z198">
-        <v>16277</v>
+        <v>11804</v>
       </c>
       <c r="AA198">
-        <v>2382988</v>
+        <v>2450350</v>
       </c>
       <c r="AB198">
-        <v>100.055</v>
+        <v>102.883</v>
       </c>
       <c r="AC198">
-        <v>0.6830000000000001</v>
+        <v>0.496</v>
       </c>
       <c r="AD198">
-        <v>18583</v>
+        <v>19159</v>
       </c>
       <c r="AE198">
-        <v>0.78</v>
+        <v>0.804</v>
       </c>
       <c r="AF198">
         <v>0.001</v>
       </c>
       <c r="AG198">
-        <v>1806.6</v>
+        <v>1741.7</v>
       </c>
       <c r="AH198" t="s">
         <v>516</v>
@@ -27037,25 +27142,25 @@
         <v>1.6</v>
       </c>
       <c r="Z202">
-        <v>1147</v>
+        <v>1289</v>
       </c>
       <c r="AA202">
-        <v>170647</v>
+        <v>171936</v>
       </c>
       <c r="AB202">
-        <v>129.431</v>
+        <v>130.408</v>
       </c>
       <c r="AC202">
-        <v>0.87</v>
+        <v>0.978</v>
       </c>
       <c r="AD202">
-        <v>862</v>
+        <v>921</v>
       </c>
       <c r="AE202">
-        <v>0.654</v>
+        <v>0.699</v>
       </c>
       <c r="AF202">
-        <v>0.198</v>
+        <v>0.199</v>
       </c>
       <c r="AG202">
         <v>5</v>
@@ -27189,28 +27294,28 @@
         <v>1.34</v>
       </c>
       <c r="Z203">
-        <v>1879</v>
+        <v>2122</v>
       </c>
       <c r="AA203">
-        <v>425908</v>
+        <v>437491</v>
       </c>
       <c r="AB203">
-        <v>51.446</v>
+        <v>52.845</v>
       </c>
       <c r="AC203">
-        <v>0.227</v>
+        <v>0.256</v>
       </c>
       <c r="AD203">
-        <v>1856</v>
+        <v>1923</v>
       </c>
       <c r="AE203">
-        <v>0.224</v>
+        <v>0.232</v>
       </c>
       <c r="AF203">
-        <v>0.093</v>
+        <v>0.101</v>
       </c>
       <c r="AG203">
-        <v>10.8</v>
+        <v>9.9</v>
       </c>
       <c r="AH203" t="s">
         <v>517</v>
@@ -27355,28 +27460,28 @@
         <v>1.09</v>
       </c>
       <c r="Z205">
-        <v>4993</v>
+        <v>850</v>
       </c>
       <c r="AA205">
-        <v>283910</v>
+        <v>285856</v>
       </c>
       <c r="AB205">
-        <v>202.867</v>
+        <v>204.257</v>
       </c>
       <c r="AC205">
-        <v>3.568</v>
+        <v>0.607</v>
       </c>
       <c r="AD205">
-        <v>1350</v>
+        <v>1386</v>
       </c>
       <c r="AE205">
-        <v>0.965</v>
+        <v>0.99</v>
       </c>
       <c r="AF205">
-        <v>0.149</v>
+        <v>0.168</v>
       </c>
       <c r="AG205">
-        <v>6.7</v>
+        <v>6</v>
       </c>
       <c r="AH205" t="s">
         <v>516</v>
@@ -27498,28 +27603,28 @@
         <v>0.8</v>
       </c>
       <c r="Z206">
-        <v>6046</v>
+        <v>13576</v>
       </c>
       <c r="AA206">
-        <v>2409634</v>
+        <v>2423210</v>
       </c>
       <c r="AB206">
-        <v>203.885</v>
+        <v>205.033</v>
       </c>
       <c r="AC206">
-        <v>0.512</v>
+        <v>1.149</v>
       </c>
       <c r="AD206">
-        <v>9090</v>
+        <v>9341</v>
       </c>
       <c r="AE206">
-        <v>0.769</v>
+        <v>0.79</v>
       </c>
       <c r="AF206">
-        <v>0.194</v>
+        <v>0.217</v>
       </c>
       <c r="AG206">
-        <v>5.2</v>
+        <v>4.6</v>
       </c>
       <c r="AH206" t="s">
         <v>516</v>
@@ -27828,28 +27933,28 @@
         <v>0.85</v>
       </c>
       <c r="Z209">
-        <v>3241</v>
+        <v>3099</v>
       </c>
       <c r="AA209">
-        <v>1511089</v>
+        <v>1536425</v>
       </c>
       <c r="AB209">
-        <v>33.036</v>
+        <v>33.59</v>
       </c>
       <c r="AC209">
-        <v>0.07099999999999999</v>
+        <v>0.068</v>
       </c>
       <c r="AD209">
-        <v>3448</v>
+        <v>3619</v>
       </c>
       <c r="AE209">
-        <v>0.075</v>
+        <v>0.079</v>
       </c>
       <c r="AF209">
-        <v>0.059</v>
+        <v>0.049</v>
       </c>
       <c r="AG209">
-        <v>17</v>
+        <v>20.6</v>
       </c>
       <c r="AH209" t="s">
         <v>519</v>
@@ -27974,28 +28079,28 @@
         <v>1.1</v>
       </c>
       <c r="Z210">
-        <v>24962</v>
+        <v>23612</v>
       </c>
       <c r="AA210">
-        <v>11699182</v>
+        <v>11749847</v>
       </c>
       <c r="AB210">
-        <v>267.509</v>
+        <v>268.668</v>
       </c>
       <c r="AC210">
-        <v>0.571</v>
+        <v>0.54</v>
       </c>
       <c r="AD210">
-        <v>20000</v>
+        <v>20712</v>
       </c>
       <c r="AE210">
-        <v>0.457</v>
+        <v>0.474</v>
       </c>
       <c r="AF210">
-        <v>0.077</v>
+        <v>0.082</v>
       </c>
       <c r="AG210">
-        <v>13.1</v>
+        <v>12.2</v>
       </c>
       <c r="AH210" t="s">
         <v>517</v>
@@ -28123,28 +28228,28 @@
         <v>0.88</v>
       </c>
       <c r="Z211">
-        <v>249792</v>
+        <v>318348</v>
       </c>
       <c r="AA211">
-        <v>70094386</v>
+        <v>70987563</v>
       </c>
       <c r="AB211">
-        <v>7087.113</v>
+        <v>7177.421</v>
       </c>
       <c r="AC211">
-        <v>25.256</v>
+        <v>32.188</v>
       </c>
       <c r="AD211">
-        <v>281146</v>
+        <v>280085</v>
       </c>
       <c r="AE211">
-        <v>28.426</v>
+        <v>28.319</v>
       </c>
       <c r="AF211">
         <v>0.004</v>
       </c>
       <c r="AG211">
-        <v>228.8</v>
+        <v>245.1</v>
       </c>
       <c r="AH211" t="s">
         <v>517</v>
@@ -28290,28 +28395,28 @@
         <v>79.42700000000001</v>
       </c>
       <c r="Z212">
-        <v>661103</v>
+        <v>813360</v>
       </c>
       <c r="AA212">
-        <v>231588398</v>
+        <v>233809959</v>
       </c>
       <c r="AB212">
-        <v>3411.431</v>
+        <v>3444.156</v>
       </c>
       <c r="AC212">
-        <v>9.738</v>
+        <v>11.981</v>
       </c>
       <c r="AD212">
-        <v>747277</v>
+        <v>738525</v>
       </c>
       <c r="AE212">
-        <v>11.008</v>
+        <v>10.879</v>
       </c>
       <c r="AF212">
-        <v>0.038</v>
+        <v>0.041</v>
       </c>
       <c r="AG212">
-        <v>26.3</v>
+        <v>24.6</v>
       </c>
       <c r="AH212" t="s">
         <v>517</v>
@@ -28460,28 +28565,28 @@
         <v>243.412</v>
       </c>
       <c r="Z213">
-        <v>691719</v>
+        <v>252720</v>
       </c>
       <c r="AA213">
-        <v>503184974</v>
+        <v>507032525</v>
       </c>
       <c r="AB213">
-        <v>1520.184</v>
+        <v>1531.808</v>
       </c>
       <c r="AC213">
-        <v>2.09</v>
+        <v>0.763</v>
       </c>
       <c r="AD213">
-        <v>864682</v>
+        <v>888640</v>
       </c>
       <c r="AE213">
-        <v>2.612</v>
+        <v>2.685</v>
       </c>
       <c r="AF213">
-        <v>0.143</v>
+        <v>0.151</v>
       </c>
       <c r="AG213">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="AH213" t="s">
         <v>517</v>
@@ -28612,28 +28717,28 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="Z214">
-        <v>10559</v>
+        <v>10539</v>
       </c>
       <c r="AA214">
-        <v>3207026</v>
+        <v>3234738</v>
       </c>
       <c r="AB214">
-        <v>923.223</v>
+        <v>931.201</v>
       </c>
       <c r="AC214">
-        <v>3.04</v>
+        <v>3.034</v>
       </c>
       <c r="AD214">
-        <v>10879</v>
+        <v>7621</v>
       </c>
       <c r="AE214">
-        <v>3.132</v>
+        <v>2.194</v>
       </c>
       <c r="AF214">
-        <v>0.011</v>
+        <v>0.014</v>
       </c>
       <c r="AG214">
-        <v>89.40000000000001</v>
+        <v>70.09999999999999</v>
       </c>
       <c r="AH214" t="s">
         <v>517</v>
@@ -29150,28 +29255,28 @@
         <v>1.12</v>
       </c>
       <c r="Z219">
-        <v>175150</v>
+        <v>209518</v>
       </c>
       <c r="AA219">
-        <v>9819987</v>
+        <v>10939961</v>
       </c>
       <c r="AB219">
-        <v>100.885</v>
+        <v>112.391</v>
       </c>
       <c r="AC219">
-        <v>1.799</v>
+        <v>2.152</v>
       </c>
       <c r="AD219">
-        <v>136493</v>
+        <v>159996</v>
       </c>
       <c r="AE219">
-        <v>1.402</v>
+        <v>1.644</v>
       </c>
       <c r="AF219">
-        <v>0.061</v>
+        <v>0.054</v>
       </c>
       <c r="AG219">
-        <v>16.3</v>
+        <v>18.6</v>
       </c>
       <c r="AH219" t="s">
         <v>519</v>
@@ -29575,28 +29680,28 @@
         <v>0.68</v>
       </c>
       <c r="Z223">
-        <v>3503</v>
+        <v>6811</v>
       </c>
       <c r="AA223">
-        <v>2181685</v>
+        <v>2201555</v>
       </c>
       <c r="AB223">
-        <v>118.673</v>
+        <v>119.754</v>
       </c>
       <c r="AC223">
-        <v>0.191</v>
+        <v>0.37</v>
       </c>
       <c r="AD223">
-        <v>5236</v>
+        <v>4735</v>
       </c>
       <c r="AE223">
-        <v>0.285</v>
+        <v>0.258</v>
       </c>
       <c r="AF223">
-        <v>0.061</v>
+        <v>0.054</v>
       </c>
       <c r="AG223">
-        <v>16.5</v>
+        <v>18.6</v>
       </c>
       <c r="AH223" t="s">
         <v>517</v>
@@ -29730,28 +29835,28 @@
         <v>0.7</v>
       </c>
       <c r="Z224">
-        <v>6182</v>
+        <v>5314</v>
       </c>
       <c r="AA224">
-        <v>1031309</v>
+        <v>1075390</v>
       </c>
       <c r="AB224">
-        <v>69.38800000000001</v>
+        <v>72.354</v>
       </c>
       <c r="AC224">
-        <v>0.416</v>
+        <v>0.358</v>
       </c>
       <c r="AD224">
-        <v>5524</v>
+        <v>6297</v>
       </c>
       <c r="AE224">
-        <v>0.372</v>
+        <v>0.424</v>
       </c>
       <c r="AF224">
-        <v>0.115</v>
+        <v>0.08</v>
       </c>
       <c r="AG224">
-        <v>8.699999999999999</v>
+        <v>12.4</v>
       </c>
       <c r="AH224" t="s">
         <v>517</v>

--- a/public/data/latest/owid-covid-latest.xlsx
+++ b/public/data/latest/owid-covid-latest.xlsx
@@ -2490,10 +2490,10 @@
         <v>0.73</v>
       </c>
       <c r="R5">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="S5">
-        <v>0.912</v>
+        <v>0.753</v>
       </c>
       <c r="AU5">
         <v>43851043</v>
@@ -6537,16 +6537,16 @@
         <v>1.47</v>
       </c>
       <c r="R38">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="S38">
-        <v>7.631</v>
+        <v>7.525</v>
       </c>
       <c r="T38">
-        <v>706</v>
+        <v>743</v>
       </c>
       <c r="U38">
-        <v>18.706</v>
+        <v>19.686</v>
       </c>
       <c r="Z38">
         <v>76230</v>
@@ -14367,16 +14367,16 @@
         <v>1.48</v>
       </c>
       <c r="R101">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="S101">
-        <v>17.214</v>
+        <v>16.406</v>
       </c>
       <c r="T101">
-        <v>994</v>
+        <v>1123</v>
       </c>
       <c r="U101">
-        <v>114.84</v>
+        <v>129.743</v>
       </c>
       <c r="V101">
         <v>610</v>
@@ -14385,10 +14385,10 @@
         <v>70.47499999999999</v>
       </c>
       <c r="X101">
-        <v>1153</v>
+        <v>1154</v>
       </c>
       <c r="Y101">
-        <v>133.209</v>
+        <v>133.325</v>
       </c>
       <c r="Z101">
         <v>146296</v>
@@ -26380,22 +26380,22 @@
         <v>1.68</v>
       </c>
       <c r="R196">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="S196">
-        <v>18.834</v>
+        <v>19.643</v>
       </c>
       <c r="T196">
-        <v>604</v>
+        <v>645</v>
       </c>
       <c r="U196">
-        <v>69.789</v>
+        <v>74.527</v>
       </c>
       <c r="X196">
-        <v>307</v>
+        <v>333</v>
       </c>
       <c r="Y196">
-        <v>35.472</v>
+        <v>38.477</v>
       </c>
       <c r="Z196">
         <v>18854</v>
@@ -28377,22 +28377,22 @@
         <v>1.05</v>
       </c>
       <c r="R212">
-        <v>925</v>
+        <v>909</v>
       </c>
       <c r="S212">
-        <v>13.626</v>
+        <v>13.39</v>
       </c>
       <c r="T212">
-        <v>6321</v>
+        <v>6379</v>
       </c>
       <c r="U212">
-        <v>93.11199999999999</v>
+        <v>93.96599999999999</v>
       </c>
       <c r="X212">
-        <v>5392</v>
+        <v>5698</v>
       </c>
       <c r="Y212">
-        <v>79.42700000000001</v>
+        <v>83.935</v>
       </c>
       <c r="Z212">
         <v>813360</v>
@@ -28547,22 +28547,22 @@
         <v>1.26</v>
       </c>
       <c r="R213">
-        <v>22029</v>
+        <v>21795</v>
       </c>
       <c r="S213">
-        <v>66.55200000000001</v>
+        <v>65.845</v>
       </c>
       <c r="T213">
-        <v>85746</v>
+        <v>85001</v>
       </c>
       <c r="U213">
-        <v>259.049</v>
+        <v>256.799</v>
       </c>
       <c r="X213">
-        <v>80570</v>
+        <v>80474</v>
       </c>
       <c r="Y213">
-        <v>243.412</v>
+        <v>243.122</v>
       </c>
       <c r="Z213">
         <v>252720</v>

--- a/public/data/latest/owid-covid-latest.xlsx
+++ b/public/data/latest/owid-covid-latest.xlsx
@@ -2246,37 +2246,37 @@
         <v>508</v>
       </c>
       <c r="E3">
-        <v>7412801</v>
+        <v>7412648</v>
       </c>
       <c r="F3">
-        <v>39383</v>
+        <v>39483</v>
       </c>
       <c r="G3">
-        <v>35496</v>
+        <v>35474.143</v>
       </c>
       <c r="H3">
         <v>187173</v>
       </c>
       <c r="I3">
-        <v>752</v>
+        <v>756</v>
       </c>
       <c r="J3">
         <v>873.7140000000001</v>
       </c>
       <c r="K3">
-        <v>5529.473</v>
+        <v>5529.359</v>
       </c>
       <c r="L3">
-        <v>29.377</v>
+        <v>29.452</v>
       </c>
       <c r="M3">
-        <v>26.478</v>
+        <v>26.461</v>
       </c>
       <c r="N3">
         <v>139.619</v>
       </c>
       <c r="O3">
-        <v>0.5610000000000001</v>
+        <v>0.5639999999999999</v>
       </c>
       <c r="P3">
         <v>0.652</v>
@@ -7903,37 +7903,37 @@
         <v>508</v>
       </c>
       <c r="E49">
-        <v>53089</v>
+        <v>52936</v>
       </c>
       <c r="F49">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G49">
-        <v>166.143</v>
+        <v>144.286</v>
       </c>
       <c r="H49">
         <v>373</v>
       </c>
       <c r="I49">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J49">
         <v>2.714</v>
       </c>
       <c r="K49">
-        <v>2012.603</v>
+        <v>2006.803</v>
       </c>
       <c r="L49">
-        <v>0</v>
+        <v>3.791</v>
       </c>
       <c r="M49">
-        <v>6.298</v>
+        <v>5.47</v>
       </c>
       <c r="N49">
         <v>14.14</v>
       </c>
       <c r="O49">
-        <v>0</v>
+        <v>0.152</v>
       </c>
       <c r="P49">
         <v>0.103</v>
@@ -10925,7 +10925,7 @@
         <v>6997</v>
       </c>
       <c r="AT72">
-        <v>43.98</v>
+        <v>39.81</v>
       </c>
       <c r="AU72">
         <v>5540718</v>
@@ -12744,6 +12744,9 @@
       <c r="AS88">
         <v>4006</v>
       </c>
+      <c r="AT88">
+        <v>56.48</v>
+      </c>
       <c r="AU88">
         <v>786559</v>
       </c>
@@ -20956,7 +20959,7 @@
         <v>9053</v>
       </c>
       <c r="AT154">
-        <v>47.22</v>
+        <v>38.89</v>
       </c>
       <c r="AU154">
         <v>5421242</v>
@@ -26120,6 +26123,9 @@
       <c r="AS194">
         <v>4930</v>
       </c>
+      <c r="AT194">
+        <v>83.33</v>
+      </c>
       <c r="AU194">
         <v>586634</v>
       </c>
@@ -28449,7 +28455,7 @@
         <v>3016</v>
       </c>
       <c r="AT212">
-        <v>38.43</v>
+        <v>43.98</v>
       </c>
       <c r="AU212">
         <v>67886004</v>
@@ -29412,37 +29418,37 @@
         <v>508</v>
       </c>
       <c r="E221">
-        <v>210000231</v>
+        <v>210000078</v>
       </c>
       <c r="F221">
-        <v>696609</v>
+        <v>696709</v>
       </c>
       <c r="G221">
-        <v>655156.143</v>
+        <v>655134.286</v>
       </c>
       <c r="H221">
         <v>4403578</v>
       </c>
       <c r="I221">
-        <v>10611</v>
+        <v>10615</v>
       </c>
       <c r="J221">
         <v>9824.429</v>
       </c>
       <c r="K221">
-        <v>26941.072</v>
+        <v>26941.052</v>
       </c>
       <c r="L221">
-        <v>89.36799999999999</v>
+        <v>89.381</v>
       </c>
       <c r="M221">
-        <v>84.05</v>
+        <v>84.048</v>
       </c>
       <c r="N221">
         <v>564.938</v>
       </c>
       <c r="O221">
-        <v>1.361</v>
+        <v>1.362</v>
       </c>
       <c r="P221">
         <v>1.26</v>

--- a/public/data/latest/owid-covid-latest.xlsx
+++ b/public/data/latest/owid-covid-latest.xlsx
@@ -3248,40 +3248,40 @@
         <v>504</v>
       </c>
       <c r="E12">
-        <v>67298196</v>
+        <v>67332653</v>
       </c>
       <c r="F12">
-        <v>229863</v>
+        <v>264320</v>
       </c>
       <c r="G12">
-        <v>255482</v>
+        <v>260404.429</v>
       </c>
       <c r="H12">
-        <v>991551</v>
+        <v>991926</v>
       </c>
       <c r="I12">
-        <v>4137</v>
+        <v>4512</v>
       </c>
       <c r="J12">
-        <v>4513.571</v>
+        <v>4567.143</v>
       </c>
       <c r="K12">
-        <v>14504.398</v>
+        <v>14511.825</v>
       </c>
       <c r="L12">
-        <v>49.541</v>
+        <v>56.967</v>
       </c>
       <c r="M12">
-        <v>55.063</v>
+        <v>56.123</v>
       </c>
       <c r="N12">
-        <v>213.703</v>
+        <v>213.784</v>
       </c>
       <c r="O12">
-        <v>0.892</v>
+        <v>0.972</v>
       </c>
       <c r="P12">
-        <v>0.973</v>
+        <v>0.984</v>
       </c>
       <c r="AI12">
         <v>3194490628</v>
@@ -13406,40 +13406,40 @@
         <v>504</v>
       </c>
       <c r="E93">
-        <v>32358829</v>
+        <v>32393286</v>
       </c>
       <c r="F93">
-        <v>0</v>
+        <v>34457</v>
       </c>
       <c r="G93">
-        <v>28905.143</v>
+        <v>33827.571</v>
       </c>
       <c r="H93">
-        <v>433589</v>
+        <v>433964</v>
       </c>
       <c r="I93">
-        <v>0</v>
+        <v>375</v>
       </c>
       <c r="J93">
-        <v>408.143</v>
+        <v>461.714</v>
       </c>
       <c r="K93">
-        <v>23448.352</v>
+        <v>23473.321</v>
       </c>
       <c r="L93">
-        <v>0</v>
+        <v>24.969</v>
       </c>
       <c r="M93">
-        <v>20.946</v>
+        <v>24.513</v>
       </c>
       <c r="N93">
-        <v>314.194</v>
+        <v>314.466</v>
       </c>
       <c r="O93">
-        <v>0</v>
+        <v>0.272</v>
       </c>
       <c r="P93">
-        <v>0.296</v>
+        <v>0.335</v>
       </c>
       <c r="Q93">
         <v>0.9399999999999999</v>
@@ -29249,40 +29249,40 @@
         <v>504</v>
       </c>
       <c r="E219">
-        <v>210829653</v>
+        <v>210864110</v>
       </c>
       <c r="F219">
-        <v>829575</v>
+        <v>864032</v>
       </c>
       <c r="G219">
-        <v>649838.857</v>
+        <v>654761.286</v>
       </c>
       <c r="H219">
-        <v>4414877</v>
+        <v>4415252</v>
       </c>
       <c r="I219">
-        <v>11299</v>
+        <v>11674</v>
       </c>
       <c r="J219">
-        <v>9825</v>
+        <v>9878.571</v>
       </c>
       <c r="K219">
-        <v>27047.479</v>
+        <v>27051.899</v>
       </c>
       <c r="L219">
-        <v>106.427</v>
+        <v>110.847</v>
       </c>
       <c r="M219">
-        <v>83.36799999999999</v>
+        <v>84</v>
       </c>
       <c r="N219">
-        <v>566.388</v>
+        <v>566.436</v>
       </c>
       <c r="O219">
-        <v>1.45</v>
+        <v>1.498</v>
       </c>
       <c r="P219">
-        <v>1.26</v>
+        <v>1.267</v>
       </c>
       <c r="Q219">
         <v>1.03</v>

--- a/public/data/latest/owid-covid-latest.xlsx
+++ b/public/data/latest/owid-covid-latest.xlsx
@@ -1531,22 +1531,22 @@
     <t>2021-08-20</t>
   </si>
   <si>
+    <t>2021-08-13</t>
+  </si>
+  <si>
     <t>2021-08-19</t>
   </si>
   <si>
-    <t>2021-08-13</t>
+    <t>2021-08-16</t>
+  </si>
+  <si>
+    <t>2021-08-17</t>
+  </si>
+  <si>
+    <t>2021-08-15</t>
   </si>
   <si>
     <t>2021-08-18</t>
-  </si>
-  <si>
-    <t>2021-08-16</t>
-  </si>
-  <si>
-    <t>2021-08-17</t>
-  </si>
-  <si>
-    <t>2021-08-15</t>
   </si>
   <si>
     <t>2021-08-09</t>
@@ -2270,31 +2270,31 @@
         <v>0.609</v>
       </c>
       <c r="AI3">
-        <v>88631426</v>
+        <v>89895932</v>
       </c>
       <c r="AJ3">
-        <v>60075365</v>
+        <v>60888772</v>
       </c>
       <c r="AK3">
-        <v>31374048</v>
+        <v>32188411</v>
       </c>
       <c r="AM3">
-        <v>1203334</v>
+        <v>1221521</v>
       </c>
       <c r="AN3">
-        <v>1094171</v>
+        <v>1137394</v>
       </c>
       <c r="AO3">
-        <v>6.61</v>
+        <v>6.71</v>
       </c>
       <c r="AP3">
-        <v>4.48</v>
+        <v>4.54</v>
       </c>
       <c r="AQ3">
-        <v>2.34</v>
+        <v>2.4</v>
       </c>
       <c r="AS3">
-        <v>816</v>
+        <v>848</v>
       </c>
       <c r="AU3">
         <v>1340598113</v>
@@ -2704,28 +2704,28 @@
         <v>1.1</v>
       </c>
       <c r="AI7">
-        <v>1727488</v>
+        <v>1754073</v>
       </c>
       <c r="AJ7">
-        <v>1000191</v>
+        <v>1025762</v>
       </c>
       <c r="AK7">
-        <v>727297</v>
+        <v>728311</v>
       </c>
       <c r="AN7">
-        <v>4557</v>
+        <v>5751</v>
       </c>
       <c r="AO7">
-        <v>5.26</v>
+        <v>5.34</v>
       </c>
       <c r="AP7">
-        <v>3.04</v>
+        <v>3.12</v>
       </c>
       <c r="AQ7">
-        <v>2.21</v>
+        <v>2.22</v>
       </c>
       <c r="AS7">
-        <v>139</v>
+        <v>175</v>
       </c>
       <c r="AU7">
         <v>32866268</v>
@@ -2951,31 +2951,31 @@
         <v>513</v>
       </c>
       <c r="AI9">
-        <v>37689167</v>
+        <v>38145435</v>
       </c>
       <c r="AJ9">
-        <v>26902913</v>
+        <v>26993547</v>
       </c>
       <c r="AK9">
-        <v>10786254</v>
+        <v>11151888</v>
       </c>
       <c r="AM9">
-        <v>454648</v>
+        <v>456268</v>
       </c>
       <c r="AN9">
-        <v>275239</v>
+        <v>301058</v>
       </c>
       <c r="AO9">
-        <v>83.39</v>
+        <v>84.40000000000001</v>
       </c>
       <c r="AP9">
-        <v>59.53</v>
+        <v>59.73</v>
       </c>
       <c r="AQ9">
-        <v>23.87</v>
+        <v>24.67</v>
       </c>
       <c r="AS9">
-        <v>6090</v>
+        <v>6661</v>
       </c>
       <c r="AT9">
         <v>75.93000000000001</v>
@@ -3183,34 +3183,34 @@
         <v>297</v>
       </c>
       <c r="D11" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="AI11">
-        <v>143396</v>
+        <v>143661</v>
       </c>
       <c r="AJ11">
-        <v>74987</v>
+        <v>75163</v>
       </c>
       <c r="AK11">
-        <v>68409</v>
+        <v>68498</v>
       </c>
       <c r="AM11">
-        <v>366</v>
+        <v>265</v>
       </c>
       <c r="AN11">
-        <v>326</v>
+        <v>293</v>
       </c>
       <c r="AO11">
-        <v>134.31</v>
+        <v>134.56</v>
       </c>
       <c r="AP11">
-        <v>70.23</v>
+        <v>70.40000000000001</v>
       </c>
       <c r="AQ11">
-        <v>64.06999999999999</v>
+        <v>64.16</v>
       </c>
       <c r="AS11">
-        <v>3053</v>
+        <v>2744</v>
       </c>
       <c r="AU11">
         <v>106766</v>
@@ -3284,37 +3284,37 @@
         <v>0.984</v>
       </c>
       <c r="AI12">
-        <v>3194490628</v>
+        <v>3219535273</v>
       </c>
       <c r="AJ12">
-        <v>1515829522</v>
+        <v>1524211363</v>
       </c>
       <c r="AK12">
-        <v>1158727672</v>
+        <v>1163166104</v>
       </c>
       <c r="AL12">
-        <v>9589106</v>
+        <v>9905455</v>
       </c>
       <c r="AM12">
-        <v>23074757</v>
+        <v>23789659</v>
       </c>
       <c r="AN12">
-        <v>25907500</v>
+        <v>25178505</v>
       </c>
       <c r="AO12">
-        <v>68.84999999999999</v>
+        <v>69.39</v>
       </c>
       <c r="AP12">
-        <v>32.67</v>
+        <v>32.85</v>
       </c>
       <c r="AQ12">
-        <v>24.97</v>
+        <v>25.07</v>
       </c>
       <c r="AR12">
         <v>0.21</v>
       </c>
       <c r="AS12">
-        <v>5584</v>
+        <v>5427</v>
       </c>
       <c r="AU12">
         <v>4639847425</v>
@@ -3400,31 +3400,31 @@
         <v>513</v>
       </c>
       <c r="AI13">
-        <v>16201270</v>
+        <v>16504574</v>
       </c>
       <c r="AJ13">
-        <v>10430071</v>
+        <v>10591251</v>
       </c>
       <c r="AK13">
-        <v>5771199</v>
+        <v>5913323</v>
       </c>
       <c r="AM13">
-        <v>309010</v>
+        <v>303304</v>
       </c>
       <c r="AN13">
-        <v>246421</v>
+        <v>251050</v>
       </c>
       <c r="AO13">
-        <v>63.53</v>
+        <v>64.72</v>
       </c>
       <c r="AP13">
-        <v>40.9</v>
+        <v>41.53</v>
       </c>
       <c r="AQ13">
-        <v>22.63</v>
+        <v>23.19</v>
       </c>
       <c r="AS13">
-        <v>9664</v>
+        <v>9845</v>
       </c>
       <c r="AT13">
         <v>68.06</v>
@@ -3564,31 +3564,31 @@
         <v>513</v>
       </c>
       <c r="AI14">
-        <v>10275681</v>
+        <v>10302337</v>
       </c>
       <c r="AJ14">
-        <v>5422320</v>
+        <v>5431448</v>
       </c>
       <c r="AK14">
-        <v>5084278</v>
+        <v>5104843</v>
       </c>
       <c r="AM14">
-        <v>23977</v>
+        <v>23960</v>
       </c>
       <c r="AN14">
-        <v>20763</v>
+        <v>20690</v>
       </c>
       <c r="AO14">
-        <v>114.09</v>
+        <v>114.39</v>
       </c>
       <c r="AP14">
-        <v>60.21</v>
+        <v>60.31</v>
       </c>
       <c r="AQ14">
-        <v>56.45</v>
+        <v>56.68</v>
       </c>
       <c r="AS14">
-        <v>2305</v>
+        <v>2297</v>
       </c>
       <c r="AT14">
         <v>56.02</v>
@@ -3716,31 +3716,31 @@
         <v>513</v>
       </c>
       <c r="AI15">
-        <v>5991016</v>
+        <v>6045471</v>
       </c>
       <c r="AJ15">
-        <v>3574157</v>
+        <v>3617203</v>
       </c>
       <c r="AK15">
-        <v>2416859</v>
+        <v>2428268</v>
       </c>
       <c r="AM15">
-        <v>58282</v>
+        <v>54455</v>
       </c>
       <c r="AN15">
-        <v>54775</v>
+        <v>53476</v>
       </c>
       <c r="AO15">
-        <v>59.09</v>
+        <v>59.62</v>
       </c>
       <c r="AP15">
-        <v>35.25</v>
+        <v>35.68</v>
       </c>
       <c r="AQ15">
-        <v>23.84</v>
+        <v>23.95</v>
       </c>
       <c r="AS15">
-        <v>5402</v>
+        <v>5274</v>
       </c>
       <c r="AT15">
         <v>61.11</v>
@@ -3841,28 +3841,28 @@
         <v>1.16</v>
       </c>
       <c r="AI16">
-        <v>110443</v>
+        <v>119473</v>
       </c>
       <c r="AJ16">
-        <v>62863</v>
+        <v>68323</v>
       </c>
       <c r="AK16">
-        <v>47580</v>
+        <v>51150</v>
       </c>
       <c r="AN16">
-        <v>426</v>
+        <v>821</v>
       </c>
       <c r="AO16">
-        <v>28.08</v>
+        <v>30.38</v>
       </c>
       <c r="AP16">
-        <v>15.99</v>
+        <v>17.37</v>
       </c>
       <c r="AQ16">
-        <v>12.1</v>
+        <v>13.01</v>
       </c>
       <c r="AS16">
-        <v>1083</v>
+        <v>2088</v>
       </c>
       <c r="AT16">
         <v>55.56</v>
@@ -3987,31 +3987,31 @@
         <v>514</v>
       </c>
       <c r="AI17">
-        <v>2438316</v>
+        <v>2441022</v>
       </c>
       <c r="AJ17">
-        <v>1129629</v>
+        <v>1130698</v>
       </c>
       <c r="AK17">
-        <v>1074838</v>
+        <v>1075461</v>
       </c>
       <c r="AM17">
-        <v>1956</v>
+        <v>2706</v>
       </c>
       <c r="AN17">
-        <v>4388</v>
+        <v>4057</v>
       </c>
       <c r="AO17">
-        <v>143.3</v>
+        <v>143.46</v>
       </c>
       <c r="AP17">
-        <v>66.39</v>
+        <v>66.45</v>
       </c>
       <c r="AQ17">
-        <v>63.17</v>
+        <v>63.2</v>
       </c>
       <c r="AS17">
-        <v>2579</v>
+        <v>2384</v>
       </c>
       <c r="AT17">
         <v>53.7</v>
@@ -4261,31 +4261,31 @@
         <v>1.18</v>
       </c>
       <c r="AI19">
-        <v>188324</v>
+        <v>190718</v>
       </c>
       <c r="AJ19">
-        <v>101228</v>
+        <v>101732</v>
       </c>
       <c r="AK19">
-        <v>87096</v>
+        <v>88986</v>
       </c>
       <c r="AM19">
-        <v>1034</v>
+        <v>1638</v>
       </c>
       <c r="AN19">
-        <v>791</v>
+        <v>797</v>
       </c>
       <c r="AO19">
-        <v>65.53</v>
+        <v>66.37</v>
       </c>
       <c r="AP19">
-        <v>35.23</v>
+        <v>35.4</v>
       </c>
       <c r="AQ19">
-        <v>30.31</v>
+        <v>30.97</v>
       </c>
       <c r="AS19">
-        <v>2753</v>
+        <v>2773</v>
       </c>
       <c r="AT19">
         <v>50</v>
@@ -4577,31 +4577,31 @@
         <v>513</v>
       </c>
       <c r="AI21">
-        <v>15733985</v>
+        <v>15782561</v>
       </c>
       <c r="AJ21">
-        <v>8322087</v>
+        <v>8333088</v>
       </c>
       <c r="AK21">
-        <v>7757994</v>
+        <v>7796625</v>
       </c>
       <c r="AM21">
-        <v>32509</v>
+        <v>30196</v>
       </c>
       <c r="AN21">
-        <v>39235</v>
+        <v>35276</v>
       </c>
       <c r="AO21">
-        <v>135.76</v>
+        <v>136.18</v>
       </c>
       <c r="AP21">
-        <v>71.81</v>
+        <v>71.90000000000001</v>
       </c>
       <c r="AQ21">
-        <v>66.94</v>
+        <v>67.27</v>
       </c>
       <c r="AS21">
-        <v>3385</v>
+        <v>3044</v>
       </c>
       <c r="AT21">
         <v>47.22</v>
@@ -4842,28 +4842,28 @@
         <v>0.18</v>
       </c>
       <c r="AI23">
-        <v>72999</v>
+        <v>96579</v>
       </c>
       <c r="AJ23">
-        <v>50751</v>
+        <v>54367</v>
       </c>
       <c r="AK23">
-        <v>22248</v>
+        <v>42212</v>
       </c>
       <c r="AN23">
-        <v>206</v>
+        <v>3457</v>
       </c>
       <c r="AO23">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="AP23">
-        <v>0.42</v>
+        <v>0.45</v>
       </c>
       <c r="AQ23">
-        <v>0.18</v>
+        <v>0.35</v>
       </c>
       <c r="AS23">
-        <v>17</v>
+        <v>285</v>
       </c>
       <c r="AT23">
         <v>38.89</v>
@@ -4925,31 +4925,31 @@
         <v>309</v>
       </c>
       <c r="D24" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="AI24">
-        <v>83297</v>
+        <v>84022</v>
       </c>
       <c r="AJ24">
-        <v>42074</v>
+        <v>42430</v>
       </c>
       <c r="AK24">
-        <v>41223</v>
+        <v>41592</v>
       </c>
       <c r="AN24">
-        <v>46</v>
+        <v>104</v>
       </c>
       <c r="AO24">
-        <v>133.76</v>
+        <v>134.93</v>
       </c>
       <c r="AP24">
-        <v>67.56</v>
+        <v>68.14</v>
       </c>
       <c r="AQ24">
-        <v>66.2</v>
+        <v>66.79000000000001</v>
       </c>
       <c r="AS24">
-        <v>739</v>
+        <v>1670</v>
       </c>
       <c r="AU24">
         <v>62273</v>
@@ -5169,31 +5169,31 @@
         <v>513</v>
       </c>
       <c r="AI26">
-        <v>5215804</v>
+        <v>5270463</v>
       </c>
       <c r="AJ26">
-        <v>3023644</v>
+        <v>3033516</v>
       </c>
       <c r="AK26">
-        <v>2192160</v>
+        <v>2236947</v>
       </c>
       <c r="AM26">
-        <v>61551</v>
+        <v>54659</v>
       </c>
       <c r="AN26">
-        <v>39112</v>
+        <v>37932</v>
       </c>
       <c r="AO26">
-        <v>44.68</v>
+        <v>45.15</v>
       </c>
       <c r="AP26">
-        <v>25.9</v>
+        <v>25.99</v>
       </c>
       <c r="AQ26">
-        <v>18.78</v>
+        <v>19.16</v>
       </c>
       <c r="AS26">
-        <v>3351</v>
+        <v>3250</v>
       </c>
       <c r="AU26">
         <v>11673029</v>
@@ -5315,31 +5315,31 @@
         <v>513</v>
       </c>
       <c r="AI27">
-        <v>865306</v>
+        <v>928126</v>
       </c>
       <c r="AJ27">
-        <v>537608</v>
+        <v>567198</v>
       </c>
       <c r="AK27">
-        <v>327698</v>
+        <v>360928</v>
       </c>
       <c r="AM27">
         <v>66884</v>
       </c>
       <c r="AN27">
-        <v>14612</v>
+        <v>8974</v>
       </c>
       <c r="AO27">
-        <v>26.37</v>
+        <v>28.29</v>
       </c>
       <c r="AP27">
-        <v>16.39</v>
+        <v>17.29</v>
       </c>
       <c r="AQ27">
-        <v>9.99</v>
+        <v>11</v>
       </c>
       <c r="AS27">
-        <v>4454</v>
+        <v>2735</v>
       </c>
       <c r="AT27">
         <v>35.19</v>
@@ -5645,7 +5645,7 @@
         <v>315</v>
       </c>
       <c r="D30" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="AI30">
         <v>29172</v>
@@ -5886,31 +5886,31 @@
         <v>513</v>
       </c>
       <c r="AI32">
-        <v>2201084</v>
+        <v>2212854</v>
       </c>
       <c r="AJ32">
         <v>1089066</v>
       </c>
       <c r="AK32">
-        <v>1102320</v>
+        <v>1109399</v>
       </c>
       <c r="AM32">
-        <v>12127</v>
+        <v>11770</v>
       </c>
       <c r="AN32">
-        <v>8918</v>
+        <v>9103</v>
       </c>
       <c r="AO32">
-        <v>31.68</v>
+        <v>31.85</v>
       </c>
       <c r="AP32">
         <v>15.67</v>
       </c>
       <c r="AQ32">
-        <v>15.86</v>
+        <v>15.97</v>
       </c>
       <c r="AS32">
-        <v>1283</v>
+        <v>1310</v>
       </c>
       <c r="AU32">
         <v>6948445</v>
@@ -6228,37 +6228,37 @@
         <v>0.93</v>
       </c>
       <c r="AI35">
-        <v>16514969</v>
+        <v>16928413</v>
       </c>
       <c r="AJ35">
-        <v>9272769</v>
+        <v>9502819</v>
       </c>
       <c r="AK35">
-        <v>7577698</v>
+        <v>7737909</v>
       </c>
       <c r="AL35">
-        <v>357897</v>
+        <v>423947</v>
       </c>
       <c r="AM35">
-        <v>230505</v>
+        <v>199550</v>
       </c>
       <c r="AN35">
-        <v>236390</v>
+        <v>222282</v>
       </c>
       <c r="AO35">
-        <v>98.78</v>
+        <v>101.25</v>
       </c>
       <c r="AP35">
-        <v>55.46</v>
+        <v>56.84</v>
       </c>
       <c r="AQ35">
-        <v>45.32</v>
+        <v>46.28</v>
       </c>
       <c r="AR35">
-        <v>2.14</v>
+        <v>2.54</v>
       </c>
       <c r="AS35">
-        <v>14139</v>
+        <v>13295</v>
       </c>
       <c r="AT35">
         <v>72.22</v>
@@ -6359,28 +6359,28 @@
         <v>0.28</v>
       </c>
       <c r="AI36">
-        <v>395212</v>
+        <v>412524</v>
       </c>
       <c r="AJ36">
-        <v>327127</v>
+        <v>340412</v>
       </c>
       <c r="AK36">
-        <v>68085</v>
+        <v>72112</v>
       </c>
       <c r="AN36">
-        <v>3847</v>
+        <v>4122</v>
       </c>
       <c r="AO36">
-        <v>1.49</v>
+        <v>1.55</v>
       </c>
       <c r="AP36">
-        <v>1.23</v>
+        <v>1.28</v>
       </c>
       <c r="AQ36">
-        <v>0.26</v>
+        <v>0.27</v>
       </c>
       <c r="AS36">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="AT36">
         <v>30.56</v>
@@ -6517,31 +6517,31 @@
         <v>513</v>
       </c>
       <c r="AI37">
-        <v>52074770</v>
+        <v>52203277</v>
       </c>
       <c r="AJ37">
-        <v>27540252</v>
+        <v>27571050</v>
       </c>
       <c r="AK37">
-        <v>24534518</v>
+        <v>24632227</v>
       </c>
       <c r="AM37">
-        <v>138580</v>
+        <v>128507</v>
       </c>
       <c r="AN37">
-        <v>133175</v>
+        <v>130328</v>
       </c>
       <c r="AO37">
-        <v>137.98</v>
+        <v>138.32</v>
       </c>
       <c r="AP37">
-        <v>72.97</v>
+        <v>73.05</v>
       </c>
       <c r="AQ37">
-        <v>65.01000000000001</v>
+        <v>65.26000000000001</v>
       </c>
       <c r="AS37">
-        <v>3529</v>
+        <v>3453</v>
       </c>
       <c r="AT37">
         <v>60.65</v>
@@ -6651,28 +6651,28 @@
         <v>513</v>
       </c>
       <c r="AI38">
-        <v>236976</v>
+        <v>262164</v>
       </c>
       <c r="AJ38">
-        <v>198982</v>
+        <v>212766</v>
       </c>
       <c r="AK38">
-        <v>37994</v>
+        <v>49398</v>
       </c>
       <c r="AN38">
-        <v>4599</v>
+        <v>5569</v>
       </c>
       <c r="AO38">
-        <v>42.62</v>
+        <v>47.15</v>
       </c>
       <c r="AP38">
-        <v>35.79</v>
+        <v>38.27</v>
       </c>
       <c r="AQ38">
-        <v>6.83</v>
+        <v>8.880000000000001</v>
       </c>
       <c r="AS38">
-        <v>8272</v>
+        <v>10016</v>
       </c>
       <c r="AU38">
         <v>555988</v>
@@ -6725,34 +6725,34 @@
         <v>324</v>
       </c>
       <c r="D39" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="AI39">
-        <v>99635</v>
+        <v>99790</v>
       </c>
       <c r="AJ39">
-        <v>50884</v>
+        <v>50943</v>
       </c>
       <c r="AK39">
-        <v>48751</v>
+        <v>48847</v>
       </c>
       <c r="AM39">
         <v>129</v>
       </c>
       <c r="AN39">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AO39">
-        <v>151.61</v>
+        <v>151.84</v>
       </c>
       <c r="AP39">
-        <v>77.43000000000001</v>
+        <v>77.52</v>
       </c>
       <c r="AQ39">
-        <v>74.18000000000001</v>
+        <v>74.33</v>
       </c>
       <c r="AS39">
-        <v>1233</v>
+        <v>1141</v>
       </c>
       <c r="AU39">
         <v>65720</v>
@@ -7082,37 +7082,37 @@
         <v>513</v>
       </c>
       <c r="AI42">
-        <v>27626715</v>
+        <v>27796753</v>
       </c>
       <c r="AJ42">
-        <v>14288449</v>
+        <v>14292143</v>
       </c>
       <c r="AK42">
-        <v>13151703</v>
+        <v>13213268</v>
       </c>
       <c r="AL42">
-        <v>700858</v>
+        <v>807178</v>
       </c>
       <c r="AM42">
-        <v>182333</v>
+        <v>161419</v>
       </c>
       <c r="AN42">
-        <v>137400</v>
+        <v>137135</v>
       </c>
       <c r="AO42">
-        <v>144.52</v>
+        <v>145.41</v>
       </c>
       <c r="AP42">
-        <v>74.75</v>
+        <v>74.76000000000001</v>
       </c>
       <c r="AQ42">
-        <v>68.8</v>
+        <v>69.12</v>
       </c>
       <c r="AR42">
-        <v>3.67</v>
+        <v>4.22</v>
       </c>
       <c r="AS42">
-        <v>7188</v>
+        <v>7174</v>
       </c>
       <c r="AT42">
         <v>74.06999999999999</v>
@@ -7216,25 +7216,25 @@
         <v>0.72</v>
       </c>
       <c r="AI43">
-        <v>1912419000</v>
+        <v>1924390000</v>
       </c>
       <c r="AK43">
         <v>777046000</v>
       </c>
       <c r="AM43">
-        <v>12292000</v>
+        <v>11971000</v>
       </c>
       <c r="AN43">
-        <v>11424143</v>
+        <v>11429714</v>
       </c>
       <c r="AO43">
-        <v>132.87</v>
+        <v>133.7</v>
       </c>
       <c r="AQ43">
         <v>53.99</v>
       </c>
       <c r="AS43">
-        <v>7937</v>
+        <v>7941</v>
       </c>
       <c r="AU43">
         <v>1439323774</v>
@@ -7487,28 +7487,28 @@
         <v>0.71</v>
       </c>
       <c r="AI45">
-        <v>216123</v>
+        <v>239158</v>
       </c>
       <c r="AJ45">
-        <v>174765</v>
+        <v>175038</v>
       </c>
       <c r="AK45">
-        <v>41358</v>
+        <v>64126</v>
       </c>
       <c r="AN45">
-        <v>3893</v>
+        <v>4959</v>
       </c>
       <c r="AO45">
-        <v>24.85</v>
+        <v>27.5</v>
       </c>
       <c r="AP45">
-        <v>20.1</v>
+        <v>20.13</v>
       </c>
       <c r="AQ45">
-        <v>4.76</v>
+        <v>7.37</v>
       </c>
       <c r="AS45">
-        <v>4477</v>
+        <v>5703</v>
       </c>
       <c r="AU45">
         <v>869595</v>
@@ -7910,25 +7910,25 @@
         <v>515</v>
       </c>
       <c r="AI48">
-        <v>1246309</v>
+        <v>1264058</v>
       </c>
       <c r="AJ48">
-        <v>1246309</v>
+        <v>1264058</v>
       </c>
       <c r="AM48">
-        <v>18793</v>
+        <v>10732</v>
       </c>
       <c r="AN48">
-        <v>11560</v>
+        <v>8217</v>
       </c>
       <c r="AO48">
-        <v>4.72</v>
+        <v>4.79</v>
       </c>
       <c r="AP48">
-        <v>4.72</v>
+        <v>4.79</v>
       </c>
       <c r="AS48">
-        <v>438</v>
+        <v>312</v>
       </c>
       <c r="AT48">
         <v>20.37</v>
@@ -8187,31 +8187,31 @@
         <v>1.03</v>
       </c>
       <c r="AI50">
-        <v>12287005</v>
+        <v>12320691</v>
       </c>
       <c r="AJ50">
-        <v>4874336</v>
+        <v>4889081</v>
       </c>
       <c r="AK50">
-        <v>3066844</v>
+        <v>3085785</v>
       </c>
       <c r="AM50">
-        <v>61627</v>
+        <v>33686</v>
       </c>
       <c r="AN50">
-        <v>183597</v>
+        <v>180142</v>
       </c>
       <c r="AO50">
-        <v>108.48</v>
+        <v>108.78</v>
       </c>
       <c r="AP50">
-        <v>43.03</v>
+        <v>43.16</v>
       </c>
       <c r="AQ50">
-        <v>27.08</v>
+        <v>27.24</v>
       </c>
       <c r="AS50">
-        <v>16209</v>
+        <v>15904</v>
       </c>
       <c r="AT50">
         <v>65.28</v>
@@ -8267,34 +8267,34 @@
         <v>336</v>
       </c>
       <c r="D51" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="AI51">
-        <v>179876</v>
+        <v>179997</v>
       </c>
       <c r="AJ51">
         <v>94829</v>
       </c>
       <c r="AK51">
-        <v>85047</v>
+        <v>85168</v>
       </c>
       <c r="AM51">
         <v>599</v>
       </c>
       <c r="AN51">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="AO51">
-        <v>109.61</v>
+        <v>109.69</v>
       </c>
       <c r="AP51">
         <v>57.79</v>
       </c>
       <c r="AQ51">
-        <v>51.83</v>
+        <v>51.9</v>
       </c>
       <c r="AS51">
-        <v>1536</v>
+        <v>1463</v>
       </c>
       <c r="AU51">
         <v>164100</v>
@@ -8592,31 +8592,31 @@
         <v>513</v>
       </c>
       <c r="AI53">
-        <v>11136725</v>
+        <v>11186371</v>
       </c>
       <c r="AJ53">
-        <v>5859177</v>
+        <v>5870729</v>
       </c>
       <c r="AK53">
-        <v>5458160</v>
+        <v>5498886</v>
       </c>
       <c r="AM53">
-        <v>43939</v>
+        <v>47170</v>
       </c>
       <c r="AN53">
-        <v>34143</v>
+        <v>34158</v>
       </c>
       <c r="AO53">
-        <v>103.99</v>
+        <v>104.46</v>
       </c>
       <c r="AP53">
-        <v>54.71</v>
+        <v>54.82</v>
       </c>
       <c r="AQ53">
-        <v>50.97</v>
+        <v>51.35</v>
       </c>
       <c r="AS53">
-        <v>3188</v>
+        <v>3190</v>
       </c>
       <c r="AT53">
         <v>37.04</v>
@@ -8735,16 +8735,16 @@
         <v>515</v>
       </c>
       <c r="AI54">
-        <v>86244</v>
+        <v>86914</v>
       </c>
       <c r="AJ54">
-        <v>81984</v>
+        <v>82017</v>
       </c>
       <c r="AK54">
-        <v>4260</v>
+        <v>4897</v>
       </c>
       <c r="AN54">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="AO54">
         <v>0.1</v>
@@ -8753,7 +8753,7 @@
         <v>0.09</v>
       </c>
       <c r="AQ54">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="AS54">
         <v>1</v>
@@ -8896,31 +8896,31 @@
         <v>513</v>
       </c>
       <c r="AI55">
-        <v>8248309</v>
+        <v>8280915</v>
       </c>
       <c r="AJ55">
-        <v>4353824</v>
+        <v>4359956</v>
       </c>
       <c r="AK55">
-        <v>3940951</v>
+        <v>3967430</v>
       </c>
       <c r="AM55">
-        <v>42036</v>
+        <v>32606</v>
       </c>
       <c r="AN55">
-        <v>47085</v>
+        <v>43721</v>
       </c>
       <c r="AO55">
-        <v>142.4</v>
+        <v>142.97</v>
       </c>
       <c r="AP55">
-        <v>75.17</v>
+        <v>75.27</v>
       </c>
       <c r="AQ55">
-        <v>68.04000000000001</v>
+        <v>68.5</v>
       </c>
       <c r="AS55">
-        <v>8129</v>
+        <v>7548</v>
       </c>
       <c r="AT55">
         <v>38.89</v>
@@ -9253,31 +9253,31 @@
         <v>515</v>
       </c>
       <c r="AI58">
-        <v>10743683</v>
+        <v>10789568</v>
       </c>
       <c r="AJ58">
-        <v>5696721</v>
+        <v>5709646</v>
       </c>
       <c r="AK58">
-        <v>4501030</v>
+        <v>4520504</v>
       </c>
       <c r="AM58">
-        <v>46120</v>
+        <v>45885</v>
       </c>
       <c r="AN58">
-        <v>23173</v>
+        <v>26876</v>
       </c>
       <c r="AO58">
-        <v>99.04000000000001</v>
+        <v>99.45999999999999</v>
       </c>
       <c r="AP58">
-        <v>52.51</v>
+        <v>52.63</v>
       </c>
       <c r="AQ58">
-        <v>41.49</v>
+        <v>41.67</v>
       </c>
       <c r="AS58">
-        <v>2136</v>
+        <v>2478</v>
       </c>
       <c r="AT58">
         <v>60.19</v>
@@ -9408,31 +9408,31 @@
         <v>512</v>
       </c>
       <c r="AI59">
-        <v>15516237</v>
+        <v>15879437</v>
       </c>
       <c r="AJ59">
-        <v>9958643</v>
+        <v>9960012</v>
       </c>
       <c r="AK59">
-        <v>5557594</v>
+        <v>5919425</v>
       </c>
       <c r="AM59">
-        <v>58104</v>
+        <v>363200</v>
       </c>
       <c r="AN59">
-        <v>238237</v>
+        <v>254615</v>
       </c>
       <c r="AO59">
-        <v>87.95</v>
+        <v>90</v>
       </c>
       <c r="AP59">
         <v>56.45</v>
       </c>
       <c r="AQ59">
-        <v>31.5</v>
+        <v>33.55</v>
       </c>
       <c r="AS59">
-        <v>13503</v>
+        <v>14431</v>
       </c>
       <c r="AT59">
         <v>60.19</v>
@@ -9661,31 +9661,31 @@
         <v>0.97</v>
       </c>
       <c r="AI61">
-        <v>5509567</v>
+        <v>5602223</v>
       </c>
       <c r="AJ61">
-        <v>3324137</v>
+        <v>3341998</v>
       </c>
       <c r="AK61">
-        <v>2185430</v>
+        <v>2260225</v>
       </c>
       <c r="AM61">
-        <v>92374</v>
+        <v>92656</v>
       </c>
       <c r="AN61">
-        <v>66227</v>
+        <v>65473</v>
       </c>
       <c r="AO61">
-        <v>84.94</v>
+        <v>86.37</v>
       </c>
       <c r="AP61">
-        <v>51.25</v>
+        <v>51.52</v>
       </c>
       <c r="AQ61">
-        <v>33.69</v>
+        <v>34.85</v>
       </c>
       <c r="AS61">
-        <v>10210</v>
+        <v>10094</v>
       </c>
       <c r="AT61">
         <v>32.41</v>
@@ -10075,31 +10075,31 @@
         <v>513</v>
       </c>
       <c r="AI64">
-        <v>1230051</v>
+        <v>1231483</v>
       </c>
       <c r="AJ64">
-        <v>703975</v>
+        <v>704822</v>
       </c>
       <c r="AK64">
-        <v>526076</v>
+        <v>526661</v>
       </c>
       <c r="AM64">
-        <v>5785</v>
+        <v>1432</v>
       </c>
       <c r="AN64">
-        <v>4902</v>
+        <v>4259</v>
       </c>
       <c r="AO64">
-        <v>92.73</v>
+        <v>92.83</v>
       </c>
       <c r="AP64">
-        <v>53.07</v>
+        <v>53.13</v>
       </c>
       <c r="AQ64">
-        <v>39.66</v>
+        <v>39.7</v>
       </c>
       <c r="AS64">
-        <v>3695</v>
+        <v>3211</v>
       </c>
       <c r="AU64">
         <v>1326539</v>
@@ -10206,7 +10206,7 @@
         <v>96175</v>
       </c>
       <c r="AK65">
-        <v>115927</v>
+        <v>128478</v>
       </c>
       <c r="AM65">
         <v>17170</v>
@@ -10221,7 +10221,7 @@
         <v>8.289999999999999</v>
       </c>
       <c r="AQ65">
-        <v>9.99</v>
+        <v>11.07</v>
       </c>
       <c r="AS65">
         <v>9524</v>
@@ -10468,31 +10468,37 @@
         <v>1.775</v>
       </c>
       <c r="AI67">
-        <v>713565891</v>
+        <v>716518173</v>
       </c>
       <c r="AJ67">
-        <v>391311070</v>
+        <v>392428394</v>
       </c>
       <c r="AK67">
-        <v>336385505</v>
+        <v>338499677</v>
+      </c>
+      <c r="AL67">
+        <v>10356</v>
       </c>
       <c r="AM67">
-        <v>1825161</v>
+        <v>1477020</v>
       </c>
       <c r="AN67">
-        <v>3049607</v>
+        <v>2804301</v>
       </c>
       <c r="AO67">
-        <v>95.31</v>
+        <v>95.7</v>
       </c>
       <c r="AP67">
-        <v>52.27</v>
+        <v>52.42</v>
       </c>
       <c r="AQ67">
-        <v>44.93</v>
+        <v>45.21</v>
+      </c>
+      <c r="AR67">
+        <v>0</v>
       </c>
       <c r="AS67">
-        <v>4073</v>
+        <v>3746</v>
       </c>
       <c r="AU67">
         <v>748680069</v>
@@ -10545,31 +10551,31 @@
         <v>0.786</v>
       </c>
       <c r="AI68">
-        <v>511384636</v>
+        <v>513092961</v>
       </c>
       <c r="AJ68">
-        <v>280606097</v>
+        <v>281276438</v>
       </c>
       <c r="AK68">
-        <v>245135423</v>
+        <v>246471714</v>
       </c>
       <c r="AM68">
-        <v>1064553</v>
+        <v>680846</v>
       </c>
       <c r="AN68">
-        <v>1729406</v>
+        <v>1721266</v>
       </c>
       <c r="AO68">
-        <v>114.94</v>
+        <v>115.32</v>
       </c>
       <c r="AP68">
-        <v>63.07</v>
+        <v>63.22</v>
       </c>
       <c r="AQ68">
-        <v>55.1</v>
+        <v>55.4</v>
       </c>
       <c r="AS68">
-        <v>3887</v>
+        <v>3869</v>
       </c>
       <c r="AU68">
         <v>444919060</v>
@@ -10586,7 +10592,7 @@
         <v>353</v>
       </c>
       <c r="D69" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="AI69">
         <v>69950</v>
@@ -10839,31 +10845,31 @@
         <v>513</v>
       </c>
       <c r="AI71">
-        <v>6354388</v>
+        <v>6414095</v>
       </c>
       <c r="AJ71">
-        <v>3892948</v>
+        <v>3913542</v>
       </c>
       <c r="AK71">
-        <v>2461440</v>
+        <v>2500553</v>
       </c>
       <c r="AM71">
-        <v>54549</v>
+        <v>59707</v>
       </c>
       <c r="AN71">
-        <v>38767</v>
+        <v>42587</v>
       </c>
       <c r="AO71">
-        <v>114.69</v>
+        <v>115.76</v>
       </c>
       <c r="AP71">
-        <v>70.26000000000001</v>
+        <v>70.63</v>
       </c>
       <c r="AQ71">
-        <v>44.42</v>
+        <v>45.13</v>
       </c>
       <c r="AS71">
-        <v>6997</v>
+        <v>7686</v>
       </c>
       <c r="AT71">
         <v>39.81</v>
@@ -11006,31 +11012,31 @@
         <v>512</v>
       </c>
       <c r="AI72">
-        <v>82393710</v>
+        <v>82917669</v>
       </c>
       <c r="AJ72">
-        <v>46842436</v>
+        <v>47041160</v>
       </c>
       <c r="AK72">
-        <v>36520482</v>
+        <v>36851088</v>
       </c>
       <c r="AM72">
-        <v>515906</v>
+        <v>509875</v>
       </c>
       <c r="AN72">
-        <v>434558</v>
+        <v>430550</v>
       </c>
       <c r="AO72">
-        <v>121.95</v>
+        <v>122.72</v>
       </c>
       <c r="AP72">
-        <v>69.33</v>
+        <v>69.62</v>
       </c>
       <c r="AQ72">
-        <v>54.05</v>
+        <v>54.54</v>
       </c>
       <c r="AS72">
-        <v>6432</v>
+        <v>6372</v>
       </c>
       <c r="AT72">
         <v>66.2</v>
@@ -11086,7 +11092,7 @@
         <v>357</v>
       </c>
       <c r="D73" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="AI73">
         <v>190080</v>
@@ -11214,28 +11220,28 @@
         <v>515</v>
       </c>
       <c r="AI74">
-        <v>120627</v>
+        <v>127757</v>
       </c>
       <c r="AJ74">
-        <v>71867</v>
+        <v>74720</v>
       </c>
       <c r="AK74">
-        <v>48760</v>
+        <v>53037</v>
       </c>
       <c r="AN74">
-        <v>2401</v>
+        <v>891</v>
       </c>
       <c r="AO74">
-        <v>5.42</v>
+        <v>5.74</v>
       </c>
       <c r="AP74">
-        <v>3.23</v>
+        <v>3.36</v>
       </c>
       <c r="AQ74">
-        <v>2.19</v>
+        <v>2.38</v>
       </c>
       <c r="AS74">
-        <v>1079</v>
+        <v>400</v>
       </c>
       <c r="AT74">
         <v>67.59</v>
@@ -11833,7 +11839,7 @@
         <v>363</v>
       </c>
       <c r="D79" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="AI79">
         <v>78570</v>
@@ -11958,31 +11964,31 @@
         <v>515</v>
       </c>
       <c r="AI80">
-        <v>11101460</v>
+        <v>11128403</v>
       </c>
       <c r="AJ80">
-        <v>5883293</v>
+        <v>5894666</v>
       </c>
       <c r="AK80">
-        <v>5579852</v>
+        <v>5597167</v>
       </c>
       <c r="AM80">
-        <v>24804</v>
+        <v>26943</v>
       </c>
       <c r="AN80">
-        <v>23561</v>
+        <v>23295</v>
       </c>
       <c r="AO80">
-        <v>106.51</v>
+        <v>106.77</v>
       </c>
       <c r="AP80">
-        <v>56.44</v>
+        <v>56.55</v>
       </c>
       <c r="AQ80">
-        <v>53.53</v>
+        <v>53.7</v>
       </c>
       <c r="AS80">
-        <v>2260</v>
+        <v>2235</v>
       </c>
       <c r="AT80">
         <v>48.61</v>
@@ -12041,34 +12047,34 @@
         <v>365</v>
       </c>
       <c r="D81" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="AI81">
-        <v>69605</v>
+        <v>70371</v>
       </c>
       <c r="AJ81">
-        <v>38984</v>
+        <v>39337</v>
       </c>
       <c r="AK81">
-        <v>30621</v>
+        <v>31034</v>
       </c>
       <c r="AM81">
-        <v>46</v>
+        <v>766</v>
       </c>
       <c r="AN81">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="AO81">
-        <v>122.6</v>
+        <v>123.95</v>
       </c>
       <c r="AP81">
-        <v>68.67</v>
+        <v>69.29000000000001</v>
       </c>
       <c r="AQ81">
-        <v>53.94</v>
+        <v>54.66</v>
       </c>
       <c r="AS81">
-        <v>6394</v>
+        <v>6341</v>
       </c>
       <c r="AU81">
         <v>56772</v>
@@ -12276,31 +12282,31 @@
         <v>512</v>
       </c>
       <c r="AI83">
-        <v>3528413</v>
+        <v>3635762</v>
       </c>
       <c r="AJ83">
-        <v>2859182</v>
+        <v>2906652</v>
       </c>
       <c r="AK83">
-        <v>669231</v>
+        <v>729110</v>
       </c>
       <c r="AM83">
-        <v>104436</v>
+        <v>107349</v>
       </c>
       <c r="AN83">
-        <v>80224</v>
+        <v>81337</v>
       </c>
       <c r="AO83">
-        <v>19.69</v>
+        <v>20.29</v>
       </c>
       <c r="AP83">
-        <v>15.96</v>
+        <v>16.22</v>
       </c>
       <c r="AQ83">
-        <v>3.74</v>
+        <v>4.07</v>
       </c>
       <c r="AS83">
-        <v>4478</v>
+        <v>4540</v>
       </c>
       <c r="AT83">
         <v>52.78</v>
@@ -12356,19 +12362,19 @@
         <v>368</v>
       </c>
       <c r="D84" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="AI84">
-        <v>97600</v>
+        <v>98054</v>
       </c>
       <c r="AN84">
-        <v>174</v>
+        <v>195</v>
       </c>
       <c r="AO84">
-        <v>145.56</v>
+        <v>146.24</v>
       </c>
       <c r="AS84">
-        <v>2595</v>
+        <v>2908</v>
       </c>
       <c r="AU84">
         <v>67052</v>
@@ -12427,31 +12433,31 @@
         <v>1.19</v>
       </c>
       <c r="AI85">
-        <v>962565</v>
+        <v>980005</v>
       </c>
       <c r="AJ85">
-        <v>617629</v>
+        <v>633289</v>
       </c>
       <c r="AK85">
-        <v>344936</v>
+        <v>346716</v>
       </c>
       <c r="AM85">
-        <v>2617</v>
+        <v>9072</v>
       </c>
       <c r="AN85">
-        <v>4221</v>
+        <v>4722</v>
       </c>
       <c r="AO85">
-        <v>7.33</v>
+        <v>7.46</v>
       </c>
       <c r="AP85">
-        <v>4.7</v>
+        <v>4.82</v>
       </c>
       <c r="AQ85">
-        <v>2.63</v>
+        <v>2.64</v>
       </c>
       <c r="AS85">
-        <v>321</v>
+        <v>360</v>
       </c>
       <c r="AU85">
         <v>13132792</v>
@@ -12778,31 +12784,31 @@
         <v>0.93</v>
       </c>
       <c r="AI88">
-        <v>20281</v>
+        <v>24102</v>
       </c>
       <c r="AJ88">
-        <v>20251</v>
+        <v>23044</v>
       </c>
       <c r="AK88">
-        <v>371</v>
+        <v>1399</v>
       </c>
       <c r="AM88">
         <v>2244</v>
       </c>
       <c r="AN88">
-        <v>887</v>
+        <v>703</v>
       </c>
       <c r="AO88">
-        <v>0.18</v>
+        <v>0.21</v>
       </c>
       <c r="AP88">
-        <v>0.18</v>
+        <v>0.2</v>
       </c>
       <c r="AQ88">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="AS88">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="AT88">
         <v>53.7</v>
@@ -13049,31 +13055,31 @@
         <v>513</v>
       </c>
       <c r="AI90">
-        <v>6881098</v>
+        <v>6944145</v>
       </c>
       <c r="AJ90">
-        <v>3858537</v>
+        <v>3884805</v>
       </c>
       <c r="AK90">
-        <v>3022561</v>
+        <v>3059340</v>
       </c>
       <c r="AM90">
-        <v>59537</v>
+        <v>62945</v>
       </c>
       <c r="AN90">
-        <v>61993</v>
+        <v>61212</v>
       </c>
       <c r="AO90">
-        <v>91.78</v>
+        <v>92.63</v>
       </c>
       <c r="AP90">
-        <v>51.47</v>
+        <v>51.82</v>
       </c>
       <c r="AQ90">
-        <v>40.32</v>
+        <v>40.81</v>
       </c>
       <c r="AS90">
-        <v>8269</v>
+        <v>8165</v>
       </c>
       <c r="AT90">
         <v>62.96</v>
@@ -13472,31 +13478,31 @@
         <v>515</v>
       </c>
       <c r="AI93">
-        <v>566595708</v>
+        <v>573205464</v>
       </c>
       <c r="AJ93">
-        <v>441116044</v>
+        <v>446102199</v>
       </c>
       <c r="AK93">
-        <v>125479664</v>
+        <v>127103265</v>
       </c>
       <c r="AM93">
-        <v>4444193</v>
+        <v>6609756</v>
       </c>
       <c r="AN93">
-        <v>5237892</v>
+        <v>5287937</v>
       </c>
       <c r="AO93">
-        <v>41.06</v>
+        <v>41.54</v>
       </c>
       <c r="AP93">
-        <v>31.96</v>
+        <v>32.33</v>
       </c>
       <c r="AQ93">
-        <v>9.09</v>
+        <v>9.210000000000001</v>
       </c>
       <c r="AS93">
-        <v>3796</v>
+        <v>3832</v>
       </c>
       <c r="AT93">
         <v>74.54000000000001</v>
@@ -13627,31 +13633,31 @@
         <v>512</v>
       </c>
       <c r="AI94">
-        <v>86414456</v>
+        <v>87257192</v>
       </c>
       <c r="AJ94">
-        <v>56045931</v>
+        <v>56504055</v>
       </c>
       <c r="AK94">
-        <v>30368525</v>
+        <v>30753137</v>
       </c>
       <c r="AM94">
-        <v>1818617</v>
+        <v>842736</v>
       </c>
       <c r="AN94">
-        <v>1051464</v>
+        <v>1050108</v>
       </c>
       <c r="AO94">
-        <v>31.59</v>
+        <v>31.9</v>
       </c>
       <c r="AP94">
-        <v>20.49</v>
+        <v>20.66</v>
       </c>
       <c r="AQ94">
-        <v>11.1</v>
+        <v>11.24</v>
       </c>
       <c r="AS94">
-        <v>3844</v>
+        <v>3839</v>
       </c>
       <c r="AT94">
         <v>68.98</v>
@@ -14100,31 +14106,31 @@
         <v>513</v>
       </c>
       <c r="AI98">
-        <v>6499009</v>
+        <v>6536284</v>
       </c>
       <c r="AJ98">
-        <v>3559460</v>
+        <v>3571239</v>
       </c>
       <c r="AK98">
-        <v>3168178</v>
+        <v>3194240</v>
       </c>
       <c r="AM98">
-        <v>42091</v>
+        <v>37275</v>
       </c>
       <c r="AN98">
-        <v>37382</v>
+        <v>35361</v>
       </c>
       <c r="AO98">
-        <v>131.62</v>
+        <v>132.37</v>
       </c>
       <c r="AP98">
-        <v>72.09</v>
+        <v>72.31999999999999</v>
       </c>
       <c r="AQ98">
-        <v>64.16</v>
+        <v>64.69</v>
       </c>
       <c r="AS98">
-        <v>7571</v>
+        <v>7161</v>
       </c>
       <c r="AT98">
         <v>48.15</v>
@@ -14183,34 +14189,34 @@
         <v>383</v>
       </c>
       <c r="D99" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="AI99">
-        <v>125632</v>
+        <v>125652</v>
       </c>
       <c r="AJ99">
-        <v>65034</v>
+        <v>65041</v>
       </c>
       <c r="AK99">
-        <v>60598</v>
+        <v>60611</v>
       </c>
       <c r="AM99">
         <v>30</v>
       </c>
       <c r="AN99">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="AO99">
-        <v>147.75</v>
+        <v>147.77</v>
       </c>
       <c r="AP99">
-        <v>76.48</v>
+        <v>76.48999999999999</v>
       </c>
       <c r="AQ99">
-        <v>71.26000000000001</v>
+        <v>71.28</v>
       </c>
       <c r="AS99">
-        <v>235</v>
+        <v>94</v>
       </c>
       <c r="AU99">
         <v>85032</v>
@@ -14326,37 +14332,37 @@
         <v>513</v>
       </c>
       <c r="AI100">
-        <v>12584839</v>
+        <v>12647421</v>
       </c>
       <c r="AJ100">
-        <v>5881685</v>
+        <v>5885726</v>
       </c>
       <c r="AK100">
-        <v>5436366</v>
+        <v>5438868</v>
       </c>
       <c r="AL100">
-        <v>1266788</v>
+        <v>1322827</v>
       </c>
       <c r="AM100">
-        <v>80283</v>
+        <v>62542</v>
       </c>
       <c r="AN100">
-        <v>80467</v>
+        <v>82342</v>
       </c>
       <c r="AO100">
-        <v>145.4</v>
+        <v>146.12</v>
       </c>
       <c r="AP100">
-        <v>67.95</v>
+        <v>68</v>
       </c>
       <c r="AQ100">
-        <v>62.81</v>
+        <v>62.84</v>
       </c>
       <c r="AR100">
-        <v>14.64</v>
+        <v>15.28</v>
       </c>
       <c r="AS100">
-        <v>9297</v>
+        <v>9513</v>
       </c>
       <c r="AT100">
         <v>52.78</v>
@@ -14502,31 +14508,31 @@
         <v>513</v>
       </c>
       <c r="AI101">
-        <v>74804729</v>
+        <v>75040135</v>
       </c>
       <c r="AJ101">
-        <v>41235476</v>
+        <v>41351283</v>
       </c>
       <c r="AK101">
-        <v>34977882</v>
+        <v>35099847</v>
       </c>
       <c r="AM101">
-        <v>234338</v>
+        <v>223543</v>
       </c>
       <c r="AN101">
-        <v>206448</v>
+        <v>196964</v>
       </c>
       <c r="AO101">
-        <v>123.72</v>
+        <v>124.11</v>
       </c>
       <c r="AP101">
-        <v>68.2</v>
+        <v>68.39</v>
       </c>
       <c r="AQ101">
-        <v>57.85</v>
+        <v>58.05</v>
       </c>
       <c r="AS101">
-        <v>3415</v>
+        <v>3258</v>
       </c>
       <c r="AT101">
         <v>50</v>
@@ -14654,28 +14660,28 @@
         <v>515</v>
       </c>
       <c r="AI102">
-        <v>391076</v>
+        <v>420627</v>
       </c>
       <c r="AJ102">
-        <v>256890</v>
+        <v>283552</v>
       </c>
       <c r="AK102">
-        <v>135115</v>
+        <v>138044</v>
       </c>
       <c r="AN102">
-        <v>3017</v>
+        <v>4222</v>
       </c>
       <c r="AO102">
-        <v>13.21</v>
+        <v>14.2</v>
       </c>
       <c r="AP102">
-        <v>8.68</v>
+        <v>9.58</v>
       </c>
       <c r="AQ102">
-        <v>4.56</v>
+        <v>4.66</v>
       </c>
       <c r="AS102">
-        <v>1019</v>
+        <v>1426</v>
       </c>
       <c r="AT102">
         <v>66.67</v>
@@ -14883,7 +14889,7 @@
         <v>388</v>
       </c>
       <c r="D104" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="AI104">
         <v>146439</v>
@@ -14993,31 +14999,31 @@
         <v>513</v>
       </c>
       <c r="AI105">
-        <v>5999613</v>
+        <v>6007827</v>
       </c>
       <c r="AJ105">
-        <v>3318184</v>
+        <v>3321063</v>
       </c>
       <c r="AK105">
-        <v>2681429</v>
+        <v>2686764</v>
       </c>
       <c r="AM105">
-        <v>46404</v>
+        <v>8214</v>
       </c>
       <c r="AN105">
-        <v>44458</v>
+        <v>45070</v>
       </c>
       <c r="AO105">
-        <v>58.8</v>
+        <v>58.88</v>
       </c>
       <c r="AP105">
-        <v>32.52</v>
+        <v>32.55</v>
       </c>
       <c r="AQ105">
-        <v>26.28</v>
+        <v>26.33</v>
       </c>
       <c r="AS105">
-        <v>4357</v>
+        <v>4417</v>
       </c>
       <c r="AU105">
         <v>10203140</v>
@@ -15109,31 +15115,31 @@
         <v>1.02</v>
       </c>
       <c r="AI106">
-        <v>11096951</v>
+        <v>11189420</v>
       </c>
       <c r="AJ106">
-        <v>6229329</v>
+        <v>6276224</v>
       </c>
       <c r="AK106">
-        <v>4867622</v>
+        <v>4913196</v>
       </c>
       <c r="AM106">
-        <v>93919</v>
+        <v>92469</v>
       </c>
       <c r="AN106">
-        <v>84797</v>
+        <v>83070</v>
       </c>
       <c r="AO106">
-        <v>59.1</v>
+        <v>59.59</v>
       </c>
       <c r="AP106">
-        <v>33.18</v>
+        <v>33.43</v>
       </c>
       <c r="AQ106">
-        <v>25.92</v>
+        <v>26.17</v>
       </c>
       <c r="AS106">
-        <v>4516</v>
+        <v>4424</v>
       </c>
       <c r="AT106">
         <v>62.96</v>
@@ -15237,31 +15243,31 @@
         <v>1.11</v>
       </c>
       <c r="AI107">
-        <v>2221704</v>
+        <v>2290801</v>
       </c>
       <c r="AJ107">
-        <v>1454102</v>
+        <v>1517734</v>
       </c>
       <c r="AK107">
-        <v>767602</v>
+        <v>773067</v>
       </c>
       <c r="AM107">
-        <v>66879</v>
+        <v>69097</v>
       </c>
       <c r="AN107">
-        <v>42803</v>
+        <v>45804</v>
       </c>
       <c r="AO107">
-        <v>4.13</v>
+        <v>4.26</v>
       </c>
       <c r="AP107">
-        <v>2.7</v>
+        <v>2.82</v>
       </c>
       <c r="AQ107">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="AS107">
-        <v>796</v>
+        <v>852</v>
       </c>
       <c r="AT107">
         <v>72.22</v>
@@ -15713,31 +15719,31 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AI111">
-        <v>963766</v>
+        <v>981836</v>
       </c>
       <c r="AJ111">
-        <v>627819</v>
+        <v>633235</v>
       </c>
       <c r="AK111">
-        <v>334370</v>
+        <v>346902</v>
       </c>
       <c r="AM111">
-        <v>31022</v>
+        <v>18070</v>
       </c>
       <c r="AN111">
-        <v>20587</v>
+        <v>20108</v>
       </c>
       <c r="AO111">
-        <v>14.77</v>
+        <v>15.05</v>
       </c>
       <c r="AP111">
-        <v>9.619999999999999</v>
+        <v>9.710000000000001</v>
       </c>
       <c r="AQ111">
-        <v>5.13</v>
+        <v>5.32</v>
       </c>
       <c r="AS111">
-        <v>3155</v>
+        <v>3082</v>
       </c>
       <c r="AT111">
         <v>57.41</v>
@@ -16011,31 +16017,31 @@
         <v>513</v>
       </c>
       <c r="AI113">
-        <v>1447307</v>
+        <v>1454263</v>
       </c>
       <c r="AJ113">
-        <v>825054</v>
+        <v>829029</v>
       </c>
       <c r="AK113">
-        <v>731869</v>
+        <v>735276</v>
       </c>
       <c r="AM113">
-        <v>4383</v>
+        <v>5255</v>
       </c>
       <c r="AN113">
-        <v>4665</v>
+        <v>4685</v>
       </c>
       <c r="AO113">
-        <v>76.73</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="AP113">
-        <v>43.74</v>
+        <v>43.95</v>
       </c>
       <c r="AQ113">
-        <v>38.8</v>
+        <v>38.98</v>
       </c>
       <c r="AS113">
-        <v>2473</v>
+        <v>2484</v>
       </c>
       <c r="AT113">
         <v>41.67</v>
@@ -16136,31 +16142,31 @@
         <v>1.11</v>
       </c>
       <c r="AI114">
-        <v>2275129</v>
+        <v>2286622</v>
       </c>
       <c r="AJ114">
-        <v>1262162</v>
+        <v>1267899</v>
       </c>
       <c r="AK114">
-        <v>1012967</v>
+        <v>1018723</v>
       </c>
       <c r="AM114">
-        <v>17169</v>
+        <v>11493</v>
       </c>
       <c r="AN114">
-        <v>13948</v>
+        <v>13681</v>
       </c>
       <c r="AO114">
-        <v>33.33</v>
+        <v>33.5</v>
       </c>
       <c r="AP114">
-        <v>18.49</v>
+        <v>18.58</v>
       </c>
       <c r="AQ114">
-        <v>14.84</v>
+        <v>14.93</v>
       </c>
       <c r="AS114">
-        <v>2044</v>
+        <v>2004</v>
       </c>
       <c r="AU114">
         <v>6825442</v>
@@ -16353,28 +16359,16 @@
         <v>-0</v>
       </c>
       <c r="AI116">
-        <v>101071</v>
-      </c>
-      <c r="AJ116">
-        <v>86288</v>
-      </c>
-      <c r="AK116">
-        <v>14783</v>
+        <v>109585</v>
       </c>
       <c r="AN116">
-        <v>161</v>
+        <v>363</v>
       </c>
       <c r="AO116">
-        <v>2</v>
-      </c>
-      <c r="AP116">
-        <v>1.71</v>
-      </c>
-      <c r="AQ116">
-        <v>0.29</v>
+        <v>2.17</v>
       </c>
       <c r="AS116">
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="AT116">
         <v>46.3</v>
@@ -16633,10 +16627,10 @@
         <v>20391</v>
       </c>
       <c r="AM118">
-        <v>243</v>
+        <v>0</v>
       </c>
       <c r="AN118">
-        <v>193</v>
+        <v>161</v>
       </c>
       <c r="AO118">
         <v>109.45</v>
@@ -16648,7 +16642,7 @@
         <v>53.47</v>
       </c>
       <c r="AS118">
-        <v>5061</v>
+        <v>4222</v>
       </c>
       <c r="AU118">
         <v>38137</v>
@@ -16767,31 +16761,31 @@
         <v>513</v>
       </c>
       <c r="AI119">
-        <v>3017456</v>
+        <v>3039639</v>
       </c>
       <c r="AJ119">
-        <v>1596789</v>
+        <v>1606508</v>
       </c>
       <c r="AK119">
-        <v>1420667</v>
+        <v>1433131</v>
       </c>
       <c r="AM119">
-        <v>26504</v>
+        <v>21305</v>
       </c>
       <c r="AN119">
-        <v>18331</v>
+        <v>18041</v>
       </c>
       <c r="AO119">
-        <v>110.84</v>
+        <v>111.66</v>
       </c>
       <c r="AP119">
-        <v>58.66</v>
+        <v>59.01</v>
       </c>
       <c r="AQ119">
-        <v>52.19</v>
+        <v>52.64</v>
       </c>
       <c r="AS119">
-        <v>6734</v>
+        <v>6627</v>
       </c>
       <c r="AU119">
         <v>2722291</v>
@@ -16934,31 +16928,31 @@
         <v>513</v>
       </c>
       <c r="AI120">
-        <v>749999</v>
+        <v>751268</v>
       </c>
       <c r="AJ120">
-        <v>401351</v>
+        <v>401988</v>
       </c>
       <c r="AK120">
-        <v>348648</v>
+        <v>349280</v>
       </c>
       <c r="AM120">
-        <v>1222</v>
+        <v>1269</v>
       </c>
       <c r="AN120">
-        <v>1394</v>
+        <v>1331</v>
       </c>
       <c r="AO120">
-        <v>119.81</v>
+        <v>120.02</v>
       </c>
       <c r="AP120">
-        <v>64.12</v>
+        <v>64.22</v>
       </c>
       <c r="AQ120">
-        <v>55.7</v>
+        <v>55.8</v>
       </c>
       <c r="AS120">
-        <v>2227</v>
+        <v>2126</v>
       </c>
       <c r="AT120">
         <v>37.96</v>
@@ -17017,7 +17011,7 @@
         <v>405</v>
       </c>
       <c r="D121" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="AI121">
         <v>568863</v>
@@ -17243,31 +17237,31 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AI123">
-        <v>768280</v>
+        <v>806316</v>
       </c>
       <c r="AJ123">
-        <v>598158</v>
+        <v>621867</v>
       </c>
       <c r="AK123">
-        <v>303470</v>
+        <v>340565</v>
       </c>
       <c r="AM123">
-        <v>18142</v>
+        <v>17940</v>
       </c>
       <c r="AN123">
-        <v>14114</v>
+        <v>14596</v>
       </c>
       <c r="AO123">
-        <v>4.02</v>
+        <v>4.21</v>
       </c>
       <c r="AP123">
-        <v>3.13</v>
+        <v>3.25</v>
       </c>
       <c r="AQ123">
-        <v>1.59</v>
+        <v>1.78</v>
       </c>
       <c r="AS123">
-        <v>738</v>
+        <v>763</v>
       </c>
       <c r="AT123">
         <v>42.59</v>
@@ -17398,31 +17392,31 @@
         <v>512</v>
       </c>
       <c r="AI124">
-        <v>29886548</v>
+        <v>30370403</v>
       </c>
       <c r="AJ124">
-        <v>17806570</v>
+        <v>17961600</v>
       </c>
       <c r="AK124">
-        <v>12079978</v>
+        <v>12408803</v>
       </c>
       <c r="AM124">
-        <v>517692</v>
+        <v>483855</v>
       </c>
       <c r="AN124">
-        <v>485352</v>
+        <v>488249</v>
       </c>
       <c r="AO124">
-        <v>92.34</v>
+        <v>93.83</v>
       </c>
       <c r="AP124">
-        <v>55.02</v>
+        <v>55.5</v>
       </c>
       <c r="AQ124">
-        <v>37.32</v>
+        <v>38.34</v>
       </c>
       <c r="AS124">
-        <v>14996</v>
+        <v>15085</v>
       </c>
       <c r="AU124">
         <v>32365998</v>
@@ -17827,31 +17821,31 @@
         <v>513</v>
       </c>
       <c r="AI127">
-        <v>788292</v>
+        <v>789540</v>
       </c>
       <c r="AJ127">
-        <v>409498</v>
+        <v>410087</v>
       </c>
       <c r="AK127">
-        <v>407154</v>
+        <v>408010</v>
       </c>
       <c r="AM127">
-        <v>1098</v>
+        <v>1248</v>
       </c>
       <c r="AN127">
-        <v>1075</v>
+        <v>991</v>
       </c>
       <c r="AO127">
-        <v>178.53</v>
+        <v>178.82</v>
       </c>
       <c r="AP127">
-        <v>92.73999999999999</v>
+        <v>92.88</v>
       </c>
       <c r="AQ127">
-        <v>92.20999999999999</v>
+        <v>92.41</v>
       </c>
       <c r="AS127">
-        <v>2435</v>
+        <v>2244</v>
       </c>
       <c r="AT127">
         <v>43.52</v>
@@ -18282,31 +18276,31 @@
         <v>512</v>
       </c>
       <c r="AI131">
-        <v>79399398</v>
+        <v>79933762</v>
       </c>
       <c r="AJ131">
-        <v>55643238</v>
+        <v>55928566</v>
       </c>
       <c r="AK131">
-        <v>30219721</v>
+        <v>30490131</v>
       </c>
       <c r="AM131">
-        <v>634325</v>
+        <v>534364</v>
       </c>
       <c r="AN131">
-        <v>803950</v>
+        <v>732998</v>
       </c>
       <c r="AO131">
-        <v>61.58</v>
+        <v>62</v>
       </c>
       <c r="AP131">
-        <v>43.16</v>
+        <v>43.38</v>
       </c>
       <c r="AQ131">
-        <v>23.44</v>
+        <v>23.65</v>
       </c>
       <c r="AS131">
-        <v>6235</v>
+        <v>5685</v>
       </c>
       <c r="AT131">
         <v>67.13</v>
@@ -18502,7 +18496,7 @@
         <v>513</v>
       </c>
       <c r="AI133">
-        <v>1200189</v>
+        <v>1211354</v>
       </c>
       <c r="AJ133">
         <v>573001</v>
@@ -18511,13 +18505,13 @@
         <v>572799</v>
       </c>
       <c r="AM133">
-        <v>11243</v>
+        <v>11165</v>
       </c>
       <c r="AN133">
-        <v>10240</v>
+        <v>10633</v>
       </c>
       <c r="AO133">
-        <v>29.75</v>
+        <v>30.03</v>
       </c>
       <c r="AP133">
         <v>14.2</v>
@@ -18526,7 +18520,7 @@
         <v>14.2</v>
       </c>
       <c r="AS133">
-        <v>2538</v>
+        <v>2636</v>
       </c>
       <c r="AT133">
         <v>51.85</v>
@@ -18701,31 +18695,31 @@
         <v>1.03</v>
       </c>
       <c r="AI135">
-        <v>4261009</v>
+        <v>4278004</v>
       </c>
       <c r="AJ135">
-        <v>2222451</v>
+        <v>2226436</v>
       </c>
       <c r="AK135">
-        <v>2038558</v>
+        <v>2051568</v>
       </c>
       <c r="AM135">
-        <v>6275</v>
+        <v>16995</v>
       </c>
       <c r="AN135">
-        <v>5204</v>
+        <v>6460</v>
       </c>
       <c r="AO135">
-        <v>129.98</v>
+        <v>130.49</v>
       </c>
       <c r="AP135">
-        <v>67.79000000000001</v>
+        <v>67.91</v>
       </c>
       <c r="AQ135">
-        <v>62.18</v>
+        <v>62.58</v>
       </c>
       <c r="AS135">
-        <v>1587</v>
+        <v>1971</v>
       </c>
       <c r="AT135">
         <v>59.26</v>
@@ -18829,31 +18823,31 @@
         <v>1.45</v>
       </c>
       <c r="AI136">
-        <v>367434</v>
+        <v>370265</v>
       </c>
       <c r="AJ136">
-        <v>198891</v>
+        <v>200404</v>
       </c>
       <c r="AK136">
-        <v>168543</v>
+        <v>169861</v>
       </c>
       <c r="AM136">
-        <v>2672</v>
+        <v>2831</v>
       </c>
       <c r="AN136">
-        <v>1969</v>
+        <v>2043</v>
       </c>
       <c r="AO136">
-        <v>58.5</v>
+        <v>58.95</v>
       </c>
       <c r="AP136">
-        <v>31.67</v>
+        <v>31.91</v>
       </c>
       <c r="AQ136">
-        <v>26.84</v>
+        <v>27.05</v>
       </c>
       <c r="AS136">
-        <v>3135</v>
+        <v>3253</v>
       </c>
       <c r="AU136">
         <v>628062</v>
@@ -18978,31 +18972,31 @@
         <v>512</v>
       </c>
       <c r="AI137">
-        <v>29856013</v>
+        <v>30030540</v>
       </c>
       <c r="AJ137">
-        <v>17156411</v>
+        <v>17220526</v>
       </c>
       <c r="AK137">
-        <v>12699602</v>
+        <v>12810014</v>
       </c>
       <c r="AM137">
-        <v>552593</v>
+        <v>174527</v>
       </c>
       <c r="AN137">
-        <v>360265</v>
+        <v>352753</v>
       </c>
       <c r="AO137">
-        <v>80.89</v>
+        <v>81.36</v>
       </c>
       <c r="AP137">
-        <v>46.48</v>
+        <v>46.65</v>
       </c>
       <c r="AQ137">
-        <v>34.41</v>
+        <v>34.71</v>
       </c>
       <c r="AS137">
-        <v>9760</v>
+        <v>9557</v>
       </c>
       <c r="AU137">
         <v>36910558</v>
@@ -19127,28 +19121,28 @@
         <v>514</v>
       </c>
       <c r="AI138">
-        <v>1487560</v>
+        <v>1864229</v>
       </c>
       <c r="AJ138">
-        <v>916174</v>
+        <v>1207600</v>
       </c>
       <c r="AK138">
-        <v>571386</v>
+        <v>656629</v>
       </c>
       <c r="AN138">
-        <v>14462</v>
+        <v>60008</v>
       </c>
       <c r="AO138">
-        <v>4.76</v>
+        <v>5.96</v>
       </c>
       <c r="AP138">
-        <v>2.93</v>
+        <v>3.86</v>
       </c>
       <c r="AQ138">
-        <v>1.83</v>
+        <v>2.1</v>
       </c>
       <c r="AS138">
-        <v>463</v>
+        <v>1920</v>
       </c>
       <c r="AU138">
         <v>31255435</v>
@@ -19556,31 +19550,31 @@
         <v>513</v>
       </c>
       <c r="AI141">
-        <v>8526673</v>
+        <v>8706701</v>
       </c>
       <c r="AJ141">
-        <v>4817985</v>
+        <v>4907523</v>
       </c>
       <c r="AK141">
-        <v>3708688</v>
+        <v>3799178</v>
       </c>
       <c r="AM141">
-        <v>91011</v>
+        <v>180028</v>
       </c>
       <c r="AN141">
-        <v>144415</v>
+        <v>137124</v>
       </c>
       <c r="AO141">
-        <v>29.26</v>
+        <v>29.88</v>
       </c>
       <c r="AP141">
-        <v>16.54</v>
+        <v>16.84</v>
       </c>
       <c r="AQ141">
-        <v>12.73</v>
+        <v>13.04</v>
       </c>
       <c r="AS141">
-        <v>4956</v>
+        <v>4706</v>
       </c>
       <c r="AT141">
         <v>64.81</v>
@@ -19738,7 +19732,7 @@
         <v>10589191</v>
       </c>
       <c r="AN142">
-        <v>46274</v>
+        <v>34404</v>
       </c>
       <c r="AO142">
         <v>126.83</v>
@@ -19750,7 +19744,7 @@
         <v>61.8</v>
       </c>
       <c r="AS142">
-        <v>2701</v>
+        <v>2008</v>
       </c>
       <c r="AT142">
         <v>36.11</v>
@@ -19809,7 +19803,7 @@
         <v>427</v>
       </c>
       <c r="D143" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="AI143">
         <v>139022</v>
@@ -20059,28 +20053,28 @@
         <v>-0</v>
       </c>
       <c r="AI145">
-        <v>580127</v>
+        <v>612799</v>
       </c>
       <c r="AJ145">
-        <v>382519</v>
+        <v>412029</v>
       </c>
       <c r="AK145">
-        <v>197608</v>
+        <v>200770</v>
       </c>
       <c r="AN145">
-        <v>5140</v>
+        <v>7605</v>
       </c>
       <c r="AO145">
-        <v>8.76</v>
+        <v>9.25</v>
       </c>
       <c r="AP145">
-        <v>5.77</v>
+        <v>6.22</v>
       </c>
       <c r="AQ145">
-        <v>2.98</v>
+        <v>3.03</v>
       </c>
       <c r="AS145">
-        <v>776</v>
+        <v>1148</v>
       </c>
       <c r="AT145">
         <v>2.78</v>
@@ -20466,31 +20460,31 @@
         <v>3.168</v>
       </c>
       <c r="AI149">
-        <v>537219174</v>
+        <v>539329780</v>
       </c>
       <c r="AJ149">
-        <v>309704173</v>
+        <v>310735643</v>
       </c>
       <c r="AK149">
-        <v>238944123</v>
+        <v>239960627</v>
       </c>
       <c r="AM149">
-        <v>1269361</v>
+        <v>1383107</v>
       </c>
       <c r="AN149">
-        <v>2101609</v>
+        <v>2043571</v>
       </c>
       <c r="AO149">
-        <v>90.73999999999999</v>
+        <v>91.09</v>
       </c>
       <c r="AP149">
-        <v>52.31</v>
+        <v>52.48</v>
       </c>
       <c r="AQ149">
-        <v>40.36</v>
+        <v>40.53</v>
       </c>
       <c r="AS149">
-        <v>3550</v>
+        <v>3452</v>
       </c>
       <c r="AU149">
         <v>592072204</v>
@@ -20644,7 +20638,7 @@
         <v>434</v>
       </c>
       <c r="D151" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="AI151">
         <v>302854</v>
@@ -20769,31 +20763,31 @@
         <v>512</v>
       </c>
       <c r="AI152">
-        <v>6187398</v>
+        <v>6299964</v>
       </c>
       <c r="AJ152">
-        <v>3787009</v>
+        <v>3797335</v>
       </c>
       <c r="AK152">
-        <v>2400389</v>
+        <v>2502629</v>
       </c>
       <c r="AM152">
-        <v>111085</v>
+        <v>104922</v>
       </c>
       <c r="AN152">
-        <v>49076</v>
+        <v>50305</v>
       </c>
       <c r="AO152">
-        <v>114.13</v>
+        <v>116.21</v>
       </c>
       <c r="AP152">
-        <v>69.86</v>
+        <v>70.05</v>
       </c>
       <c r="AQ152">
-        <v>44.28</v>
+        <v>46.16</v>
       </c>
       <c r="AS152">
-        <v>9053</v>
+        <v>9279</v>
       </c>
       <c r="AT152">
         <v>38.89</v>
@@ -20888,31 +20882,31 @@
         <v>0.325</v>
       </c>
       <c r="AI153">
-        <v>20318829</v>
+        <v>20622133</v>
       </c>
       <c r="AJ153">
-        <v>13123522</v>
+        <v>13284702</v>
       </c>
       <c r="AK153">
-        <v>7194117</v>
+        <v>7336241</v>
       </c>
       <c r="AM153">
-        <v>309010</v>
+        <v>303304</v>
       </c>
       <c r="AN153">
-        <v>293598</v>
+        <v>291542</v>
       </c>
       <c r="AO153">
-        <v>47.61</v>
+        <v>48.32</v>
       </c>
       <c r="AP153">
-        <v>30.75</v>
+        <v>31.13</v>
       </c>
       <c r="AQ153">
-        <v>16.86</v>
+        <v>17.19</v>
       </c>
       <c r="AS153">
-        <v>6879</v>
+        <v>6831</v>
       </c>
       <c r="AU153">
         <v>42677809</v>
@@ -21120,31 +21114,31 @@
         <v>513</v>
       </c>
       <c r="AI155">
-        <v>44736977</v>
+        <v>45540221</v>
       </c>
       <c r="AJ155">
-        <v>35873735</v>
+        <v>36458408</v>
       </c>
       <c r="AK155">
-        <v>12795662</v>
+        <v>13022591</v>
       </c>
       <c r="AM155">
         <v>414760</v>
       </c>
       <c r="AN155">
-        <v>581838</v>
+        <v>480971</v>
       </c>
       <c r="AO155">
-        <v>20.25</v>
+        <v>20.62</v>
       </c>
       <c r="AP155">
-        <v>16.24</v>
+        <v>16.51</v>
       </c>
       <c r="AQ155">
-        <v>5.79</v>
+        <v>5.9</v>
       </c>
       <c r="AS155">
-        <v>2634</v>
+        <v>2177</v>
       </c>
       <c r="AT155">
         <v>66.67</v>
@@ -21409,31 +21403,31 @@
         <v>513</v>
       </c>
       <c r="AI157">
-        <v>3583003</v>
+        <v>3644906</v>
       </c>
       <c r="AJ157">
-        <v>2620480</v>
+        <v>2636525</v>
       </c>
       <c r="AK157">
-        <v>962525</v>
+        <v>1008381</v>
       </c>
       <c r="AM157">
         <v>75165</v>
       </c>
       <c r="AN157">
-        <v>57268</v>
+        <v>42075</v>
       </c>
       <c r="AO157">
-        <v>83.04000000000001</v>
+        <v>84.48</v>
       </c>
       <c r="AP157">
-        <v>60.73</v>
+        <v>61.1</v>
       </c>
       <c r="AQ157">
-        <v>22.31</v>
+        <v>23.37</v>
       </c>
       <c r="AS157">
-        <v>13273</v>
+        <v>9751</v>
       </c>
       <c r="AU157">
         <v>4314768</v>
@@ -21671,28 +21665,28 @@
         <v>513</v>
       </c>
       <c r="AI159">
-        <v>3278382</v>
+        <v>3611565</v>
       </c>
       <c r="AJ159">
-        <v>2249679</v>
+        <v>2217446</v>
       </c>
       <c r="AK159">
-        <v>1028703</v>
+        <v>1394119</v>
       </c>
       <c r="AN159">
-        <v>50191</v>
+        <v>76278</v>
       </c>
       <c r="AO159">
-        <v>45.96</v>
+        <v>50.64</v>
       </c>
       <c r="AP159">
-        <v>31.54</v>
+        <v>31.09</v>
       </c>
       <c r="AQ159">
-        <v>14.42</v>
+        <v>19.55</v>
       </c>
       <c r="AS159">
-        <v>7037</v>
+        <v>10694</v>
       </c>
       <c r="AU159">
         <v>7132530</v>
@@ -22297,31 +22291,31 @@
         <v>513</v>
       </c>
       <c r="AI163">
-        <v>13870686</v>
+        <v>13945281</v>
       </c>
       <c r="AJ163">
-        <v>7974602</v>
+        <v>8033855</v>
       </c>
       <c r="AK163">
-        <v>6836634</v>
+        <v>6851976</v>
       </c>
       <c r="AM163">
-        <v>79608</v>
+        <v>74595</v>
       </c>
       <c r="AN163">
-        <v>91728</v>
+        <v>89355</v>
       </c>
       <c r="AO163">
-        <v>136.03</v>
+        <v>136.76</v>
       </c>
       <c r="AP163">
-        <v>78.20999999999999</v>
+        <v>78.79000000000001</v>
       </c>
       <c r="AQ163">
-        <v>67.05</v>
+        <v>67.2</v>
       </c>
       <c r="AS163">
-        <v>8996</v>
+        <v>8763</v>
       </c>
       <c r="AT163">
         <v>58.33</v>
@@ -22449,31 +22443,31 @@
         <v>512</v>
       </c>
       <c r="AI164">
-        <v>4202478</v>
+        <v>4228126</v>
       </c>
       <c r="AJ164">
-        <v>2256097</v>
+        <v>2269446</v>
       </c>
       <c r="AK164">
-        <v>1946381</v>
+        <v>1958680</v>
       </c>
       <c r="AM164">
-        <v>23096</v>
+        <v>25648</v>
       </c>
       <c r="AN164">
-        <v>21380</v>
+        <v>23005</v>
       </c>
       <c r="AO164">
-        <v>145.87</v>
+        <v>146.76</v>
       </c>
       <c r="AP164">
-        <v>78.31</v>
+        <v>78.77</v>
       </c>
       <c r="AQ164">
-        <v>67.56</v>
+        <v>67.98</v>
       </c>
       <c r="AS164">
-        <v>7421</v>
+        <v>7985</v>
       </c>
       <c r="AU164">
         <v>2881060</v>
@@ -22601,31 +22595,31 @@
         <v>513</v>
       </c>
       <c r="AI165">
-        <v>9627879</v>
+        <v>9640934</v>
       </c>
       <c r="AJ165">
-        <v>5147200</v>
+        <v>5156605</v>
       </c>
       <c r="AK165">
-        <v>5024147</v>
+        <v>5034584</v>
       </c>
       <c r="AM165">
-        <v>13991</v>
+        <v>13055</v>
       </c>
       <c r="AN165">
-        <v>11825</v>
+        <v>11735</v>
       </c>
       <c r="AO165">
-        <v>50.05</v>
+        <v>50.11</v>
       </c>
       <c r="AP165">
-        <v>26.76</v>
+        <v>26.8</v>
       </c>
       <c r="AQ165">
-        <v>26.12</v>
+        <v>26.17</v>
       </c>
       <c r="AS165">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="AT165">
         <v>38.43</v>
@@ -22747,31 +22741,31 @@
         <v>513</v>
       </c>
       <c r="AI166">
-        <v>75043301</v>
+        <v>75677887</v>
       </c>
       <c r="AJ166">
-        <v>41551994</v>
+        <v>41822606</v>
       </c>
       <c r="AK166">
-        <v>33491307</v>
+        <v>33855281</v>
       </c>
       <c r="AM166">
-        <v>617438</v>
+        <v>634586</v>
       </c>
       <c r="AN166">
-        <v>914215</v>
+        <v>663517</v>
       </c>
       <c r="AO166">
-        <v>51.42</v>
+        <v>51.86</v>
       </c>
       <c r="AP166">
-        <v>28.47</v>
+        <v>28.66</v>
       </c>
       <c r="AQ166">
-        <v>22.95</v>
+        <v>23.2</v>
       </c>
       <c r="AS166">
-        <v>6265</v>
+        <v>4547</v>
       </c>
       <c r="AT166">
         <v>46.76</v>
@@ -23146,31 +23140,31 @@
         <v>1.55</v>
       </c>
       <c r="AI169">
-        <v>61015</v>
+        <v>61566</v>
       </c>
       <c r="AJ169">
-        <v>34195</v>
+        <v>34464</v>
       </c>
       <c r="AK169">
-        <v>26820</v>
+        <v>27102</v>
       </c>
       <c r="AM169">
-        <v>218</v>
+        <v>551</v>
       </c>
       <c r="AN169">
-        <v>242</v>
+        <v>290</v>
       </c>
       <c r="AO169">
-        <v>33.23</v>
+        <v>33.53</v>
       </c>
       <c r="AP169">
-        <v>18.62</v>
+        <v>18.77</v>
       </c>
       <c r="AQ169">
-        <v>14.61</v>
+        <v>14.76</v>
       </c>
       <c r="AS169">
-        <v>1318</v>
+        <v>1579</v>
       </c>
       <c r="AU169">
         <v>183629</v>
@@ -23714,31 +23708,31 @@
         <v>513</v>
       </c>
       <c r="AI174">
-        <v>33271819</v>
+        <v>33487478</v>
       </c>
       <c r="AJ174">
-        <v>21196563</v>
+        <v>21256778</v>
       </c>
       <c r="AK174">
-        <v>12075256</v>
+        <v>12230700</v>
       </c>
       <c r="AM174">
-        <v>331272</v>
+        <v>215659</v>
       </c>
       <c r="AN174">
-        <v>284815</v>
+        <v>290742</v>
       </c>
       <c r="AO174">
-        <v>95.56999999999999</v>
+        <v>96.19</v>
       </c>
       <c r="AP174">
-        <v>60.89</v>
+        <v>61.06</v>
       </c>
       <c r="AQ174">
-        <v>34.69</v>
+        <v>35.13</v>
       </c>
       <c r="AS174">
-        <v>8181</v>
+        <v>8351</v>
       </c>
       <c r="AU174">
         <v>34813867</v>
@@ -23860,28 +23854,28 @@
         <v>513</v>
       </c>
       <c r="AI175">
-        <v>1451106</v>
+        <v>1483312</v>
       </c>
       <c r="AJ175">
-        <v>1109720</v>
+        <v>1131827</v>
       </c>
       <c r="AK175">
-        <v>341386</v>
+        <v>626669</v>
       </c>
       <c r="AN175">
-        <v>13002</v>
+        <v>10173</v>
       </c>
       <c r="AO175">
-        <v>8.67</v>
+        <v>8.859999999999999</v>
       </c>
       <c r="AP175">
-        <v>6.63</v>
+        <v>6.76</v>
       </c>
       <c r="AQ175">
-        <v>2.04</v>
+        <v>3.74</v>
       </c>
       <c r="AS175">
-        <v>777</v>
+        <v>608</v>
       </c>
       <c r="AT175">
         <v>19.44</v>
@@ -24009,31 +24003,37 @@
         <v>512</v>
       </c>
       <c r="AI176">
-        <v>5656592</v>
+        <v>5670011</v>
       </c>
       <c r="AJ176">
-        <v>2884393</v>
+        <v>2887708</v>
       </c>
       <c r="AK176">
-        <v>2768776</v>
+        <v>2771947</v>
+      </c>
+      <c r="AL176">
+        <v>10356</v>
       </c>
       <c r="AM176">
-        <v>7158</v>
+        <v>13419</v>
       </c>
       <c r="AN176">
-        <v>6752</v>
+        <v>7457</v>
       </c>
       <c r="AO176">
-        <v>83.13</v>
+        <v>83.33</v>
       </c>
       <c r="AP176">
-        <v>42.39</v>
+        <v>42.44</v>
       </c>
       <c r="AQ176">
-        <v>40.69</v>
+        <v>40.74</v>
+      </c>
+      <c r="AR176">
+        <v>0.15</v>
       </c>
       <c r="AS176">
-        <v>992</v>
+        <v>1096</v>
       </c>
       <c r="AT176">
         <v>36.11</v>
@@ -24452,7 +24452,7 @@
         <v>462</v>
       </c>
       <c r="D180" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="AI180">
         <v>47084</v>
@@ -24583,19 +24583,19 @@
         <v>513</v>
       </c>
       <c r="AI181">
-        <v>4455343</v>
+        <v>4455459</v>
       </c>
       <c r="AJ181">
-        <v>2339231</v>
+        <v>2339288</v>
       </c>
       <c r="AK181">
-        <v>2116112</v>
+        <v>2116171</v>
       </c>
       <c r="AM181">
-        <v>7495</v>
+        <v>116</v>
       </c>
       <c r="AN181">
-        <v>8548</v>
+        <v>6697</v>
       </c>
       <c r="AO181">
         <v>81.61</v>
@@ -24607,7 +24607,7 @@
         <v>38.76</v>
       </c>
       <c r="AS181">
-        <v>1566</v>
+        <v>1227</v>
       </c>
       <c r="AU181">
         <v>5459643</v>
@@ -24756,31 +24756,31 @@
         <v>513</v>
       </c>
       <c r="AI182">
-        <v>1835638</v>
+        <v>1843331</v>
       </c>
       <c r="AJ182">
-        <v>968269</v>
+        <v>971753</v>
       </c>
       <c r="AK182">
-        <v>867369</v>
+        <v>871578</v>
       </c>
       <c r="AM182">
-        <v>8974</v>
+        <v>7324</v>
       </c>
       <c r="AN182">
-        <v>5424</v>
+        <v>5395</v>
       </c>
       <c r="AO182">
-        <v>88.3</v>
+        <v>88.67</v>
       </c>
       <c r="AP182">
-        <v>46.58</v>
+        <v>46.74</v>
       </c>
       <c r="AQ182">
-        <v>41.72</v>
+        <v>41.92</v>
       </c>
       <c r="AS182">
-        <v>2609</v>
+        <v>2595</v>
       </c>
       <c r="AT182">
         <v>29.63</v>
@@ -25065,31 +25065,31 @@
         <v>1.12</v>
       </c>
       <c r="AI185">
-        <v>10167749</v>
+        <v>10431124</v>
       </c>
       <c r="AJ185">
-        <v>7808653</v>
+        <v>7986245</v>
       </c>
       <c r="AK185">
-        <v>4629371</v>
+        <v>4782071</v>
       </c>
       <c r="AM185">
-        <v>205638</v>
+        <v>263375</v>
       </c>
       <c r="AN185">
-        <v>140285</v>
+        <v>168321</v>
       </c>
       <c r="AO185">
-        <v>17.14</v>
+        <v>17.59</v>
       </c>
       <c r="AP185">
-        <v>13.17</v>
+        <v>13.47</v>
       </c>
       <c r="AQ185">
-        <v>7.81</v>
+        <v>8.06</v>
       </c>
       <c r="AS185">
-        <v>2365</v>
+        <v>2838</v>
       </c>
       <c r="AT185">
         <v>51.85</v>
@@ -25187,37 +25187,37 @@
         <v>2.965</v>
       </c>
       <c r="AI186">
-        <v>322592853</v>
+        <v>324023697</v>
       </c>
       <c r="AJ186">
-        <v>217735361</v>
+        <v>217815178</v>
       </c>
       <c r="AK186">
-        <v>110862753</v>
+        <v>112087919</v>
       </c>
       <c r="AL186">
-        <v>851351</v>
+        <v>978753</v>
       </c>
       <c r="AM186">
-        <v>2480349</v>
+        <v>897576</v>
       </c>
       <c r="AN186">
-        <v>3434658</v>
+        <v>3485234</v>
       </c>
       <c r="AO186">
-        <v>74.89</v>
+        <v>75.22</v>
       </c>
       <c r="AP186">
-        <v>50.55</v>
+        <v>50.57</v>
       </c>
       <c r="AQ186">
-        <v>25.74</v>
+        <v>26.02</v>
       </c>
       <c r="AR186">
-        <v>0.2</v>
+        <v>0.23</v>
       </c>
       <c r="AS186">
-        <v>7973</v>
+        <v>8091</v>
       </c>
       <c r="AU186">
         <v>430759772</v>
@@ -25303,31 +25303,31 @@
         <v>512</v>
       </c>
       <c r="AI187">
-        <v>34788642</v>
+        <v>35811299</v>
       </c>
       <c r="AJ187">
-        <v>24812397</v>
+        <v>25501990</v>
       </c>
       <c r="AK187">
-        <v>11106027</v>
+        <v>11439093</v>
       </c>
       <c r="AM187">
-        <v>793275</v>
+        <v>1016975</v>
       </c>
       <c r="AN187">
-        <v>713820</v>
+        <v>736431</v>
       </c>
       <c r="AO187">
-        <v>67.84999999999999</v>
+        <v>69.84999999999999</v>
       </c>
       <c r="AP187">
-        <v>48.4</v>
+        <v>49.74</v>
       </c>
       <c r="AQ187">
-        <v>21.66</v>
+        <v>22.31</v>
       </c>
       <c r="AS187">
-        <v>13923</v>
+        <v>14364</v>
       </c>
       <c r="AT187">
         <v>50.93</v>
@@ -25544,31 +25544,31 @@
         <v>513</v>
       </c>
       <c r="AI189">
-        <v>62665513</v>
+        <v>63090941</v>
       </c>
       <c r="AJ189">
-        <v>35269276</v>
+        <v>35442173</v>
       </c>
       <c r="AK189">
-        <v>30565129</v>
+        <v>31096470</v>
       </c>
       <c r="AM189">
-        <v>472369</v>
+        <v>425428</v>
       </c>
       <c r="AN189">
-        <v>316534</v>
+        <v>310153</v>
       </c>
       <c r="AO189">
-        <v>134.03</v>
+        <v>134.94</v>
       </c>
       <c r="AP189">
-        <v>75.43000000000001</v>
+        <v>75.8</v>
       </c>
       <c r="AQ189">
-        <v>65.37</v>
+        <v>66.51000000000001</v>
       </c>
       <c r="AS189">
-        <v>6770</v>
+        <v>6634</v>
       </c>
       <c r="AT189">
         <v>47.69</v>
@@ -25696,31 +25696,31 @@
         <v>513</v>
       </c>
       <c r="AI190">
-        <v>16920027</v>
+        <v>17068274</v>
       </c>
       <c r="AJ190">
-        <v>11963739</v>
+        <v>11799191</v>
       </c>
       <c r="AK190">
-        <v>4956288</v>
+        <v>5269083</v>
       </c>
       <c r="AM190">
         <v>138622</v>
       </c>
       <c r="AN190">
-        <v>285096</v>
+        <v>200265</v>
       </c>
       <c r="AO190">
-        <v>79.02</v>
+        <v>79.70999999999999</v>
       </c>
       <c r="AP190">
-        <v>55.87</v>
+        <v>55.1</v>
       </c>
       <c r="AQ190">
-        <v>23.15</v>
+        <v>24.61</v>
       </c>
       <c r="AS190">
-        <v>13314</v>
+        <v>9352</v>
       </c>
       <c r="AT190">
         <v>79.63</v>
@@ -25821,22 +25821,28 @@
         <v>0.36</v>
       </c>
       <c r="AI191">
-        <v>823881</v>
+        <v>827961</v>
       </c>
       <c r="AJ191">
-        <v>641154</v>
+        <v>645234</v>
+      </c>
+      <c r="AK191">
+        <v>182727</v>
       </c>
       <c r="AN191">
-        <v>606</v>
+        <v>1016</v>
       </c>
       <c r="AO191">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="AP191">
-        <v>1.46</v>
+        <v>1.47</v>
+      </c>
+      <c r="AQ191">
+        <v>0.42</v>
       </c>
       <c r="AS191">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="AU191">
         <v>43849269</v>
@@ -25928,31 +25934,31 @@
         <v>1.12</v>
       </c>
       <c r="AI192">
-        <v>288230</v>
+        <v>292810</v>
       </c>
       <c r="AJ192">
-        <v>194779</v>
+        <v>195367</v>
       </c>
       <c r="AK192">
-        <v>93451</v>
+        <v>97443</v>
       </c>
       <c r="AM192">
-        <v>3013</v>
+        <v>4580</v>
       </c>
       <c r="AN192">
-        <v>2892</v>
+        <v>3020</v>
       </c>
       <c r="AO192">
-        <v>49.13</v>
+        <v>49.91</v>
       </c>
       <c r="AP192">
-        <v>33.2</v>
+        <v>33.3</v>
       </c>
       <c r="AQ192">
-        <v>15.93</v>
+        <v>16.61</v>
       </c>
       <c r="AS192">
-        <v>4930</v>
+        <v>5148</v>
       </c>
       <c r="AT192">
         <v>83.33</v>
@@ -26092,31 +26098,31 @@
         <v>513</v>
       </c>
       <c r="AI193">
-        <v>11666296</v>
+        <v>11768102</v>
       </c>
       <c r="AJ193">
-        <v>6598469</v>
+        <v>6611857</v>
       </c>
       <c r="AK193">
-        <v>5067827</v>
+        <v>5156245</v>
       </c>
       <c r="AM193">
-        <v>73755</v>
+        <v>101806</v>
       </c>
       <c r="AN193">
-        <v>52363</v>
+        <v>58618</v>
       </c>
       <c r="AO193">
-        <v>115.52</v>
+        <v>116.52</v>
       </c>
       <c r="AP193">
-        <v>65.34</v>
+        <v>65.47</v>
       </c>
       <c r="AQ193">
-        <v>50.18</v>
+        <v>51.06</v>
       </c>
       <c r="AS193">
-        <v>5185</v>
+        <v>5804</v>
       </c>
       <c r="AT193">
         <v>37.04</v>
@@ -26262,31 +26268,31 @@
         <v>513</v>
       </c>
       <c r="AI194">
-        <v>9329591</v>
+        <v>9357531</v>
       </c>
       <c r="AJ194">
-        <v>4820164</v>
+        <v>4834835</v>
       </c>
       <c r="AK194">
-        <v>4337143</v>
+        <v>4349871</v>
       </c>
       <c r="AM194">
-        <v>26218</v>
+        <v>25009</v>
       </c>
       <c r="AN194">
-        <v>19132</v>
+        <v>19159</v>
       </c>
       <c r="AO194">
-        <v>107.8</v>
+        <v>108.12</v>
       </c>
       <c r="AP194">
-        <v>55.69</v>
+        <v>55.86</v>
       </c>
       <c r="AQ194">
-        <v>50.11</v>
+        <v>50.26</v>
       </c>
       <c r="AS194">
-        <v>2211</v>
+        <v>2214</v>
       </c>
       <c r="AT194">
         <v>44.44</v>
@@ -26503,31 +26509,31 @@
         <v>512</v>
       </c>
       <c r="AI196">
-        <v>10014566</v>
+        <v>10057641</v>
       </c>
       <c r="AJ196">
-        <v>9269265</v>
+        <v>9285878</v>
       </c>
       <c r="AK196">
-        <v>745301</v>
+        <v>771763</v>
       </c>
       <c r="AM196">
-        <v>28569</v>
+        <v>43075</v>
       </c>
       <c r="AN196">
-        <v>58826</v>
+        <v>44057</v>
       </c>
       <c r="AO196">
-        <v>42.05</v>
+        <v>42.23</v>
       </c>
       <c r="AP196">
-        <v>38.92</v>
+        <v>38.99</v>
       </c>
       <c r="AQ196">
-        <v>3.13</v>
+        <v>3.24</v>
       </c>
       <c r="AS196">
-        <v>2470</v>
+        <v>1850</v>
       </c>
       <c r="AT196">
         <v>56.48</v>
@@ -26845,37 +26851,37 @@
         <v>1.09</v>
       </c>
       <c r="AI199">
-        <v>25167060</v>
+        <v>25818666</v>
       </c>
       <c r="AJ199">
-        <v>19143574</v>
+        <v>19586009</v>
       </c>
       <c r="AK199">
-        <v>5503882</v>
+        <v>5705200</v>
       </c>
       <c r="AL199">
-        <v>519604</v>
+        <v>527457</v>
       </c>
       <c r="AM199">
-        <v>548311</v>
+        <v>651606</v>
       </c>
       <c r="AN199">
-        <v>411177</v>
+        <v>472858</v>
       </c>
       <c r="AO199">
-        <v>36.06</v>
+        <v>36.99</v>
       </c>
       <c r="AP199">
-        <v>27.43</v>
+        <v>28.06</v>
       </c>
       <c r="AQ199">
-        <v>7.89</v>
+        <v>8.17</v>
       </c>
       <c r="AR199">
-        <v>0.74</v>
+        <v>0.76</v>
       </c>
       <c r="AS199">
-        <v>5891</v>
+        <v>6774</v>
       </c>
       <c r="AT199">
         <v>72.22</v>
@@ -27157,6 +27163,30 @@
       <c r="AH201" t="s">
         <v>513</v>
       </c>
+      <c r="AI201">
+        <v>535518</v>
+      </c>
+      <c r="AJ201">
+        <v>356897</v>
+      </c>
+      <c r="AK201">
+        <v>178621</v>
+      </c>
+      <c r="AN201">
+        <v>3573</v>
+      </c>
+      <c r="AO201">
+        <v>6.47</v>
+      </c>
+      <c r="AP201">
+        <v>4.31</v>
+      </c>
+      <c r="AQ201">
+        <v>2.16</v>
+      </c>
+      <c r="AS201">
+        <v>432</v>
+      </c>
       <c r="AT201">
         <v>50.93</v>
       </c>
@@ -27217,7 +27247,7 @@
         <v>483</v>
       </c>
       <c r="D202" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="AI202">
         <v>968</v>
@@ -27324,31 +27354,31 @@
         <v>512</v>
       </c>
       <c r="AI203">
-        <v>813470</v>
+        <v>828768</v>
       </c>
       <c r="AJ203">
-        <v>467029</v>
+        <v>472946</v>
       </c>
       <c r="AK203">
-        <v>346441</v>
+        <v>355822</v>
       </c>
       <c r="AM203">
-        <v>12675</v>
+        <v>15298</v>
       </c>
       <c r="AN203">
-        <v>14787</v>
+        <v>14270</v>
       </c>
       <c r="AO203">
-        <v>58.13</v>
+        <v>59.22</v>
       </c>
       <c r="AP203">
-        <v>33.37</v>
+        <v>33.79</v>
       </c>
       <c r="AQ203">
-        <v>24.75</v>
+        <v>25.43</v>
       </c>
       <c r="AS203">
-        <v>10566</v>
+        <v>10197</v>
       </c>
       <c r="AU203">
         <v>1399491</v>
@@ -27592,37 +27622,37 @@
         <v>0.87</v>
       </c>
       <c r="AI205">
-        <v>87195574</v>
+        <v>88059440</v>
       </c>
       <c r="AJ205">
-        <v>45304742</v>
+        <v>45636614</v>
       </c>
       <c r="AK205">
-        <v>34446015</v>
+        <v>34791602</v>
       </c>
       <c r="AL205">
-        <v>7444817</v>
+        <v>7631224</v>
       </c>
       <c r="AM205">
-        <v>781852</v>
+        <v>863866</v>
       </c>
       <c r="AN205">
-        <v>822795</v>
+        <v>862559</v>
       </c>
       <c r="AO205">
-        <v>103.39</v>
+        <v>104.41</v>
       </c>
       <c r="AP205">
-        <v>53.72</v>
+        <v>54.11</v>
       </c>
       <c r="AQ205">
-        <v>40.84</v>
+        <v>41.25</v>
       </c>
       <c r="AR205">
-        <v>8.83</v>
+        <v>9.050000000000001</v>
       </c>
       <c r="AS205">
-        <v>9756</v>
+        <v>10227</v>
       </c>
       <c r="AT205">
         <v>50</v>
@@ -27681,7 +27711,7 @@
         <v>487</v>
       </c>
       <c r="D206" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="AI206">
         <v>49107</v>
@@ -27943,31 +27973,31 @@
         <v>513</v>
       </c>
       <c r="AI208">
-        <v>7952028</v>
+        <v>8099146</v>
       </c>
       <c r="AJ208">
-        <v>4971750</v>
+        <v>5032720</v>
       </c>
       <c r="AK208">
-        <v>2980278</v>
+        <v>3066426</v>
       </c>
       <c r="AM208">
-        <v>129027</v>
+        <v>147118</v>
       </c>
       <c r="AN208">
-        <v>111467</v>
+        <v>109514</v>
       </c>
       <c r="AO208">
-        <v>18.18</v>
+        <v>18.52</v>
       </c>
       <c r="AP208">
-        <v>11.37</v>
+        <v>11.51</v>
       </c>
       <c r="AQ208">
-        <v>6.81</v>
+        <v>7.01</v>
       </c>
       <c r="AS208">
-        <v>2549</v>
+        <v>2504</v>
       </c>
       <c r="AU208">
         <v>43733759</v>
@@ -28092,31 +28122,31 @@
         <v>513</v>
       </c>
       <c r="AI209">
-        <v>17566410</v>
+        <v>17622541</v>
       </c>
       <c r="AJ209">
-        <v>8258517</v>
+        <v>8297964</v>
       </c>
       <c r="AK209">
-        <v>7279364</v>
+        <v>7308934</v>
       </c>
       <c r="AM209">
-        <v>59727</v>
+        <v>56131</v>
       </c>
       <c r="AN209">
-        <v>39727</v>
+        <v>44197</v>
       </c>
       <c r="AO209">
-        <v>177.61</v>
+        <v>178.18</v>
       </c>
       <c r="AP209">
-        <v>83.5</v>
+        <v>83.90000000000001</v>
       </c>
       <c r="AQ209">
-        <v>73.59999999999999</v>
+        <v>73.90000000000001</v>
       </c>
       <c r="AS209">
-        <v>4017</v>
+        <v>4469</v>
       </c>
       <c r="AT209">
         <v>65.28</v>
@@ -28259,31 +28289,31 @@
         <v>513</v>
       </c>
       <c r="AI210">
-        <v>88617595</v>
+        <v>88848633</v>
       </c>
       <c r="AJ210">
-        <v>47460526</v>
+        <v>47516505</v>
       </c>
       <c r="AK210">
-        <v>41157069</v>
+        <v>41332128</v>
       </c>
       <c r="AM210">
-        <v>216507</v>
+        <v>231038</v>
       </c>
       <c r="AN210">
-        <v>204737</v>
+        <v>203893</v>
       </c>
       <c r="AO210">
-        <v>130.54</v>
+        <v>130.88</v>
       </c>
       <c r="AP210">
-        <v>69.91</v>
+        <v>69.98999999999999</v>
       </c>
       <c r="AQ210">
-        <v>60.63</v>
+        <v>60.88</v>
       </c>
       <c r="AS210">
-        <v>3016</v>
+        <v>3003</v>
       </c>
       <c r="AT210">
         <v>43.98</v>
@@ -28429,31 +28459,31 @@
         <v>513</v>
       </c>
       <c r="AI211">
-        <v>359623380</v>
+        <v>360634287</v>
       </c>
       <c r="AJ211">
-        <v>199887548</v>
+        <v>200421787</v>
       </c>
       <c r="AK211">
-        <v>169592873</v>
+        <v>169998983</v>
       </c>
       <c r="AM211">
-        <v>1023545</v>
+        <v>1010907</v>
       </c>
       <c r="AN211">
-        <v>823355</v>
+        <v>836620</v>
       </c>
       <c r="AO211">
-        <v>107.53</v>
+        <v>107.83</v>
       </c>
       <c r="AP211">
-        <v>59.77</v>
+        <v>59.93</v>
       </c>
       <c r="AQ211">
-        <v>50.71</v>
+        <v>50.83</v>
       </c>
       <c r="AS211">
-        <v>2462</v>
+        <v>2502</v>
       </c>
       <c r="AT211">
         <v>56.02</v>
@@ -28581,37 +28611,37 @@
         <v>513</v>
       </c>
       <c r="AI212">
-        <v>5228992</v>
+        <v>5277908</v>
       </c>
       <c r="AJ212">
-        <v>2636164</v>
+        <v>2642057</v>
       </c>
       <c r="AK212">
-        <v>2442335</v>
+        <v>2464276</v>
       </c>
       <c r="AL212">
-        <v>150493</v>
+        <v>171575</v>
       </c>
       <c r="AM212">
-        <v>51969</v>
+        <v>48886</v>
       </c>
       <c r="AN212">
-        <v>33299</v>
+        <v>37654</v>
       </c>
       <c r="AO212">
-        <v>150.53</v>
+        <v>151.94</v>
       </c>
       <c r="AP212">
-        <v>75.89</v>
+        <v>76.06</v>
       </c>
       <c r="AQ212">
-        <v>70.31</v>
+        <v>70.94</v>
       </c>
       <c r="AR212">
-        <v>4.33</v>
+        <v>4.94</v>
       </c>
       <c r="AS212">
-        <v>9586</v>
+        <v>10840</v>
       </c>
       <c r="AT212">
         <v>55.56</v>
@@ -29119,31 +29149,31 @@
         <v>515</v>
       </c>
       <c r="AI217">
-        <v>15922537</v>
+        <v>16306199</v>
       </c>
       <c r="AJ217">
-        <v>14359868</v>
+        <v>14669827</v>
       </c>
       <c r="AK217">
-        <v>1562669</v>
+        <v>1636372</v>
       </c>
       <c r="AM217">
-        <v>403668</v>
+        <v>383662</v>
       </c>
       <c r="AN217">
-        <v>546245</v>
+        <v>435675</v>
       </c>
       <c r="AO217">
-        <v>16.36</v>
+        <v>16.75</v>
       </c>
       <c r="AP217">
-        <v>14.75</v>
+        <v>15.07</v>
       </c>
       <c r="AQ217">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AS217">
-        <v>5612</v>
+        <v>4476</v>
       </c>
       <c r="AT217">
         <v>79.17</v>
@@ -29205,7 +29235,7 @@
         <v>499</v>
       </c>
       <c r="D218" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="AI218">
         <v>9534</v>
@@ -29288,37 +29318,37 @@
         <v>1.03</v>
       </c>
       <c r="AI219">
-        <v>4876818801</v>
+        <v>4909924988</v>
       </c>
       <c r="AJ219">
-        <v>2507779013</v>
+        <v>2519364052</v>
       </c>
       <c r="AK219">
-        <v>1883488218</v>
+        <v>1893238979</v>
       </c>
       <c r="AL219">
-        <v>10440457</v>
+        <v>10894564</v>
       </c>
       <c r="AM219">
-        <v>30161972</v>
+        <v>29072187</v>
       </c>
       <c r="AN219">
-        <v>35881143</v>
+        <v>34940548</v>
       </c>
       <c r="AO219">
-        <v>62.57</v>
+        <v>62.99</v>
       </c>
       <c r="AP219">
-        <v>32.17</v>
+        <v>32.32</v>
       </c>
       <c r="AQ219">
-        <v>24.16</v>
+        <v>24.29</v>
       </c>
       <c r="AR219">
-        <v>0.13</v>
+        <v>0.14</v>
       </c>
       <c r="AS219">
-        <v>4603</v>
+        <v>4483</v>
       </c>
       <c r="AU219">
         <v>7794798729</v>
@@ -29699,31 +29729,31 @@
         <v>513</v>
       </c>
       <c r="AI222">
-        <v>3620937</v>
+        <v>3699508</v>
       </c>
       <c r="AJ222">
-        <v>2233265</v>
+        <v>2271429</v>
       </c>
       <c r="AK222">
-        <v>1387672</v>
+        <v>1428079</v>
       </c>
       <c r="AM222">
-        <v>78597</v>
+        <v>78571</v>
       </c>
       <c r="AN222">
-        <v>61097</v>
+        <v>69346</v>
       </c>
       <c r="AO222">
-        <v>24.36</v>
+        <v>24.89</v>
       </c>
       <c r="AP222">
-        <v>15.03</v>
+        <v>15.28</v>
       </c>
       <c r="AQ222">
-        <v>9.34</v>
+        <v>9.609999999999999</v>
       </c>
       <c r="AS222">
-        <v>4111</v>
+        <v>4666</v>
       </c>
       <c r="AT222">
         <v>73.15000000000001</v>

--- a/public/data/latest/owid-covid-latest.xlsx
+++ b/public/data/latest/owid-covid-latest.xlsx
@@ -3284,13 +3284,13 @@
         <v>0.984</v>
       </c>
       <c r="AI12">
-        <v>3219535273</v>
+        <v>3219669661</v>
       </c>
       <c r="AJ12">
-        <v>1524211363</v>
+        <v>1524246996</v>
       </c>
       <c r="AK12">
-        <v>1163166104</v>
+        <v>1163263513</v>
       </c>
       <c r="AL12">
         <v>9905455</v>
@@ -3299,7 +3299,7 @@
         <v>23789659</v>
       </c>
       <c r="AN12">
-        <v>25178505</v>
+        <v>25197703</v>
       </c>
       <c r="AO12">
         <v>69.39</v>
@@ -3314,7 +3314,7 @@
         <v>0.21</v>
       </c>
       <c r="AS12">
-        <v>5427</v>
+        <v>5431</v>
       </c>
       <c r="AU12">
         <v>4639847425</v>
@@ -24372,31 +24372,31 @@
         <v>515</v>
       </c>
       <c r="AI179">
-        <v>8547113</v>
+        <v>8681501</v>
       </c>
       <c r="AJ179">
-        <v>4507848</v>
+        <v>4543481</v>
       </c>
       <c r="AK179">
-        <v>4169030</v>
+        <v>4266439</v>
       </c>
       <c r="AM179">
         <v>97219</v>
       </c>
       <c r="AN179">
-        <v>72074</v>
+        <v>36036</v>
       </c>
       <c r="AO179">
-        <v>146.1</v>
+        <v>148.39</v>
       </c>
       <c r="AP179">
-        <v>77.05</v>
+        <v>77.66</v>
       </c>
       <c r="AQ179">
-        <v>71.26000000000001</v>
+        <v>72.93000000000001</v>
       </c>
       <c r="AS179">
-        <v>12320</v>
+        <v>6160</v>
       </c>
       <c r="AT179">
         <v>47.22</v>
@@ -29318,13 +29318,13 @@
         <v>1.03</v>
       </c>
       <c r="AI219">
-        <v>4909924988</v>
+        <v>4910059376</v>
       </c>
       <c r="AJ219">
-        <v>2519364052</v>
+        <v>2519399685</v>
       </c>
       <c r="AK219">
-        <v>1893238979</v>
+        <v>1893336388</v>
       </c>
       <c r="AL219">
         <v>10894564</v>
@@ -29333,7 +29333,7 @@
         <v>29072187</v>
       </c>
       <c r="AN219">
-        <v>34940548</v>
+        <v>34959746</v>
       </c>
       <c r="AO219">
         <v>62.99</v>
@@ -29348,7 +29348,7 @@
         <v>0.14</v>
       </c>
       <c r="AS219">
-        <v>4483</v>
+        <v>4485</v>
       </c>
       <c r="AU219">
         <v>7794798729</v>

--- a/public/data/latest/owid-covid-latest.xlsx
+++ b/public/data/latest/owid-covid-latest.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1049" uniqueCount="516">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1049" uniqueCount="517">
   <si>
     <t>iso_code</t>
   </si>
@@ -1526,6 +1526,9 @@
   </si>
   <si>
     <t>Zimbabwe</t>
+  </si>
+  <si>
+    <t>2021-08-21</t>
   </si>
   <si>
     <t>2021-08-20</t>
@@ -2130,7 +2133,7 @@
         <v>152448</v>
       </c>
       <c r="F2">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="G2">
         <v>96.857</v>
@@ -2139,7 +2142,7 @@
         <v>7054</v>
       </c>
       <c r="I2">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <v>7.714</v>
@@ -2148,7 +2151,7 @@
         <v>3916.119</v>
       </c>
       <c r="L2">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <v>2.488</v>
@@ -2157,7 +2160,7 @@
         <v>181.205</v>
       </c>
       <c r="O2">
-        <v>0.18</v>
+        <v>0</v>
       </c>
       <c r="P2">
         <v>0.198</v>
@@ -2234,40 +2237,40 @@
         <v>504</v>
       </c>
       <c r="E3">
-        <v>7449639</v>
+        <v>7480444</v>
       </c>
       <c r="F3">
-        <v>36991</v>
+        <v>30805</v>
       </c>
       <c r="G3">
-        <v>34979.714</v>
+        <v>34554.714</v>
       </c>
       <c r="H3">
-        <v>187874</v>
+        <v>188504</v>
       </c>
       <c r="I3">
-        <v>701</v>
+        <v>630</v>
       </c>
       <c r="J3">
-        <v>816.429</v>
+        <v>805</v>
       </c>
       <c r="K3">
-        <v>5556.952</v>
+        <v>5579.93</v>
       </c>
       <c r="L3">
-        <v>27.593</v>
+        <v>22.979</v>
       </c>
       <c r="M3">
-        <v>26.093</v>
+        <v>25.776</v>
       </c>
       <c r="N3">
-        <v>140.142</v>
+        <v>140.612</v>
       </c>
       <c r="O3">
-        <v>0.523</v>
+        <v>0.47</v>
       </c>
       <c r="P3">
-        <v>0.609</v>
+        <v>0.6</v>
       </c>
       <c r="AI3">
         <v>89895932</v>
@@ -2314,16 +2317,16 @@
         <v>504</v>
       </c>
       <c r="E4">
-        <v>138132</v>
+        <v>138790</v>
       </c>
       <c r="F4">
-        <v>535</v>
+        <v>658</v>
       </c>
       <c r="G4">
-        <v>427.429</v>
+        <v>462.857</v>
       </c>
       <c r="H4">
-        <v>2475</v>
+        <v>2477</v>
       </c>
       <c r="I4">
         <v>2</v>
@@ -2332,16 +2335,16 @@
         <v>2</v>
       </c>
       <c r="K4">
-        <v>47999.166</v>
+        <v>48227.813</v>
       </c>
       <c r="L4">
-        <v>185.906</v>
+        <v>228.647</v>
       </c>
       <c r="M4">
-        <v>148.526</v>
+        <v>160.837</v>
       </c>
       <c r="N4">
-        <v>860.032</v>
+        <v>860.727</v>
       </c>
       <c r="O4">
         <v>0.695</v>
@@ -2439,49 +2442,49 @@
         <v>504</v>
       </c>
       <c r="E5">
-        <v>190656</v>
+        <v>191171</v>
       </c>
       <c r="F5">
-        <v>578</v>
+        <v>515</v>
       </c>
       <c r="G5">
-        <v>679.143</v>
+        <v>645.143</v>
       </c>
       <c r="H5">
-        <v>4957</v>
+        <v>4984</v>
       </c>
       <c r="I5">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J5">
-        <v>32.429</v>
+        <v>31.143</v>
       </c>
       <c r="K5">
-        <v>4347.81</v>
+        <v>4359.554</v>
       </c>
       <c r="L5">
-        <v>13.181</v>
+        <v>11.744</v>
       </c>
       <c r="M5">
-        <v>15.487</v>
+        <v>14.712</v>
       </c>
       <c r="N5">
-        <v>113.042</v>
+        <v>113.658</v>
       </c>
       <c r="O5">
-        <v>0.639</v>
+        <v>0.616</v>
       </c>
       <c r="P5">
-        <v>0.74</v>
+        <v>0.71</v>
       </c>
       <c r="Q5">
         <v>0.73</v>
       </c>
       <c r="R5">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S5">
-        <v>0.753</v>
+        <v>0.73</v>
       </c>
       <c r="AU5">
         <v>43851043</v>
@@ -2546,7 +2549,7 @@
         <v>14988</v>
       </c>
       <c r="F6">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G6">
         <v>9.143000000000001</v>
@@ -2564,7 +2567,7 @@
         <v>193981.751</v>
       </c>
       <c r="L6">
-        <v>90.59699999999999</v>
+        <v>0</v>
       </c>
       <c r="M6">
         <v>118.331</v>
@@ -2600,7 +2603,7 @@
         <v>10.5</v>
       </c>
       <c r="AH6" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="AI6">
         <v>91660</v>
@@ -2665,40 +2668,40 @@
         <v>504</v>
       </c>
       <c r="E7">
-        <v>45583</v>
+        <v>45817</v>
       </c>
       <c r="F7">
-        <v>258</v>
+        <v>234</v>
       </c>
       <c r="G7">
-        <v>179.286</v>
+        <v>183.286</v>
       </c>
       <c r="H7">
-        <v>1138</v>
+        <v>1140</v>
       </c>
       <c r="I7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J7">
-        <v>8</v>
+        <v>7.714</v>
       </c>
       <c r="K7">
-        <v>1386.924</v>
+        <v>1394.043</v>
       </c>
       <c r="L7">
-        <v>7.85</v>
+        <v>7.12</v>
       </c>
       <c r="M7">
-        <v>5.455</v>
+        <v>5.577</v>
       </c>
       <c r="N7">
-        <v>34.625</v>
+        <v>34.686</v>
       </c>
       <c r="O7">
-        <v>0.152</v>
+        <v>0.061</v>
       </c>
       <c r="P7">
-        <v>0.243</v>
+        <v>0.235</v>
       </c>
       <c r="Q7">
         <v>1.1</v>
@@ -2775,13 +2778,13 @@
         <v>504</v>
       </c>
       <c r="E8">
-        <v>1447</v>
+        <v>1490</v>
       </c>
       <c r="F8">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="G8">
-        <v>10.714</v>
+        <v>16</v>
       </c>
       <c r="H8">
         <v>43</v>
@@ -2793,13 +2796,13 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>14776.162</v>
+        <v>15215.26</v>
       </c>
       <c r="L8">
-        <v>265.501</v>
+        <v>439.098</v>
       </c>
       <c r="M8">
-        <v>109.41</v>
+        <v>163.385</v>
       </c>
       <c r="N8">
         <v>439.098</v>
@@ -2885,40 +2888,40 @@
         <v>504</v>
       </c>
       <c r="E9">
-        <v>5124963</v>
+        <v>5130852</v>
       </c>
       <c r="F9">
-        <v>8160</v>
+        <v>5889</v>
       </c>
       <c r="G9">
-        <v>7176.857</v>
+        <v>7134.857</v>
       </c>
       <c r="H9">
-        <v>110070</v>
+        <v>110217</v>
       </c>
       <c r="I9">
-        <v>229</v>
+        <v>147</v>
       </c>
       <c r="J9">
-        <v>179.286</v>
+        <v>183</v>
       </c>
       <c r="K9">
-        <v>113394.732</v>
+        <v>113525.031</v>
       </c>
       <c r="L9">
-        <v>180.548</v>
+        <v>130.3</v>
       </c>
       <c r="M9">
-        <v>158.795</v>
+        <v>157.866</v>
       </c>
       <c r="N9">
-        <v>2435.405</v>
+        <v>2438.657</v>
       </c>
       <c r="O9">
-        <v>5.067</v>
+        <v>3.253</v>
       </c>
       <c r="P9">
-        <v>3.967</v>
+        <v>4.049</v>
       </c>
       <c r="Q9">
         <v>0.78</v>
@@ -2948,7 +2951,7 @@
         <v>11.9</v>
       </c>
       <c r="AH9" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="AI9">
         <v>38145435</v>
@@ -3037,40 +3040,40 @@
         <v>504</v>
       </c>
       <c r="E10">
-        <v>236742</v>
+        <v>237249</v>
       </c>
       <c r="F10">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="G10">
-        <v>420.714</v>
+        <v>431.714</v>
       </c>
       <c r="H10">
-        <v>4732</v>
+        <v>4737</v>
       </c>
       <c r="I10">
         <v>5</v>
       </c>
       <c r="J10">
-        <v>7.714</v>
+        <v>7.429</v>
       </c>
       <c r="K10">
-        <v>79893.117</v>
+        <v>80064.21400000001</v>
       </c>
       <c r="L10">
-        <v>171.434</v>
+        <v>171.097</v>
       </c>
       <c r="M10">
-        <v>141.978</v>
+        <v>145.69</v>
       </c>
       <c r="N10">
-        <v>1596.904</v>
+        <v>1598.591</v>
       </c>
       <c r="O10">
         <v>1.687</v>
       </c>
       <c r="P10">
-        <v>2.603</v>
+        <v>2.507</v>
       </c>
       <c r="Q10">
         <v>1.26</v>
@@ -3100,7 +3103,7 @@
         <v>16.2</v>
       </c>
       <c r="AH10" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="AI10">
         <v>220236</v>
@@ -3183,7 +3186,7 @@
         <v>297</v>
       </c>
       <c r="D11" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="AI11">
         <v>143661</v>
@@ -3248,40 +3251,40 @@
         <v>504</v>
       </c>
       <c r="E12">
-        <v>67332653</v>
+        <v>67544780</v>
       </c>
       <c r="F12">
-        <v>264320</v>
+        <v>212127</v>
       </c>
       <c r="G12">
-        <v>260404.429</v>
+        <v>254508.857</v>
       </c>
       <c r="H12">
-        <v>991926</v>
+        <v>995836</v>
       </c>
       <c r="I12">
-        <v>4512</v>
+        <v>3910</v>
       </c>
       <c r="J12">
-        <v>4567.143</v>
+        <v>4513.143</v>
       </c>
       <c r="K12">
-        <v>14511.825</v>
+        <v>14557.543</v>
       </c>
       <c r="L12">
-        <v>56.967</v>
+        <v>45.719</v>
       </c>
       <c r="M12">
-        <v>56.123</v>
+        <v>54.853</v>
       </c>
       <c r="N12">
-        <v>213.784</v>
+        <v>214.627</v>
       </c>
       <c r="O12">
-        <v>0.972</v>
+        <v>0.843</v>
       </c>
       <c r="P12">
-        <v>0.984</v>
+        <v>0.973</v>
       </c>
       <c r="AI12">
         <v>3219669661</v>
@@ -3334,40 +3337,40 @@
         <v>504</v>
       </c>
       <c r="E13">
-        <v>43119</v>
+        <v>44026</v>
       </c>
       <c r="F13">
-        <v>891</v>
+        <v>907</v>
       </c>
       <c r="G13">
-        <v>637.2859999999999</v>
+        <v>704.143</v>
       </c>
       <c r="H13">
-        <v>978</v>
+        <v>981</v>
       </c>
       <c r="I13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J13">
-        <v>3.571</v>
+        <v>3.286</v>
       </c>
       <c r="K13">
-        <v>1690.949</v>
+        <v>1726.518</v>
       </c>
       <c r="L13">
-        <v>34.941</v>
+        <v>35.569</v>
       </c>
       <c r="M13">
-        <v>24.992</v>
+        <v>27.614</v>
       </c>
       <c r="N13">
-        <v>38.353</v>
+        <v>38.471</v>
       </c>
       <c r="O13">
-        <v>0.078</v>
+        <v>0.118</v>
       </c>
       <c r="P13">
-        <v>0.14</v>
+        <v>0.129</v>
       </c>
       <c r="Q13">
         <v>1.49</v>
@@ -3397,7 +3400,7 @@
         <v>348.4</v>
       </c>
       <c r="AH13" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="AI13">
         <v>16504574</v>
@@ -3486,40 +3489,40 @@
         <v>504</v>
       </c>
       <c r="E14">
-        <v>674077</v>
+        <v>675405</v>
       </c>
       <c r="F14">
-        <v>1258</v>
+        <v>1328</v>
       </c>
       <c r="G14">
-        <v>1026.714</v>
+        <v>1080.571</v>
       </c>
       <c r="H14">
         <v>10761</v>
       </c>
       <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
         <v>1</v>
       </c>
-      <c r="J14">
-        <v>1.143</v>
-      </c>
       <c r="K14">
-        <v>74844.22199999999</v>
+        <v>74991.673</v>
       </c>
       <c r="L14">
-        <v>139.678</v>
+        <v>147.451</v>
       </c>
       <c r="M14">
-        <v>113.998</v>
+        <v>119.978</v>
       </c>
       <c r="N14">
         <v>1194.817</v>
       </c>
       <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
         <v>0.111</v>
-      </c>
-      <c r="P14">
-        <v>0.127</v>
       </c>
       <c r="Q14">
         <v>1.35</v>
@@ -3561,7 +3564,7 @@
         <v>353.2</v>
       </c>
       <c r="AH14" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="AI14">
         <v>10302337</v>
@@ -3650,40 +3653,40 @@
         <v>504</v>
       </c>
       <c r="E15">
-        <v>384886</v>
+        <v>388437</v>
       </c>
       <c r="F15">
-        <v>3968</v>
+        <v>3551</v>
       </c>
       <c r="G15">
-        <v>3340.714</v>
+        <v>3346.857</v>
       </c>
       <c r="H15">
-        <v>5252</v>
+        <v>5279</v>
       </c>
       <c r="I15">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="J15">
-        <v>18.143</v>
+        <v>20.143</v>
       </c>
       <c r="K15">
-        <v>37960.288</v>
+        <v>38310.513</v>
       </c>
       <c r="L15">
-        <v>391.353</v>
+        <v>350.226</v>
       </c>
       <c r="M15">
-        <v>329.486</v>
+        <v>330.092</v>
       </c>
       <c r="N15">
-        <v>517.991</v>
+        <v>520.654</v>
       </c>
       <c r="O15">
-        <v>2.071</v>
+        <v>2.663</v>
       </c>
       <c r="P15">
-        <v>1.789</v>
+        <v>1.987</v>
       </c>
       <c r="Q15">
         <v>1.67</v>
@@ -3713,7 +3716,7 @@
         <v>5.3</v>
       </c>
       <c r="AH15" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="AI15">
         <v>6045471</v>
@@ -3805,7 +3808,7 @@
         <v>16962</v>
       </c>
       <c r="F16">
-        <v>114</v>
+        <v>0</v>
       </c>
       <c r="G16">
         <v>117.286</v>
@@ -3814,7 +3817,7 @@
         <v>330</v>
       </c>
       <c r="I16">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="J16">
         <v>2.714</v>
@@ -3823,7 +3826,7 @@
         <v>43133.087</v>
       </c>
       <c r="L16">
-        <v>289.893</v>
+        <v>0</v>
       </c>
       <c r="M16">
         <v>298.249</v>
@@ -3832,7 +3835,7 @@
         <v>839.165</v>
       </c>
       <c r="O16">
-        <v>35.601</v>
+        <v>0</v>
       </c>
       <c r="P16">
         <v>6.902</v>
@@ -3921,40 +3924,40 @@
         <v>504</v>
       </c>
       <c r="E17">
-        <v>271432</v>
+        <v>271534</v>
       </c>
       <c r="F17">
-        <v>79</v>
+        <v>102</v>
       </c>
       <c r="G17">
-        <v>105.714</v>
+        <v>102.571</v>
       </c>
       <c r="H17">
-        <v>1385</v>
+        <v>1386</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17">
-        <v>0.143</v>
+        <v>0.286</v>
       </c>
       <c r="K17">
-        <v>159517.344</v>
+        <v>159577.288</v>
       </c>
       <c r="L17">
-        <v>46.427</v>
+        <v>59.944</v>
       </c>
       <c r="M17">
-        <v>62.127</v>
+        <v>60.28</v>
       </c>
       <c r="N17">
-        <v>813.948</v>
+        <v>814.5359999999999</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>0.588</v>
       </c>
       <c r="P17">
-        <v>0.08400000000000001</v>
+        <v>0.168</v>
       </c>
       <c r="Q17">
         <v>1.01</v>
@@ -3984,7 +3987,7 @@
         <v>148.3</v>
       </c>
       <c r="AH17" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="AI17">
         <v>2441022</v>
@@ -4070,40 +4073,40 @@
         <v>504</v>
       </c>
       <c r="E18">
-        <v>1453203</v>
+        <v>1457194</v>
       </c>
       <c r="F18">
-        <v>5993</v>
+        <v>3991</v>
       </c>
       <c r="G18">
-        <v>6838.571</v>
+        <v>6425.143</v>
       </c>
       <c r="H18">
-        <v>25023</v>
+        <v>25143</v>
       </c>
       <c r="I18">
-        <v>145</v>
+        <v>120</v>
       </c>
       <c r="J18">
-        <v>173.286</v>
+        <v>165</v>
       </c>
       <c r="K18">
-        <v>8823.902</v>
+        <v>8848.136</v>
       </c>
       <c r="L18">
-        <v>36.39</v>
+        <v>24.233</v>
       </c>
       <c r="M18">
-        <v>41.524</v>
+        <v>39.014</v>
       </c>
       <c r="N18">
-        <v>151.941</v>
+        <v>152.669</v>
       </c>
       <c r="O18">
-        <v>0.88</v>
+        <v>0.729</v>
       </c>
       <c r="P18">
-        <v>1.052</v>
+        <v>1.002</v>
       </c>
       <c r="Q18">
         <v>0.6899999999999999</v>
@@ -4133,7 +4136,7 @@
         <v>5.4</v>
       </c>
       <c r="AH18" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="AI18">
         <v>22166720</v>
@@ -4225,10 +4228,10 @@
         <v>4628</v>
       </c>
       <c r="F19">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="G19">
-        <v>16.143</v>
+        <v>14.714</v>
       </c>
       <c r="H19">
         <v>48</v>
@@ -4243,10 +4246,10 @@
         <v>16104.617</v>
       </c>
       <c r="L19">
-        <v>66.117</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>56.174</v>
+        <v>51.203</v>
       </c>
       <c r="N19">
         <v>167.031</v>
@@ -4347,37 +4350,37 @@
         <v>504</v>
       </c>
       <c r="E20">
-        <v>466948</v>
+        <v>468415</v>
       </c>
       <c r="F20">
-        <v>1738</v>
+        <v>1467</v>
       </c>
       <c r="G20">
-        <v>1157.286</v>
+        <v>1202.429</v>
       </c>
       <c r="H20">
-        <v>3659</v>
+        <v>3670</v>
       </c>
       <c r="I20">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J20">
         <v>11</v>
       </c>
       <c r="K20">
-        <v>49416.037</v>
+        <v>49571.287</v>
       </c>
       <c r="L20">
-        <v>183.929</v>
+        <v>155.249</v>
       </c>
       <c r="M20">
-        <v>122.473</v>
+        <v>127.25</v>
       </c>
       <c r="N20">
-        <v>387.224</v>
+        <v>388.388</v>
       </c>
       <c r="O20">
-        <v>1.058</v>
+        <v>1.164</v>
       </c>
       <c r="P20">
         <v>1.164</v>
@@ -4410,7 +4413,7 @@
         <v>15.8</v>
       </c>
       <c r="AH20" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="AI20">
         <v>2684863</v>
@@ -4496,7 +4499,7 @@
         <v>1163726</v>
       </c>
       <c r="F21">
-        <v>2168</v>
+        <v>0</v>
       </c>
       <c r="G21">
         <v>1979.571</v>
@@ -4505,7 +4508,7 @@
         <v>25320</v>
       </c>
       <c r="I21">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="J21">
         <v>4.714</v>
@@ -4514,7 +4517,7 @@
         <v>100411.092</v>
       </c>
       <c r="L21">
-        <v>187.064</v>
+        <v>0</v>
       </c>
       <c r="M21">
         <v>170.806</v>
@@ -4523,7 +4526,7 @@
         <v>2184.714</v>
       </c>
       <c r="O21">
-        <v>0.6899999999999999</v>
+        <v>0</v>
       </c>
       <c r="P21">
         <v>0.407</v>
@@ -4574,7 +4577,7 @@
         <v>22.7</v>
       </c>
       <c r="AH21" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="AI21">
         <v>15782561</v>
@@ -4666,7 +4669,7 @@
         <v>15415</v>
       </c>
       <c r="F22">
-        <v>81</v>
+        <v>0</v>
       </c>
       <c r="G22">
         <v>81.143</v>
@@ -4675,7 +4678,7 @@
         <v>351</v>
       </c>
       <c r="I22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22">
         <v>1</v>
@@ -4684,7 +4687,7 @@
         <v>38768.073</v>
       </c>
       <c r="L22">
-        <v>203.712</v>
+        <v>0</v>
       </c>
       <c r="M22">
         <v>204.071</v>
@@ -4693,7 +4696,7 @@
         <v>882.75</v>
       </c>
       <c r="O22">
-        <v>2.515</v>
+        <v>0</v>
       </c>
       <c r="P22">
         <v>2.515</v>
@@ -4720,7 +4723,7 @@
         <v>15.7</v>
       </c>
       <c r="AH22" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="AI22">
         <v>212380</v>
@@ -4925,7 +4928,7 @@
         <v>309</v>
       </c>
       <c r="D24" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="AI24">
         <v>84022</v>
@@ -4984,13 +4987,13 @@
         <v>504</v>
       </c>
       <c r="E25">
-        <v>2580</v>
+        <v>2585</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G25">
-        <v>2</v>
+        <v>2.143</v>
       </c>
       <c r="H25">
         <v>3</v>
@@ -5002,13 +5005,13 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>3343.649</v>
+        <v>3350.129</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>6.48</v>
       </c>
       <c r="M25">
-        <v>2.592</v>
+        <v>2.777</v>
       </c>
       <c r="N25">
         <v>3.888</v>
@@ -5103,40 +5106,40 @@
         <v>504</v>
       </c>
       <c r="E26">
-        <v>485184</v>
+        <v>486394</v>
       </c>
       <c r="F26">
-        <v>738</v>
+        <v>1210</v>
       </c>
       <c r="G26">
-        <v>507.571</v>
+        <v>680.429</v>
       </c>
       <c r="H26">
-        <v>18256</v>
+        <v>18296</v>
       </c>
       <c r="I26">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="J26">
-        <v>14.857</v>
+        <v>20.571</v>
       </c>
       <c r="K26">
-        <v>41564.533</v>
+        <v>41668.191</v>
       </c>
       <c r="L26">
-        <v>63.223</v>
+        <v>103.658</v>
       </c>
       <c r="M26">
-        <v>43.482</v>
+        <v>58.291</v>
       </c>
       <c r="N26">
-        <v>1563.947</v>
+        <v>1567.374</v>
       </c>
       <c r="O26">
-        <v>1.713</v>
+        <v>3.427</v>
       </c>
       <c r="P26">
-        <v>1.273</v>
+        <v>1.762</v>
       </c>
       <c r="Q26">
         <v>0.96</v>
@@ -5166,7 +5169,7 @@
         <v>11.1</v>
       </c>
       <c r="AH26" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="AI26">
         <v>5270463</v>
@@ -5194,6 +5197,9 @@
       </c>
       <c r="AS26">
         <v>3250</v>
+      </c>
+      <c r="AT26">
+        <v>56.48</v>
       </c>
       <c r="AU26">
         <v>11673029</v>
@@ -5252,7 +5258,7 @@
         <v>209073</v>
       </c>
       <c r="F27">
-        <v>429</v>
+        <v>0</v>
       </c>
       <c r="G27">
         <v>285.286</v>
@@ -5261,7 +5267,7 @@
         <v>9722</v>
       </c>
       <c r="I27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27">
         <v>3</v>
@@ -5270,7 +5276,7 @@
         <v>63725.934</v>
       </c>
       <c r="L27">
-        <v>130.76</v>
+        <v>0</v>
       </c>
       <c r="M27">
         <v>86.956</v>
@@ -5279,7 +5285,7 @@
         <v>2963.288</v>
       </c>
       <c r="O27">
-        <v>0.305</v>
+        <v>0</v>
       </c>
       <c r="P27">
         <v>0.914</v>
@@ -5312,7 +5318,7 @@
         <v>8.699999999999999</v>
       </c>
       <c r="AH27" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="AI27">
         <v>928126</v>
@@ -5523,40 +5529,40 @@
         <v>504</v>
       </c>
       <c r="E29">
-        <v>20528099</v>
+        <v>20556487</v>
       </c>
       <c r="F29">
-        <v>33887</v>
+        <v>28388</v>
       </c>
       <c r="G29">
-        <v>29871.286</v>
+        <v>29477.857</v>
       </c>
       <c r="H29">
-        <v>573511</v>
+        <v>574209</v>
       </c>
       <c r="I29">
-        <v>870</v>
+        <v>698</v>
       </c>
       <c r="J29">
-        <v>807</v>
+        <v>774.429</v>
       </c>
       <c r="K29">
-        <v>96575.819</v>
+        <v>96709.372</v>
       </c>
       <c r="L29">
-        <v>159.424</v>
+        <v>133.553</v>
       </c>
       <c r="M29">
-        <v>140.531</v>
+        <v>138.681</v>
       </c>
       <c r="N29">
-        <v>2698.121</v>
+        <v>2701.405</v>
       </c>
       <c r="O29">
-        <v>4.093</v>
+        <v>3.284</v>
       </c>
       <c r="P29">
-        <v>3.797</v>
+        <v>3.643</v>
       </c>
       <c r="Q29">
         <v>0.97</v>
@@ -5645,7 +5651,7 @@
         <v>315</v>
       </c>
       <c r="D30" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="AI30">
         <v>29172</v>
@@ -5692,13 +5698,13 @@
         <v>504</v>
       </c>
       <c r="E31">
-        <v>1333</v>
+        <v>1455</v>
       </c>
       <c r="F31">
-        <v>387</v>
+        <v>122</v>
       </c>
       <c r="G31">
-        <v>105</v>
+        <v>116.429</v>
       </c>
       <c r="H31">
         <v>3</v>
@@ -5710,13 +5716,13 @@
         <v>0</v>
       </c>
       <c r="K31">
-        <v>3046.976</v>
+        <v>3325.844</v>
       </c>
       <c r="L31">
-        <v>884.606</v>
+        <v>278.868</v>
       </c>
       <c r="M31">
-        <v>240.009</v>
+        <v>266.133</v>
       </c>
       <c r="N31">
         <v>6.857</v>
@@ -5814,40 +5820,40 @@
         <v>504</v>
       </c>
       <c r="E32">
-        <v>440066</v>
+        <v>440911</v>
       </c>
       <c r="F32">
-        <v>1368</v>
+        <v>845</v>
       </c>
       <c r="G32">
-        <v>1103.857</v>
+        <v>1135.571</v>
       </c>
       <c r="H32">
-        <v>18459</v>
+        <v>18467</v>
       </c>
       <c r="I32">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="J32">
-        <v>18.143</v>
+        <v>18.286</v>
       </c>
       <c r="K32">
-        <v>63333.019</v>
+        <v>63454.629</v>
       </c>
       <c r="L32">
-        <v>196.879</v>
+        <v>121.61</v>
       </c>
       <c r="M32">
-        <v>158.864</v>
+        <v>163.428</v>
       </c>
       <c r="N32">
-        <v>2656.566</v>
+        <v>2657.717</v>
       </c>
       <c r="O32">
-        <v>3.022</v>
+        <v>1.151</v>
       </c>
       <c r="P32">
-        <v>2.611</v>
+        <v>2.632</v>
       </c>
       <c r="Q32">
         <v>1.63</v>
@@ -5883,7 +5889,7 @@
         <v>18</v>
       </c>
       <c r="AH32" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="AI32">
         <v>2212854</v>
@@ -5969,13 +5975,13 @@
         <v>504</v>
       </c>
       <c r="E33">
-        <v>13695</v>
+        <v>13699</v>
       </c>
       <c r="F33">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G33">
-        <v>3.857</v>
+        <v>4</v>
       </c>
       <c r="H33">
         <v>171</v>
@@ -5987,13 +5993,13 @@
         <v>0.143</v>
       </c>
       <c r="K33">
-        <v>655.16</v>
+        <v>655.352</v>
       </c>
       <c r="L33">
-        <v>0.144</v>
+        <v>0.191</v>
       </c>
       <c r="M33">
-        <v>0.185</v>
+        <v>0.191</v>
       </c>
       <c r="N33">
         <v>8.180999999999999</v>
@@ -6097,7 +6103,7 @@
         <v>10791</v>
       </c>
       <c r="F34">
-        <v>593</v>
+        <v>0</v>
       </c>
       <c r="G34">
         <v>167.286</v>
@@ -6115,7 +6121,7 @@
         <v>907.51</v>
       </c>
       <c r="L34">
-        <v>49.871</v>
+        <v>0</v>
       </c>
       <c r="M34">
         <v>14.069</v>
@@ -6189,40 +6195,40 @@
         <v>504</v>
       </c>
       <c r="E35">
-        <v>88242</v>
+        <v>88735</v>
       </c>
       <c r="F35">
-        <v>519</v>
+        <v>493</v>
       </c>
       <c r="G35">
-        <v>568.571</v>
+        <v>553.571</v>
       </c>
       <c r="H35">
-        <v>1762</v>
+        <v>1778</v>
       </c>
       <c r="I35">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J35">
-        <v>15.429</v>
+        <v>16</v>
       </c>
       <c r="K35">
-        <v>5277.956</v>
+        <v>5307.444</v>
       </c>
       <c r="L35">
-        <v>31.043</v>
+        <v>29.487</v>
       </c>
       <c r="M35">
-        <v>34.008</v>
+        <v>33.11</v>
       </c>
       <c r="N35">
-        <v>105.389</v>
+        <v>106.346</v>
       </c>
       <c r="O35">
-        <v>0.897</v>
+        <v>0.957</v>
       </c>
       <c r="P35">
-        <v>0.923</v>
+        <v>0.957</v>
       </c>
       <c r="Q35">
         <v>0.93</v>
@@ -6439,55 +6445,55 @@
         <v>504</v>
       </c>
       <c r="E37">
-        <v>1473801</v>
+        <v>1474854</v>
       </c>
       <c r="F37">
-        <v>2998</v>
+        <v>1053</v>
       </c>
       <c r="G37">
-        <v>2334.714</v>
+        <v>2361.143</v>
       </c>
       <c r="H37">
         <v>26758</v>
       </c>
       <c r="I37">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="J37">
-        <v>14.857</v>
+        <v>14.286</v>
       </c>
       <c r="K37">
-        <v>39049.199</v>
+        <v>39077.099</v>
       </c>
       <c r="L37">
-        <v>79.434</v>
+        <v>27.9</v>
       </c>
       <c r="M37">
-        <v>61.86</v>
+        <v>62.56</v>
       </c>
       <c r="N37">
         <v>708.968</v>
       </c>
       <c r="O37">
-        <v>0.397</v>
+        <v>0</v>
       </c>
       <c r="P37">
-        <v>0.394</v>
+        <v>0.379</v>
       </c>
       <c r="Q37">
         <v>1.44</v>
       </c>
       <c r="R37">
-        <v>284</v>
+        <v>303</v>
       </c>
       <c r="S37">
-        <v>7.525</v>
+        <v>8.028</v>
       </c>
       <c r="T37">
-        <v>743</v>
+        <v>782</v>
       </c>
       <c r="U37">
-        <v>19.686</v>
+        <v>20.72</v>
       </c>
       <c r="Z37">
         <v>76230</v>
@@ -6514,7 +6520,7 @@
         <v>29</v>
       </c>
       <c r="AH37" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="AI37">
         <v>52203277</v>
@@ -6603,40 +6609,40 @@
         <v>504</v>
       </c>
       <c r="E38">
-        <v>34645</v>
+        <v>34686</v>
       </c>
       <c r="F38">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="G38">
-        <v>51.286</v>
+        <v>48.857</v>
       </c>
       <c r="H38">
         <v>302</v>
       </c>
       <c r="I38">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J38">
-        <v>0.571</v>
+        <v>0.429</v>
       </c>
       <c r="K38">
-        <v>62312.496</v>
+        <v>62386.239</v>
       </c>
       <c r="L38">
-        <v>84.53400000000001</v>
+        <v>73.74299999999999</v>
       </c>
       <c r="M38">
-        <v>92.242</v>
+        <v>87.874</v>
       </c>
       <c r="N38">
         <v>543.177</v>
       </c>
       <c r="O38">
-        <v>3.597</v>
+        <v>0</v>
       </c>
       <c r="P38">
-        <v>1.028</v>
+        <v>0.771</v>
       </c>
       <c r="Q38">
         <v>1.12</v>
@@ -6648,7 +6654,7 @@
         <v>2.755</v>
       </c>
       <c r="AH38" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="AI38">
         <v>262164</v>
@@ -6725,7 +6731,7 @@
         <v>324</v>
       </c>
       <c r="D39" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="AI39">
         <v>99790</v>
@@ -6790,7 +6796,7 @@
         <v>0</v>
       </c>
       <c r="G40">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H40">
         <v>99</v>
@@ -6799,7 +6805,7 @@
         <v>0</v>
       </c>
       <c r="J40">
-        <v>0.143</v>
+        <v>0</v>
       </c>
       <c r="K40">
         <v>2329.513</v>
@@ -6808,7 +6814,7 @@
         <v>0</v>
       </c>
       <c r="M40">
-        <v>1.656</v>
+        <v>0</v>
       </c>
       <c r="N40">
         <v>20.498</v>
@@ -6817,7 +6823,7 @@
         <v>0</v>
       </c>
       <c r="P40">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="Q40">
         <v>0.08</v>
@@ -6903,10 +6909,10 @@
         <v>4985</v>
       </c>
       <c r="F41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G41">
-        <v>0.571</v>
+        <v>0.429</v>
       </c>
       <c r="H41">
         <v>174</v>
@@ -6921,10 +6927,10 @@
         <v>303.485</v>
       </c>
       <c r="L41">
-        <v>0.061</v>
+        <v>0</v>
       </c>
       <c r="M41">
-        <v>0.035</v>
+        <v>0.026</v>
       </c>
       <c r="N41">
         <v>10.593</v>
@@ -7016,40 +7022,40 @@
         <v>504</v>
       </c>
       <c r="E42">
-        <v>1632441</v>
+        <v>1633153</v>
       </c>
       <c r="F42">
-        <v>752</v>
+        <v>712</v>
       </c>
       <c r="G42">
-        <v>716.143</v>
+        <v>694.2859999999999</v>
       </c>
       <c r="H42">
-        <v>36566</v>
+        <v>36605</v>
       </c>
       <c r="I42">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="J42">
-        <v>39.857</v>
+        <v>39.143</v>
       </c>
       <c r="K42">
-        <v>85395.645</v>
+        <v>85432.891</v>
       </c>
       <c r="L42">
-        <v>39.338</v>
+        <v>37.246</v>
       </c>
       <c r="M42">
-        <v>37.463</v>
+        <v>36.319</v>
       </c>
       <c r="N42">
-        <v>1912.827</v>
+        <v>1914.867</v>
       </c>
       <c r="O42">
-        <v>2.197</v>
+        <v>2.04</v>
       </c>
       <c r="P42">
-        <v>2.085</v>
+        <v>2.048</v>
       </c>
       <c r="Q42">
         <v>0.83</v>
@@ -7079,7 +7085,7 @@
         <v>73.2</v>
       </c>
       <c r="AH42" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="AI42">
         <v>27796753</v>
@@ -7115,7 +7121,7 @@
         <v>7174</v>
       </c>
       <c r="AT42">
-        <v>74.06999999999999</v>
+        <v>78.7</v>
       </c>
       <c r="AU42">
         <v>19116209</v>
@@ -7177,13 +7183,13 @@
         <v>504</v>
       </c>
       <c r="E43">
-        <v>94662</v>
+        <v>94694</v>
       </c>
       <c r="F43">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="G43">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H43">
         <v>4636</v>
@@ -7195,13 +7201,13 @@
         <v>0</v>
       </c>
       <c r="K43">
-        <v>65.768</v>
+        <v>65.791</v>
       </c>
       <c r="L43">
-        <v>0.014</v>
+        <v>0.022</v>
       </c>
       <c r="M43">
-        <v>0.027</v>
+        <v>0.025</v>
       </c>
       <c r="N43">
         <v>3.221</v>
@@ -7293,40 +7299,40 @@
         <v>504</v>
       </c>
       <c r="E44">
-        <v>4883932</v>
+        <v>4886897</v>
       </c>
       <c r="F44">
-        <v>3416</v>
+        <v>2965</v>
       </c>
       <c r="G44">
-        <v>3330</v>
+        <v>3181.143</v>
       </c>
       <c r="H44">
-        <v>124023</v>
+        <v>124121</v>
       </c>
       <c r="I44">
-        <v>122</v>
+        <v>98</v>
       </c>
       <c r="J44">
-        <v>114.571</v>
+        <v>109.286</v>
       </c>
       <c r="K44">
-        <v>95983.789</v>
+        <v>96042.06</v>
       </c>
       <c r="L44">
-        <v>67.13500000000001</v>
+        <v>58.271</v>
       </c>
       <c r="M44">
-        <v>65.444</v>
+        <v>62.519</v>
       </c>
       <c r="N44">
-        <v>2437.421</v>
+        <v>2439.347</v>
       </c>
       <c r="O44">
-        <v>2.398</v>
+        <v>1.926</v>
       </c>
       <c r="P44">
-        <v>2.252</v>
+        <v>2.148</v>
       </c>
       <c r="Q44">
         <v>0.64</v>
@@ -7356,7 +7362,7 @@
         <v>11.8</v>
       </c>
       <c r="AH44" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="AI44">
         <v>32463196</v>
@@ -7454,7 +7460,7 @@
         <v>0</v>
       </c>
       <c r="G45">
-        <v>1.286</v>
+        <v>0.857</v>
       </c>
       <c r="H45">
         <v>147</v>
@@ -7472,7 +7478,7 @@
         <v>0</v>
       </c>
       <c r="M45">
-        <v>1.479</v>
+        <v>0.986</v>
       </c>
       <c r="N45">
         <v>169.044</v>
@@ -7695,7 +7701,7 @@
         <v>440647</v>
       </c>
       <c r="F47">
-        <v>2060</v>
+        <v>0</v>
       </c>
       <c r="G47">
         <v>1764.571</v>
@@ -7704,7 +7710,7 @@
         <v>5312</v>
       </c>
       <c r="I47">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="J47">
         <v>14.429</v>
@@ -7713,7 +7719,7 @@
         <v>86501.205</v>
       </c>
       <c r="L47">
-        <v>404.388</v>
+        <v>0</v>
       </c>
       <c r="M47">
         <v>346.394</v>
@@ -7722,7 +7728,7 @@
         <v>1042.772</v>
       </c>
       <c r="O47">
-        <v>3.141</v>
+        <v>0</v>
       </c>
       <c r="P47">
         <v>2.832</v>
@@ -7755,7 +7761,7 @@
         <v>5.6</v>
       </c>
       <c r="AH47" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="AI47">
         <v>3848155</v>
@@ -7844,40 +7850,40 @@
         <v>504</v>
       </c>
       <c r="E48">
-        <v>53247</v>
+        <v>53456</v>
       </c>
       <c r="F48">
-        <v>311</v>
+        <v>209</v>
       </c>
       <c r="G48">
-        <v>158.714</v>
+        <v>179.143</v>
       </c>
       <c r="H48">
-        <v>380</v>
+        <v>389</v>
       </c>
       <c r="I48">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J48">
-        <v>3.143</v>
+        <v>4.286</v>
       </c>
       <c r="K48">
-        <v>2018.593</v>
+        <v>2026.516</v>
       </c>
       <c r="L48">
-        <v>11.79</v>
+        <v>7.923</v>
       </c>
       <c r="M48">
-        <v>6.017</v>
+        <v>6.791</v>
       </c>
       <c r="N48">
-        <v>14.406</v>
+        <v>14.747</v>
       </c>
       <c r="O48">
-        <v>0.265</v>
+        <v>0.341</v>
       </c>
       <c r="P48">
-        <v>0.119</v>
+        <v>0.162</v>
       </c>
       <c r="Q48">
         <v>1.36</v>
@@ -7907,7 +7913,7 @@
         <v>18.9</v>
       </c>
       <c r="AH48" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="AI48">
         <v>1264058</v>
@@ -7984,40 +7990,40 @@
         <v>504</v>
       </c>
       <c r="E49">
-        <v>368887</v>
+        <v>369392</v>
       </c>
       <c r="F49">
-        <v>468</v>
+        <v>505</v>
       </c>
       <c r="G49">
-        <v>361.429</v>
+        <v>381.143</v>
       </c>
       <c r="H49">
-        <v>8295</v>
+        <v>8298</v>
       </c>
       <c r="I49">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J49">
-        <v>2.143</v>
+        <v>2.286</v>
       </c>
       <c r="K49">
-        <v>89856.984</v>
+        <v>89979.996</v>
       </c>
       <c r="L49">
-        <v>114</v>
+        <v>123.013</v>
       </c>
       <c r="M49">
-        <v>88.04000000000001</v>
+        <v>92.842</v>
       </c>
       <c r="N49">
-        <v>2020.575</v>
+        <v>2021.305</v>
       </c>
       <c r="O49">
-        <v>0.244</v>
+        <v>0.731</v>
       </c>
       <c r="P49">
-        <v>0.522</v>
+        <v>0.5570000000000001</v>
       </c>
       <c r="Q49">
         <v>1.36</v>
@@ -8059,7 +8065,7 @@
         <v>24</v>
       </c>
       <c r="AH49" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="AI49">
         <v>3200638</v>
@@ -8148,40 +8154,40 @@
         <v>504</v>
       </c>
       <c r="E50">
-        <v>564011</v>
+        <v>573751</v>
       </c>
       <c r="F50">
-        <v>9764</v>
+        <v>9740</v>
       </c>
       <c r="G50">
-        <v>9113.571</v>
+        <v>9245.571</v>
       </c>
       <c r="H50">
-        <v>4397</v>
+        <v>4481</v>
       </c>
       <c r="I50">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="J50">
-        <v>79.286</v>
+        <v>79.429</v>
       </c>
       <c r="K50">
-        <v>49795.19</v>
+        <v>50655.112</v>
       </c>
       <c r="L50">
-        <v>862.04</v>
+        <v>859.921</v>
       </c>
       <c r="M50">
-        <v>804.616</v>
+        <v>816.27</v>
       </c>
       <c r="N50">
-        <v>388.201</v>
+        <v>395.617</v>
       </c>
       <c r="O50">
-        <v>6.886</v>
+        <v>7.416</v>
       </c>
       <c r="P50">
-        <v>7</v>
+        <v>7.013</v>
       </c>
       <c r="Q50">
         <v>1.03</v>
@@ -8267,7 +8273,7 @@
         <v>336</v>
       </c>
       <c r="D51" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="AI51">
         <v>179997</v>
@@ -8332,40 +8338,40 @@
         <v>504</v>
       </c>
       <c r="E52">
-        <v>110829</v>
+        <v>111140</v>
       </c>
       <c r="F52">
         <v>311</v>
       </c>
       <c r="G52">
-        <v>360.429</v>
+        <v>347.571</v>
       </c>
       <c r="H52">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="I52">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J52">
-        <v>2.857</v>
+        <v>3</v>
       </c>
       <c r="K52">
-        <v>124806.73</v>
+        <v>125156.953</v>
       </c>
       <c r="L52">
         <v>350.223</v>
       </c>
       <c r="M52">
-        <v>405.886</v>
+        <v>391.407</v>
       </c>
       <c r="N52">
-        <v>534.907</v>
+        <v>537.159</v>
       </c>
       <c r="O52">
-        <v>5.631</v>
+        <v>2.252</v>
       </c>
       <c r="P52">
-        <v>3.217</v>
+        <v>3.378</v>
       </c>
       <c r="Q52">
         <v>0.79</v>
@@ -8419,7 +8425,7 @@
         <v>119.4</v>
       </c>
       <c r="AH52" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="AI52">
         <v>1060680</v>
@@ -8508,40 +8514,40 @@
         <v>504</v>
       </c>
       <c r="E53">
-        <v>1677204</v>
+        <v>1677378</v>
       </c>
       <c r="F53">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G53">
-        <v>190.857</v>
+        <v>185.429</v>
       </c>
       <c r="H53">
         <v>30384</v>
       </c>
       <c r="I53">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J53">
-        <v>1.714</v>
+        <v>1.571</v>
       </c>
       <c r="K53">
-        <v>156616.567</v>
+        <v>156632.815</v>
       </c>
       <c r="L53">
-        <v>16.341</v>
+        <v>16.248</v>
       </c>
       <c r="M53">
-        <v>17.822</v>
+        <v>17.315</v>
       </c>
       <c r="N53">
         <v>2837.244</v>
       </c>
       <c r="O53">
-        <v>0.187</v>
+        <v>0</v>
       </c>
       <c r="P53">
-        <v>0.16</v>
+        <v>0.147</v>
       </c>
       <c r="Q53">
         <v>1.09</v>
@@ -8589,7 +8595,7 @@
         <v>500</v>
       </c>
       <c r="AH53" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="AI53">
         <v>11186371</v>
@@ -8678,10 +8684,10 @@
         <v>53899</v>
       </c>
       <c r="F54">
-        <v>142</v>
+        <v>0</v>
       </c>
       <c r="G54">
-        <v>132.571</v>
+        <v>109</v>
       </c>
       <c r="H54">
         <v>1053</v>
@@ -8696,10 +8702,10 @@
         <v>601.811</v>
       </c>
       <c r="L54">
-        <v>1.586</v>
+        <v>0</v>
       </c>
       <c r="M54">
-        <v>1.48</v>
+        <v>1.217</v>
       </c>
       <c r="N54">
         <v>11.757</v>
@@ -8732,7 +8738,7 @@
         <v>11.1</v>
       </c>
       <c r="AH54" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="AI54">
         <v>86914</v>
@@ -8812,16 +8818,16 @@
         <v>504</v>
       </c>
       <c r="E55">
-        <v>337013</v>
+        <v>338039</v>
       </c>
       <c r="F55">
-        <v>934</v>
+        <v>1026</v>
       </c>
       <c r="G55">
-        <v>968.143</v>
+        <v>982.2859999999999</v>
       </c>
       <c r="H55">
-        <v>2565</v>
+        <v>2566</v>
       </c>
       <c r="I55">
         <v>1</v>
@@ -8830,16 +8836,16 @@
         <v>0.714</v>
       </c>
       <c r="K55">
-        <v>58183.907</v>
+        <v>58361.042</v>
       </c>
       <c r="L55">
-        <v>161.251</v>
+        <v>177.135</v>
       </c>
       <c r="M55">
-        <v>167.146</v>
+        <v>169.588</v>
       </c>
       <c r="N55">
-        <v>442.837</v>
+        <v>443.009</v>
       </c>
       <c r="O55">
         <v>0.173</v>
@@ -8893,7 +8899,7 @@
         <v>59.5</v>
       </c>
       <c r="AH55" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="AI55">
         <v>8280915</v>
@@ -8985,7 +8991,7 @@
         <v>11690</v>
       </c>
       <c r="F56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G56">
         <v>2</v>
@@ -8994,7 +9000,7 @@
         <v>157</v>
       </c>
       <c r="I56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J56">
         <v>0.143</v>
@@ -9003,7 +9009,7 @@
         <v>11831.96</v>
       </c>
       <c r="L56">
-        <v>1.012</v>
+        <v>0</v>
       </c>
       <c r="M56">
         <v>2.024</v>
@@ -9012,7 +9018,7 @@
         <v>158.907</v>
       </c>
       <c r="O56">
-        <v>1.012</v>
+        <v>0</v>
       </c>
       <c r="P56">
         <v>0.145</v>
@@ -9107,7 +9113,7 @@
         <v>0</v>
       </c>
       <c r="G57">
-        <v>77.286</v>
+        <v>53.857</v>
       </c>
       <c r="J57">
         <v>0</v>
@@ -9119,7 +9125,7 @@
         <v>0</v>
       </c>
       <c r="M57">
-        <v>1073.547</v>
+        <v>748.109</v>
       </c>
       <c r="P57">
         <v>0</v>
@@ -9193,13 +9199,13 @@
         <v>504</v>
       </c>
       <c r="E58">
-        <v>347370</v>
+        <v>347637</v>
       </c>
       <c r="F58">
-        <v>373</v>
+        <v>267</v>
       </c>
       <c r="G58">
-        <v>247.571</v>
+        <v>239.571</v>
       </c>
       <c r="H58">
         <v>3989</v>
@@ -9211,13 +9217,13 @@
         <v>1.857</v>
       </c>
       <c r="K58">
-        <v>32021.854</v>
+        <v>32046.467</v>
       </c>
       <c r="L58">
-        <v>34.385</v>
+        <v>24.613</v>
       </c>
       <c r="M58">
-        <v>22.822</v>
+        <v>22.085</v>
       </c>
       <c r="N58">
         <v>367.721</v>
@@ -9250,7 +9256,7 @@
         <v>18.8</v>
       </c>
       <c r="AH58" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="AI58">
         <v>10789568</v>
@@ -9405,7 +9411,7 @@
         <v>5.3</v>
       </c>
       <c r="AH59" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="AI59">
         <v>15879437</v>
@@ -9500,40 +9506,40 @@
         <v>504</v>
       </c>
       <c r="E60">
-        <v>285995</v>
+        <v>286168</v>
       </c>
       <c r="F60">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="G60">
-        <v>119.571</v>
+        <v>130.143</v>
       </c>
       <c r="H60">
-        <v>16654</v>
+        <v>16663</v>
       </c>
       <c r="I60">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J60">
-        <v>6.429</v>
+        <v>6.857</v>
       </c>
       <c r="K60">
-        <v>2794.71</v>
+        <v>2796.401</v>
       </c>
       <c r="L60">
-        <v>1.603</v>
+        <v>1.691</v>
       </c>
       <c r="M60">
-        <v>1.168</v>
+        <v>1.272</v>
       </c>
       <c r="N60">
-        <v>162.741</v>
+        <v>162.829</v>
       </c>
       <c r="O60">
-        <v>0.068</v>
+        <v>0.08799999999999999</v>
       </c>
       <c r="P60">
-        <v>0.063</v>
+        <v>0.067</v>
       </c>
       <c r="Q60">
         <v>1.32</v>
@@ -9625,37 +9631,37 @@
         <v>92686</v>
       </c>
       <c r="F61">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="G61">
         <v>365.286</v>
       </c>
       <c r="H61">
-        <v>2824</v>
+        <v>2831</v>
       </c>
       <c r="I61">
         <v>7</v>
       </c>
       <c r="J61">
-        <v>7.857</v>
+        <v>7.143</v>
       </c>
       <c r="K61">
         <v>14289.721</v>
       </c>
       <c r="L61">
-        <v>41.627</v>
+        <v>0</v>
       </c>
       <c r="M61">
         <v>56.317</v>
       </c>
       <c r="N61">
-        <v>435.386</v>
+        <v>436.465</v>
       </c>
       <c r="O61">
         <v>1.079</v>
       </c>
       <c r="P61">
-        <v>1.211</v>
+        <v>1.101</v>
       </c>
       <c r="Q61">
         <v>0.97</v>
@@ -9753,10 +9759,10 @@
         <v>9049</v>
       </c>
       <c r="F62">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="G62">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H62">
         <v>123</v>
@@ -9771,10 +9777,10 @@
         <v>6449.819</v>
       </c>
       <c r="L62">
-        <v>27.798</v>
+        <v>0</v>
       </c>
       <c r="M62">
-        <v>9.978999999999999</v>
+        <v>7.84</v>
       </c>
       <c r="N62">
         <v>87.67</v>
@@ -9813,7 +9819,7 @@
         <v>78.09999999999999</v>
       </c>
       <c r="AH62" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="AI62">
         <v>329229</v>
@@ -9890,13 +9896,13 @@
         <v>504</v>
       </c>
       <c r="E63">
-        <v>6618</v>
+        <v>6620</v>
       </c>
       <c r="F63">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G63">
-        <v>2.571</v>
+        <v>2.714</v>
       </c>
       <c r="H63">
         <v>37</v>
@@ -9905,16 +9911,16 @@
         <v>0</v>
       </c>
       <c r="J63">
-        <v>0.143</v>
+        <v>0</v>
       </c>
       <c r="K63">
-        <v>1866.104</v>
+        <v>1866.667</v>
       </c>
       <c r="L63">
-        <v>0</v>
+        <v>0.5639999999999999</v>
       </c>
       <c r="M63">
-        <v>0.725</v>
+        <v>0.765</v>
       </c>
       <c r="N63">
         <v>10.433</v>
@@ -9923,7 +9929,7 @@
         <v>0</v>
       </c>
       <c r="P63">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="Q63">
         <v>0.6899999999999999</v>
@@ -9985,13 +9991,13 @@
         <v>504</v>
       </c>
       <c r="E64">
-        <v>138488</v>
+        <v>138706</v>
       </c>
       <c r="F64">
-        <v>331</v>
+        <v>218</v>
       </c>
       <c r="G64">
-        <v>284</v>
+        <v>273.714</v>
       </c>
       <c r="H64">
         <v>1281</v>
@@ -10003,13 +10009,13 @@
         <v>0.286</v>
       </c>
       <c r="K64">
-        <v>104397.986</v>
+        <v>104562.323</v>
       </c>
       <c r="L64">
-        <v>249.521</v>
+        <v>164.337</v>
       </c>
       <c r="M64">
-        <v>214.091</v>
+        <v>206.337</v>
       </c>
       <c r="N64">
         <v>965.671</v>
@@ -10072,7 +10078,7 @@
         <v>15.4</v>
       </c>
       <c r="AH64" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="AI64">
         <v>1231483</v>
@@ -10100,6 +10106,9 @@
       </c>
       <c r="AS64">
         <v>3211</v>
+      </c>
+      <c r="AT64">
+        <v>23.15</v>
       </c>
       <c r="AU64">
         <v>1326539</v>
@@ -10161,40 +10170,40 @@
         <v>504</v>
       </c>
       <c r="E65">
-        <v>39530</v>
+        <v>40283</v>
       </c>
       <c r="F65">
-        <v>791</v>
+        <v>753</v>
       </c>
       <c r="G65">
-        <v>597.143</v>
+        <v>633.143</v>
       </c>
       <c r="H65">
-        <v>984</v>
+        <v>991</v>
       </c>
       <c r="I65">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="J65">
-        <v>10.286</v>
+        <v>9.571</v>
       </c>
       <c r="K65">
-        <v>34072.769</v>
+        <v>34721.815</v>
       </c>
       <c r="L65">
-        <v>681.8</v>
+        <v>649.046</v>
       </c>
       <c r="M65">
-        <v>514.706</v>
+        <v>545.736</v>
       </c>
       <c r="N65">
-        <v>848.1559999999999</v>
+        <v>854.1900000000001</v>
       </c>
       <c r="O65">
-        <v>9.481</v>
+        <v>6.034</v>
       </c>
       <c r="P65">
-        <v>8.866</v>
+        <v>8.25</v>
       </c>
       <c r="Q65">
         <v>1.02</v>
@@ -10286,40 +10295,40 @@
         <v>504</v>
       </c>
       <c r="E66">
-        <v>293737</v>
+        <v>295019</v>
       </c>
       <c r="F66">
-        <v>1006</v>
+        <v>1282</v>
       </c>
       <c r="G66">
-        <v>796.857</v>
+        <v>890.143</v>
       </c>
       <c r="H66">
-        <v>4539</v>
+        <v>4553</v>
       </c>
       <c r="I66">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="J66">
-        <v>11.286</v>
+        <v>11.714</v>
       </c>
       <c r="K66">
-        <v>2555.044</v>
+        <v>2566.195</v>
       </c>
       <c r="L66">
-        <v>8.750999999999999</v>
+        <v>11.151</v>
       </c>
       <c r="M66">
-        <v>6.931</v>
+        <v>7.743</v>
       </c>
       <c r="N66">
-        <v>39.482</v>
+        <v>39.604</v>
       </c>
       <c r="O66">
-        <v>0.183</v>
+        <v>0.122</v>
       </c>
       <c r="P66">
-        <v>0.098</v>
+        <v>0.102</v>
       </c>
       <c r="Q66">
         <v>1.33</v>
@@ -10349,7 +10358,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="AH66" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="AI66">
         <v>2326531</v>
@@ -10432,40 +10441,40 @@
         <v>504</v>
       </c>
       <c r="E67">
-        <v>54343241</v>
+        <v>54460943</v>
       </c>
       <c r="F67">
-        <v>145358</v>
+        <v>117702</v>
       </c>
       <c r="G67">
-        <v>129404</v>
+        <v>130299.429</v>
       </c>
       <c r="H67">
-        <v>1160553</v>
+        <v>1161691</v>
       </c>
       <c r="I67">
-        <v>1391</v>
+        <v>1138</v>
       </c>
       <c r="J67">
-        <v>1328.714</v>
+        <v>1329.714</v>
       </c>
       <c r="K67">
-        <v>72585.398</v>
+        <v>72742.611</v>
       </c>
       <c r="L67">
-        <v>194.152</v>
+        <v>157.213</v>
       </c>
       <c r="M67">
-        <v>172.843</v>
+        <v>174.039</v>
       </c>
       <c r="N67">
-        <v>1550.132</v>
+        <v>1551.652</v>
       </c>
       <c r="O67">
-        <v>1.858</v>
+        <v>1.52</v>
       </c>
       <c r="P67">
-        <v>1.775</v>
+        <v>1.776</v>
       </c>
       <c r="AI67">
         <v>716518173</v>
@@ -10515,40 +10524,40 @@
         <v>504</v>
       </c>
       <c r="E68">
-        <v>35750702</v>
+        <v>35805280</v>
       </c>
       <c r="F68">
-        <v>73603</v>
+        <v>54578</v>
       </c>
       <c r="G68">
-        <v>66189.429</v>
+        <v>66401.429</v>
       </c>
       <c r="H68">
-        <v>749778</v>
+        <v>749909</v>
       </c>
       <c r="I68">
-        <v>403</v>
+        <v>131</v>
       </c>
       <c r="J68">
-        <v>349.857</v>
+        <v>345.286</v>
       </c>
       <c r="K68">
-        <v>80353.27099999999</v>
+        <v>80475.94100000001</v>
       </c>
       <c r="L68">
-        <v>165.43</v>
+        <v>122.67</v>
       </c>
       <c r="M68">
-        <v>148.767</v>
+        <v>149.244</v>
       </c>
       <c r="N68">
-        <v>1685.201</v>
+        <v>1685.495</v>
       </c>
       <c r="O68">
-        <v>0.906</v>
+        <v>0.294</v>
       </c>
       <c r="P68">
-        <v>0.786</v>
+        <v>0.776</v>
       </c>
       <c r="AI68">
         <v>513092961</v>
@@ -10592,7 +10601,7 @@
         <v>353</v>
       </c>
       <c r="D69" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="AI69">
         <v>69950</v>
@@ -10645,40 +10654,40 @@
         <v>504</v>
       </c>
       <c r="E70">
-        <v>43096</v>
+        <v>43294</v>
       </c>
       <c r="F70">
-        <v>485</v>
+        <v>198</v>
       </c>
       <c r="G70">
-        <v>520</v>
+        <v>503.429</v>
       </c>
       <c r="H70">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="I70">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="J70">
-        <v>10.286</v>
+        <v>9.286</v>
       </c>
       <c r="K70">
-        <v>48074.392</v>
+        <v>48295.264</v>
       </c>
       <c r="L70">
-        <v>541.027</v>
+        <v>220.873</v>
       </c>
       <c r="M70">
-        <v>580.0700000000001</v>
+        <v>561.5839999999999</v>
       </c>
       <c r="N70">
-        <v>481.904</v>
+        <v>483.02</v>
       </c>
       <c r="O70">
-        <v>12.271</v>
+        <v>1.116</v>
       </c>
       <c r="P70">
-        <v>11.474</v>
+        <v>10.358</v>
       </c>
       <c r="Q70">
         <v>0.86</v>
@@ -10767,40 +10776,40 @@
         <v>504</v>
       </c>
       <c r="E71">
-        <v>120870</v>
+        <v>121543</v>
       </c>
       <c r="F71">
-        <v>684</v>
+        <v>673</v>
       </c>
       <c r="G71">
-        <v>662.7140000000001</v>
+        <v>649.571</v>
       </c>
       <c r="H71">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="I71">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J71">
-        <v>2</v>
+        <v>1.571</v>
       </c>
       <c r="K71">
-        <v>21814.862</v>
+        <v>21936.327</v>
       </c>
       <c r="L71">
-        <v>123.45</v>
+        <v>121.464</v>
       </c>
       <c r="M71">
-        <v>119.608</v>
+        <v>117.236</v>
       </c>
       <c r="N71">
-        <v>182.648</v>
+        <v>182.828</v>
       </c>
       <c r="O71">
-        <v>0.361</v>
+        <v>0.18</v>
       </c>
       <c r="P71">
-        <v>0.361</v>
+        <v>0.284</v>
       </c>
       <c r="Q71">
         <v>1.08</v>
@@ -10842,7 +10851,7 @@
         <v>26.8</v>
       </c>
       <c r="AH71" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="AI71">
         <v>6414095</v>
@@ -10928,40 +10937,40 @@
         <v>504</v>
       </c>
       <c r="E72">
-        <v>6660315</v>
+        <v>6682952</v>
       </c>
       <c r="F72">
-        <v>23482</v>
+        <v>22637</v>
       </c>
       <c r="G72">
-        <v>23259.286</v>
+        <v>23003.571</v>
       </c>
       <c r="H72">
         <v>113472</v>
       </c>
       <c r="I72">
-        <v>96</v>
+        <v>0</v>
       </c>
       <c r="J72">
-        <v>99.143</v>
+        <v>91.857</v>
       </c>
       <c r="K72">
-        <v>98577.501</v>
+        <v>98912.545</v>
       </c>
       <c r="L72">
-        <v>347.551</v>
+        <v>335.044</v>
       </c>
       <c r="M72">
-        <v>344.254</v>
+        <v>340.47</v>
       </c>
       <c r="N72">
         <v>1679.468</v>
       </c>
       <c r="O72">
-        <v>1.421</v>
+        <v>0</v>
       </c>
       <c r="P72">
-        <v>1.467</v>
+        <v>1.36</v>
       </c>
       <c r="Q72">
         <v>1.09</v>
@@ -11009,7 +11018,7 @@
         <v>29.4</v>
       </c>
       <c r="AH72" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="AI72">
         <v>82917669</v>
@@ -11092,7 +11101,7 @@
         <v>357</v>
       </c>
       <c r="D73" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="AI73">
         <v>190080</v>
@@ -11157,7 +11166,7 @@
         <v>25667</v>
       </c>
       <c r="F74">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="G74">
         <v>14.714</v>
@@ -11175,7 +11184,7 @@
         <v>11531.957</v>
       </c>
       <c r="L74">
-        <v>18.421</v>
+        <v>0</v>
       </c>
       <c r="M74">
         <v>6.611</v>
@@ -11192,18 +11201,12 @@
       <c r="Q74">
         <v>1.13</v>
       </c>
-      <c r="Z74">
-        <v>7998</v>
-      </c>
       <c r="AA74">
         <v>1046805</v>
       </c>
       <c r="AB74">
         <v>470.32</v>
       </c>
-      <c r="AC74">
-        <v>3.593</v>
-      </c>
       <c r="AD74">
         <v>2827</v>
       </c>
@@ -11217,7 +11220,7 @@
         <v>189.7</v>
       </c>
       <c r="AH74" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="AI74">
         <v>127757</v>
@@ -11300,7 +11303,7 @@
         <v>9364</v>
       </c>
       <c r="F75">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="G75">
         <v>63.429</v>
@@ -11309,7 +11312,7 @@
         <v>285</v>
       </c>
       <c r="I75">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="J75">
         <v>4.857</v>
@@ -11318,7 +11321,7 @@
         <v>3874.763</v>
       </c>
       <c r="L75">
-        <v>19.035</v>
+        <v>0</v>
       </c>
       <c r="M75">
         <v>26.246</v>
@@ -11327,7 +11330,7 @@
         <v>117.931</v>
       </c>
       <c r="O75">
-        <v>3.31</v>
+        <v>0</v>
       </c>
       <c r="P75">
         <v>2.01</v>
@@ -11348,7 +11351,7 @@
         <v>0.415</v>
       </c>
       <c r="AH75" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="AI75">
         <v>316363</v>
@@ -11437,40 +11440,40 @@
         <v>504</v>
       </c>
       <c r="E76">
-        <v>506040</v>
+        <v>510941</v>
       </c>
       <c r="F76">
-        <v>4743</v>
+        <v>4901</v>
       </c>
       <c r="G76">
-        <v>4907.857</v>
+        <v>4811</v>
       </c>
       <c r="H76">
-        <v>6649</v>
+        <v>6723</v>
       </c>
       <c r="I76">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="J76">
-        <v>46.857</v>
+        <v>50.286</v>
       </c>
       <c r="K76">
-        <v>126853.297</v>
+        <v>128081.872</v>
       </c>
       <c r="L76">
-        <v>1188.968</v>
+        <v>1228.575</v>
       </c>
       <c r="M76">
-        <v>1230.294</v>
+        <v>1206.014</v>
       </c>
       <c r="N76">
-        <v>1666.761</v>
+        <v>1685.311</v>
       </c>
       <c r="O76">
-        <v>14.79</v>
+        <v>18.55</v>
       </c>
       <c r="P76">
-        <v>11.746</v>
+        <v>12.606</v>
       </c>
       <c r="Q76">
         <v>1.16</v>
@@ -11500,7 +11503,7 @@
         <v>9</v>
       </c>
       <c r="AH76" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="AI76">
         <v>907665</v>
@@ -11586,37 +11589,37 @@
         <v>504</v>
       </c>
       <c r="E77">
-        <v>3863495</v>
+        <v>3870095</v>
       </c>
       <c r="F77">
-        <v>8966</v>
+        <v>6600</v>
       </c>
       <c r="G77">
-        <v>6232</v>
+        <v>6507</v>
       </c>
       <c r="H77">
-        <v>91980</v>
+        <v>91983</v>
       </c>
       <c r="I77">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="J77">
         <v>15.571</v>
       </c>
       <c r="K77">
-        <v>46112.594</v>
+        <v>46191.368</v>
       </c>
       <c r="L77">
-        <v>107.013</v>
+        <v>78.774</v>
       </c>
       <c r="M77">
-        <v>74.38200000000001</v>
+        <v>77.664</v>
       </c>
       <c r="N77">
-        <v>1097.824</v>
+        <v>1097.86</v>
       </c>
       <c r="O77">
-        <v>0.203</v>
+        <v>0.036</v>
       </c>
       <c r="P77">
         <v>0.186</v>
@@ -11655,7 +11658,7 @@
         <v>16.7</v>
       </c>
       <c r="AH77" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="AI77">
         <v>99042466</v>
@@ -11741,40 +11744,40 @@
         <v>504</v>
       </c>
       <c r="E78">
-        <v>112928</v>
+        <v>113957</v>
       </c>
       <c r="F78">
-        <v>0</v>
+        <v>1029</v>
       </c>
       <c r="G78">
-        <v>456</v>
+        <v>521.571</v>
       </c>
       <c r="H78">
-        <v>945</v>
+        <v>961</v>
       </c>
       <c r="I78">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="J78">
-        <v>5.571</v>
+        <v>6.857</v>
       </c>
       <c r="K78">
-        <v>3634.287</v>
+        <v>3667.403</v>
       </c>
       <c r="L78">
-        <v>0</v>
+        <v>33.116</v>
       </c>
       <c r="M78">
-        <v>14.675</v>
+        <v>16.785</v>
       </c>
       <c r="N78">
-        <v>30.412</v>
+        <v>30.927</v>
       </c>
       <c r="O78">
-        <v>0</v>
+        <v>0.515</v>
       </c>
       <c r="P78">
-        <v>0.179</v>
+        <v>0.221</v>
       </c>
       <c r="Q78">
         <v>1.32</v>
@@ -11839,7 +11842,7 @@
         <v>363</v>
       </c>
       <c r="D79" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="AI79">
         <v>78570</v>
@@ -11892,40 +11895,40 @@
         <v>504</v>
       </c>
       <c r="E80">
-        <v>554055</v>
+        <v>557239</v>
       </c>
       <c r="F80">
-        <v>3596</v>
+        <v>3184</v>
       </c>
       <c r="G80">
-        <v>3155.429</v>
+        <v>3143.143</v>
       </c>
       <c r="H80">
-        <v>13295</v>
+        <v>13318</v>
       </c>
       <c r="I80">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="J80">
-        <v>20.714</v>
+        <v>20.571</v>
       </c>
       <c r="K80">
-        <v>53156.675</v>
+        <v>53462.152</v>
       </c>
       <c r="L80">
-        <v>345.004</v>
+        <v>305.477</v>
       </c>
       <c r="M80">
-        <v>302.735</v>
+        <v>301.557</v>
       </c>
       <c r="N80">
-        <v>1275.538</v>
+        <v>1277.744</v>
       </c>
       <c r="O80">
-        <v>2.878</v>
+        <v>2.207</v>
       </c>
       <c r="P80">
-        <v>1.987</v>
+        <v>1.974</v>
       </c>
       <c r="Q80">
         <v>1.05</v>
@@ -11961,7 +11964,7 @@
         <v>27.9</v>
       </c>
       <c r="AH80" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="AI80">
         <v>11128403</v>
@@ -12047,7 +12050,7 @@
         <v>365</v>
       </c>
       <c r="D81" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="AI81">
         <v>70371</v>
@@ -12106,13 +12109,13 @@
         <v>504</v>
       </c>
       <c r="E82">
-        <v>196</v>
+        <v>212</v>
       </c>
       <c r="F82">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G82">
-        <v>2.286</v>
+        <v>4.571</v>
       </c>
       <c r="H82">
         <v>1</v>
@@ -12124,13 +12127,13 @@
         <v>0</v>
       </c>
       <c r="K82">
-        <v>1741.928</v>
+        <v>1884.126</v>
       </c>
       <c r="L82">
-        <v>0</v>
+        <v>142.198</v>
       </c>
       <c r="M82">
-        <v>20.314</v>
+        <v>40.628</v>
       </c>
       <c r="N82">
         <v>8.887</v>
@@ -12216,40 +12219,40 @@
         <v>504</v>
       </c>
       <c r="E83">
-        <v>433339</v>
+        <v>437919</v>
       </c>
       <c r="F83">
-        <v>5243</v>
+        <v>4580</v>
       </c>
       <c r="G83">
-        <v>3682.143</v>
+        <v>3741.143</v>
       </c>
       <c r="H83">
-        <v>11372</v>
+        <v>11450</v>
       </c>
       <c r="I83">
-        <v>33</v>
+        <v>78</v>
       </c>
       <c r="J83">
-        <v>52.286</v>
+        <v>52.143</v>
       </c>
       <c r="K83">
-        <v>24187.847</v>
+        <v>24443.491</v>
       </c>
       <c r="L83">
-        <v>292.651</v>
+        <v>255.644</v>
       </c>
       <c r="M83">
-        <v>205.528</v>
+        <v>208.821</v>
       </c>
       <c r="N83">
-        <v>634.755</v>
+        <v>639.109</v>
       </c>
       <c r="O83">
-        <v>1.842</v>
+        <v>4.354</v>
       </c>
       <c r="P83">
-        <v>2.918</v>
+        <v>2.91</v>
       </c>
       <c r="Q83">
         <v>1.11</v>
@@ -12279,7 +12282,7 @@
         <v>3</v>
       </c>
       <c r="AH83" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="AI83">
         <v>3635762</v>
@@ -12362,7 +12365,7 @@
         <v>368</v>
       </c>
       <c r="D84" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="AI84">
         <v>98054</v>
@@ -12394,37 +12397,37 @@
         <v>504</v>
       </c>
       <c r="E85">
-        <v>28524</v>
+        <v>28647</v>
       </c>
       <c r="F85">
-        <v>96</v>
+        <v>123</v>
       </c>
       <c r="G85">
-        <v>125.571</v>
+        <v>115.714</v>
       </c>
       <c r="H85">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="I85">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J85">
         <v>4.143</v>
       </c>
       <c r="K85">
-        <v>2171.968</v>
+        <v>2181.334</v>
       </c>
       <c r="L85">
-        <v>7.31</v>
+        <v>9.366</v>
       </c>
       <c r="M85">
-        <v>9.561999999999999</v>
+        <v>8.811</v>
       </c>
       <c r="N85">
-        <v>23.3</v>
+        <v>23.453</v>
       </c>
       <c r="O85">
-        <v>0.305</v>
+        <v>0.152</v>
       </c>
       <c r="P85">
         <v>0.315</v>
@@ -12513,40 +12516,40 @@
         <v>504</v>
       </c>
       <c r="E86">
-        <v>5416</v>
+        <v>5496</v>
       </c>
       <c r="F86">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="G86">
-        <v>52</v>
+        <v>56.714</v>
       </c>
       <c r="H86">
         <v>99</v>
       </c>
       <c r="I86">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J86">
-        <v>1.429</v>
+        <v>1.286</v>
       </c>
       <c r="K86">
-        <v>2752.035</v>
+        <v>2792.686</v>
       </c>
       <c r="L86">
-        <v>25.407</v>
+        <v>40.65</v>
       </c>
       <c r="M86">
-        <v>26.423</v>
+        <v>28.818</v>
       </c>
       <c r="N86">
         <v>50.305</v>
       </c>
       <c r="O86">
-        <v>1.524</v>
+        <v>0</v>
       </c>
       <c r="P86">
-        <v>0.726</v>
+        <v>0.653</v>
       </c>
       <c r="Q86">
         <v>1.25</v>
@@ -12626,40 +12629,40 @@
         <v>504</v>
       </c>
       <c r="E87">
-        <v>24047</v>
+        <v>24224</v>
       </c>
       <c r="F87">
-        <v>252</v>
+        <v>177</v>
       </c>
       <c r="G87">
-        <v>100.429</v>
+        <v>109.857</v>
       </c>
       <c r="H87">
         <v>591</v>
       </c>
       <c r="I87">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J87">
-        <v>3</v>
+        <v>2.571</v>
       </c>
       <c r="K87">
-        <v>30572.405</v>
+        <v>30797.435</v>
       </c>
       <c r="L87">
-        <v>320.383</v>
+        <v>225.031</v>
       </c>
       <c r="M87">
-        <v>127.681</v>
+        <v>139.668</v>
       </c>
       <c r="N87">
         <v>751.374</v>
       </c>
       <c r="O87">
-        <v>5.085</v>
+        <v>0</v>
       </c>
       <c r="P87">
-        <v>3.814</v>
+        <v>3.269</v>
       </c>
       <c r="Q87">
         <v>1.11</v>
@@ -12876,7 +12879,7 @@
         <v>326830</v>
       </c>
       <c r="F89">
-        <v>3205</v>
+        <v>0</v>
       </c>
       <c r="G89">
         <v>1513.571</v>
@@ -12885,7 +12888,7 @@
         <v>8594</v>
       </c>
       <c r="I89">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="J89">
         <v>31.571</v>
@@ -12894,7 +12897,7 @@
         <v>32997.772</v>
       </c>
       <c r="L89">
-        <v>323.587</v>
+        <v>0</v>
       </c>
       <c r="M89">
         <v>152.815</v>
@@ -12903,7 +12906,7 @@
         <v>867.677</v>
       </c>
       <c r="O89">
-        <v>6.765</v>
+        <v>0</v>
       </c>
       <c r="P89">
         <v>3.188</v>
@@ -12998,13 +13001,13 @@
         <v>504</v>
       </c>
       <c r="E90">
-        <v>12049</v>
+        <v>12052</v>
       </c>
       <c r="F90">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G90">
-        <v>2.714</v>
+        <v>2.857</v>
       </c>
       <c r="H90">
         <v>212</v>
@@ -13016,13 +13019,13 @@
         <v>0</v>
       </c>
       <c r="K90">
-        <v>1607.179</v>
+        <v>1607.579</v>
       </c>
       <c r="L90">
-        <v>0.267</v>
+        <v>0.4</v>
       </c>
       <c r="M90">
-        <v>0.362</v>
+        <v>0.381</v>
       </c>
       <c r="N90">
         <v>28.278</v>
@@ -13052,7 +13055,7 @@
         <v>16666.7</v>
       </c>
       <c r="AH90" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="AI90">
         <v>6944145</v>
@@ -13195,7 +13198,7 @@
         <v>91.59999999999999</v>
       </c>
       <c r="AH91" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="AI91">
         <v>10555046</v>
@@ -13281,13 +13284,13 @@
         <v>504</v>
       </c>
       <c r="E92">
-        <v>9980</v>
+        <v>10053</v>
       </c>
       <c r="F92">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="G92">
-        <v>86.286</v>
+        <v>85</v>
       </c>
       <c r="H92">
         <v>30</v>
@@ -13299,13 +13302,13 @@
         <v>0</v>
       </c>
       <c r="K92">
-        <v>29245.421</v>
+        <v>29459.341</v>
       </c>
       <c r="L92">
-        <v>187.546</v>
+        <v>213.919</v>
       </c>
       <c r="M92">
-        <v>252.852</v>
+        <v>249.084</v>
       </c>
       <c r="N92">
         <v>87.91200000000001</v>
@@ -13350,7 +13353,7 @@
         <v>8.970000000000001</v>
       </c>
       <c r="AH92" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="AT92">
         <v>41.67</v>
@@ -13415,37 +13418,37 @@
         <v>32393286</v>
       </c>
       <c r="F93">
-        <v>34457</v>
+        <v>0</v>
       </c>
       <c r="G93">
-        <v>33827.571</v>
+        <v>28672.857</v>
       </c>
       <c r="H93">
         <v>433964</v>
       </c>
       <c r="I93">
-        <v>375</v>
+        <v>0</v>
       </c>
       <c r="J93">
-        <v>461.714</v>
+        <v>391.286</v>
       </c>
       <c r="K93">
         <v>23473.321</v>
       </c>
       <c r="L93">
-        <v>24.969</v>
+        <v>0</v>
       </c>
       <c r="M93">
-        <v>24.513</v>
+        <v>20.777</v>
       </c>
       <c r="N93">
         <v>314.466</v>
       </c>
       <c r="O93">
-        <v>0.272</v>
+        <v>0</v>
       </c>
       <c r="P93">
-        <v>0.335</v>
+        <v>0.284</v>
       </c>
       <c r="Q93">
         <v>0.9399999999999999</v>
@@ -13475,7 +13478,7 @@
         <v>54.7</v>
       </c>
       <c r="AH93" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="AI93">
         <v>573205464</v>
@@ -13567,40 +13570,40 @@
         <v>504</v>
       </c>
       <c r="E94">
-        <v>3950304</v>
+        <v>3967048</v>
       </c>
       <c r="F94">
-        <v>20004</v>
+        <v>16744</v>
       </c>
       <c r="G94">
-        <v>20765.857</v>
+        <v>19072.429</v>
       </c>
       <c r="H94">
-        <v>123981</v>
+        <v>125342</v>
       </c>
       <c r="I94">
-        <v>1348</v>
+        <v>1361</v>
       </c>
       <c r="J94">
-        <v>1269.286</v>
+        <v>1282.286</v>
       </c>
       <c r="K94">
-        <v>14442.277</v>
+        <v>14503.493</v>
       </c>
       <c r="L94">
-        <v>73.134</v>
+        <v>61.216</v>
       </c>
       <c r="M94">
-        <v>75.92</v>
+        <v>69.729</v>
       </c>
       <c r="N94">
-        <v>453.273</v>
+        <v>458.249</v>
       </c>
       <c r="O94">
-        <v>4.928</v>
+        <v>4.976</v>
       </c>
       <c r="P94">
-        <v>4.64</v>
+        <v>4.688</v>
       </c>
       <c r="Q94">
         <v>0.74</v>
@@ -13630,7 +13633,7 @@
         <v>4.8</v>
       </c>
       <c r="AH94" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="AI94">
         <v>87257192</v>
@@ -13751,40 +13754,40 @@
         <v>504</v>
       </c>
       <c r="E96">
-        <v>4616516</v>
+        <v>4640695</v>
       </c>
       <c r="F96">
-        <v>28833</v>
+        <v>24179</v>
       </c>
       <c r="G96">
-        <v>36733</v>
+        <v>35944.286</v>
       </c>
       <c r="H96">
-        <v>100810</v>
+        <v>101354</v>
       </c>
       <c r="I96">
-        <v>555</v>
+        <v>544</v>
       </c>
       <c r="J96">
-        <v>581.143</v>
+        <v>592.2859999999999</v>
       </c>
       <c r="K96">
-        <v>54963.135</v>
+        <v>55251.004</v>
       </c>
       <c r="L96">
-        <v>343.279</v>
+        <v>287.869</v>
       </c>
       <c r="M96">
-        <v>437.334</v>
+        <v>427.944</v>
       </c>
       <c r="N96">
-        <v>1200.22</v>
+        <v>1206.696</v>
       </c>
       <c r="O96">
-        <v>6.608</v>
+        <v>6.477</v>
       </c>
       <c r="P96">
-        <v>6.919</v>
+        <v>7.052</v>
       </c>
       <c r="Q96">
         <v>1.03</v>
@@ -13814,7 +13817,7 @@
         <v>2.6</v>
       </c>
       <c r="AH96" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="AI96">
         <v>19894523</v>
@@ -13897,40 +13900,40 @@
         <v>504</v>
       </c>
       <c r="E97">
-        <v>1815497</v>
+        <v>1819455</v>
       </c>
       <c r="F97">
-        <v>6121</v>
+        <v>3958</v>
       </c>
       <c r="G97">
-        <v>7764.857</v>
+        <v>7243.143</v>
       </c>
       <c r="H97">
-        <v>20025</v>
+        <v>20110</v>
       </c>
       <c r="I97">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="J97">
-        <v>69.143</v>
+        <v>72</v>
       </c>
       <c r="K97">
-        <v>45136.351</v>
+        <v>45234.753</v>
       </c>
       <c r="L97">
-        <v>152.178</v>
+        <v>98.40300000000001</v>
       </c>
       <c r="M97">
-        <v>193.048</v>
+        <v>180.077</v>
       </c>
       <c r="N97">
-        <v>497.856</v>
+        <v>499.969</v>
       </c>
       <c r="O97">
-        <v>1.666</v>
+        <v>2.113</v>
       </c>
       <c r="P97">
-        <v>1.719</v>
+        <v>1.79</v>
       </c>
       <c r="Q97">
         <v>0.87</v>
@@ -13960,7 +13963,7 @@
         <v>4.8</v>
       </c>
       <c r="AH97" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="AU97">
         <v>40222503</v>
@@ -14016,13 +14019,13 @@
         <v>504</v>
       </c>
       <c r="E98">
-        <v>333304</v>
+        <v>335429</v>
       </c>
       <c r="F98">
-        <v>2098</v>
+        <v>2125</v>
       </c>
       <c r="G98">
-        <v>1769.857</v>
+        <v>1777.143</v>
       </c>
       <c r="H98">
         <v>5074</v>
@@ -14034,13 +14037,13 @@
         <v>2.143</v>
       </c>
       <c r="K98">
-        <v>67500.561</v>
+        <v>67930.91499999999</v>
       </c>
       <c r="L98">
-        <v>424.886</v>
+        <v>430.354</v>
       </c>
       <c r="M98">
-        <v>358.431</v>
+        <v>359.906</v>
       </c>
       <c r="N98">
         <v>1027.584</v>
@@ -14103,7 +14106,7 @@
         <v>11.8</v>
       </c>
       <c r="AH98" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="AI98">
         <v>6536284</v>
@@ -14189,7 +14192,7 @@
         <v>383</v>
       </c>
       <c r="D99" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="AI99">
         <v>125652</v>
@@ -14242,55 +14245,55 @@
         <v>504</v>
       </c>
       <c r="E100">
-        <v>978212</v>
+        <v>985489</v>
       </c>
       <c r="F100">
-        <v>7606</v>
+        <v>7277</v>
       </c>
       <c r="G100">
-        <v>6991.143</v>
+        <v>7227.571</v>
       </c>
       <c r="H100">
-        <v>6759</v>
+        <v>6775</v>
       </c>
       <c r="I100">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="J100">
-        <v>21.143</v>
+        <v>21.857</v>
       </c>
       <c r="K100">
-        <v>113015.697</v>
+        <v>113856.43</v>
       </c>
       <c r="L100">
-        <v>878.7430000000001</v>
+        <v>840.7329999999999</v>
       </c>
       <c r="M100">
-        <v>807.707</v>
+        <v>835.022</v>
       </c>
       <c r="N100">
-        <v>780.8869999999999</v>
+        <v>782.736</v>
       </c>
       <c r="O100">
-        <v>0.8090000000000001</v>
+        <v>1.849</v>
       </c>
       <c r="P100">
-        <v>2.443</v>
+        <v>2.525</v>
       </c>
       <c r="Q100">
         <v>1.36</v>
       </c>
       <c r="R100">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="S100">
-        <v>17.214</v>
+        <v>16.521</v>
       </c>
       <c r="T100">
-        <v>957</v>
+        <v>986</v>
       </c>
       <c r="U100">
-        <v>110.565</v>
+        <v>113.915</v>
       </c>
       <c r="V100">
         <v>610</v>
@@ -14299,10 +14302,10 @@
         <v>70.47499999999999</v>
       </c>
       <c r="X100">
-        <v>1154</v>
+        <v>1156</v>
       </c>
       <c r="Y100">
-        <v>133.325</v>
+        <v>133.556</v>
       </c>
       <c r="Z100">
         <v>146296</v>
@@ -14329,7 +14332,7 @@
         <v>19.8</v>
       </c>
       <c r="AH100" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="AI100">
         <v>12647421</v>
@@ -14424,40 +14427,40 @@
         <v>504</v>
       </c>
       <c r="E101">
-        <v>4471225</v>
+        <v>4478691</v>
       </c>
       <c r="F101">
-        <v>7220</v>
+        <v>7466</v>
       </c>
       <c r="G101">
-        <v>6199.714</v>
+        <v>6240.429</v>
       </c>
       <c r="H101">
-        <v>128683</v>
+        <v>128728</v>
       </c>
       <c r="I101">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="J101">
-        <v>43.429</v>
+        <v>45</v>
       </c>
       <c r="K101">
-        <v>73951.204</v>
+        <v>74074.68700000001</v>
       </c>
       <c r="L101">
-        <v>119.414</v>
+        <v>123.483</v>
       </c>
       <c r="M101">
-        <v>102.539</v>
+        <v>103.213</v>
       </c>
       <c r="N101">
-        <v>2128.335</v>
+        <v>2129.079</v>
       </c>
       <c r="O101">
-        <v>0.8100000000000001</v>
+        <v>0.744</v>
       </c>
       <c r="P101">
-        <v>0.718</v>
+        <v>0.744</v>
       </c>
       <c r="Q101">
         <v>1.04</v>
@@ -14505,7 +14508,7 @@
         <v>31.8</v>
       </c>
       <c r="AH101" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="AI101">
         <v>75040135</v>
@@ -14594,40 +14597,40 @@
         <v>504</v>
       </c>
       <c r="E102">
-        <v>60488</v>
+        <v>61282</v>
       </c>
       <c r="F102">
-        <v>556</v>
+        <v>794</v>
       </c>
       <c r="G102">
-        <v>539.857</v>
+        <v>570.429</v>
       </c>
       <c r="H102">
-        <v>1356</v>
+        <v>1371</v>
       </c>
       <c r="I102">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J102">
-        <v>11.429</v>
+        <v>12.286</v>
       </c>
       <c r="K102">
-        <v>20427.123</v>
+        <v>20695.261</v>
       </c>
       <c r="L102">
-        <v>187.764</v>
+        <v>268.138</v>
       </c>
       <c r="M102">
-        <v>182.313</v>
+        <v>192.637</v>
       </c>
       <c r="N102">
-        <v>457.928</v>
+        <v>462.994</v>
       </c>
       <c r="O102">
-        <v>4.728</v>
+        <v>5.066</v>
       </c>
       <c r="P102">
-        <v>3.859</v>
+        <v>4.149</v>
       </c>
       <c r="Q102">
         <v>1.47</v>
@@ -14657,7 +14660,7 @@
         <v>3.5</v>
       </c>
       <c r="AH102" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="AI102">
         <v>420627</v>
@@ -14743,40 +14746,40 @@
         <v>504</v>
       </c>
       <c r="E103">
-        <v>1258477</v>
+        <v>1283857</v>
       </c>
       <c r="F103">
-        <v>25892</v>
+        <v>25380</v>
       </c>
       <c r="G103">
-        <v>21110.857</v>
+        <v>21859.429</v>
       </c>
       <c r="H103">
-        <v>15592</v>
+        <v>15625</v>
       </c>
       <c r="I103">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="J103">
-        <v>28</v>
+        <v>30.286</v>
       </c>
       <c r="K103">
-        <v>9950.287</v>
+        <v>10150.956</v>
       </c>
       <c r="L103">
-        <v>204.718</v>
+        <v>200.67</v>
       </c>
       <c r="M103">
-        <v>166.915</v>
+        <v>172.834</v>
       </c>
       <c r="N103">
-        <v>123.28</v>
+        <v>123.541</v>
       </c>
       <c r="O103">
-        <v>0.308</v>
+        <v>0.261</v>
       </c>
       <c r="P103">
-        <v>0.221</v>
+        <v>0.239</v>
       </c>
       <c r="Q103">
         <v>1.32</v>
@@ -14806,7 +14809,7 @@
         <v>6.1</v>
       </c>
       <c r="AH103" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="AI103">
         <v>115739998</v>
@@ -14889,7 +14892,7 @@
         <v>388</v>
       </c>
       <c r="D104" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AI104">
         <v>146439</v>
@@ -14936,37 +14939,37 @@
         <v>788088</v>
       </c>
       <c r="F105">
-        <v>721</v>
+        <v>0</v>
       </c>
       <c r="G105">
-        <v>933.7140000000001</v>
+        <v>839.7140000000001</v>
       </c>
       <c r="H105">
         <v>10273</v>
       </c>
       <c r="I105">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="J105">
-        <v>12.286</v>
+        <v>10</v>
       </c>
       <c r="K105">
         <v>77239.75199999999</v>
       </c>
       <c r="L105">
-        <v>70.66500000000001</v>
+        <v>0</v>
       </c>
       <c r="M105">
-        <v>91.512</v>
+        <v>82.3</v>
       </c>
       <c r="N105">
         <v>1006.847</v>
       </c>
       <c r="O105">
-        <v>0.882</v>
+        <v>0</v>
       </c>
       <c r="P105">
-        <v>1.204</v>
+        <v>0.98</v>
       </c>
       <c r="Q105">
         <v>1.09</v>
@@ -14996,7 +14999,7 @@
         <v>30.6</v>
       </c>
       <c r="AH105" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="AI105">
         <v>6007827</v>
@@ -15076,13 +15079,13 @@
         <v>504</v>
       </c>
       <c r="E106">
-        <v>797676</v>
+        <v>804711</v>
       </c>
       <c r="F106">
-        <v>7471</v>
+        <v>7035</v>
       </c>
       <c r="G106">
-        <v>7505.429</v>
+        <v>8510.429</v>
       </c>
       <c r="H106">
         <v>11725</v>
@@ -15094,13 +15097,13 @@
         <v>133.429</v>
       </c>
       <c r="K106">
-        <v>42482.209</v>
+        <v>42856.876</v>
       </c>
       <c r="L106">
-        <v>397.887</v>
+        <v>374.666</v>
       </c>
       <c r="M106">
-        <v>399.72</v>
+        <v>453.244</v>
       </c>
       <c r="N106">
         <v>624.444</v>
@@ -15204,40 +15207,40 @@
         <v>504</v>
       </c>
       <c r="E107">
-        <v>227077</v>
+        <v>228363</v>
       </c>
       <c r="F107">
-        <v>1414</v>
+        <v>1286</v>
       </c>
       <c r="G107">
-        <v>1194.857</v>
+        <v>1203.571</v>
       </c>
       <c r="H107">
-        <v>4435</v>
+        <v>4467</v>
       </c>
       <c r="I107">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J107">
-        <v>19</v>
+        <v>21.143</v>
       </c>
       <c r="K107">
-        <v>4223.015</v>
+        <v>4246.931</v>
       </c>
       <c r="L107">
-        <v>26.297</v>
+        <v>23.916</v>
       </c>
       <c r="M107">
-        <v>22.221</v>
+        <v>22.383</v>
       </c>
       <c r="N107">
-        <v>82.479</v>
+        <v>83.074</v>
       </c>
       <c r="O107">
-        <v>0.577</v>
+        <v>0.595</v>
       </c>
       <c r="P107">
-        <v>0.353</v>
+        <v>0.393</v>
       </c>
       <c r="Q107">
         <v>1.11</v>
@@ -15430,40 +15433,40 @@
         <v>504</v>
       </c>
       <c r="E109">
-        <v>125348</v>
+        <v>127627</v>
       </c>
       <c r="F109">
-        <v>2250</v>
+        <v>2279</v>
       </c>
       <c r="G109">
-        <v>1652.429</v>
+        <v>1782.286</v>
       </c>
       <c r="H109">
-        <v>2307</v>
+        <v>2315</v>
       </c>
       <c r="I109">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J109">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K109">
-        <v>64853.935</v>
+        <v>66033.07000000001</v>
       </c>
       <c r="L109">
-        <v>1164.13</v>
+        <v>1179.134</v>
       </c>
       <c r="M109">
-        <v>854.952</v>
+        <v>922.139</v>
       </c>
       <c r="N109">
-        <v>1193.621</v>
+        <v>1197.76</v>
       </c>
       <c r="O109">
-        <v>2.07</v>
+        <v>4.139</v>
       </c>
       <c r="P109">
-        <v>2.07</v>
+        <v>2.587</v>
       </c>
       <c r="Q109">
         <v>2.16</v>
@@ -15493,7 +15496,7 @@
         <v>5.2</v>
       </c>
       <c r="AH109" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="AI109">
         <v>601701</v>
@@ -15552,40 +15555,40 @@
         <v>504</v>
       </c>
       <c r="E110">
-        <v>407878</v>
+        <v>408078</v>
       </c>
       <c r="F110">
-        <v>226</v>
+        <v>200</v>
       </c>
       <c r="G110">
-        <v>288.429</v>
+        <v>263.429</v>
       </c>
       <c r="H110">
-        <v>2401</v>
+        <v>2403</v>
       </c>
       <c r="I110">
         <v>2</v>
       </c>
       <c r="J110">
-        <v>2.571</v>
+        <v>2.429</v>
       </c>
       <c r="K110">
-        <v>95509.18700000001</v>
+        <v>95556.019</v>
       </c>
       <c r="L110">
-        <v>52.92</v>
+        <v>46.832</v>
       </c>
       <c r="M110">
-        <v>67.539</v>
+        <v>61.685</v>
       </c>
       <c r="N110">
-        <v>562.221</v>
+        <v>562.689</v>
       </c>
       <c r="O110">
         <v>0.468</v>
       </c>
       <c r="P110">
-        <v>0.602</v>
+        <v>0.569</v>
       </c>
       <c r="Q110">
         <v>0.55</v>
@@ -15615,7 +15618,7 @@
         <v>31.3</v>
       </c>
       <c r="AH110" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="AJ110">
         <v>2668082</v>
@@ -15680,40 +15683,40 @@
         <v>504</v>
       </c>
       <c r="E111">
-        <v>173428</v>
+        <v>173676</v>
       </c>
       <c r="F111">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="G111">
-        <v>312.857</v>
+        <v>274</v>
       </c>
       <c r="H111">
-        <v>2473</v>
+        <v>2478</v>
       </c>
       <c r="I111">
         <v>5</v>
       </c>
       <c r="J111">
-        <v>5.714</v>
+        <v>5.571</v>
       </c>
       <c r="K111">
-        <v>26582.3</v>
+        <v>26620.312</v>
       </c>
       <c r="L111">
-        <v>37.093</v>
+        <v>38.012</v>
       </c>
       <c r="M111">
-        <v>47.953</v>
+        <v>41.998</v>
       </c>
       <c r="N111">
-        <v>379.051</v>
+        <v>379.817</v>
       </c>
       <c r="O111">
         <v>0.766</v>
       </c>
       <c r="P111">
-        <v>0.876</v>
+        <v>0.854</v>
       </c>
       <c r="Q111">
         <v>0.6899999999999999</v>
@@ -15808,37 +15811,37 @@
         <v>504</v>
       </c>
       <c r="E112">
-        <v>11753</v>
+        <v>12164</v>
       </c>
       <c r="F112">
-        <v>440</v>
+        <v>411</v>
       </c>
       <c r="G112">
-        <v>297.857</v>
+        <v>324.286</v>
       </c>
       <c r="H112">
         <v>11</v>
       </c>
       <c r="I112">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J112">
         <v>0.286</v>
       </c>
       <c r="K112">
-        <v>1615.409</v>
+        <v>1671.9</v>
       </c>
       <c r="L112">
-        <v>60.476</v>
+        <v>56.491</v>
       </c>
       <c r="M112">
-        <v>40.939</v>
+        <v>44.572</v>
       </c>
       <c r="N112">
         <v>1.512</v>
       </c>
       <c r="O112">
-        <v>0.275</v>
+        <v>0</v>
       </c>
       <c r="P112">
         <v>0.039</v>
@@ -15933,37 +15936,37 @@
         <v>504</v>
       </c>
       <c r="E113">
-        <v>140784</v>
+        <v>140944</v>
       </c>
       <c r="F113">
-        <v>133</v>
+        <v>160</v>
       </c>
       <c r="G113">
-        <v>120.429</v>
+        <v>127.857</v>
       </c>
       <c r="H113">
         <v>2568</v>
       </c>
       <c r="I113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J113">
         <v>1</v>
       </c>
       <c r="K113">
-        <v>74638.87699999999</v>
+        <v>74723.704</v>
       </c>
       <c r="L113">
-        <v>70.512</v>
+        <v>84.827</v>
       </c>
       <c r="M113">
-        <v>63.847</v>
+        <v>67.785</v>
       </c>
       <c r="N113">
         <v>1361.466</v>
       </c>
       <c r="O113">
-        <v>0.53</v>
+        <v>0</v>
       </c>
       <c r="P113">
         <v>0.53</v>
@@ -16014,7 +16017,7 @@
         <v>69.90000000000001</v>
       </c>
       <c r="AH113" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="AI113">
         <v>1454263</v>
@@ -16103,40 +16106,40 @@
         <v>504</v>
       </c>
       <c r="E114">
-        <v>589597</v>
+        <v>590983</v>
       </c>
       <c r="F114">
-        <v>1019</v>
+        <v>1386</v>
       </c>
       <c r="G114">
-        <v>1371.143</v>
+        <v>1355.143</v>
       </c>
       <c r="H114">
-        <v>8004</v>
+        <v>8008</v>
       </c>
       <c r="I114">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J114">
-        <v>5.286</v>
+        <v>5.143</v>
       </c>
       <c r="K114">
-        <v>86382.245</v>
+        <v>86585.308</v>
       </c>
       <c r="L114">
-        <v>149.294</v>
+        <v>203.064</v>
       </c>
       <c r="M114">
-        <v>200.887</v>
+        <v>198.543</v>
       </c>
       <c r="N114">
-        <v>1172.671</v>
+        <v>1173.257</v>
       </c>
       <c r="O114">
-        <v>0.733</v>
+        <v>0.586</v>
       </c>
       <c r="P114">
-        <v>0.774</v>
+        <v>0.753</v>
       </c>
       <c r="Q114">
         <v>1.11</v>
@@ -16222,13 +16225,13 @@
         <v>504</v>
       </c>
       <c r="E115">
-        <v>14370</v>
+        <v>14371</v>
       </c>
       <c r="F115">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G115">
-        <v>18.143</v>
+        <v>18.286</v>
       </c>
       <c r="H115">
         <v>400</v>
@@ -16240,13 +16243,13 @@
         <v>0.429</v>
       </c>
       <c r="K115">
-        <v>6707.894</v>
+        <v>6708.361</v>
       </c>
       <c r="L115">
-        <v>0</v>
+        <v>0.467</v>
       </c>
       <c r="M115">
-        <v>8.468999999999999</v>
+        <v>8.536</v>
       </c>
       <c r="N115">
         <v>186.719</v>
@@ -16436,7 +16439,7 @@
         <v>293532</v>
       </c>
       <c r="F117">
-        <v>2364</v>
+        <v>0</v>
       </c>
       <c r="G117">
         <v>2061.857</v>
@@ -16445,7 +16448,7 @@
         <v>4017</v>
       </c>
       <c r="I117">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="J117">
         <v>21.143</v>
@@ -16454,7 +16457,7 @@
         <v>42718.635</v>
       </c>
       <c r="L117">
-        <v>344.04</v>
+        <v>0</v>
       </c>
       <c r="M117">
         <v>300.069</v>
@@ -16463,7 +16466,7 @@
         <v>584.607</v>
       </c>
       <c r="O117">
-        <v>2.329</v>
+        <v>0</v>
       </c>
       <c r="P117">
         <v>3.077</v>
@@ -16478,7 +16481,7 @@
         <v>1.326</v>
       </c>
       <c r="AH117" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="AI117">
         <v>889957</v>
@@ -16552,13 +16555,13 @@
         <v>504</v>
       </c>
       <c r="E118">
-        <v>3209</v>
+        <v>3219</v>
       </c>
       <c r="F118">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G118">
-        <v>9.856999999999999</v>
+        <v>10.429</v>
       </c>
       <c r="H118">
         <v>59</v>
@@ -16570,13 +16573,13 @@
         <v>0</v>
       </c>
       <c r="K118">
-        <v>84144.007</v>
+        <v>84406.22</v>
       </c>
       <c r="L118">
-        <v>288.434</v>
+        <v>262.213</v>
       </c>
       <c r="M118">
-        <v>258.467</v>
+        <v>273.45</v>
       </c>
       <c r="N118">
         <v>1547.054</v>
@@ -16615,7 +16618,7 @@
         <v>11.4</v>
       </c>
       <c r="AH118" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="AI118">
         <v>41741</v>
@@ -16677,40 +16680,40 @@
         <v>504</v>
       </c>
       <c r="E119">
-        <v>292552</v>
+        <v>293342</v>
       </c>
       <c r="F119">
-        <v>583</v>
+        <v>790</v>
       </c>
       <c r="G119">
-        <v>543.571</v>
+        <v>570.857</v>
       </c>
       <c r="H119">
-        <v>4471</v>
+        <v>4481</v>
       </c>
       <c r="I119">
+        <v>10</v>
+      </c>
+      <c r="J119">
         <v>5</v>
       </c>
-      <c r="J119">
-        <v>4.429</v>
-      </c>
       <c r="K119">
-        <v>107465.366</v>
+        <v>107755.563</v>
       </c>
       <c r="L119">
-        <v>214.158</v>
+        <v>290.197</v>
       </c>
       <c r="M119">
-        <v>199.674</v>
+        <v>209.697</v>
       </c>
       <c r="N119">
-        <v>1642.367</v>
+        <v>1646.04</v>
       </c>
       <c r="O119">
+        <v>3.673</v>
+      </c>
+      <c r="P119">
         <v>1.837</v>
-      </c>
-      <c r="P119">
-        <v>1.627</v>
       </c>
       <c r="Q119">
         <v>1.21</v>
@@ -16758,7 +16761,7 @@
         <v>23.3</v>
       </c>
       <c r="AH119" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="AI119">
         <v>3039639</v>
@@ -16847,7 +16850,7 @@
         <v>74985</v>
       </c>
       <c r="F120">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="G120">
         <v>55.714</v>
@@ -16865,7 +16868,7 @@
         <v>119788.938</v>
       </c>
       <c r="L120">
-        <v>107.033</v>
+        <v>0</v>
       </c>
       <c r="M120">
         <v>89.004</v>
@@ -16925,7 +16928,7 @@
         <v>85.3</v>
       </c>
       <c r="AH120" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="AI120">
         <v>751268</v>
@@ -17011,7 +17014,7 @@
         <v>405</v>
       </c>
       <c r="D121" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AI121">
         <v>568863</v>
@@ -17076,13 +17079,13 @@
         <v>504</v>
       </c>
       <c r="E122">
-        <v>42838</v>
+        <v>42842</v>
       </c>
       <c r="F122">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G122">
-        <v>5.143</v>
+        <v>4.429</v>
       </c>
       <c r="H122">
         <v>954</v>
@@ -17091,16 +17094,16 @@
         <v>0</v>
       </c>
       <c r="J122">
-        <v>0.429</v>
+        <v>0.286</v>
       </c>
       <c r="K122">
-        <v>1547</v>
+        <v>1547.144</v>
       </c>
       <c r="L122">
-        <v>0.07199999999999999</v>
+        <v>0.144</v>
       </c>
       <c r="M122">
-        <v>0.186</v>
+        <v>0.16</v>
       </c>
       <c r="N122">
         <v>34.452</v>
@@ -17109,7 +17112,7 @@
         <v>0</v>
       </c>
       <c r="P122">
-        <v>0.015</v>
+        <v>0.01</v>
       </c>
       <c r="Q122">
         <v>0.59</v>
@@ -17139,7 +17142,7 @@
         <v>99.3</v>
       </c>
       <c r="AH122" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="AT122">
         <v>53.7</v>
@@ -17198,40 +17201,40 @@
         <v>504</v>
       </c>
       <c r="E123">
-        <v>59249</v>
+        <v>59399</v>
       </c>
       <c r="F123">
-        <v>201</v>
+        <v>150</v>
       </c>
       <c r="G123">
-        <v>232.714</v>
+        <v>214.714</v>
       </c>
       <c r="H123">
-        <v>2044</v>
+        <v>2059</v>
       </c>
       <c r="I123">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J123">
-        <v>14.714</v>
+        <v>14.857</v>
       </c>
       <c r="K123">
-        <v>3097.184</v>
+        <v>3105.026</v>
       </c>
       <c r="L123">
-        <v>10.507</v>
+        <v>7.841</v>
       </c>
       <c r="M123">
-        <v>12.165</v>
+        <v>11.224</v>
       </c>
       <c r="N123">
-        <v>106.848</v>
+        <v>107.632</v>
       </c>
       <c r="O123">
-        <v>0.836</v>
+        <v>0.784</v>
       </c>
       <c r="P123">
-        <v>0.769</v>
+        <v>0.777</v>
       </c>
       <c r="Q123">
         <v>0.8100000000000001</v>
@@ -17326,40 +17329,40 @@
         <v>504</v>
       </c>
       <c r="E124">
-        <v>1513024</v>
+        <v>1535286</v>
       </c>
       <c r="F124">
-        <v>23564</v>
+        <v>22262</v>
       </c>
       <c r="G124">
-        <v>21334.429</v>
+        <v>21561.857</v>
       </c>
       <c r="H124">
-        <v>13713</v>
+        <v>13936</v>
       </c>
       <c r="I124">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="J124">
-        <v>249.286</v>
+        <v>244</v>
       </c>
       <c r="K124">
-        <v>46747.33</v>
+        <v>47435.151</v>
       </c>
       <c r="L124">
-        <v>728.048</v>
+        <v>687.821</v>
       </c>
       <c r="M124">
-        <v>659.162</v>
+        <v>666.189</v>
       </c>
       <c r="N124">
-        <v>423.685</v>
+        <v>430.575</v>
       </c>
       <c r="O124">
-        <v>7.199</v>
+        <v>6.89</v>
       </c>
       <c r="P124">
-        <v>7.702</v>
+        <v>7.539</v>
       </c>
       <c r="Q124">
         <v>1.1</v>
@@ -17389,7 +17392,7 @@
         <v>7.6</v>
       </c>
       <c r="AH124" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="AI124">
         <v>30370403</v>
@@ -17475,13 +17478,13 @@
         <v>504</v>
       </c>
       <c r="E125">
-        <v>79754</v>
+        <v>79864</v>
       </c>
       <c r="F125">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="G125">
-        <v>118.286</v>
+        <v>123.429</v>
       </c>
       <c r="H125">
         <v>222</v>
@@ -17493,13 +17496,13 @@
         <v>0</v>
       </c>
       <c r="K125">
-        <v>147544.502</v>
+        <v>147748.001</v>
       </c>
       <c r="L125">
-        <v>175.75</v>
+        <v>203.499</v>
       </c>
       <c r="M125">
-        <v>218.828</v>
+        <v>228.342</v>
       </c>
       <c r="N125">
         <v>410.699</v>
@@ -17538,7 +17541,7 @@
         <v>45.3</v>
       </c>
       <c r="AH125" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="AI125">
         <v>653886</v>
@@ -17621,40 +17624,40 @@
         <v>504</v>
       </c>
       <c r="E126">
-        <v>14740</v>
+        <v>14749</v>
       </c>
       <c r="F126">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G126">
-        <v>7.857</v>
+        <v>8.143000000000001</v>
       </c>
       <c r="H126">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="I126">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J126">
-        <v>0.143</v>
+        <v>0.286</v>
       </c>
       <c r="K126">
-        <v>727.871</v>
+        <v>728.316</v>
       </c>
       <c r="L126">
-        <v>0.247</v>
+        <v>0.444</v>
       </c>
       <c r="M126">
-        <v>0.388</v>
+        <v>0.402</v>
       </c>
       <c r="N126">
-        <v>26.419</v>
+        <v>26.468</v>
       </c>
       <c r="O126">
-        <v>0</v>
+        <v>0.049</v>
       </c>
       <c r="P126">
-        <v>0.007</v>
+        <v>0.014</v>
       </c>
       <c r="Q126">
         <v>1.09</v>
@@ -17743,37 +17746,37 @@
         <v>504</v>
       </c>
       <c r="E127">
-        <v>35653</v>
+        <v>35721</v>
       </c>
       <c r="F127">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="G127">
-        <v>65.857</v>
+        <v>62.143</v>
       </c>
       <c r="H127">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="I127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J127">
         <v>0.857</v>
       </c>
       <c r="K127">
-        <v>80747.114</v>
+        <v>80901.121</v>
       </c>
       <c r="L127">
-        <v>115.505</v>
+        <v>154.007</v>
       </c>
       <c r="M127">
-        <v>149.154</v>
+        <v>140.741</v>
       </c>
       <c r="N127">
-        <v>985.1900000000001</v>
+        <v>987.455</v>
       </c>
       <c r="O127">
-        <v>0</v>
+        <v>2.265</v>
       </c>
       <c r="P127">
         <v>1.941</v>
@@ -17818,7 +17821,7 @@
         <v>45.2</v>
       </c>
       <c r="AH127" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="AI127">
         <v>789540</v>
@@ -17972,40 +17975,40 @@
         <v>504</v>
       </c>
       <c r="E129">
-        <v>31390</v>
+        <v>31642</v>
       </c>
       <c r="F129">
-        <v>216</v>
+        <v>252</v>
       </c>
       <c r="G129">
-        <v>255.286</v>
+        <v>251.143</v>
       </c>
       <c r="H129">
-        <v>665</v>
+        <v>672</v>
       </c>
       <c r="I129">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J129">
-        <v>4.429</v>
+        <v>5.143</v>
       </c>
       <c r="K129">
-        <v>6751.031</v>
+        <v>6805.229</v>
       </c>
       <c r="L129">
-        <v>46.455</v>
+        <v>54.198</v>
       </c>
       <c r="M129">
-        <v>54.904</v>
+        <v>54.013</v>
       </c>
       <c r="N129">
-        <v>143.021</v>
+        <v>144.527</v>
       </c>
       <c r="O129">
-        <v>0.86</v>
+        <v>1.505</v>
       </c>
       <c r="P129">
-        <v>0.952</v>
+        <v>1.106</v>
       </c>
       <c r="Q129">
         <v>0.98</v>
@@ -18091,7 +18094,7 @@
         <v>7070</v>
       </c>
       <c r="F130">
-        <v>312</v>
+        <v>0</v>
       </c>
       <c r="G130">
         <v>209</v>
@@ -18109,7 +18112,7 @@
         <v>5559.194</v>
       </c>
       <c r="L130">
-        <v>245.328</v>
+        <v>0</v>
       </c>
       <c r="M130">
         <v>164.338</v>
@@ -18210,40 +18213,40 @@
         <v>504</v>
       </c>
       <c r="E131">
-        <v>3197108</v>
+        <v>3217415</v>
       </c>
       <c r="F131">
-        <v>21734</v>
+        <v>20307</v>
       </c>
       <c r="G131">
-        <v>18397</v>
+        <v>17920.571</v>
       </c>
       <c r="H131">
-        <v>252080</v>
+        <v>252927</v>
       </c>
       <c r="I131">
-        <v>775</v>
+        <v>847</v>
       </c>
       <c r="J131">
-        <v>666.571</v>
+        <v>680</v>
       </c>
       <c r="K131">
-        <v>24796.709</v>
+        <v>24954.21</v>
       </c>
       <c r="L131">
-        <v>168.568</v>
+        <v>157.501</v>
       </c>
       <c r="M131">
-        <v>142.687</v>
+        <v>138.992</v>
       </c>
       <c r="N131">
-        <v>1955.128</v>
+        <v>1961.697</v>
       </c>
       <c r="O131">
-        <v>6.011</v>
+        <v>6.569</v>
       </c>
       <c r="P131">
-        <v>5.17</v>
+        <v>5.274</v>
       </c>
       <c r="Q131">
         <v>1.15</v>
@@ -18273,7 +18276,7 @@
         <v>2.4</v>
       </c>
       <c r="AH131" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="AI131">
         <v>79933762</v>
@@ -18436,40 +18439,40 @@
         <v>504</v>
       </c>
       <c r="E133">
-        <v>263907</v>
+        <v>264283</v>
       </c>
       <c r="F133">
-        <v>407</v>
+        <v>376</v>
       </c>
       <c r="G133">
-        <v>300</v>
+        <v>333.714</v>
       </c>
       <c r="H133">
-        <v>6346</v>
+        <v>6356</v>
       </c>
       <c r="I133">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J133">
-        <v>6.429</v>
+        <v>7.429</v>
       </c>
       <c r="K133">
-        <v>65421.274</v>
+        <v>65514.483</v>
       </c>
       <c r="L133">
-        <v>100.893</v>
+        <v>93.209</v>
       </c>
       <c r="M133">
-        <v>74.369</v>
+        <v>82.726</v>
       </c>
       <c r="N133">
-        <v>1573.143</v>
+        <v>1575.622</v>
       </c>
       <c r="O133">
-        <v>1.983</v>
+        <v>2.479</v>
       </c>
       <c r="P133">
-        <v>1.594</v>
+        <v>1.842</v>
       </c>
       <c r="Q133">
         <v>1.52</v>
@@ -18493,7 +18496,7 @@
         <v>19.7</v>
       </c>
       <c r="AH133" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="AI133">
         <v>1211354</v>
@@ -18585,13 +18588,13 @@
         <v>504</v>
       </c>
       <c r="E134">
-        <v>3121</v>
+        <v>3129</v>
       </c>
       <c r="F134">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="G134">
-        <v>9.429</v>
+        <v>10.143</v>
       </c>
       <c r="H134">
         <v>33</v>
@@ -18603,13 +18606,13 @@
         <v>0</v>
       </c>
       <c r="K134">
-        <v>79528.08100000001</v>
+        <v>79731.93399999999</v>
       </c>
       <c r="L134">
-        <v>407.706</v>
+        <v>203.853</v>
       </c>
       <c r="M134">
-        <v>240.255</v>
+        <v>258.456</v>
       </c>
       <c r="N134">
         <v>840.893</v>
@@ -18656,40 +18659,40 @@
         <v>504</v>
       </c>
       <c r="E135">
-        <v>190253</v>
+        <v>191904</v>
       </c>
       <c r="F135">
-        <v>1841</v>
+        <v>1651</v>
       </c>
       <c r="G135">
-        <v>1480.571</v>
+        <v>1516.143</v>
       </c>
       <c r="H135">
-        <v>892</v>
+        <v>896</v>
       </c>
       <c r="I135">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J135">
-        <v>3</v>
+        <v>3.429</v>
       </c>
       <c r="K135">
-        <v>58034.184</v>
+        <v>58537.8</v>
       </c>
       <c r="L135">
-        <v>561.573</v>
+        <v>503.616</v>
       </c>
       <c r="M135">
-        <v>451.629</v>
+        <v>462.48</v>
       </c>
       <c r="N135">
-        <v>272.093</v>
+        <v>273.313</v>
       </c>
       <c r="O135">
-        <v>0.305</v>
+        <v>1.22</v>
       </c>
       <c r="P135">
-        <v>0.915</v>
+        <v>1.046</v>
       </c>
       <c r="Q135">
         <v>1.03</v>
@@ -18784,40 +18787,40 @@
         <v>504</v>
       </c>
       <c r="E136">
-        <v>108742</v>
+        <v>109340</v>
       </c>
       <c r="F136">
-        <v>634</v>
+        <v>598</v>
       </c>
       <c r="G136">
-        <v>483.714</v>
+        <v>512.857</v>
       </c>
       <c r="H136">
-        <v>1663</v>
+        <v>1666</v>
       </c>
       <c r="I136">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J136">
-        <v>3.286</v>
+        <v>3.429</v>
       </c>
       <c r="K136">
-        <v>173138.958</v>
+        <v>174091.093</v>
       </c>
       <c r="L136">
-        <v>1009.454</v>
+        <v>952.135</v>
       </c>
       <c r="M136">
-        <v>770.17</v>
+        <v>816.571</v>
       </c>
       <c r="N136">
-        <v>2647.828</v>
+        <v>2652.604</v>
       </c>
       <c r="O136">
-        <v>1.592</v>
+        <v>4.777</v>
       </c>
       <c r="P136">
-        <v>5.232</v>
+        <v>5.459</v>
       </c>
       <c r="Q136">
         <v>1.45</v>
@@ -18906,40 +18909,40 @@
         <v>504</v>
       </c>
       <c r="E137">
-        <v>799775</v>
+        <v>806288</v>
       </c>
       <c r="F137">
-        <v>8216</v>
+        <v>6513</v>
       </c>
       <c r="G137">
-        <v>8277</v>
+        <v>7744.571</v>
       </c>
       <c r="H137">
-        <v>11587</v>
+        <v>11677</v>
       </c>
       <c r="I137">
-        <v>115</v>
+        <v>90</v>
       </c>
       <c r="J137">
-        <v>109.143</v>
+        <v>106.286</v>
       </c>
       <c r="K137">
-        <v>21667.92</v>
+        <v>21844.373</v>
       </c>
       <c r="L137">
-        <v>222.592</v>
+        <v>176.454</v>
       </c>
       <c r="M137">
-        <v>224.245</v>
+        <v>209.82</v>
       </c>
       <c r="N137">
-        <v>313.921</v>
+        <v>316.359</v>
       </c>
       <c r="O137">
-        <v>3.116</v>
+        <v>2.438</v>
       </c>
       <c r="P137">
-        <v>2.957</v>
+        <v>2.88</v>
       </c>
       <c r="Q137">
         <v>1.04</v>
@@ -18969,7 +18972,7 @@
         <v>4.7</v>
       </c>
       <c r="AH137" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="AI137">
         <v>30030540</v>
@@ -19055,40 +19058,40 @@
         <v>504</v>
       </c>
       <c r="E138">
-        <v>142013</v>
+        <v>142523</v>
       </c>
       <c r="F138">
-        <v>630</v>
+        <v>510</v>
       </c>
       <c r="G138">
-        <v>657.143</v>
+        <v>597</v>
       </c>
       <c r="H138">
-        <v>1783</v>
+        <v>1785</v>
       </c>
       <c r="I138">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="J138">
-        <v>13.286</v>
+        <v>11.143</v>
       </c>
       <c r="K138">
-        <v>4543.626</v>
+        <v>4559.943</v>
       </c>
       <c r="L138">
-        <v>20.156</v>
+        <v>16.317</v>
       </c>
       <c r="M138">
-        <v>21.025</v>
+        <v>19.101</v>
       </c>
       <c r="N138">
-        <v>57.046</v>
+        <v>57.11</v>
       </c>
       <c r="O138">
-        <v>0.32</v>
+        <v>0.064</v>
       </c>
       <c r="P138">
-        <v>0.425</v>
+        <v>0.357</v>
       </c>
       <c r="Q138">
         <v>0.78</v>
@@ -19118,7 +19121,7 @@
         <v>4.8</v>
       </c>
       <c r="AH138" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="AI138">
         <v>1864229</v>
@@ -19204,40 +19207,40 @@
         <v>504</v>
       </c>
       <c r="E139">
-        <v>368768</v>
+        <v>371512</v>
       </c>
       <c r="F139">
-        <v>3009</v>
+        <v>2744</v>
       </c>
       <c r="G139">
-        <v>2940.286</v>
+        <v>2843.857</v>
       </c>
       <c r="H139">
-        <v>14096</v>
+        <v>14236</v>
       </c>
       <c r="I139">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="J139">
-        <v>173.857</v>
+        <v>165.429</v>
       </c>
       <c r="K139">
-        <v>6777.603</v>
+        <v>6828.035</v>
       </c>
       <c r="L139">
-        <v>55.303</v>
+        <v>50.432</v>
       </c>
       <c r="M139">
-        <v>54.04</v>
+        <v>52.267</v>
       </c>
       <c r="N139">
-        <v>259.071</v>
+        <v>261.644</v>
       </c>
       <c r="O139">
-        <v>2.775</v>
+        <v>2.573</v>
       </c>
       <c r="P139">
-        <v>3.195</v>
+        <v>3.04</v>
       </c>
       <c r="Q139">
         <v>0.87</v>
@@ -19267,7 +19270,7 @@
         <v>3.9</v>
       </c>
       <c r="AH139" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="AT139">
         <v>66.2</v>
@@ -19332,40 +19335,40 @@
         <v>504</v>
       </c>
       <c r="E140">
-        <v>123242</v>
+        <v>123483</v>
       </c>
       <c r="F140">
-        <v>160</v>
+        <v>241</v>
       </c>
       <c r="G140">
-        <v>163.571</v>
+        <v>179.429</v>
       </c>
       <c r="H140">
-        <v>3325</v>
+        <v>3333</v>
       </c>
       <c r="I140">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J140">
-        <v>9</v>
+        <v>8.856999999999999</v>
       </c>
       <c r="K140">
-        <v>48502.981</v>
+        <v>48597.828</v>
       </c>
       <c r="L140">
-        <v>62.969</v>
+        <v>94.848</v>
       </c>
       <c r="M140">
-        <v>64.375</v>
+        <v>70.616</v>
       </c>
       <c r="N140">
-        <v>1308.583</v>
+        <v>1311.732</v>
       </c>
       <c r="O140">
-        <v>3.542</v>
+        <v>3.148</v>
       </c>
       <c r="P140">
-        <v>3.542</v>
+        <v>3.486</v>
       </c>
       <c r="Q140">
         <v>0.6899999999999999</v>
@@ -19395,7 +19398,7 @@
         <v>7.9</v>
       </c>
       <c r="AH140" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="AI140">
         <v>268556</v>
@@ -19484,40 +19487,40 @@
         <v>504</v>
       </c>
       <c r="E141">
-        <v>744307</v>
+        <v>745731</v>
       </c>
       <c r="F141">
-        <v>2079</v>
+        <v>1424</v>
       </c>
       <c r="G141">
-        <v>2253.571</v>
+        <v>2178.857</v>
       </c>
       <c r="H141">
-        <v>10455</v>
+        <v>10485</v>
       </c>
       <c r="I141">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J141">
-        <v>30.857</v>
+        <v>32.286</v>
       </c>
       <c r="K141">
-        <v>25545.248</v>
+        <v>25594.121</v>
       </c>
       <c r="L141">
-        <v>71.35299999999999</v>
+        <v>48.873</v>
       </c>
       <c r="M141">
-        <v>77.34399999999999</v>
+        <v>74.78</v>
       </c>
       <c r="N141">
-        <v>358.824</v>
+        <v>359.854</v>
       </c>
       <c r="O141">
-        <v>0.892</v>
+        <v>1.03</v>
       </c>
       <c r="P141">
-        <v>1.059</v>
+        <v>1.108</v>
       </c>
       <c r="Q141">
         <v>0.98</v>
@@ -19547,7 +19550,7 @@
         <v>4.5</v>
       </c>
       <c r="AH141" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="AI141">
         <v>8706701</v>
@@ -19639,40 +19642,40 @@
         <v>504</v>
       </c>
       <c r="E142">
-        <v>1947829</v>
+        <v>1950315</v>
       </c>
       <c r="F142">
-        <v>2478</v>
+        <v>2486</v>
       </c>
       <c r="G142">
-        <v>2578.429</v>
+        <v>2564.857</v>
       </c>
       <c r="H142">
-        <v>18258</v>
+        <v>18268</v>
       </c>
       <c r="I142">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="J142">
-        <v>7.714</v>
+        <v>8</v>
       </c>
       <c r="K142">
-        <v>113676.302</v>
+        <v>113821.386</v>
       </c>
       <c r="L142">
-        <v>144.617</v>
+        <v>145.084</v>
       </c>
       <c r="M142">
-        <v>150.478</v>
+        <v>149.686</v>
       </c>
       <c r="N142">
-        <v>1065.546</v>
+        <v>1066.13</v>
       </c>
       <c r="O142">
-        <v>0.35</v>
+        <v>0.584</v>
       </c>
       <c r="P142">
-        <v>0.45</v>
+        <v>0.467</v>
       </c>
       <c r="Q142">
         <v>0.98</v>
@@ -19720,7 +19723,7 @@
         <v>13.7</v>
       </c>
       <c r="AH142" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="AI142">
         <v>21731346</v>
@@ -19803,7 +19806,7 @@
         <v>427</v>
       </c>
       <c r="D143" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="AI143">
         <v>139022</v>
@@ -19865,13 +19868,13 @@
         <v>504</v>
       </c>
       <c r="E144">
-        <v>2993</v>
+        <v>3017</v>
       </c>
       <c r="F144">
         <v>24</v>
       </c>
       <c r="G144">
-        <v>11.143</v>
+        <v>13.857</v>
       </c>
       <c r="H144">
         <v>26</v>
@@ -19883,13 +19886,13 @@
         <v>0</v>
       </c>
       <c r="K144">
-        <v>620.667</v>
+        <v>625.644</v>
       </c>
       <c r="L144">
         <v>4.977</v>
       </c>
       <c r="M144">
-        <v>2.311</v>
+        <v>2.874</v>
       </c>
       <c r="N144">
         <v>5.392</v>
@@ -19928,7 +19931,7 @@
         <v>773.4</v>
       </c>
       <c r="AH144" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="AI144">
         <v>2610013</v>
@@ -20130,13 +20133,13 @@
         <v>504</v>
       </c>
       <c r="E146">
-        <v>5761</v>
+        <v>5767</v>
       </c>
       <c r="F146">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="G146">
-        <v>6</v>
+        <v>6.429</v>
       </c>
       <c r="H146">
         <v>196</v>
@@ -20148,13 +20151,13 @@
         <v>0</v>
       </c>
       <c r="K146">
-        <v>237.993</v>
+        <v>238.24</v>
       </c>
       <c r="L146">
-        <v>0.454</v>
+        <v>0.248</v>
       </c>
       <c r="M146">
-        <v>0.248</v>
+        <v>0.266</v>
       </c>
       <c r="N146">
         <v>8.097</v>
@@ -20258,37 +20261,37 @@
         <v>185571</v>
       </c>
       <c r="F147">
-        <v>304</v>
+        <v>0</v>
       </c>
       <c r="G147">
-        <v>610.571</v>
+        <v>515.571</v>
       </c>
       <c r="H147">
         <v>2247</v>
       </c>
       <c r="I147">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J147">
-        <v>5.143</v>
+        <v>4</v>
       </c>
       <c r="K147">
         <v>900.22</v>
       </c>
       <c r="L147">
-        <v>1.475</v>
+        <v>0</v>
       </c>
       <c r="M147">
-        <v>2.962</v>
+        <v>2.501</v>
       </c>
       <c r="N147">
         <v>10.9</v>
       </c>
       <c r="O147">
-        <v>0.015</v>
+        <v>0</v>
       </c>
       <c r="P147">
-        <v>0.025</v>
+        <v>0.019</v>
       </c>
       <c r="Q147">
         <v>1.04</v>
@@ -20312,7 +20315,7 @@
         <v>12</v>
       </c>
       <c r="AH147" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="AI147">
         <v>3967013</v>
@@ -20392,7 +20395,7 @@
         <v>432</v>
       </c>
       <c r="D148" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="AI148">
         <v>2406</v>
@@ -20424,40 +20427,40 @@
         <v>504</v>
       </c>
       <c r="E149">
-        <v>45125019</v>
+        <v>45222173</v>
       </c>
       <c r="F149">
-        <v>366954</v>
+        <v>97154</v>
       </c>
       <c r="G149">
-        <v>184511.857</v>
+        <v>186622.143</v>
       </c>
       <c r="H149">
-        <v>954403</v>
+        <v>955903</v>
       </c>
       <c r="I149">
-        <v>3712</v>
+        <v>1500</v>
       </c>
       <c r="J149">
-        <v>1875.429</v>
+        <v>1919.571</v>
       </c>
       <c r="K149">
-        <v>76215.399</v>
+        <v>76379.49000000001</v>
       </c>
       <c r="L149">
-        <v>619.779</v>
+        <v>164.091</v>
       </c>
       <c r="M149">
-        <v>311.637</v>
+        <v>315.202</v>
       </c>
       <c r="N149">
-        <v>1611.971</v>
+        <v>1614.504</v>
       </c>
       <c r="O149">
-        <v>6.27</v>
+        <v>2.533</v>
       </c>
       <c r="P149">
-        <v>3.168</v>
+        <v>3.242</v>
       </c>
       <c r="AI149">
         <v>539329780</v>
@@ -20504,40 +20507,40 @@
         <v>504</v>
       </c>
       <c r="E150">
-        <v>166741</v>
+        <v>167991</v>
       </c>
       <c r="F150">
-        <v>1057</v>
+        <v>1250</v>
       </c>
       <c r="G150">
-        <v>881.429</v>
+        <v>947.429</v>
       </c>
       <c r="H150">
-        <v>5632</v>
+        <v>5654</v>
       </c>
       <c r="I150">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J150">
-        <v>14.286</v>
+        <v>16</v>
       </c>
       <c r="K150">
-        <v>80033.887</v>
+        <v>80633.874</v>
       </c>
       <c r="L150">
-        <v>507.349</v>
+        <v>599.987</v>
       </c>
       <c r="M150">
-        <v>423.076</v>
+        <v>454.756</v>
       </c>
       <c r="N150">
-        <v>2703.299</v>
+        <v>2713.859</v>
       </c>
       <c r="O150">
-        <v>11.52</v>
+        <v>10.56</v>
       </c>
       <c r="P150">
-        <v>6.857</v>
+        <v>7.68</v>
       </c>
       <c r="Q150">
         <v>1.92</v>
@@ -20561,7 +20564,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AH150" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="AI150">
         <v>1115988</v>
@@ -20638,7 +20641,7 @@
         <v>434</v>
       </c>
       <c r="D151" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AI151">
         <v>302854</v>
@@ -20679,13 +20682,13 @@
         <v>504</v>
       </c>
       <c r="E152">
-        <v>147778</v>
+        <v>148055</v>
       </c>
       <c r="F152">
-        <v>720</v>
+        <v>277</v>
       </c>
       <c r="G152">
-        <v>573</v>
+        <v>574.2859999999999</v>
       </c>
       <c r="H152">
         <v>811</v>
@@ -20697,13 +20700,13 @@
         <v>0.429</v>
       </c>
       <c r="K152">
-        <v>27259.067</v>
+        <v>27310.163</v>
       </c>
       <c r="L152">
-        <v>132.811</v>
+        <v>51.095</v>
       </c>
       <c r="M152">
-        <v>105.695</v>
+        <v>105.932</v>
       </c>
       <c r="N152">
         <v>149.597</v>
@@ -20760,7 +20763,7 @@
         <v>30.4</v>
       </c>
       <c r="AH152" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="AI152">
         <v>6299964</v>
@@ -20846,40 +20849,40 @@
         <v>504</v>
       </c>
       <c r="E153">
-        <v>107074</v>
+        <v>108203</v>
       </c>
       <c r="F153">
-        <v>1400</v>
+        <v>1129</v>
       </c>
       <c r="G153">
-        <v>1172.143</v>
+        <v>1225.143</v>
       </c>
       <c r="H153">
-        <v>1629</v>
+        <v>1633</v>
       </c>
       <c r="I153">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="J153">
-        <v>13.857</v>
+        <v>12.571</v>
       </c>
       <c r="K153">
-        <v>2508.892</v>
+        <v>2535.346</v>
       </c>
       <c r="L153">
-        <v>32.804</v>
+        <v>26.454</v>
       </c>
       <c r="M153">
-        <v>27.465</v>
+        <v>28.707</v>
       </c>
       <c r="N153">
-        <v>38.17</v>
+        <v>38.263</v>
       </c>
       <c r="O153">
-        <v>0.305</v>
+        <v>0.094</v>
       </c>
       <c r="P153">
-        <v>0.325</v>
+        <v>0.295</v>
       </c>
       <c r="AI153">
         <v>20622133</v>
@@ -21048,40 +21051,40 @@
         <v>504</v>
       </c>
       <c r="E155">
-        <v>1119970</v>
+        <v>1123812</v>
       </c>
       <c r="F155">
-        <v>3084</v>
+        <v>3842</v>
       </c>
       <c r="G155">
-        <v>3610.143</v>
+        <v>3628.857</v>
       </c>
       <c r="H155">
-        <v>24848</v>
+        <v>24923</v>
       </c>
       <c r="I155">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="J155">
-        <v>72.714</v>
+        <v>73.857</v>
       </c>
       <c r="K155">
-        <v>5070.208</v>
+        <v>5087.601</v>
       </c>
       <c r="L155">
-        <v>13.962</v>
+        <v>17.393</v>
       </c>
       <c r="M155">
-        <v>16.343</v>
+        <v>16.428</v>
       </c>
       <c r="N155">
-        <v>112.489</v>
+        <v>112.829</v>
       </c>
       <c r="O155">
-        <v>0.294</v>
+        <v>0.34</v>
       </c>
       <c r="P155">
-        <v>0.329</v>
+        <v>0.334</v>
       </c>
       <c r="Q155">
         <v>0.99</v>
@@ -21111,7 +21114,7 @@
         <v>14.4</v>
       </c>
       <c r="AH155" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="AI155">
         <v>45540221</v>
@@ -21203,40 +21206,40 @@
         <v>504</v>
       </c>
       <c r="E156">
-        <v>324542</v>
+        <v>325404</v>
       </c>
       <c r="F156">
-        <v>960</v>
+        <v>862</v>
       </c>
       <c r="G156">
-        <v>699.429</v>
+        <v>767.143</v>
       </c>
       <c r="H156">
-        <v>3629</v>
+        <v>3632</v>
       </c>
       <c r="I156">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J156">
-        <v>1</v>
+        <v>1.286</v>
       </c>
       <c r="K156">
-        <v>63618.023</v>
+        <v>63786.996</v>
       </c>
       <c r="L156">
-        <v>188.183</v>
+        <v>168.973</v>
       </c>
       <c r="M156">
-        <v>137.105</v>
+        <v>150.378</v>
       </c>
       <c r="N156">
-        <v>711.371</v>
+        <v>711.9589999999999</v>
       </c>
       <c r="O156">
-        <v>0.196</v>
+        <v>0.588</v>
       </c>
       <c r="P156">
-        <v>0.196</v>
+        <v>0.252</v>
       </c>
       <c r="Q156">
         <v>2.38</v>
@@ -21260,7 +21263,7 @@
         <v>8.699999999999999</v>
       </c>
       <c r="AH156" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="AI156">
         <v>1078213</v>
@@ -21337,40 +21340,40 @@
         <v>504</v>
       </c>
       <c r="E157">
-        <v>451293</v>
+        <v>451984</v>
       </c>
       <c r="F157">
-        <v>669</v>
+        <v>691</v>
       </c>
       <c r="G157">
-        <v>697.7140000000001</v>
+        <v>674.7140000000001</v>
       </c>
       <c r="H157">
-        <v>6998</v>
+        <v>7003</v>
       </c>
       <c r="I157">
+        <v>5</v>
+      </c>
+      <c r="J157">
         <v>8</v>
       </c>
-      <c r="J157">
-        <v>8.429</v>
-      </c>
       <c r="K157">
-        <v>104592.646</v>
+        <v>104752.793</v>
       </c>
       <c r="L157">
-        <v>155.049</v>
+        <v>160.148</v>
       </c>
       <c r="M157">
-        <v>161.704</v>
+        <v>156.373</v>
       </c>
       <c r="N157">
-        <v>1621.872</v>
+        <v>1623.03</v>
       </c>
       <c r="O157">
+        <v>1.159</v>
+      </c>
+      <c r="P157">
         <v>1.854</v>
-      </c>
-      <c r="P157">
-        <v>1.953</v>
       </c>
       <c r="Q157">
         <v>0.9</v>
@@ -21400,7 +21403,7 @@
         <v>13.6</v>
       </c>
       <c r="AH157" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="AI157">
         <v>3644906</v>
@@ -21599,40 +21602,40 @@
         <v>504</v>
       </c>
       <c r="E159">
-        <v>457472</v>
+        <v>457612</v>
       </c>
       <c r="F159">
-        <v>123</v>
+        <v>140</v>
       </c>
       <c r="G159">
-        <v>141.143</v>
+        <v>146.143</v>
       </c>
       <c r="H159">
-        <v>15528</v>
+        <v>15550</v>
       </c>
       <c r="I159">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J159">
-        <v>18</v>
+        <v>18.571</v>
       </c>
       <c r="K159">
-        <v>64138.812</v>
+        <v>64158.44</v>
       </c>
       <c r="L159">
-        <v>17.245</v>
+        <v>19.628</v>
       </c>
       <c r="M159">
-        <v>19.789</v>
+        <v>20.49</v>
       </c>
       <c r="N159">
-        <v>2177.068</v>
+        <v>2180.152</v>
       </c>
       <c r="O159">
-        <v>2.804</v>
+        <v>3.084</v>
       </c>
       <c r="P159">
-        <v>2.524</v>
+        <v>2.604</v>
       </c>
       <c r="Q159">
         <v>0.6</v>
@@ -21662,7 +21665,7 @@
         <v>19.9</v>
       </c>
       <c r="AH159" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="AI159">
         <v>3611565</v>
@@ -21687,6 +21690,9 @@
       </c>
       <c r="AS159">
         <v>10694</v>
+      </c>
+      <c r="AT159">
+        <v>34.26</v>
       </c>
       <c r="AU159">
         <v>7132530</v>
@@ -21751,37 +21757,37 @@
         <v>2140062</v>
       </c>
       <c r="F160">
-        <v>1396</v>
+        <v>0</v>
       </c>
       <c r="G160">
-        <v>1246.429</v>
+        <v>1032.571</v>
       </c>
       <c r="H160">
         <v>197752</v>
       </c>
       <c r="I160">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="J160">
-        <v>67.571</v>
+        <v>58.857</v>
       </c>
       <c r="K160">
         <v>64905.738</v>
       </c>
       <c r="L160">
-        <v>42.339</v>
+        <v>0</v>
       </c>
       <c r="M160">
-        <v>37.803</v>
+        <v>31.317</v>
       </c>
       <c r="N160">
         <v>5997.602</v>
       </c>
       <c r="O160">
-        <v>1.092</v>
+        <v>0</v>
       </c>
       <c r="P160">
-        <v>2.049</v>
+        <v>1.785</v>
       </c>
       <c r="Q160">
         <v>0.93</v>
@@ -21811,7 +21817,7 @@
         <v>20.8</v>
       </c>
       <c r="AH160" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="AI160">
         <v>16518355</v>
@@ -21900,40 +21906,40 @@
         <v>504</v>
       </c>
       <c r="E161">
-        <v>1807800</v>
+        <v>1824051</v>
       </c>
       <c r="F161">
-        <v>16797</v>
+        <v>16251</v>
       </c>
       <c r="G161">
-        <v>13499.714</v>
+        <v>13831.429</v>
       </c>
       <c r="H161">
-        <v>31198</v>
+        <v>31596</v>
       </c>
       <c r="I161">
-        <v>317</v>
+        <v>398</v>
       </c>
       <c r="J161">
-        <v>194.286</v>
+        <v>218</v>
       </c>
       <c r="K161">
-        <v>16497.373</v>
+        <v>16645.674</v>
       </c>
       <c r="L161">
-        <v>153.284</v>
+        <v>148.301</v>
       </c>
       <c r="M161">
-        <v>123.194</v>
+        <v>126.221</v>
       </c>
       <c r="N161">
-        <v>284.702</v>
+        <v>288.334</v>
       </c>
       <c r="O161">
-        <v>2.893</v>
+        <v>3.632</v>
       </c>
       <c r="P161">
-        <v>1.773</v>
+        <v>1.989</v>
       </c>
       <c r="Q161">
         <v>1.21</v>
@@ -21963,7 +21969,7 @@
         <v>4.5</v>
       </c>
       <c r="AH161" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="AI161">
         <v>29127240</v>
@@ -22052,40 +22058,40 @@
         <v>504</v>
       </c>
       <c r="E162">
-        <v>2886291</v>
+        <v>2886513</v>
       </c>
       <c r="F162">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="G162">
-        <v>188.143</v>
+        <v>189.714</v>
       </c>
       <c r="H162">
-        <v>75315</v>
+        <v>75316</v>
       </c>
       <c r="I162">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J162">
-        <v>2.571</v>
+        <v>2.429</v>
       </c>
       <c r="K162">
-        <v>76262.87699999999</v>
+        <v>76268.743</v>
       </c>
       <c r="L162">
-        <v>5.602</v>
+        <v>5.866</v>
       </c>
       <c r="M162">
-        <v>4.971</v>
+        <v>5.013</v>
       </c>
       <c r="N162">
-        <v>1990.007</v>
+        <v>1990.033</v>
       </c>
       <c r="O162">
-        <v>0.106</v>
+        <v>0.026</v>
       </c>
       <c r="P162">
-        <v>0.068</v>
+        <v>0.064</v>
       </c>
       <c r="Q162">
         <v>1.15</v>
@@ -22121,7 +22127,7 @@
         <v>210.9</v>
       </c>
       <c r="AH162" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="AI162">
         <v>35690920</v>
@@ -22207,40 +22213,40 @@
         <v>504</v>
       </c>
       <c r="E163">
-        <v>1014632</v>
+        <v>1017308</v>
       </c>
       <c r="F163">
-        <v>2507</v>
+        <v>2676</v>
       </c>
       <c r="G163">
-        <v>2297.857</v>
+        <v>2312.857</v>
       </c>
       <c r="H163">
-        <v>17622</v>
+        <v>17630</v>
       </c>
       <c r="I163">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J163">
-        <v>12.143</v>
+        <v>11.571</v>
       </c>
       <c r="K163">
-        <v>99505.85000000001</v>
+        <v>99768.288</v>
       </c>
       <c r="L163">
-        <v>245.864</v>
+        <v>262.438</v>
       </c>
       <c r="M163">
-        <v>225.353</v>
+        <v>226.824</v>
       </c>
       <c r="N163">
-        <v>1728.205</v>
+        <v>1728.99</v>
       </c>
       <c r="O163">
-        <v>0.883</v>
+        <v>0.785</v>
       </c>
       <c r="P163">
-        <v>1.191</v>
+        <v>1.135</v>
       </c>
       <c r="Q163">
         <v>0.98</v>
@@ -22288,7 +22294,7 @@
         <v>24.6</v>
       </c>
       <c r="AH163" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="AI163">
         <v>13945281</v>
@@ -22377,13 +22383,13 @@
         <v>504</v>
       </c>
       <c r="E164">
-        <v>230442</v>
+        <v>230632</v>
       </c>
       <c r="F164">
-        <v>221</v>
+        <v>190</v>
       </c>
       <c r="G164">
-        <v>236.429</v>
+        <v>235.857</v>
       </c>
       <c r="H164">
         <v>601</v>
@@ -22395,13 +22401,13 @@
         <v>0</v>
       </c>
       <c r="K164">
-        <v>79985.144</v>
+        <v>80051.092</v>
       </c>
       <c r="L164">
-        <v>76.708</v>
+        <v>65.94799999999999</v>
       </c>
       <c r="M164">
-        <v>82.063</v>
+        <v>81.86499999999999</v>
       </c>
       <c r="N164">
         <v>208.604</v>
@@ -22440,7 +22446,7 @@
         <v>25.6</v>
       </c>
       <c r="AH164" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="AI164">
         <v>4228126</v>
@@ -22523,40 +22529,40 @@
         <v>504</v>
       </c>
       <c r="E165">
-        <v>1089817</v>
+        <v>1090408</v>
       </c>
       <c r="F165">
-        <v>628</v>
+        <v>591</v>
       </c>
       <c r="G165">
-        <v>475</v>
+        <v>501.143</v>
       </c>
       <c r="H165">
-        <v>34388</v>
+        <v>34403</v>
       </c>
       <c r="I165">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="J165">
-        <v>7.286</v>
+        <v>8.714</v>
       </c>
       <c r="K165">
-        <v>56650.12</v>
+        <v>56680.841</v>
       </c>
       <c r="L165">
-        <v>32.644</v>
+        <v>30.721</v>
       </c>
       <c r="M165">
-        <v>24.691</v>
+        <v>26.05</v>
       </c>
       <c r="N165">
-        <v>1787.533</v>
+        <v>1788.313</v>
       </c>
       <c r="O165">
-        <v>0.468</v>
+        <v>0.78</v>
       </c>
       <c r="P165">
-        <v>0.379</v>
+        <v>0.453</v>
       </c>
       <c r="Q165">
         <v>1.44</v>
@@ -22592,7 +22598,7 @@
         <v>27.8</v>
       </c>
       <c r="AH165" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="AI165">
         <v>9640934</v>
@@ -22681,40 +22687,40 @@
         <v>504</v>
       </c>
       <c r="E166">
-        <v>6613107</v>
+        <v>6633521</v>
       </c>
       <c r="F166">
-        <v>20402</v>
+        <v>20414</v>
       </c>
       <c r="G166">
-        <v>20602.429</v>
+        <v>20442.857</v>
       </c>
       <c r="H166">
-        <v>171480</v>
+        <v>172257</v>
       </c>
       <c r="I166">
-        <v>764</v>
+        <v>777</v>
       </c>
       <c r="J166">
-        <v>783.429</v>
+        <v>780.2859999999999</v>
       </c>
       <c r="K166">
-        <v>45315.596</v>
+        <v>45455.48</v>
       </c>
       <c r="L166">
-        <v>139.802</v>
+        <v>139.885</v>
       </c>
       <c r="M166">
-        <v>141.176</v>
+        <v>140.082</v>
       </c>
       <c r="N166">
-        <v>1175.048</v>
+        <v>1180.372</v>
       </c>
       <c r="O166">
-        <v>5.235</v>
+        <v>5.324</v>
       </c>
       <c r="P166">
-        <v>5.368</v>
+        <v>5.347</v>
       </c>
       <c r="Q166">
         <v>0.96</v>
@@ -22738,7 +22744,7 @@
         <v>20.8</v>
       </c>
       <c r="AH166" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="AI166">
         <v>75677887</v>
@@ -22827,40 +22833,40 @@
         <v>504</v>
       </c>
       <c r="E167">
-        <v>82215</v>
+        <v>82630</v>
       </c>
       <c r="F167">
-        <v>380</v>
+        <v>415</v>
       </c>
       <c r="G167">
-        <v>485.286</v>
+        <v>478</v>
       </c>
       <c r="H167">
-        <v>1005</v>
+        <v>1010</v>
       </c>
       <c r="I167">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="J167">
-        <v>9.571</v>
+        <v>8.714</v>
       </c>
       <c r="K167">
-        <v>6347.566</v>
+        <v>6379.607</v>
       </c>
       <c r="L167">
-        <v>29.339</v>
+        <v>32.041</v>
       </c>
       <c r="M167">
-        <v>37.467</v>
+        <v>36.905</v>
       </c>
       <c r="N167">
-        <v>77.593</v>
+        <v>77.979</v>
       </c>
       <c r="O167">
-        <v>0.695</v>
+        <v>0.386</v>
       </c>
       <c r="P167">
-        <v>0.739</v>
+        <v>0.673</v>
       </c>
       <c r="Q167">
         <v>0.85</v>
@@ -22890,7 +22896,7 @@
         <v>20.4</v>
       </c>
       <c r="AH167" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="AI167">
         <v>1344627</v>
@@ -22976,13 +22982,13 @@
         <v>504</v>
       </c>
       <c r="E168">
-        <v>773</v>
+        <v>792</v>
       </c>
       <c r="F168">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="G168">
-        <v>19.571</v>
+        <v>21.429</v>
       </c>
       <c r="H168">
         <v>3</v>
@@ -22994,13 +23000,13 @@
         <v>0</v>
       </c>
       <c r="K168">
-        <v>14532.26</v>
+        <v>14889.457</v>
       </c>
       <c r="L168">
-        <v>582.794</v>
+        <v>357.197</v>
       </c>
       <c r="M168">
-        <v>367.939</v>
+        <v>402.853</v>
       </c>
       <c r="N168">
         <v>56.399</v>
@@ -23039,7 +23045,7 @@
         <v>9.1</v>
       </c>
       <c r="AH168" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="AI168">
         <v>44124</v>
@@ -23104,10 +23110,10 @@
         <v>6955</v>
       </c>
       <c r="F169">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="G169">
-        <v>108.714</v>
+        <v>95.429</v>
       </c>
       <c r="H169">
         <v>97</v>
@@ -23122,10 +23128,10 @@
         <v>37875.281</v>
       </c>
       <c r="L169">
-        <v>533.6849999999999</v>
+        <v>0</v>
       </c>
       <c r="M169">
-        <v>592.032</v>
+        <v>519.681</v>
       </c>
       <c r="N169">
         <v>528.239</v>
@@ -23526,13 +23532,13 @@
         <v>504</v>
       </c>
       <c r="E173">
-        <v>2517</v>
+        <v>2524</v>
       </c>
       <c r="F173">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="G173">
-        <v>5</v>
+        <v>5.143</v>
       </c>
       <c r="H173">
         <v>37</v>
@@ -23544,13 +23550,13 @@
         <v>0</v>
       </c>
       <c r="K173">
-        <v>11484.708</v>
+        <v>11516.648</v>
       </c>
       <c r="L173">
-        <v>68.443</v>
+        <v>31.94</v>
       </c>
       <c r="M173">
-        <v>22.814</v>
+        <v>23.466</v>
       </c>
       <c r="N173">
         <v>168.826</v>
@@ -23642,40 +23648,40 @@
         <v>504</v>
       </c>
       <c r="E174">
-        <v>540244</v>
+        <v>541201</v>
       </c>
       <c r="F174">
-        <v>0</v>
+        <v>957</v>
       </c>
       <c r="G174">
-        <v>410</v>
+        <v>546.7140000000001</v>
       </c>
       <c r="H174">
-        <v>8439</v>
+        <v>8457</v>
       </c>
       <c r="I174">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="J174">
-        <v>7.286</v>
+        <v>9.856999999999999</v>
       </c>
       <c r="K174">
-        <v>15518.069</v>
+        <v>15545.558</v>
       </c>
       <c r="L174">
-        <v>0</v>
+        <v>27.489</v>
       </c>
       <c r="M174">
-        <v>11.777</v>
+        <v>15.704</v>
       </c>
       <c r="N174">
-        <v>242.403</v>
+        <v>242.92</v>
       </c>
       <c r="O174">
-        <v>0</v>
+        <v>0.517</v>
       </c>
       <c r="P174">
-        <v>0.209</v>
+        <v>0.283</v>
       </c>
       <c r="Q174">
         <v>0.83</v>
@@ -23705,7 +23711,7 @@
         <v>73.40000000000001</v>
       </c>
       <c r="AH174" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="AI174">
         <v>33487478</v>
@@ -23788,40 +23794,40 @@
         <v>504</v>
       </c>
       <c r="E175">
-        <v>71628</v>
+        <v>71772</v>
       </c>
       <c r="F175">
-        <v>187</v>
+        <v>144</v>
       </c>
       <c r="G175">
-        <v>214.714</v>
+        <v>194.143</v>
       </c>
       <c r="H175">
-        <v>1648</v>
+        <v>1659</v>
       </c>
       <c r="I175">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="J175">
-        <v>11.143</v>
+        <v>10.286</v>
       </c>
       <c r="K175">
-        <v>4277.849</v>
+        <v>4286.449</v>
       </c>
       <c r="L175">
-        <v>11.168</v>
+        <v>8.6</v>
       </c>
       <c r="M175">
-        <v>12.823</v>
+        <v>11.595</v>
       </c>
       <c r="N175">
-        <v>98.42400000000001</v>
+        <v>99.081</v>
       </c>
       <c r="O175">
-        <v>0.418</v>
+        <v>0.657</v>
       </c>
       <c r="P175">
-        <v>0.665</v>
+        <v>0.614</v>
       </c>
       <c r="Q175">
         <v>0.63</v>
@@ -23851,7 +23857,7 @@
         <v>11.3</v>
       </c>
       <c r="AH175" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="AI175">
         <v>1483312</v>
@@ -23937,40 +23943,40 @@
         <v>504</v>
       </c>
       <c r="E176">
-        <v>739561</v>
+        <v>741071</v>
       </c>
       <c r="F176">
-        <v>1592</v>
+        <v>1510</v>
       </c>
       <c r="G176">
-        <v>1334.143</v>
+        <v>1406.286</v>
       </c>
       <c r="H176">
-        <v>7195</v>
+        <v>7206</v>
       </c>
       <c r="I176">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="J176">
-        <v>5.286</v>
+        <v>6.143</v>
       </c>
       <c r="K176">
-        <v>108685.512</v>
+        <v>108907.421</v>
       </c>
       <c r="L176">
-        <v>233.96</v>
+        <v>221.909</v>
       </c>
       <c r="M176">
-        <v>196.065</v>
+        <v>206.667</v>
       </c>
       <c r="N176">
-        <v>1057.374</v>
+        <v>1058.99</v>
       </c>
       <c r="O176">
-        <v>1.029</v>
+        <v>1.617</v>
       </c>
       <c r="P176">
-        <v>0.777</v>
+        <v>0.903</v>
       </c>
       <c r="Q176">
         <v>1.58</v>
@@ -24000,7 +24006,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="AH176" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="AI176">
         <v>5670011</v>
@@ -24220,7 +24226,7 @@
         <v>0</v>
       </c>
       <c r="G178">
-        <v>2</v>
+        <v>1.286</v>
       </c>
       <c r="H178">
         <v>121</v>
@@ -24238,7 +24244,7 @@
         <v>0</v>
       </c>
       <c r="M178">
-        <v>0.251</v>
+        <v>0.161</v>
       </c>
       <c r="N178">
         <v>15.169</v>
@@ -24312,37 +24318,37 @@
         <v>504</v>
       </c>
       <c r="E179">
-        <v>66406</v>
+        <v>66443</v>
       </c>
       <c r="F179">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G179">
-        <v>49.286</v>
+        <v>46.286</v>
       </c>
       <c r="H179">
         <v>47</v>
       </c>
       <c r="I179">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J179">
         <v>0.429</v>
       </c>
       <c r="K179">
-        <v>11350.787</v>
+        <v>11357.112</v>
       </c>
       <c r="L179">
-        <v>6.837</v>
+        <v>6.324</v>
       </c>
       <c r="M179">
-        <v>8.423999999999999</v>
+        <v>7.912</v>
       </c>
       <c r="N179">
         <v>8.034000000000001</v>
       </c>
       <c r="O179">
-        <v>0.171</v>
+        <v>0</v>
       </c>
       <c r="P179">
         <v>0.073</v>
@@ -24369,7 +24375,7 @@
         <v>801.8</v>
       </c>
       <c r="AH179" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="AI179">
         <v>8681501</v>
@@ -24452,7 +24458,7 @@
         <v>462</v>
       </c>
       <c r="D180" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="AI180">
         <v>47084</v>
@@ -24505,10 +24511,10 @@
         <v>504</v>
       </c>
       <c r="E181">
-        <v>393883</v>
+        <v>393977</v>
       </c>
       <c r="F181">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="G181">
         <v>74.571</v>
@@ -24523,10 +24529,10 @@
         <v>0.429</v>
       </c>
       <c r="K181">
-        <v>72144.461</v>
+        <v>72161.678</v>
       </c>
       <c r="L181">
-        <v>15.386</v>
+        <v>17.217</v>
       </c>
       <c r="M181">
         <v>13.659</v>
@@ -24580,7 +24586,7 @@
         <v>142.9</v>
       </c>
       <c r="AH181" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="AI181">
         <v>4455459</v>
@@ -24666,13 +24672,13 @@
         <v>504</v>
       </c>
       <c r="E182">
-        <v>262904</v>
+        <v>263303</v>
       </c>
       <c r="F182">
-        <v>333</v>
+        <v>399</v>
       </c>
       <c r="G182">
-        <v>262.286</v>
+        <v>281.429</v>
       </c>
       <c r="H182">
         <v>4438</v>
@@ -24684,13 +24690,13 @@
         <v>0.714</v>
       </c>
       <c r="K182">
-        <v>126461.087</v>
+        <v>126653.012</v>
       </c>
       <c r="L182">
-        <v>160.178</v>
+        <v>191.925</v>
       </c>
       <c r="M182">
-        <v>126.164</v>
+        <v>135.372</v>
       </c>
       <c r="N182">
         <v>2134.75</v>
@@ -24753,7 +24759,7 @@
         <v>6.9</v>
       </c>
       <c r="AH182" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="AI182">
         <v>1843331</v>
@@ -24946,7 +24952,7 @@
         <v>0</v>
       </c>
       <c r="G184">
-        <v>48.571</v>
+        <v>38.571</v>
       </c>
       <c r="H184">
         <v>897</v>
@@ -24955,7 +24961,7 @@
         <v>0</v>
       </c>
       <c r="J184">
-        <v>3.857</v>
+        <v>2.714</v>
       </c>
       <c r="K184">
         <v>1040.381</v>
@@ -24964,7 +24970,7 @@
         <v>0</v>
       </c>
       <c r="M184">
-        <v>3.056</v>
+        <v>2.427</v>
       </c>
       <c r="N184">
         <v>56.439</v>
@@ -24973,7 +24979,7 @@
         <v>0</v>
       </c>
       <c r="P184">
-        <v>0.243</v>
+        <v>0.171</v>
       </c>
       <c r="Q184">
         <v>1.34</v>
@@ -25026,40 +25032,40 @@
         <v>504</v>
       </c>
       <c r="E185">
-        <v>2666964</v>
+        <v>2680225</v>
       </c>
       <c r="F185">
-        <v>14312</v>
+        <v>13261</v>
       </c>
       <c r="G185">
-        <v>12076.714</v>
+        <v>12111.143</v>
       </c>
       <c r="H185">
-        <v>78983</v>
+        <v>79251</v>
       </c>
       <c r="I185">
-        <v>289</v>
+        <v>268</v>
       </c>
       <c r="J185">
-        <v>336</v>
+        <v>340.286</v>
       </c>
       <c r="K185">
-        <v>44967.508</v>
+        <v>45191.101</v>
       </c>
       <c r="L185">
-        <v>241.314</v>
+        <v>223.593</v>
       </c>
       <c r="M185">
-        <v>203.625</v>
+        <v>204.205</v>
       </c>
       <c r="N185">
-        <v>1331.727</v>
+        <v>1336.246</v>
       </c>
       <c r="O185">
-        <v>4.873</v>
+        <v>4.519</v>
       </c>
       <c r="P185">
-        <v>5.665</v>
+        <v>5.738</v>
       </c>
       <c r="Q185">
         <v>1.12</v>
@@ -25151,40 +25157,40 @@
         <v>504</v>
       </c>
       <c r="E186">
-        <v>36505185</v>
+        <v>36546835</v>
       </c>
       <c r="F186">
-        <v>49009</v>
+        <v>41650</v>
       </c>
       <c r="G186">
-        <v>44282.714</v>
+        <v>43807.286</v>
       </c>
       <c r="H186">
-        <v>1118852</v>
+        <v>1119925</v>
       </c>
       <c r="I186">
-        <v>1345</v>
+        <v>1073</v>
       </c>
       <c r="J186">
-        <v>1277</v>
+        <v>1241.286</v>
       </c>
       <c r="K186">
-        <v>84746.03999999999</v>
+        <v>84842.73</v>
       </c>
       <c r="L186">
-        <v>113.773</v>
+        <v>96.69</v>
       </c>
       <c r="M186">
-        <v>102.801</v>
+        <v>101.698</v>
       </c>
       <c r="N186">
-        <v>2597.392</v>
+        <v>2599.883</v>
       </c>
       <c r="O186">
-        <v>3.122</v>
+        <v>2.491</v>
       </c>
       <c r="P186">
-        <v>2.965</v>
+        <v>2.882</v>
       </c>
       <c r="AI186">
         <v>324023697</v>
@@ -25237,40 +25243,40 @@
         <v>504</v>
       </c>
       <c r="E187">
-        <v>234739</v>
+        <v>236366</v>
       </c>
       <c r="F187">
-        <v>1880</v>
+        <v>1627</v>
       </c>
       <c r="G187">
-        <v>1804</v>
+        <v>1776.857</v>
       </c>
       <c r="H187">
-        <v>2202</v>
+        <v>2215</v>
       </c>
       <c r="I187">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="J187">
-        <v>7.714</v>
+        <v>8.429</v>
       </c>
       <c r="K187">
-        <v>4578.559</v>
+        <v>4610.294</v>
       </c>
       <c r="L187">
-        <v>36.669</v>
+        <v>31.734</v>
       </c>
       <c r="M187">
-        <v>35.187</v>
+        <v>34.657</v>
       </c>
       <c r="N187">
-        <v>42.95</v>
+        <v>43.203</v>
       </c>
       <c r="O187">
-        <v>0.098</v>
+        <v>0.254</v>
       </c>
       <c r="P187">
-        <v>0.15</v>
+        <v>0.164</v>
       </c>
       <c r="Q187">
         <v>1.01</v>
@@ -25300,7 +25306,7 @@
         <v>13.3</v>
       </c>
       <c r="AH187" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="AI187">
         <v>35811299</v>
@@ -25392,7 +25398,7 @@
         <v>11243</v>
       </c>
       <c r="F188">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="G188">
         <v>10.143</v>
@@ -25410,7 +25416,7 @@
         <v>1004.402</v>
       </c>
       <c r="L188">
-        <v>1.429</v>
+        <v>0</v>
       </c>
       <c r="M188">
         <v>0.906</v>
@@ -25475,7 +25481,7 @@
         <v>4770453</v>
       </c>
       <c r="F189">
-        <v>12450</v>
+        <v>0</v>
       </c>
       <c r="G189">
         <v>10987.571</v>
@@ -25484,7 +25490,7 @@
         <v>83136</v>
       </c>
       <c r="I189">
-        <v>132</v>
+        <v>0</v>
       </c>
       <c r="J189">
         <v>95.143</v>
@@ -25493,7 +25499,7 @@
         <v>102031.337</v>
       </c>
       <c r="L189">
-        <v>266.283</v>
+        <v>0</v>
       </c>
       <c r="M189">
         <v>235.004</v>
@@ -25502,7 +25508,7 @@
         <v>1778.128</v>
       </c>
       <c r="O189">
-        <v>2.823</v>
+        <v>0</v>
       </c>
       <c r="P189">
         <v>2.035</v>
@@ -25541,7 +25547,7 @@
         <v>8.300000000000001</v>
       </c>
       <c r="AH189" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="AI189">
         <v>63090941</v>
@@ -25630,40 +25636,40 @@
         <v>504</v>
       </c>
       <c r="E190">
-        <v>381812</v>
+        <v>385696</v>
       </c>
       <c r="F190">
-        <v>8647</v>
+        <v>3884</v>
       </c>
       <c r="G190">
-        <v>4791.714</v>
+        <v>4880.429</v>
       </c>
       <c r="H190">
-        <v>6985</v>
+        <v>7183</v>
       </c>
       <c r="I190">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="J190">
-        <v>172.714</v>
+        <v>178.143</v>
       </c>
       <c r="K190">
-        <v>17830.642</v>
+        <v>18012.025</v>
       </c>
       <c r="L190">
-        <v>403.815</v>
+        <v>181.383</v>
       </c>
       <c r="M190">
-        <v>223.773</v>
+        <v>227.916</v>
       </c>
       <c r="N190">
-        <v>326.2</v>
+        <v>335.447</v>
       </c>
       <c r="O190">
-        <v>9.106999999999999</v>
+        <v>9.247</v>
       </c>
       <c r="P190">
-        <v>8.066000000000001</v>
+        <v>8.319000000000001</v>
       </c>
       <c r="Q190">
         <v>1.28</v>
@@ -25693,7 +25699,7 @@
         <v>2.7</v>
       </c>
       <c r="AH190" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="AI190">
         <v>17068274</v>
@@ -25785,7 +25791,7 @@
         <v>37620</v>
       </c>
       <c r="F191">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G191">
         <v>11</v>
@@ -25803,7 +25809,7 @@
         <v>857.939</v>
       </c>
       <c r="L191">
-        <v>0.091</v>
+        <v>0</v>
       </c>
       <c r="M191">
         <v>0.251</v>
@@ -25895,40 +25901,40 @@
         <v>504</v>
       </c>
       <c r="E192">
-        <v>27210</v>
+        <v>27371</v>
       </c>
       <c r="F192">
-        <v>140</v>
+        <v>161</v>
       </c>
       <c r="G192">
-        <v>111</v>
+        <v>118.857</v>
       </c>
       <c r="H192">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="I192">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J192">
-        <v>2.857</v>
+        <v>2.429</v>
       </c>
       <c r="K192">
-        <v>46383.265</v>
+        <v>46657.712</v>
       </c>
       <c r="L192">
-        <v>238.65</v>
+        <v>274.447</v>
       </c>
       <c r="M192">
-        <v>189.215</v>
+        <v>202.609</v>
       </c>
       <c r="N192">
-        <v>1186.43</v>
+        <v>1188.134</v>
       </c>
       <c r="O192">
-        <v>0</v>
+        <v>1.705</v>
       </c>
       <c r="P192">
-        <v>4.87</v>
+        <v>4.14</v>
       </c>
       <c r="Q192">
         <v>1.12</v>
@@ -26023,7 +26029,7 @@
         <v>1116584</v>
       </c>
       <c r="F193">
-        <v>1018</v>
+        <v>0</v>
       </c>
       <c r="G193">
         <v>919.571</v>
@@ -26032,7 +26038,7 @@
         <v>14668</v>
       </c>
       <c r="I193">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J193">
         <v>1.429</v>
@@ -26041,7 +26047,7 @@
         <v>110560.862</v>
       </c>
       <c r="L193">
-        <v>100.799</v>
+        <v>0</v>
       </c>
       <c r="M193">
         <v>91.053</v>
@@ -26050,7 +26056,7 @@
         <v>1452.382</v>
       </c>
       <c r="O193">
-        <v>0.396</v>
+        <v>0</v>
       </c>
       <c r="P193">
         <v>0.141</v>
@@ -26095,7 +26101,7 @@
         <v>18.5</v>
       </c>
       <c r="AH193" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="AI193">
         <v>11768102</v>
@@ -26187,37 +26193,37 @@
         <v>752761</v>
       </c>
       <c r="F194">
-        <v>2575</v>
+        <v>0</v>
       </c>
       <c r="G194">
         <v>2483.714</v>
       </c>
       <c r="H194">
-        <v>10940</v>
+        <v>10941</v>
       </c>
       <c r="I194">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J194">
-        <v>2.429</v>
+        <v>2.571</v>
       </c>
       <c r="K194">
         <v>86977.958</v>
       </c>
       <c r="L194">
-        <v>297.529</v>
+        <v>0</v>
       </c>
       <c r="M194">
         <v>286.981</v>
       </c>
       <c r="N194">
-        <v>1264.065</v>
+        <v>1264.181</v>
       </c>
       <c r="O194">
-        <v>0.6929999999999999</v>
+        <v>0.116</v>
       </c>
       <c r="P194">
-        <v>0.281</v>
+        <v>0.297</v>
       </c>
       <c r="Q194">
         <v>1.68</v>
@@ -26265,7 +26271,7 @@
         <v>7.6</v>
       </c>
       <c r="AH194" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="AI194">
         <v>9357531</v>
@@ -26351,40 +26357,40 @@
         <v>504</v>
       </c>
       <c r="E195">
-        <v>26719</v>
+        <v>26799</v>
       </c>
       <c r="F195">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="G195">
-        <v>67.429</v>
+        <v>72.429</v>
       </c>
       <c r="H195">
-        <v>1959</v>
+        <v>1964</v>
       </c>
       <c r="I195">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J195">
-        <v>3.714</v>
+        <v>4.143</v>
       </c>
       <c r="K195">
-        <v>1526.743</v>
+        <v>1531.314</v>
       </c>
       <c r="L195">
-        <v>4.857</v>
+        <v>4.571</v>
       </c>
       <c r="M195">
-        <v>3.853</v>
+        <v>4.139</v>
       </c>
       <c r="N195">
-        <v>111.939</v>
+        <v>112.224</v>
       </c>
       <c r="O195">
-        <v>0.343</v>
+        <v>0.286</v>
       </c>
       <c r="P195">
-        <v>0.212</v>
+        <v>0.237</v>
       </c>
       <c r="Q195">
         <v>1.87</v>
@@ -26443,40 +26449,40 @@
         <v>504</v>
       </c>
       <c r="E196">
-        <v>15906</v>
+        <v>15916</v>
       </c>
       <c r="F196">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G196">
-        <v>10</v>
+        <v>10.429</v>
       </c>
       <c r="H196">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="I196">
         <v>1</v>
       </c>
       <c r="J196">
-        <v>1.143</v>
+        <v>1</v>
       </c>
       <c r="K196">
-        <v>667.849</v>
+        <v>668.268</v>
       </c>
       <c r="L196">
-        <v>0.378</v>
+        <v>0.42</v>
       </c>
       <c r="M196">
-        <v>0.42</v>
+        <v>0.438</v>
       </c>
       <c r="N196">
-        <v>34.723</v>
+        <v>34.765</v>
       </c>
       <c r="O196">
         <v>0.042</v>
       </c>
       <c r="P196">
-        <v>0.048</v>
+        <v>0.042</v>
       </c>
       <c r="Q196">
         <v>0.84</v>
@@ -26506,7 +26512,7 @@
         <v>1741.7</v>
       </c>
       <c r="AH196" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="AI196">
         <v>10057641</v>
@@ -26568,13 +26574,13 @@
         <v>504</v>
       </c>
       <c r="E197">
-        <v>16374</v>
+        <v>16423</v>
       </c>
       <c r="F197">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G197">
-        <v>53.857</v>
+        <v>51.714</v>
       </c>
       <c r="H197">
         <v>124</v>
@@ -26586,13 +26592,13 @@
         <v>0.143</v>
       </c>
       <c r="K197">
-        <v>1716.777</v>
+        <v>1721.914</v>
       </c>
       <c r="L197">
-        <v>5.033</v>
+        <v>5.138</v>
       </c>
       <c r="M197">
-        <v>5.647</v>
+        <v>5.422</v>
       </c>
       <c r="N197">
         <v>13.001</v>
@@ -26812,40 +26818,40 @@
         <v>504</v>
       </c>
       <c r="E199">
-        <v>1009710</v>
+        <v>1030281</v>
       </c>
       <c r="F199">
-        <v>19851</v>
+        <v>20571</v>
       </c>
       <c r="G199">
-        <v>20931.571</v>
+        <v>20715.143</v>
       </c>
       <c r="H199">
-        <v>8826</v>
+        <v>9087</v>
       </c>
       <c r="I199">
-        <v>240</v>
+        <v>261</v>
       </c>
       <c r="J199">
-        <v>242.857</v>
+        <v>249.143</v>
       </c>
       <c r="K199">
-        <v>14465.764</v>
+        <v>14760.477</v>
       </c>
       <c r="L199">
-        <v>284.398</v>
+        <v>294.714</v>
       </c>
       <c r="M199">
-        <v>299.879</v>
+        <v>296.779</v>
       </c>
       <c r="N199">
-        <v>126.447</v>
+        <v>130.186</v>
       </c>
       <c r="O199">
-        <v>3.438</v>
+        <v>3.739</v>
       </c>
       <c r="P199">
-        <v>3.479</v>
+        <v>3.569</v>
       </c>
       <c r="Q199">
         <v>1.09</v>
@@ -26946,40 +26952,40 @@
         <v>504</v>
       </c>
       <c r="E200">
-        <v>13700</v>
+        <v>13981</v>
       </c>
       <c r="F200">
-        <v>267</v>
+        <v>281</v>
       </c>
       <c r="G200">
-        <v>234.429</v>
+        <v>244.143</v>
       </c>
       <c r="H200">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="I200">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J200">
-        <v>1.857</v>
+        <v>2.429</v>
       </c>
       <c r="K200">
-        <v>10391.052</v>
+        <v>10604.183</v>
       </c>
       <c r="L200">
-        <v>202.512</v>
+        <v>213.13</v>
       </c>
       <c r="M200">
-        <v>177.807</v>
+        <v>185.175</v>
       </c>
       <c r="N200">
-        <v>31.856</v>
+        <v>34.89</v>
       </c>
       <c r="O200">
-        <v>0.758</v>
+        <v>3.034</v>
       </c>
       <c r="P200">
-        <v>1.409</v>
+        <v>1.842</v>
       </c>
       <c r="Q200">
         <v>1.52</v>
@@ -27009,7 +27015,7 @@
         <v>5</v>
       </c>
       <c r="AH200" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="AI200">
         <v>491569</v>
@@ -27101,7 +27107,7 @@
         <v>19128</v>
       </c>
       <c r="F201">
-        <v>523</v>
+        <v>0</v>
       </c>
       <c r="G201">
         <v>221</v>
@@ -27119,7 +27125,7 @@
         <v>2310.497</v>
       </c>
       <c r="L201">
-        <v>63.174</v>
+        <v>0</v>
       </c>
       <c r="M201">
         <v>26.695</v>
@@ -27161,7 +27167,7 @@
         <v>9.9</v>
       </c>
       <c r="AH201" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="AI201">
         <v>535518</v>
@@ -27247,7 +27253,7 @@
         <v>483</v>
       </c>
       <c r="D202" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="AI202">
         <v>968</v>
@@ -27288,40 +27294,40 @@
         <v>504</v>
       </c>
       <c r="E203">
-        <v>42839</v>
+        <v>42962</v>
       </c>
       <c r="F203">
-        <v>257</v>
+        <v>123</v>
       </c>
       <c r="G203">
-        <v>187.286</v>
+        <v>183.714</v>
       </c>
       <c r="H203">
-        <v>1215</v>
+        <v>1219</v>
       </c>
       <c r="I203">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J203">
-        <v>6.857</v>
+        <v>6.571</v>
       </c>
       <c r="K203">
-        <v>30610.415</v>
+        <v>30698.304</v>
       </c>
       <c r="L203">
-        <v>183.638</v>
+        <v>87.889</v>
       </c>
       <c r="M203">
-        <v>133.824</v>
+        <v>131.272</v>
       </c>
       <c r="N203">
-        <v>868.173</v>
+        <v>871.0309999999999</v>
       </c>
       <c r="O203">
-        <v>5.002</v>
+        <v>2.858</v>
       </c>
       <c r="P203">
-        <v>4.9</v>
+        <v>4.696</v>
       </c>
       <c r="Q203">
         <v>1.04</v>
@@ -27351,7 +27357,7 @@
         <v>6</v>
       </c>
       <c r="AH203" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="AI203">
         <v>828768</v>
@@ -27431,40 +27437,40 @@
         <v>504</v>
       </c>
       <c r="E204">
-        <v>635455</v>
+        <v>638072</v>
       </c>
       <c r="F204">
-        <v>3127</v>
+        <v>2617</v>
       </c>
       <c r="G204">
-        <v>2177.571</v>
+        <v>2258.571</v>
       </c>
       <c r="H204">
-        <v>22394</v>
+        <v>22457</v>
       </c>
       <c r="I204">
-        <v>90</v>
+        <v>63</v>
       </c>
       <c r="J204">
-        <v>113.429</v>
+        <v>101.714</v>
       </c>
       <c r="K204">
-        <v>53767.285</v>
+        <v>53988.715</v>
       </c>
       <c r="L204">
-        <v>264.583</v>
+        <v>221.43</v>
       </c>
       <c r="M204">
-        <v>184.249</v>
+        <v>191.103</v>
       </c>
       <c r="N204">
-        <v>1894.807</v>
+        <v>1900.138</v>
       </c>
       <c r="O204">
-        <v>7.615</v>
+        <v>5.331</v>
       </c>
       <c r="P204">
-        <v>9.597</v>
+        <v>8.606</v>
       </c>
       <c r="Q204">
         <v>0.93</v>
@@ -27494,7 +27500,7 @@
         <v>4.6</v>
       </c>
       <c r="AH204" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="AI204">
         <v>4782139</v>
@@ -27522,6 +27528,9 @@
       </c>
       <c r="AS204">
         <v>12227</v>
+      </c>
+      <c r="AT204">
+        <v>79.63</v>
       </c>
       <c r="AU204">
         <v>11818618</v>
@@ -27583,40 +27592,40 @@
         <v>504</v>
       </c>
       <c r="E205">
-        <v>6177660</v>
+        <v>6197011</v>
       </c>
       <c r="F205">
-        <v>19918</v>
+        <v>19351</v>
       </c>
       <c r="G205">
-        <v>19690.429</v>
+        <v>19605</v>
       </c>
       <c r="H205">
-        <v>54095</v>
+        <v>54327</v>
       </c>
       <c r="I205">
-        <v>204</v>
+        <v>232</v>
       </c>
       <c r="J205">
-        <v>176.429</v>
+        <v>188.857</v>
       </c>
       <c r="K205">
-        <v>73247.905</v>
+        <v>73477.348</v>
       </c>
       <c r="L205">
-        <v>236.166</v>
+        <v>229.443</v>
       </c>
       <c r="M205">
-        <v>233.467</v>
+        <v>232.455</v>
       </c>
       <c r="N205">
-        <v>641.399</v>
+        <v>644.15</v>
       </c>
       <c r="O205">
-        <v>2.419</v>
+        <v>2.751</v>
       </c>
       <c r="P205">
-        <v>2.092</v>
+        <v>2.239</v>
       </c>
       <c r="Q205">
         <v>0.87</v>
@@ -27711,7 +27720,7 @@
         <v>487</v>
       </c>
       <c r="D206" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="AI206">
         <v>49107</v>
@@ -27767,7 +27776,7 @@
         <v>0</v>
       </c>
       <c r="G207">
-        <v>136.571</v>
+        <v>110.714</v>
       </c>
       <c r="H207">
         <v>2931</v>
@@ -27776,7 +27785,7 @@
         <v>0</v>
       </c>
       <c r="J207">
-        <v>10.714</v>
+        <v>9.714</v>
       </c>
       <c r="K207">
         <v>2130.539</v>
@@ -27785,7 +27794,7 @@
         <v>0</v>
       </c>
       <c r="M207">
-        <v>2.986</v>
+        <v>2.42</v>
       </c>
       <c r="N207">
         <v>64.078</v>
@@ -27794,7 +27803,7 @@
         <v>0</v>
       </c>
       <c r="P207">
-        <v>0.234</v>
+        <v>0.212</v>
       </c>
       <c r="Q207">
         <v>0.8100000000000001</v>
@@ -27824,7 +27833,7 @@
         <v>20.6</v>
       </c>
       <c r="AH207" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="AI207">
         <v>1235052</v>
@@ -27907,40 +27916,40 @@
         <v>504</v>
       </c>
       <c r="E208">
-        <v>2364242</v>
+        <v>2366560</v>
       </c>
       <c r="F208">
-        <v>2190</v>
+        <v>2318</v>
       </c>
       <c r="G208">
-        <v>1742.857</v>
+        <v>1793.143</v>
       </c>
       <c r="H208">
-        <v>56399</v>
+        <v>56457</v>
       </c>
       <c r="I208">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="J208">
-        <v>44.857</v>
+        <v>47.286</v>
       </c>
       <c r="K208">
-        <v>54059.885</v>
+        <v>54112.888</v>
       </c>
       <c r="L208">
-        <v>50.076</v>
+        <v>53.003</v>
       </c>
       <c r="M208">
-        <v>39.852</v>
+        <v>41.001</v>
       </c>
       <c r="N208">
-        <v>1289.599</v>
+        <v>1290.925</v>
       </c>
       <c r="O208">
-        <v>1.075</v>
+        <v>1.326</v>
       </c>
       <c r="P208">
-        <v>1.026</v>
+        <v>1.081</v>
       </c>
       <c r="Q208">
         <v>1.12</v>
@@ -27970,7 +27979,7 @@
         <v>12.2</v>
       </c>
       <c r="AH208" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="AI208">
         <v>8099146</v>
@@ -28056,40 +28065,40 @@
         <v>504</v>
       </c>
       <c r="E209">
-        <v>707236</v>
+        <v>708302</v>
       </c>
       <c r="F209">
-        <v>1070</v>
+        <v>1066</v>
       </c>
       <c r="G209">
-        <v>1122.143</v>
+        <v>1102.143</v>
       </c>
       <c r="H209">
-        <v>2014</v>
+        <v>2018</v>
       </c>
       <c r="I209">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J209">
-        <v>2.857</v>
+        <v>3</v>
       </c>
       <c r="K209">
-        <v>71507.32000000001</v>
+        <v>71615.102</v>
       </c>
       <c r="L209">
-        <v>108.186</v>
+        <v>107.781</v>
       </c>
       <c r="M209">
-        <v>113.458</v>
+        <v>111.436</v>
       </c>
       <c r="N209">
-        <v>203.632</v>
+        <v>204.036</v>
       </c>
       <c r="O209">
-        <v>0.202</v>
+        <v>0.404</v>
       </c>
       <c r="P209">
-        <v>0.289</v>
+        <v>0.303</v>
       </c>
       <c r="Q209">
         <v>0.88</v>
@@ -28119,7 +28128,7 @@
         <v>245.1</v>
       </c>
       <c r="AH209" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="AI209">
         <v>17622541</v>
@@ -28205,61 +28214,61 @@
         <v>504</v>
       </c>
       <c r="E210">
-        <v>6459643</v>
+        <v>6491529</v>
       </c>
       <c r="F210">
-        <v>37128</v>
+        <v>31886</v>
       </c>
       <c r="G210">
-        <v>31170.857</v>
+        <v>31550.857</v>
       </c>
       <c r="H210">
-        <v>131805</v>
+        <v>131909</v>
       </c>
       <c r="I210">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="J210">
-        <v>98.429</v>
+        <v>99.857</v>
       </c>
       <c r="K210">
-        <v>95154.268</v>
+        <v>95623.967</v>
       </c>
       <c r="L210">
-        <v>546.917</v>
+        <v>469.699</v>
       </c>
       <c r="M210">
-        <v>459.165</v>
+        <v>464.762</v>
       </c>
       <c r="N210">
-        <v>1941.564</v>
+        <v>1943.096</v>
       </c>
       <c r="O210">
-        <v>1.679</v>
+        <v>1.532</v>
       </c>
       <c r="P210">
-        <v>1.45</v>
+        <v>1.471</v>
       </c>
       <c r="Q210">
         <v>1.07</v>
       </c>
       <c r="R210">
-        <v>909</v>
+        <v>928</v>
       </c>
       <c r="S210">
-        <v>13.39</v>
+        <v>13.67</v>
       </c>
       <c r="T210">
-        <v>6379</v>
+        <v>6441</v>
       </c>
       <c r="U210">
-        <v>93.96599999999999</v>
+        <v>94.88</v>
       </c>
       <c r="X210">
-        <v>5698</v>
+        <v>5706</v>
       </c>
       <c r="Y210">
-        <v>83.935</v>
+        <v>84.053</v>
       </c>
       <c r="Z210">
         <v>813360</v>
@@ -28286,7 +28295,7 @@
         <v>24.6</v>
       </c>
       <c r="AH210" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="AI210">
         <v>88848633</v>
@@ -28375,61 +28384,61 @@
         <v>504</v>
       </c>
       <c r="E211">
-        <v>37613597</v>
+        <v>37673118</v>
       </c>
       <c r="F211">
-        <v>319456</v>
+        <v>59521</v>
       </c>
       <c r="G211">
-        <v>145147.571</v>
+        <v>147549.571</v>
       </c>
       <c r="H211">
-        <v>627843</v>
+        <v>628303</v>
       </c>
       <c r="I211">
-        <v>2677</v>
+        <v>460</v>
       </c>
       <c r="J211">
-        <v>975</v>
+        <v>1006.857</v>
       </c>
       <c r="K211">
-        <v>113635.336</v>
+        <v>113815.156</v>
       </c>
       <c r="L211">
-        <v>965.116</v>
+        <v>179.82</v>
       </c>
       <c r="M211">
-        <v>438.509</v>
+        <v>445.766</v>
       </c>
       <c r="N211">
-        <v>1896.791</v>
+        <v>1898.181</v>
       </c>
       <c r="O211">
-        <v>8.087999999999999</v>
+        <v>1.39</v>
       </c>
       <c r="P211">
-        <v>2.946</v>
+        <v>3.042</v>
       </c>
       <c r="Q211">
         <v>1.22</v>
       </c>
       <c r="R211">
-        <v>21795</v>
+        <v>22876</v>
       </c>
       <c r="S211">
-        <v>65.845</v>
+        <v>69.111</v>
       </c>
       <c r="T211">
-        <v>85001</v>
+        <v>89014</v>
       </c>
       <c r="U211">
-        <v>256.799</v>
+        <v>268.922</v>
       </c>
       <c r="X211">
-        <v>80474</v>
+        <v>80450</v>
       </c>
       <c r="Y211">
-        <v>243.122</v>
+        <v>243.049</v>
       </c>
       <c r="Z211">
         <v>252720</v>
@@ -28456,7 +28465,7 @@
         <v>6.6</v>
       </c>
       <c r="AH211" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="AI211">
         <v>360634287</v>
@@ -28545,40 +28554,40 @@
         <v>504</v>
       </c>
       <c r="E212">
-        <v>383903</v>
+        <v>384026</v>
       </c>
       <c r="F212">
-        <v>145</v>
+        <v>123</v>
       </c>
       <c r="G212">
-        <v>114.571</v>
+        <v>116.286</v>
       </c>
       <c r="H212">
-        <v>6015</v>
+        <v>6016</v>
       </c>
       <c r="I212">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J212">
-        <v>2.429</v>
+        <v>2.143</v>
       </c>
       <c r="K212">
-        <v>110516.169</v>
+        <v>110551.578</v>
       </c>
       <c r="L212">
-        <v>41.742</v>
+        <v>35.409</v>
       </c>
       <c r="M212">
-        <v>32.982</v>
+        <v>33.476</v>
       </c>
       <c r="N212">
-        <v>1731.57</v>
+        <v>1731.857</v>
       </c>
       <c r="O212">
-        <v>0.576</v>
+        <v>0.288</v>
       </c>
       <c r="P212">
-        <v>0.699</v>
+        <v>0.617</v>
       </c>
       <c r="Q212">
         <v>0.84</v>
@@ -28608,7 +28617,7 @@
         <v>70.09999999999999</v>
       </c>
       <c r="AH212" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="AI212">
         <v>5277908</v>
@@ -28703,40 +28712,40 @@
         <v>504</v>
       </c>
       <c r="E213">
-        <v>147322</v>
+        <v>148203</v>
       </c>
       <c r="F213">
-        <v>863</v>
+        <v>881</v>
       </c>
       <c r="G213">
-        <v>880.571</v>
+        <v>868.429</v>
       </c>
       <c r="H213">
-        <v>1008</v>
+        <v>1015</v>
       </c>
       <c r="I213">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J213">
-        <v>6.286</v>
+        <v>6.429</v>
       </c>
       <c r="K213">
-        <v>4401.719</v>
+        <v>4428.041</v>
       </c>
       <c r="L213">
-        <v>25.785</v>
+        <v>26.323</v>
       </c>
       <c r="M213">
-        <v>26.31</v>
+        <v>25.947</v>
       </c>
       <c r="N213">
-        <v>30.117</v>
+        <v>30.326</v>
       </c>
       <c r="O213">
-        <v>0.179</v>
+        <v>0.209</v>
       </c>
       <c r="P213">
-        <v>0.188</v>
+        <v>0.192</v>
       </c>
       <c r="Q213">
         <v>1.04</v>
@@ -28982,40 +28991,40 @@
         <v>504</v>
       </c>
       <c r="E216">
-        <v>322757</v>
+        <v>324642</v>
       </c>
       <c r="F216">
-        <v>0</v>
+        <v>1885</v>
       </c>
       <c r="G216">
-        <v>774.7140000000001</v>
+        <v>922.429</v>
       </c>
       <c r="H216">
-        <v>3859</v>
+        <v>3886</v>
       </c>
       <c r="I216">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="J216">
-        <v>11.143</v>
+        <v>13.857</v>
       </c>
       <c r="K216">
-        <v>11350.318</v>
+        <v>11416.607</v>
       </c>
       <c r="L216">
-        <v>0</v>
+        <v>66.289</v>
       </c>
       <c r="M216">
-        <v>27.244</v>
+        <v>32.439</v>
       </c>
       <c r="N216">
-        <v>135.709</v>
+        <v>136.658</v>
       </c>
       <c r="O216">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="P216">
-        <v>0.392</v>
+        <v>0.487</v>
       </c>
       <c r="Q216">
         <v>0.95</v>
@@ -29083,40 +29092,40 @@
         <v>504</v>
       </c>
       <c r="E217">
-        <v>323268</v>
+        <v>336707</v>
       </c>
       <c r="F217">
-        <v>10657</v>
+        <v>13439</v>
       </c>
       <c r="G217">
-        <v>9645.714</v>
+        <v>10177.571</v>
       </c>
       <c r="H217">
         <v>7540</v>
       </c>
       <c r="I217">
-        <v>390</v>
+        <v>0</v>
       </c>
       <c r="J217">
-        <v>350.286</v>
+        <v>300.429</v>
       </c>
       <c r="K217">
-        <v>3321.067</v>
+        <v>3459.132</v>
       </c>
       <c r="L217">
-        <v>109.484</v>
+        <v>138.064</v>
       </c>
       <c r="M217">
-        <v>99.09399999999999</v>
+        <v>104.558</v>
       </c>
       <c r="N217">
         <v>77.462</v>
       </c>
       <c r="O217">
-        <v>4.007</v>
+        <v>0</v>
       </c>
       <c r="P217">
-        <v>3.599</v>
+        <v>3.086</v>
       </c>
       <c r="Q217">
         <v>1.12</v>
@@ -29146,7 +29155,7 @@
         <v>18.6</v>
       </c>
       <c r="AH217" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="AI217">
         <v>16306199</v>
@@ -29235,7 +29244,7 @@
         <v>499</v>
       </c>
       <c r="D218" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="AI218">
         <v>9534</v>
@@ -29279,40 +29288,40 @@
         <v>504</v>
       </c>
       <c r="E219">
-        <v>210864110</v>
+        <v>211364677</v>
       </c>
       <c r="F219">
-        <v>864032</v>
+        <v>500567</v>
       </c>
       <c r="G219">
-        <v>654761.286</v>
+        <v>651024</v>
       </c>
       <c r="H219">
-        <v>4415252</v>
+        <v>4423507</v>
       </c>
       <c r="I219">
-        <v>11674</v>
+        <v>8255</v>
       </c>
       <c r="J219">
-        <v>9878.571</v>
+        <v>9821.286</v>
       </c>
       <c r="K219">
-        <v>27051.899</v>
+        <v>27116.117</v>
       </c>
       <c r="L219">
-        <v>110.847</v>
+        <v>64.218</v>
       </c>
       <c r="M219">
-        <v>84</v>
+        <v>83.52</v>
       </c>
       <c r="N219">
-        <v>566.436</v>
+        <v>567.495</v>
       </c>
       <c r="O219">
-        <v>1.498</v>
+        <v>1.059</v>
       </c>
       <c r="P219">
-        <v>1.267</v>
+        <v>1.26</v>
       </c>
       <c r="Q219">
         <v>1.03</v>
@@ -29410,40 +29419,40 @@
         <v>504</v>
       </c>
       <c r="E220">
-        <v>7454</v>
+        <v>7487</v>
       </c>
       <c r="F220">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="G220">
-        <v>28.286</v>
+        <v>30.571</v>
       </c>
       <c r="H220">
-        <v>1415</v>
+        <v>1416</v>
       </c>
       <c r="I220">
         <v>1</v>
       </c>
       <c r="J220">
-        <v>2.571</v>
+        <v>2.143</v>
       </c>
       <c r="K220">
-        <v>249.916</v>
+        <v>251.023</v>
       </c>
       <c r="L220">
-        <v>1.576</v>
+        <v>1.106</v>
       </c>
       <c r="M220">
-        <v>0.948</v>
+        <v>1.025</v>
       </c>
       <c r="N220">
-        <v>47.442</v>
+        <v>47.475</v>
       </c>
       <c r="O220">
         <v>0.034</v>
       </c>
       <c r="P220">
-        <v>0.08599999999999999</v>
+        <v>0.07199999999999999</v>
       </c>
       <c r="Q220">
         <v>1.45</v>
@@ -29508,40 +29517,40 @@
         <v>504</v>
       </c>
       <c r="E221">
-        <v>203978</v>
+        <v>204337</v>
       </c>
       <c r="F221">
-        <v>425</v>
+        <v>359</v>
       </c>
       <c r="G221">
-        <v>301.571</v>
+        <v>322.714</v>
       </c>
       <c r="H221">
-        <v>3569</v>
+        <v>3573</v>
       </c>
       <c r="I221">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J221">
-        <v>7.714</v>
+        <v>7.429</v>
       </c>
       <c r="K221">
-        <v>11095.436</v>
+        <v>11114.964</v>
       </c>
       <c r="L221">
-        <v>23.118</v>
+        <v>19.528</v>
       </c>
       <c r="M221">
-        <v>16.404</v>
+        <v>17.554</v>
       </c>
       <c r="N221">
-        <v>194.137</v>
+        <v>194.354</v>
       </c>
       <c r="O221">
-        <v>0.272</v>
+        <v>0.218</v>
       </c>
       <c r="P221">
-        <v>0.42</v>
+        <v>0.404</v>
       </c>
       <c r="Q221">
         <v>0.7</v>
@@ -29571,7 +29580,7 @@
         <v>18.6</v>
       </c>
       <c r="AH221" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="AI221">
         <v>536479</v>
@@ -29663,40 +29672,40 @@
         <v>504</v>
       </c>
       <c r="E222">
-        <v>121902</v>
+        <v>122487</v>
       </c>
       <c r="F222">
-        <v>0</v>
+        <v>585</v>
       </c>
       <c r="G222">
-        <v>342</v>
+        <v>376.286</v>
       </c>
       <c r="H222">
-        <v>4198</v>
+        <v>4236</v>
       </c>
       <c r="I222">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="J222">
-        <v>17.857</v>
+        <v>20.857</v>
       </c>
       <c r="K222">
-        <v>8201.749</v>
+        <v>8241.109</v>
       </c>
       <c r="L222">
-        <v>0</v>
+        <v>39.36</v>
       </c>
       <c r="M222">
-        <v>23.01</v>
+        <v>25.317</v>
       </c>
       <c r="N222">
-        <v>282.448</v>
+        <v>285.004</v>
       </c>
       <c r="O222">
-        <v>0</v>
+        <v>2.557</v>
       </c>
       <c r="P222">
-        <v>1.201</v>
+        <v>1.403</v>
       </c>
       <c r="Q222">
         <v>0.66</v>
@@ -29726,7 +29735,7 @@
         <v>12.4</v>
       </c>
       <c r="AH222" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="AI222">
         <v>3699508</v>

--- a/public/data/latest/owid-covid-latest.xlsx
+++ b/public/data/latest/owid-covid-latest.xlsx
@@ -2273,31 +2273,31 @@
         <v>0.6</v>
       </c>
       <c r="AI3">
-        <v>89895932</v>
+        <v>90165146</v>
       </c>
       <c r="AJ3">
-        <v>60888772</v>
+        <v>60728701</v>
       </c>
       <c r="AK3">
-        <v>32188411</v>
+        <v>32605930</v>
       </c>
       <c r="AM3">
-        <v>1221521</v>
+        <v>171537</v>
       </c>
       <c r="AN3">
-        <v>1137394</v>
+        <v>1721024</v>
       </c>
       <c r="AO3">
-        <v>6.71</v>
+        <v>6.73</v>
       </c>
       <c r="AP3">
-        <v>4.54</v>
+        <v>4.53</v>
       </c>
       <c r="AQ3">
-        <v>2.4</v>
+        <v>2.43</v>
       </c>
       <c r="AS3">
-        <v>848</v>
+        <v>1284</v>
       </c>
       <c r="AU3">
         <v>1340598113</v>
@@ -2486,6 +2486,30 @@
       <c r="S5">
         <v>0.73</v>
       </c>
+      <c r="AI5">
+        <v>4146091</v>
+      </c>
+      <c r="AJ5">
+        <v>3421279</v>
+      </c>
+      <c r="AK5">
+        <v>724812</v>
+      </c>
+      <c r="AN5">
+        <v>22369</v>
+      </c>
+      <c r="AO5">
+        <v>9.449999999999999</v>
+      </c>
+      <c r="AP5">
+        <v>7.8</v>
+      </c>
+      <c r="AQ5">
+        <v>1.65</v>
+      </c>
+      <c r="AS5">
+        <v>510</v>
+      </c>
       <c r="AU5">
         <v>43851043</v>
       </c>
@@ -2954,31 +2978,31 @@
         <v>514</v>
       </c>
       <c r="AI9">
-        <v>38145435</v>
+        <v>38584379</v>
       </c>
       <c r="AJ9">
-        <v>26993547</v>
+        <v>27105019</v>
       </c>
       <c r="AK9">
-        <v>11151888</v>
+        <v>11479360</v>
       </c>
       <c r="AM9">
-        <v>456268</v>
+        <v>438944</v>
       </c>
       <c r="AN9">
-        <v>301058</v>
+        <v>313783</v>
       </c>
       <c r="AO9">
-        <v>84.40000000000001</v>
+        <v>85.37</v>
       </c>
       <c r="AP9">
-        <v>59.73</v>
+        <v>59.97</v>
       </c>
       <c r="AQ9">
-        <v>24.67</v>
+        <v>25.4</v>
       </c>
       <c r="AS9">
-        <v>6661</v>
+        <v>6943</v>
       </c>
       <c r="AT9">
         <v>75.93000000000001</v>
@@ -3287,37 +3311,37 @@
         <v>0.973</v>
       </c>
       <c r="AI12">
-        <v>3219669661</v>
+        <v>3237705582</v>
       </c>
       <c r="AJ12">
-        <v>1524246996</v>
+        <v>1529163375</v>
       </c>
       <c r="AK12">
-        <v>1163263513</v>
+        <v>1165908394</v>
       </c>
       <c r="AL12">
-        <v>9905455</v>
+        <v>10011818</v>
       </c>
       <c r="AM12">
-        <v>23789659</v>
+        <v>19301232</v>
       </c>
       <c r="AN12">
-        <v>25197703</v>
+        <v>24835232</v>
       </c>
       <c r="AO12">
-        <v>69.39</v>
+        <v>69.78</v>
       </c>
       <c r="AP12">
-        <v>32.85</v>
+        <v>32.96</v>
       </c>
       <c r="AQ12">
-        <v>25.07</v>
+        <v>25.13</v>
       </c>
       <c r="AR12">
-        <v>0.21</v>
+        <v>0.22</v>
       </c>
       <c r="AS12">
-        <v>5431</v>
+        <v>5353</v>
       </c>
       <c r="AU12">
         <v>4639847425</v>
@@ -3403,31 +3427,31 @@
         <v>514</v>
       </c>
       <c r="AI13">
-        <v>16504574</v>
+        <v>16815098</v>
       </c>
       <c r="AJ13">
-        <v>10591251</v>
+        <v>10757757</v>
       </c>
       <c r="AK13">
-        <v>5913323</v>
+        <v>6057341</v>
       </c>
       <c r="AM13">
-        <v>303304</v>
+        <v>310524</v>
       </c>
       <c r="AN13">
-        <v>251050</v>
+        <v>257582</v>
       </c>
       <c r="AO13">
-        <v>64.72</v>
+        <v>65.94</v>
       </c>
       <c r="AP13">
-        <v>41.53</v>
+        <v>42.19</v>
       </c>
       <c r="AQ13">
-        <v>23.19</v>
+        <v>23.75</v>
       </c>
       <c r="AS13">
-        <v>9845</v>
+        <v>10101</v>
       </c>
       <c r="AT13">
         <v>68.06</v>
@@ -3719,31 +3743,31 @@
         <v>514</v>
       </c>
       <c r="AI15">
-        <v>6045471</v>
+        <v>6110185</v>
       </c>
       <c r="AJ15">
-        <v>3617203</v>
+        <v>3667494</v>
       </c>
       <c r="AK15">
-        <v>2428268</v>
+        <v>2442691</v>
       </c>
       <c r="AM15">
-        <v>54455</v>
+        <v>64714</v>
       </c>
       <c r="AN15">
-        <v>53476</v>
+        <v>52978</v>
       </c>
       <c r="AO15">
-        <v>59.62</v>
+        <v>60.26</v>
       </c>
       <c r="AP15">
-        <v>35.68</v>
+        <v>36.17</v>
       </c>
       <c r="AQ15">
-        <v>23.95</v>
+        <v>24.09</v>
       </c>
       <c r="AS15">
-        <v>5274</v>
+        <v>5225</v>
       </c>
       <c r="AT15">
         <v>61.11</v>
@@ -3990,31 +4014,31 @@
         <v>515</v>
       </c>
       <c r="AI17">
-        <v>2441022</v>
+        <v>2443855</v>
       </c>
       <c r="AJ17">
-        <v>1130698</v>
+        <v>1131465</v>
       </c>
       <c r="AK17">
-        <v>1075461</v>
+        <v>1076282</v>
       </c>
       <c r="AM17">
-        <v>2706</v>
+        <v>2833</v>
       </c>
       <c r="AN17">
-        <v>4057</v>
+        <v>3649</v>
       </c>
       <c r="AO17">
-        <v>143.46</v>
+        <v>143.62</v>
       </c>
       <c r="AP17">
-        <v>66.45</v>
+        <v>66.48999999999999</v>
       </c>
       <c r="AQ17">
-        <v>63.2</v>
+        <v>63.25</v>
       </c>
       <c r="AS17">
-        <v>2384</v>
+        <v>2144</v>
       </c>
       <c r="AT17">
         <v>53.7</v>
@@ -4139,31 +4163,31 @@
         <v>514</v>
       </c>
       <c r="AI18">
-        <v>22166720</v>
+        <v>22415481</v>
       </c>
       <c r="AJ18">
-        <v>16083447</v>
+        <v>16258753</v>
       </c>
       <c r="AK18">
-        <v>6083273</v>
+        <v>6156728</v>
       </c>
       <c r="AM18">
         <v>398866</v>
       </c>
       <c r="AN18">
-        <v>281177</v>
+        <v>253404</v>
       </c>
       <c r="AO18">
-        <v>13.46</v>
+        <v>13.61</v>
       </c>
       <c r="AP18">
-        <v>9.77</v>
+        <v>9.869999999999999</v>
       </c>
       <c r="AQ18">
-        <v>3.69</v>
+        <v>3.74</v>
       </c>
       <c r="AS18">
-        <v>1707</v>
+        <v>1539</v>
       </c>
       <c r="AU18">
         <v>164689383</v>
@@ -5172,31 +5196,31 @@
         <v>514</v>
       </c>
       <c r="AI26">
-        <v>5270463</v>
+        <v>5319711</v>
       </c>
       <c r="AJ26">
-        <v>3033516</v>
+        <v>3044011</v>
       </c>
       <c r="AK26">
-        <v>2236947</v>
+        <v>2275700</v>
       </c>
       <c r="AM26">
-        <v>54659</v>
+        <v>49248</v>
       </c>
       <c r="AN26">
-        <v>37932</v>
+        <v>42747</v>
       </c>
       <c r="AO26">
-        <v>45.15</v>
+        <v>45.57</v>
       </c>
       <c r="AP26">
-        <v>25.99</v>
+        <v>26.08</v>
       </c>
       <c r="AQ26">
-        <v>19.16</v>
+        <v>19.5</v>
       </c>
       <c r="AS26">
-        <v>3250</v>
+        <v>3662</v>
       </c>
       <c r="AT26">
         <v>56.48</v>
@@ -5737,31 +5761,31 @@
         <v>1.29</v>
       </c>
       <c r="AI31">
-        <v>230324</v>
+        <v>246716</v>
       </c>
       <c r="AJ31">
-        <v>171283</v>
+        <v>180812</v>
       </c>
       <c r="AK31">
-        <v>59041</v>
+        <v>65904</v>
       </c>
       <c r="AM31">
         <v>4984</v>
       </c>
       <c r="AN31">
-        <v>4838</v>
+        <v>5235</v>
       </c>
       <c r="AO31">
-        <v>52.65</v>
+        <v>56.39</v>
       </c>
       <c r="AP31">
-        <v>39.15</v>
+        <v>41.33</v>
       </c>
       <c r="AQ31">
-        <v>13.5</v>
+        <v>15.06</v>
       </c>
       <c r="AS31">
-        <v>11059</v>
+        <v>11966</v>
       </c>
       <c r="AT31">
         <v>79.63</v>
@@ -5892,31 +5916,31 @@
         <v>514</v>
       </c>
       <c r="AI32">
-        <v>2212854</v>
+        <v>2216558</v>
       </c>
       <c r="AJ32">
         <v>1089066</v>
       </c>
       <c r="AK32">
-        <v>1109399</v>
+        <v>1111648</v>
       </c>
       <c r="AM32">
-        <v>11770</v>
+        <v>3704</v>
       </c>
       <c r="AN32">
-        <v>9103</v>
+        <v>9131</v>
       </c>
       <c r="AO32">
-        <v>31.85</v>
+        <v>31.9</v>
       </c>
       <c r="AP32">
         <v>15.67</v>
       </c>
       <c r="AQ32">
-        <v>15.97</v>
+        <v>16</v>
       </c>
       <c r="AS32">
-        <v>1310</v>
+        <v>1314</v>
       </c>
       <c r="AU32">
         <v>6948445</v>
@@ -6523,31 +6547,31 @@
         <v>514</v>
       </c>
       <c r="AI37">
-        <v>52203277</v>
+        <v>52303664</v>
       </c>
       <c r="AJ37">
-        <v>27571050</v>
+        <v>27593583</v>
       </c>
       <c r="AK37">
-        <v>24632227</v>
+        <v>24710081</v>
       </c>
       <c r="AM37">
-        <v>128507</v>
+        <v>100387</v>
       </c>
       <c r="AN37">
-        <v>130328</v>
+        <v>128770</v>
       </c>
       <c r="AO37">
-        <v>138.32</v>
+        <v>138.58</v>
       </c>
       <c r="AP37">
-        <v>73.05</v>
+        <v>73.11</v>
       </c>
       <c r="AQ37">
-        <v>65.26000000000001</v>
+        <v>65.47</v>
       </c>
       <c r="AS37">
-        <v>3453</v>
+        <v>3412</v>
       </c>
       <c r="AT37">
         <v>60.65</v>
@@ -7088,37 +7112,37 @@
         <v>514</v>
       </c>
       <c r="AI42">
-        <v>27796753</v>
+        <v>27949717</v>
       </c>
       <c r="AJ42">
-        <v>14292143</v>
+        <v>14295630</v>
       </c>
       <c r="AK42">
-        <v>13213268</v>
+        <v>13270723</v>
       </c>
       <c r="AL42">
-        <v>807178</v>
+        <v>900831</v>
       </c>
       <c r="AM42">
-        <v>161419</v>
+        <v>144278</v>
       </c>
       <c r="AN42">
-        <v>137135</v>
+        <v>137779</v>
       </c>
       <c r="AO42">
-        <v>145.41</v>
+        <v>146.21</v>
       </c>
       <c r="AP42">
-        <v>74.76000000000001</v>
+        <v>74.78</v>
       </c>
       <c r="AQ42">
-        <v>69.12</v>
+        <v>69.42</v>
       </c>
       <c r="AR42">
-        <v>4.22</v>
+        <v>4.71</v>
       </c>
       <c r="AS42">
-        <v>7174</v>
+        <v>7207</v>
       </c>
       <c r="AT42">
         <v>78.7</v>
@@ -7222,25 +7246,25 @@
         <v>0.72</v>
       </c>
       <c r="AI43">
-        <v>1924390000</v>
+        <v>1935869000</v>
       </c>
       <c r="AK43">
         <v>777046000</v>
       </c>
       <c r="AM43">
-        <v>11971000</v>
+        <v>11479000</v>
       </c>
       <c r="AN43">
-        <v>11429714</v>
+        <v>11718571</v>
       </c>
       <c r="AO43">
-        <v>133.7</v>
+        <v>134.5</v>
       </c>
       <c r="AQ43">
         <v>53.99</v>
       </c>
       <c r="AS43">
-        <v>7941</v>
+        <v>8142</v>
       </c>
       <c r="AU43">
         <v>1439323774</v>
@@ -7365,31 +7389,31 @@
         <v>514</v>
       </c>
       <c r="AI44">
-        <v>32463196</v>
+        <v>33005580</v>
       </c>
       <c r="AJ44">
-        <v>21179816</v>
+        <v>21549430</v>
       </c>
       <c r="AK44">
-        <v>13958104</v>
+        <v>14157111</v>
       </c>
       <c r="AM44">
         <v>270322</v>
       </c>
       <c r="AN44">
-        <v>187701</v>
+        <v>207487</v>
       </c>
       <c r="AO44">
-        <v>63.8</v>
+        <v>64.87</v>
       </c>
       <c r="AP44">
-        <v>41.62</v>
+        <v>42.35</v>
       </c>
       <c r="AQ44">
-        <v>27.43</v>
+        <v>27.82</v>
       </c>
       <c r="AS44">
-        <v>3689</v>
+        <v>4078</v>
       </c>
       <c r="AT44">
         <v>41.67</v>
@@ -8068,31 +8092,31 @@
         <v>513</v>
       </c>
       <c r="AI49">
-        <v>3200638</v>
+        <v>3208101</v>
       </c>
       <c r="AJ49">
-        <v>1691778</v>
+        <v>1694827</v>
       </c>
       <c r="AK49">
-        <v>1571296</v>
+        <v>1576504</v>
       </c>
       <c r="AM49">
-        <v>9118</v>
+        <v>7463</v>
       </c>
       <c r="AN49">
-        <v>6122</v>
+        <v>5978</v>
       </c>
       <c r="AO49">
-        <v>77.95999999999999</v>
+        <v>78.15000000000001</v>
       </c>
       <c r="AP49">
-        <v>41.21</v>
+        <v>41.28</v>
       </c>
       <c r="AQ49">
-        <v>38.28</v>
+        <v>38.4</v>
       </c>
       <c r="AS49">
-        <v>1491</v>
+        <v>1456</v>
       </c>
       <c r="AT49">
         <v>33.8</v>
@@ -8193,31 +8217,31 @@
         <v>1.03</v>
       </c>
       <c r="AI50">
-        <v>12320691</v>
+        <v>12350386</v>
       </c>
       <c r="AJ50">
-        <v>4889081</v>
+        <v>4900864</v>
       </c>
       <c r="AK50">
-        <v>3085785</v>
+        <v>3093593</v>
       </c>
       <c r="AM50">
-        <v>33686</v>
+        <v>29695</v>
       </c>
       <c r="AN50">
-        <v>180142</v>
+        <v>159500</v>
       </c>
       <c r="AO50">
-        <v>108.78</v>
+        <v>109.04</v>
       </c>
       <c r="AP50">
-        <v>43.16</v>
+        <v>43.27</v>
       </c>
       <c r="AQ50">
-        <v>27.24</v>
+        <v>27.31</v>
       </c>
       <c r="AS50">
-        <v>15904</v>
+        <v>14082</v>
       </c>
       <c r="AT50">
         <v>65.28</v>
@@ -8273,34 +8297,34 @@
         <v>336</v>
       </c>
       <c r="D51" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="AI51">
-        <v>179997</v>
+        <v>180643</v>
       </c>
       <c r="AJ51">
-        <v>94829</v>
+        <v>95205</v>
       </c>
       <c r="AK51">
-        <v>85168</v>
+        <v>85438</v>
       </c>
       <c r="AM51">
-        <v>599</v>
+        <v>646</v>
       </c>
       <c r="AN51">
-        <v>240</v>
+        <v>215</v>
       </c>
       <c r="AO51">
-        <v>109.69</v>
+        <v>110.08</v>
       </c>
       <c r="AP51">
-        <v>57.79</v>
+        <v>58.02</v>
       </c>
       <c r="AQ51">
-        <v>51.9</v>
+        <v>52.06</v>
       </c>
       <c r="AS51">
-        <v>1463</v>
+        <v>1310</v>
       </c>
       <c r="AU51">
         <v>164100</v>
@@ -8428,31 +8452,31 @@
         <v>514</v>
       </c>
       <c r="AI52">
-        <v>1060680</v>
+        <v>1068962</v>
       </c>
       <c r="AJ52">
-        <v>561189</v>
+        <v>564903</v>
       </c>
       <c r="AK52">
-        <v>499491</v>
+        <v>504059</v>
       </c>
       <c r="AM52">
         <v>4597</v>
       </c>
       <c r="AN52">
-        <v>3431</v>
+        <v>3093</v>
       </c>
       <c r="AO52">
-        <v>119.45</v>
+        <v>120.38</v>
       </c>
       <c r="AP52">
-        <v>63.2</v>
+        <v>63.61</v>
       </c>
       <c r="AQ52">
-        <v>56.25</v>
+        <v>56.76</v>
       </c>
       <c r="AS52">
-        <v>3864</v>
+        <v>3483</v>
       </c>
       <c r="AT52">
         <v>40.74</v>
@@ -8598,31 +8622,31 @@
         <v>514</v>
       </c>
       <c r="AI53">
-        <v>11186371</v>
+        <v>11201349</v>
       </c>
       <c r="AJ53">
-        <v>5870729</v>
+        <v>5873449</v>
       </c>
       <c r="AK53">
-        <v>5498886</v>
+        <v>5511825</v>
       </c>
       <c r="AM53">
-        <v>47170</v>
+        <v>13793</v>
       </c>
       <c r="AN53">
-        <v>34158</v>
+        <v>34392</v>
       </c>
       <c r="AO53">
-        <v>104.46</v>
+        <v>104.6</v>
       </c>
       <c r="AP53">
-        <v>54.82</v>
+        <v>54.85</v>
       </c>
       <c r="AQ53">
-        <v>51.35</v>
+        <v>51.47</v>
       </c>
       <c r="AS53">
-        <v>3190</v>
+        <v>3212</v>
       </c>
       <c r="AT53">
         <v>37.04</v>
@@ -8902,31 +8926,31 @@
         <v>514</v>
       </c>
       <c r="AI55">
-        <v>8280915</v>
+        <v>8314404</v>
       </c>
       <c r="AJ55">
-        <v>4359956</v>
+        <v>4364798</v>
       </c>
       <c r="AK55">
-        <v>3967430</v>
+        <v>3996079</v>
       </c>
       <c r="AM55">
-        <v>32606</v>
+        <v>33489</v>
       </c>
       <c r="AN55">
-        <v>43721</v>
+        <v>40878</v>
       </c>
       <c r="AO55">
-        <v>142.97</v>
+        <v>143.54</v>
       </c>
       <c r="AP55">
-        <v>75.27</v>
+        <v>75.36</v>
       </c>
       <c r="AQ55">
-        <v>68.5</v>
+        <v>68.98999999999999</v>
       </c>
       <c r="AS55">
-        <v>7548</v>
+        <v>7057</v>
       </c>
       <c r="AT55">
         <v>38.89</v>
@@ -9259,31 +9283,31 @@
         <v>516</v>
       </c>
       <c r="AI58">
-        <v>10789568</v>
+        <v>10825861</v>
       </c>
       <c r="AJ58">
-        <v>5709646</v>
+        <v>5719571</v>
       </c>
       <c r="AK58">
-        <v>4520504</v>
+        <v>4534518</v>
       </c>
       <c r="AM58">
-        <v>45885</v>
+        <v>36293</v>
       </c>
       <c r="AN58">
-        <v>26876</v>
+        <v>26808</v>
       </c>
       <c r="AO58">
-        <v>99.45999999999999</v>
+        <v>99.8</v>
       </c>
       <c r="AP58">
-        <v>52.63</v>
+        <v>52.73</v>
       </c>
       <c r="AQ58">
-        <v>41.67</v>
+        <v>41.8</v>
       </c>
       <c r="AS58">
-        <v>2478</v>
+        <v>2471</v>
       </c>
       <c r="AT58">
         <v>60.19</v>
@@ -9414,31 +9438,31 @@
         <v>513</v>
       </c>
       <c r="AI59">
-        <v>15879437</v>
+        <v>16500237</v>
       </c>
       <c r="AJ59">
-        <v>9960012</v>
+        <v>9963105</v>
       </c>
       <c r="AK59">
-        <v>5919425</v>
+        <v>6537132</v>
       </c>
       <c r="AM59">
-        <v>363200</v>
+        <v>265139</v>
       </c>
       <c r="AN59">
-        <v>254615</v>
+        <v>274560</v>
       </c>
       <c r="AO59">
-        <v>90</v>
+        <v>93.52</v>
       </c>
       <c r="AP59">
-        <v>56.45</v>
+        <v>56.47</v>
       </c>
       <c r="AQ59">
-        <v>33.55</v>
+        <v>37.05</v>
       </c>
       <c r="AS59">
-        <v>14431</v>
+        <v>15562</v>
       </c>
       <c r="AT59">
         <v>60.19</v>
@@ -10477,37 +10501,37 @@
         <v>1.776</v>
       </c>
       <c r="AI67">
-        <v>716518173</v>
+        <v>718408870</v>
       </c>
       <c r="AJ67">
-        <v>392428394</v>
+        <v>393201914</v>
       </c>
       <c r="AK67">
-        <v>338499677</v>
+        <v>339651721</v>
       </c>
       <c r="AL67">
         <v>10356</v>
       </c>
       <c r="AM67">
-        <v>1477020</v>
+        <v>1264697</v>
       </c>
       <c r="AN67">
-        <v>2804301</v>
+        <v>2585642</v>
       </c>
       <c r="AO67">
-        <v>95.7</v>
+        <v>95.95999999999999</v>
       </c>
       <c r="AP67">
-        <v>52.42</v>
+        <v>52.52</v>
       </c>
       <c r="AQ67">
-        <v>45.21</v>
+        <v>45.37</v>
       </c>
       <c r="AR67">
         <v>0</v>
       </c>
       <c r="AS67">
-        <v>3746</v>
+        <v>3454</v>
       </c>
       <c r="AU67">
         <v>748680069</v>
@@ -10560,31 +10584,31 @@
         <v>0.776</v>
       </c>
       <c r="AI68">
-        <v>513092961</v>
+        <v>513906337</v>
       </c>
       <c r="AJ68">
-        <v>281276438</v>
+        <v>281621868</v>
       </c>
       <c r="AK68">
-        <v>246471714</v>
+        <v>246980736</v>
       </c>
       <c r="AM68">
-        <v>680846</v>
+        <v>409113</v>
       </c>
       <c r="AN68">
-        <v>1721266</v>
+        <v>1672886</v>
       </c>
       <c r="AO68">
-        <v>115.32</v>
+        <v>115.51</v>
       </c>
       <c r="AP68">
-        <v>63.22</v>
+        <v>63.3</v>
       </c>
       <c r="AQ68">
-        <v>55.4</v>
+        <v>55.51</v>
       </c>
       <c r="AS68">
-        <v>3869</v>
+        <v>3760</v>
       </c>
       <c r="AU68">
         <v>444919060</v>
@@ -10854,31 +10878,31 @@
         <v>514</v>
       </c>
       <c r="AI71">
-        <v>6414095</v>
+        <v>6471135</v>
       </c>
       <c r="AJ71">
-        <v>3913542</v>
+        <v>3932404</v>
       </c>
       <c r="AK71">
-        <v>2500553</v>
+        <v>2538731</v>
       </c>
       <c r="AM71">
-        <v>59707</v>
+        <v>57040</v>
       </c>
       <c r="AN71">
-        <v>42587</v>
+        <v>41740</v>
       </c>
       <c r="AO71">
-        <v>115.76</v>
+        <v>116.79</v>
       </c>
       <c r="AP71">
-        <v>70.63</v>
+        <v>70.97</v>
       </c>
       <c r="AQ71">
-        <v>45.13</v>
+        <v>45.82</v>
       </c>
       <c r="AS71">
-        <v>7686</v>
+        <v>7533</v>
       </c>
       <c r="AT71">
         <v>39.81</v>
@@ -11354,28 +11378,31 @@
         <v>516</v>
       </c>
       <c r="AI75">
-        <v>316363</v>
+        <v>321385</v>
       </c>
       <c r="AJ75">
-        <v>175950</v>
+        <v>178481</v>
       </c>
       <c r="AK75">
-        <v>140413</v>
+        <v>142904</v>
+      </c>
+      <c r="AM75">
+        <v>5022</v>
       </c>
       <c r="AN75">
-        <v>6849</v>
+        <v>6281</v>
       </c>
       <c r="AO75">
-        <v>13.09</v>
+        <v>13.3</v>
       </c>
       <c r="AP75">
-        <v>7.28</v>
+        <v>7.39</v>
       </c>
       <c r="AQ75">
-        <v>5.81</v>
+        <v>5.91</v>
       </c>
       <c r="AS75">
-        <v>2834</v>
+        <v>2599</v>
       </c>
       <c r="AT75">
         <v>24.07</v>
@@ -11661,31 +11688,31 @@
         <v>514</v>
       </c>
       <c r="AI77">
-        <v>99042466</v>
+        <v>99340944</v>
       </c>
       <c r="AJ77">
-        <v>53066487</v>
+        <v>53173018</v>
       </c>
       <c r="AK77">
-        <v>48652173</v>
+        <v>48860871</v>
       </c>
       <c r="AM77">
-        <v>309641</v>
+        <v>282853</v>
       </c>
       <c r="AN77">
-        <v>295537</v>
+        <v>277572</v>
       </c>
       <c r="AO77">
-        <v>118.21</v>
+        <v>118.57</v>
       </c>
       <c r="AP77">
-        <v>63.34</v>
+        <v>63.46</v>
       </c>
       <c r="AQ77">
-        <v>58.07</v>
+        <v>58.32</v>
       </c>
       <c r="AS77">
-        <v>3527</v>
+        <v>3313</v>
       </c>
       <c r="AT77">
         <v>62.04</v>
@@ -11967,31 +11994,31 @@
         <v>516</v>
       </c>
       <c r="AI80">
-        <v>11128403</v>
+        <v>11153817</v>
       </c>
       <c r="AJ80">
-        <v>5894666</v>
+        <v>5904497</v>
       </c>
       <c r="AK80">
-        <v>5597167</v>
+        <v>5614071</v>
       </c>
       <c r="AM80">
-        <v>26943</v>
+        <v>25414</v>
       </c>
       <c r="AN80">
-        <v>23295</v>
+        <v>23630</v>
       </c>
       <c r="AO80">
-        <v>106.77</v>
+        <v>107.01</v>
       </c>
       <c r="AP80">
-        <v>56.55</v>
+        <v>56.65</v>
       </c>
       <c r="AQ80">
-        <v>53.7</v>
+        <v>53.86</v>
       </c>
       <c r="AS80">
-        <v>2235</v>
+        <v>2267</v>
       </c>
       <c r="AT80">
         <v>48.61</v>
@@ -12285,31 +12312,31 @@
         <v>513</v>
       </c>
       <c r="AI83">
-        <v>3635762</v>
+        <v>3747055</v>
       </c>
       <c r="AJ83">
-        <v>2906652</v>
+        <v>2952076</v>
       </c>
       <c r="AK83">
-        <v>729110</v>
+        <v>794979</v>
       </c>
       <c r="AM83">
-        <v>107349</v>
+        <v>111293</v>
       </c>
       <c r="AN83">
-        <v>81337</v>
+        <v>81348</v>
       </c>
       <c r="AO83">
-        <v>20.29</v>
+        <v>20.92</v>
       </c>
       <c r="AP83">
-        <v>16.22</v>
+        <v>16.48</v>
       </c>
       <c r="AQ83">
-        <v>4.07</v>
+        <v>4.44</v>
       </c>
       <c r="AS83">
-        <v>4540</v>
+        <v>4541</v>
       </c>
       <c r="AT83">
         <v>52.78</v>
@@ -13058,31 +13085,31 @@
         <v>514</v>
       </c>
       <c r="AI90">
-        <v>6944145</v>
+        <v>7003789</v>
       </c>
       <c r="AJ90">
-        <v>3884805</v>
+        <v>3906927</v>
       </c>
       <c r="AK90">
-        <v>3059340</v>
+        <v>3096862</v>
       </c>
       <c r="AM90">
-        <v>62945</v>
+        <v>59522</v>
       </c>
       <c r="AN90">
-        <v>61212</v>
+        <v>60580</v>
       </c>
       <c r="AO90">
-        <v>92.63</v>
+        <v>93.42</v>
       </c>
       <c r="AP90">
-        <v>51.82</v>
+        <v>52.11</v>
       </c>
       <c r="AQ90">
-        <v>40.81</v>
+        <v>41.31</v>
       </c>
       <c r="AS90">
-        <v>8165</v>
+        <v>8081</v>
       </c>
       <c r="AT90">
         <v>62.96</v>
@@ -13481,31 +13508,31 @@
         <v>516</v>
       </c>
       <c r="AI93">
-        <v>573205464</v>
+        <v>576365820</v>
       </c>
       <c r="AJ93">
-        <v>446102199</v>
+        <v>448292884</v>
       </c>
       <c r="AK93">
-        <v>127103265</v>
+        <v>128072936</v>
       </c>
       <c r="AM93">
-        <v>6609756</v>
+        <v>3160356</v>
       </c>
       <c r="AN93">
-        <v>5287937</v>
+        <v>4645647</v>
       </c>
       <c r="AO93">
-        <v>41.54</v>
+        <v>41.77</v>
       </c>
       <c r="AP93">
-        <v>32.33</v>
+        <v>32.48</v>
       </c>
       <c r="AQ93">
-        <v>9.210000000000001</v>
+        <v>9.279999999999999</v>
       </c>
       <c r="AS93">
-        <v>3832</v>
+        <v>3366</v>
       </c>
       <c r="AT93">
         <v>74.54000000000001</v>
@@ -13636,31 +13663,31 @@
         <v>513</v>
       </c>
       <c r="AI94">
-        <v>87257192</v>
+        <v>88197072</v>
       </c>
       <c r="AJ94">
-        <v>56504055</v>
+        <v>56986150</v>
       </c>
       <c r="AK94">
-        <v>30753137</v>
+        <v>31210922</v>
       </c>
       <c r="AM94">
-        <v>842736</v>
+        <v>939880</v>
       </c>
       <c r="AN94">
-        <v>1050108</v>
+        <v>1062630</v>
       </c>
       <c r="AO94">
-        <v>31.9</v>
+        <v>32.24</v>
       </c>
       <c r="AP94">
-        <v>20.66</v>
+        <v>20.83</v>
       </c>
       <c r="AQ94">
-        <v>11.24</v>
+        <v>11.41</v>
       </c>
       <c r="AS94">
-        <v>3839</v>
+        <v>3885</v>
       </c>
       <c r="AT94">
         <v>68.98</v>
@@ -14109,31 +14136,31 @@
         <v>514</v>
       </c>
       <c r="AI98">
-        <v>6536284</v>
+        <v>6574056</v>
       </c>
       <c r="AJ98">
-        <v>3571239</v>
+        <v>3586658</v>
       </c>
       <c r="AK98">
-        <v>3194240</v>
+        <v>3217265</v>
       </c>
       <c r="AM98">
-        <v>37275</v>
+        <v>37772</v>
       </c>
       <c r="AN98">
-        <v>35361</v>
+        <v>35404</v>
       </c>
       <c r="AO98">
-        <v>132.37</v>
+        <v>133.14</v>
       </c>
       <c r="AP98">
-        <v>72.31999999999999</v>
+        <v>72.64</v>
       </c>
       <c r="AQ98">
-        <v>64.69</v>
+        <v>65.16</v>
       </c>
       <c r="AS98">
-        <v>7161</v>
+        <v>7170</v>
       </c>
       <c r="AT98">
         <v>48.15</v>
@@ -14192,34 +14219,34 @@
         <v>383</v>
       </c>
       <c r="D99" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="AI99">
-        <v>125652</v>
+        <v>125989</v>
       </c>
       <c r="AJ99">
-        <v>65041</v>
+        <v>65378</v>
       </c>
       <c r="AK99">
         <v>60611</v>
       </c>
       <c r="AM99">
-        <v>30</v>
+        <v>337</v>
       </c>
       <c r="AN99">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="AO99">
-        <v>147.77</v>
+        <v>148.17</v>
       </c>
       <c r="AP99">
-        <v>76.48999999999999</v>
+        <v>76.89</v>
       </c>
       <c r="AQ99">
         <v>71.28</v>
       </c>
       <c r="AS99">
-        <v>94</v>
+        <v>659</v>
       </c>
       <c r="AU99">
         <v>85032</v>
@@ -14335,37 +14362,37 @@
         <v>514</v>
       </c>
       <c r="AI100">
-        <v>12647421</v>
+        <v>12708044</v>
       </c>
       <c r="AJ100">
-        <v>5885726</v>
+        <v>5889977</v>
       </c>
       <c r="AK100">
-        <v>5438868</v>
+        <v>5440584</v>
       </c>
       <c r="AL100">
-        <v>1322827</v>
+        <v>1377483</v>
       </c>
       <c r="AM100">
-        <v>62542</v>
+        <v>55522</v>
       </c>
       <c r="AN100">
-        <v>82342</v>
+        <v>84230</v>
       </c>
       <c r="AO100">
-        <v>146.12</v>
+        <v>146.82</v>
       </c>
       <c r="AP100">
-        <v>68</v>
+        <v>68.05</v>
       </c>
       <c r="AQ100">
-        <v>62.84</v>
+        <v>62.86</v>
       </c>
       <c r="AR100">
-        <v>15.28</v>
+        <v>15.91</v>
       </c>
       <c r="AS100">
-        <v>9513</v>
+        <v>9731</v>
       </c>
       <c r="AT100">
         <v>52.78</v>
@@ -14511,31 +14538,31 @@
         <v>514</v>
       </c>
       <c r="AI101">
-        <v>75040135</v>
+        <v>75194688</v>
       </c>
       <c r="AJ101">
-        <v>41351283</v>
+        <v>41429598</v>
       </c>
       <c r="AK101">
-        <v>35099847</v>
+        <v>35177529</v>
       </c>
       <c r="AM101">
-        <v>223543</v>
+        <v>149820</v>
       </c>
       <c r="AN101">
-        <v>196964</v>
+        <v>200895</v>
       </c>
       <c r="AO101">
-        <v>124.11</v>
+        <v>124.37</v>
       </c>
       <c r="AP101">
-        <v>68.39</v>
+        <v>68.52</v>
       </c>
       <c r="AQ101">
-        <v>58.05</v>
+        <v>58.18</v>
       </c>
       <c r="AS101">
-        <v>3258</v>
+        <v>3323</v>
       </c>
       <c r="AT101">
         <v>50</v>
@@ -15002,31 +15029,31 @@
         <v>514</v>
       </c>
       <c r="AI105">
-        <v>6007827</v>
+        <v>6043931</v>
       </c>
       <c r="AJ105">
-        <v>3321063</v>
+        <v>3336231</v>
       </c>
       <c r="AK105">
-        <v>2686764</v>
+        <v>2707700</v>
       </c>
       <c r="AM105">
-        <v>8214</v>
+        <v>36104</v>
       </c>
       <c r="AN105">
-        <v>45070</v>
+        <v>43177</v>
       </c>
       <c r="AO105">
-        <v>58.88</v>
+        <v>59.24</v>
       </c>
       <c r="AP105">
-        <v>32.55</v>
+        <v>32.7</v>
       </c>
       <c r="AQ105">
-        <v>26.33</v>
+        <v>26.54</v>
       </c>
       <c r="AS105">
-        <v>4417</v>
+        <v>4232</v>
       </c>
       <c r="AU105">
         <v>10203140</v>
@@ -15118,31 +15145,31 @@
         <v>1.02</v>
       </c>
       <c r="AI106">
-        <v>11189420</v>
+        <v>11285628</v>
       </c>
       <c r="AJ106">
-        <v>6276224</v>
+        <v>6322910</v>
       </c>
       <c r="AK106">
-        <v>4913196</v>
+        <v>4962718</v>
       </c>
       <c r="AM106">
-        <v>92469</v>
+        <v>96208</v>
       </c>
       <c r="AN106">
-        <v>83070</v>
+        <v>81916</v>
       </c>
       <c r="AO106">
-        <v>59.59</v>
+        <v>60.1</v>
       </c>
       <c r="AP106">
-        <v>33.43</v>
+        <v>33.67</v>
       </c>
       <c r="AQ106">
-        <v>26.17</v>
+        <v>26.43</v>
       </c>
       <c r="AS106">
-        <v>4424</v>
+        <v>4363</v>
       </c>
       <c r="AT106">
         <v>62.96</v>
@@ -15722,31 +15749,31 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AI111">
-        <v>981836</v>
+        <v>989905</v>
       </c>
       <c r="AJ111">
-        <v>633235</v>
+        <v>635267</v>
       </c>
       <c r="AK111">
-        <v>346902</v>
+        <v>352916</v>
       </c>
       <c r="AM111">
-        <v>18070</v>
+        <v>8069</v>
       </c>
       <c r="AN111">
-        <v>20108</v>
+        <v>20260</v>
       </c>
       <c r="AO111">
-        <v>15.05</v>
+        <v>15.17</v>
       </c>
       <c r="AP111">
-        <v>9.710000000000001</v>
+        <v>9.74</v>
       </c>
       <c r="AQ111">
-        <v>5.32</v>
+        <v>5.41</v>
       </c>
       <c r="AS111">
-        <v>3082</v>
+        <v>3105</v>
       </c>
       <c r="AT111">
         <v>57.41</v>
@@ -15849,29 +15876,11 @@
       <c r="Q112">
         <v>1.13</v>
       </c>
-      <c r="AI112">
-        <v>3371785</v>
-      </c>
       <c r="AJ112">
-        <v>1828039</v>
-      </c>
-      <c r="AK112">
-        <v>1543746</v>
-      </c>
-      <c r="AN112">
-        <v>88016</v>
-      </c>
-      <c r="AO112">
-        <v>46.34</v>
+        <v>2060418</v>
       </c>
       <c r="AP112">
-        <v>25.13</v>
-      </c>
-      <c r="AQ112">
-        <v>21.22</v>
-      </c>
-      <c r="AS112">
-        <v>12097</v>
+        <v>28.32</v>
       </c>
       <c r="AT112">
         <v>53.7</v>
@@ -16764,31 +16773,31 @@
         <v>514</v>
       </c>
       <c r="AI119">
-        <v>3039639</v>
+        <v>3043697</v>
       </c>
       <c r="AJ119">
-        <v>1606508</v>
+        <v>1608606</v>
       </c>
       <c r="AK119">
-        <v>1433131</v>
+        <v>1435091</v>
       </c>
       <c r="AM119">
-        <v>21305</v>
+        <v>3786</v>
       </c>
       <c r="AN119">
-        <v>18041</v>
+        <v>17888</v>
       </c>
       <c r="AO119">
-        <v>111.66</v>
+        <v>111.81</v>
       </c>
       <c r="AP119">
-        <v>59.01</v>
+        <v>59.09</v>
       </c>
       <c r="AQ119">
-        <v>52.64</v>
+        <v>52.72</v>
       </c>
       <c r="AS119">
-        <v>6627</v>
+        <v>6571</v>
       </c>
       <c r="AU119">
         <v>2722291</v>
@@ -17395,31 +17404,31 @@
         <v>513</v>
       </c>
       <c r="AI124">
-        <v>30370403</v>
+        <v>30840093</v>
       </c>
       <c r="AJ124">
-        <v>17961600</v>
+        <v>18121392</v>
       </c>
       <c r="AK124">
-        <v>12408803</v>
+        <v>12718701</v>
       </c>
       <c r="AM124">
-        <v>483855</v>
+        <v>469690</v>
       </c>
       <c r="AN124">
-        <v>488249</v>
+        <v>492159</v>
       </c>
       <c r="AO124">
-        <v>93.83</v>
+        <v>95.29000000000001</v>
       </c>
       <c r="AP124">
-        <v>55.5</v>
+        <v>55.99</v>
       </c>
       <c r="AQ124">
-        <v>38.34</v>
+        <v>39.3</v>
       </c>
       <c r="AS124">
-        <v>15085</v>
+        <v>15206</v>
       </c>
       <c r="AU124">
         <v>32365998</v>
@@ -17824,31 +17833,31 @@
         <v>514</v>
       </c>
       <c r="AI127">
-        <v>789540</v>
+        <v>790833</v>
       </c>
       <c r="AJ127">
-        <v>410087</v>
+        <v>410650</v>
       </c>
       <c r="AK127">
-        <v>408010</v>
+        <v>408885</v>
       </c>
       <c r="AM127">
-        <v>1248</v>
+        <v>1293</v>
       </c>
       <c r="AN127">
-        <v>991</v>
+        <v>979</v>
       </c>
       <c r="AO127">
-        <v>178.82</v>
+        <v>179.11</v>
       </c>
       <c r="AP127">
-        <v>92.88</v>
+        <v>93</v>
       </c>
       <c r="AQ127">
-        <v>92.41</v>
+        <v>92.59999999999999</v>
       </c>
       <c r="AS127">
-        <v>2244</v>
+        <v>2217</v>
       </c>
       <c r="AT127">
         <v>43.52</v>
@@ -18279,31 +18288,31 @@
         <v>513</v>
       </c>
       <c r="AI131">
-        <v>79933762</v>
+        <v>80404167</v>
       </c>
       <c r="AJ131">
-        <v>55928566</v>
+        <v>56165373</v>
       </c>
       <c r="AK131">
-        <v>30490131</v>
+        <v>30746818</v>
       </c>
       <c r="AM131">
-        <v>534364</v>
+        <v>470405</v>
       </c>
       <c r="AN131">
-        <v>732998</v>
+        <v>660563</v>
       </c>
       <c r="AO131">
-        <v>62</v>
+        <v>62.36</v>
       </c>
       <c r="AP131">
-        <v>43.38</v>
+        <v>43.56</v>
       </c>
       <c r="AQ131">
-        <v>23.65</v>
+        <v>23.85</v>
       </c>
       <c r="AS131">
-        <v>5685</v>
+        <v>5123</v>
       </c>
       <c r="AT131">
         <v>67.13</v>
@@ -18499,7 +18508,7 @@
         <v>514</v>
       </c>
       <c r="AI133">
-        <v>1211354</v>
+        <v>1217563</v>
       </c>
       <c r="AJ133">
         <v>573001</v>
@@ -18508,13 +18517,13 @@
         <v>572799</v>
       </c>
       <c r="AM133">
-        <v>11165</v>
+        <v>6209</v>
       </c>
       <c r="AN133">
-        <v>10633</v>
+        <v>10556</v>
       </c>
       <c r="AO133">
-        <v>30.03</v>
+        <v>30.18</v>
       </c>
       <c r="AP133">
         <v>14.2</v>
@@ -18523,7 +18532,7 @@
         <v>14.2</v>
       </c>
       <c r="AS133">
-        <v>2636</v>
+        <v>2617</v>
       </c>
       <c r="AT133">
         <v>51.85</v>
@@ -18698,31 +18707,31 @@
         <v>1.03</v>
       </c>
       <c r="AI135">
-        <v>4278004</v>
+        <v>4280748</v>
       </c>
       <c r="AJ135">
-        <v>2226436</v>
+        <v>2227072</v>
       </c>
       <c r="AK135">
-        <v>2051568</v>
+        <v>2053676</v>
       </c>
       <c r="AM135">
-        <v>16995</v>
+        <v>2744</v>
       </c>
       <c r="AN135">
-        <v>6460</v>
+        <v>6448</v>
       </c>
       <c r="AO135">
-        <v>130.49</v>
+        <v>130.58</v>
       </c>
       <c r="AP135">
-        <v>67.91</v>
+        <v>67.93000000000001</v>
       </c>
       <c r="AQ135">
-        <v>62.58</v>
+        <v>62.64</v>
       </c>
       <c r="AS135">
-        <v>1971</v>
+        <v>1967</v>
       </c>
       <c r="AT135">
         <v>59.26</v>
@@ -18826,31 +18835,31 @@
         <v>1.45</v>
       </c>
       <c r="AI136">
-        <v>370265</v>
+        <v>372949</v>
       </c>
       <c r="AJ136">
-        <v>200404</v>
+        <v>201841</v>
       </c>
       <c r="AK136">
-        <v>169861</v>
+        <v>171108</v>
       </c>
       <c r="AM136">
-        <v>2831</v>
+        <v>2684</v>
       </c>
       <c r="AN136">
-        <v>2043</v>
+        <v>2104</v>
       </c>
       <c r="AO136">
-        <v>58.95</v>
+        <v>59.38</v>
       </c>
       <c r="AP136">
-        <v>31.91</v>
+        <v>32.14</v>
       </c>
       <c r="AQ136">
-        <v>27.05</v>
+        <v>27.24</v>
       </c>
       <c r="AS136">
-        <v>3253</v>
+        <v>3350</v>
       </c>
       <c r="AU136">
         <v>628062</v>
@@ -18975,31 +18984,31 @@
         <v>513</v>
       </c>
       <c r="AI137">
-        <v>30030540</v>
+        <v>30136555</v>
       </c>
       <c r="AJ137">
-        <v>17220526</v>
+        <v>17261839</v>
       </c>
       <c r="AK137">
-        <v>12810014</v>
+        <v>12874716</v>
       </c>
       <c r="AM137">
-        <v>174527</v>
+        <v>106015</v>
       </c>
       <c r="AN137">
-        <v>352753</v>
+        <v>358071</v>
       </c>
       <c r="AO137">
-        <v>81.36</v>
+        <v>81.65000000000001</v>
       </c>
       <c r="AP137">
-        <v>46.65</v>
+        <v>46.77</v>
       </c>
       <c r="AQ137">
-        <v>34.71</v>
+        <v>34.88</v>
       </c>
       <c r="AS137">
-        <v>9557</v>
+        <v>9701</v>
       </c>
       <c r="AU137">
         <v>36910558</v>
@@ -19553,31 +19562,31 @@
         <v>514</v>
       </c>
       <c r="AI141">
-        <v>8706701</v>
+        <v>8770664</v>
       </c>
       <c r="AJ141">
-        <v>4907523</v>
+        <v>4935056</v>
       </c>
       <c r="AK141">
-        <v>3799178</v>
+        <v>3835608</v>
       </c>
       <c r="AM141">
-        <v>180028</v>
+        <v>63963</v>
       </c>
       <c r="AN141">
-        <v>137124</v>
+        <v>113253</v>
       </c>
       <c r="AO141">
-        <v>29.88</v>
+        <v>30.1</v>
       </c>
       <c r="AP141">
-        <v>16.84</v>
+        <v>16.94</v>
       </c>
       <c r="AQ141">
-        <v>13.04</v>
+        <v>13.16</v>
       </c>
       <c r="AS141">
-        <v>4706</v>
+        <v>3887</v>
       </c>
       <c r="AT141">
         <v>64.81</v>
@@ -19735,7 +19744,7 @@
         <v>10589191</v>
       </c>
       <c r="AN142">
-        <v>34404</v>
+        <v>22534</v>
       </c>
       <c r="AO142">
         <v>126.83</v>
@@ -19747,7 +19756,7 @@
         <v>61.8</v>
       </c>
       <c r="AS142">
-        <v>2008</v>
+        <v>1315</v>
       </c>
       <c r="AT142">
         <v>36.11</v>
@@ -20463,31 +20472,31 @@
         <v>3.242</v>
       </c>
       <c r="AI149">
-        <v>539329780</v>
+        <v>541145953</v>
       </c>
       <c r="AJ149">
-        <v>310735643</v>
+        <v>311595811</v>
       </c>
       <c r="AK149">
-        <v>239960627</v>
+        <v>240800557</v>
       </c>
       <c r="AM149">
-        <v>1383107</v>
+        <v>1167004</v>
       </c>
       <c r="AN149">
-        <v>2043571</v>
+        <v>1987763</v>
       </c>
       <c r="AO149">
-        <v>91.09</v>
+        <v>91.40000000000001</v>
       </c>
       <c r="AP149">
-        <v>52.48</v>
+        <v>52.63</v>
       </c>
       <c r="AQ149">
-        <v>40.53</v>
+        <v>40.67</v>
       </c>
       <c r="AS149">
-        <v>3452</v>
+        <v>3357</v>
       </c>
       <c r="AU149">
         <v>592072204</v>
@@ -20885,31 +20894,31 @@
         <v>0.295</v>
       </c>
       <c r="AI153">
-        <v>20622133</v>
+        <v>20932657</v>
       </c>
       <c r="AJ153">
-        <v>13284702</v>
+        <v>13451208</v>
       </c>
       <c r="AK153">
-        <v>7336241</v>
+        <v>7480259</v>
       </c>
       <c r="AM153">
-        <v>303304</v>
+        <v>310524</v>
       </c>
       <c r="AN153">
-        <v>291542</v>
+        <v>291863</v>
       </c>
       <c r="AO153">
-        <v>48.32</v>
+        <v>49.05</v>
       </c>
       <c r="AP153">
-        <v>31.13</v>
+        <v>31.52</v>
       </c>
       <c r="AQ153">
-        <v>17.19</v>
+        <v>17.53</v>
       </c>
       <c r="AS153">
-        <v>6831</v>
+        <v>6839</v>
       </c>
       <c r="AU153">
         <v>42677809</v>
@@ -21117,31 +21126,31 @@
         <v>514</v>
       </c>
       <c r="AI155">
-        <v>45540221</v>
+        <v>46456077</v>
       </c>
       <c r="AJ155">
-        <v>36458408</v>
+        <v>37043561</v>
       </c>
       <c r="AK155">
-        <v>13022591</v>
+        <v>13434605</v>
       </c>
       <c r="AM155">
-        <v>414760</v>
+        <v>915856</v>
       </c>
       <c r="AN155">
-        <v>480971</v>
+        <v>575013</v>
       </c>
       <c r="AO155">
-        <v>20.62</v>
+        <v>21.03</v>
       </c>
       <c r="AP155">
-        <v>16.51</v>
+        <v>16.77</v>
       </c>
       <c r="AQ155">
-        <v>5.9</v>
+        <v>6.08</v>
       </c>
       <c r="AS155">
-        <v>2177</v>
+        <v>2603</v>
       </c>
       <c r="AT155">
         <v>66.67</v>
@@ -21668,28 +21677,28 @@
         <v>514</v>
       </c>
       <c r="AI159">
-        <v>3611565</v>
+        <v>3784757</v>
       </c>
       <c r="AJ159">
-        <v>2217446</v>
+        <v>2253992</v>
       </c>
       <c r="AK159">
-        <v>1394119</v>
+        <v>1530765</v>
       </c>
       <c r="AN159">
-        <v>76278</v>
+        <v>101020</v>
       </c>
       <c r="AO159">
-        <v>50.64</v>
+        <v>53.06</v>
       </c>
       <c r="AP159">
-        <v>31.09</v>
+        <v>31.6</v>
       </c>
       <c r="AQ159">
-        <v>19.55</v>
+        <v>21.46</v>
       </c>
       <c r="AS159">
-        <v>10694</v>
+        <v>14163</v>
       </c>
       <c r="AT159">
         <v>34.26</v>
@@ -21820,31 +21829,31 @@
         <v>514</v>
       </c>
       <c r="AI160">
-        <v>16518355</v>
+        <v>16640510</v>
       </c>
       <c r="AJ160">
-        <v>9355138</v>
+        <v>9397634</v>
       </c>
       <c r="AK160">
-        <v>7163217</v>
+        <v>7242876</v>
       </c>
       <c r="AM160">
-        <v>58995</v>
+        <v>65696</v>
       </c>
       <c r="AN160">
-        <v>112262</v>
+        <v>111784</v>
       </c>
       <c r="AO160">
-        <v>50.1</v>
+        <v>50.47</v>
       </c>
       <c r="AP160">
-        <v>28.37</v>
+        <v>28.5</v>
       </c>
       <c r="AQ160">
-        <v>21.73</v>
+        <v>21.97</v>
       </c>
       <c r="AS160">
-        <v>3405</v>
+        <v>3390</v>
       </c>
       <c r="AT160">
         <v>74.06999999999999</v>
@@ -22130,31 +22139,31 @@
         <v>513</v>
       </c>
       <c r="AI162">
-        <v>35690920</v>
+        <v>35763435</v>
       </c>
       <c r="AJ162">
-        <v>18974615</v>
+        <v>19008598</v>
       </c>
       <c r="AK162">
-        <v>18358017</v>
+        <v>18410561</v>
       </c>
       <c r="AM162">
-        <v>69683</v>
+        <v>72515</v>
       </c>
       <c r="AN162">
-        <v>58530</v>
+        <v>59709</v>
       </c>
       <c r="AO162">
-        <v>94.3</v>
+        <v>94.5</v>
       </c>
       <c r="AP162">
-        <v>50.14</v>
+        <v>50.23</v>
       </c>
       <c r="AQ162">
-        <v>48.51</v>
+        <v>48.65</v>
       </c>
       <c r="AS162">
-        <v>1547</v>
+        <v>1578</v>
       </c>
       <c r="AT162">
         <v>38.89</v>
@@ -22297,31 +22306,31 @@
         <v>514</v>
       </c>
       <c r="AI163">
-        <v>13945281</v>
+        <v>14025295</v>
       </c>
       <c r="AJ163">
-        <v>8033855</v>
+        <v>8089489</v>
       </c>
       <c r="AK163">
-        <v>6851976</v>
+        <v>6876356</v>
       </c>
       <c r="AM163">
-        <v>74595</v>
+        <v>80014</v>
       </c>
       <c r="AN163">
-        <v>89355</v>
+        <v>83876</v>
       </c>
       <c r="AO163">
-        <v>136.76</v>
+        <v>137.55</v>
       </c>
       <c r="AP163">
-        <v>78.79000000000001</v>
+        <v>79.33</v>
       </c>
       <c r="AQ163">
-        <v>67.2</v>
+        <v>67.44</v>
       </c>
       <c r="AS163">
-        <v>8763</v>
+        <v>8226</v>
       </c>
       <c r="AT163">
         <v>58.33</v>
@@ -22449,31 +22458,31 @@
         <v>513</v>
       </c>
       <c r="AI164">
-        <v>4228126</v>
+        <v>4231970</v>
       </c>
       <c r="AJ164">
-        <v>2269446</v>
+        <v>2271091</v>
       </c>
       <c r="AK164">
-        <v>1958680</v>
+        <v>1960879</v>
       </c>
       <c r="AM164">
-        <v>25648</v>
+        <v>3844</v>
       </c>
       <c r="AN164">
-        <v>23005</v>
+        <v>22186</v>
       </c>
       <c r="AO164">
-        <v>146.76</v>
+        <v>146.89</v>
       </c>
       <c r="AP164">
-        <v>78.77</v>
+        <v>78.83</v>
       </c>
       <c r="AQ164">
-        <v>67.98</v>
+        <v>68.06</v>
       </c>
       <c r="AS164">
-        <v>7985</v>
+        <v>7701</v>
       </c>
       <c r="AU164">
         <v>2881060</v>
@@ -22601,31 +22610,31 @@
         <v>514</v>
       </c>
       <c r="AI165">
-        <v>9640934</v>
+        <v>9654182</v>
       </c>
       <c r="AJ165">
-        <v>5156605</v>
+        <v>5165924</v>
       </c>
       <c r="AK165">
-        <v>5034584</v>
+        <v>5045222</v>
       </c>
       <c r="AM165">
-        <v>13055</v>
+        <v>13248</v>
       </c>
       <c r="AN165">
-        <v>11735</v>
+        <v>11527</v>
       </c>
       <c r="AO165">
-        <v>50.11</v>
+        <v>50.18</v>
       </c>
       <c r="AP165">
-        <v>26.8</v>
+        <v>26.85</v>
       </c>
       <c r="AQ165">
-        <v>26.17</v>
+        <v>26.23</v>
       </c>
       <c r="AS165">
-        <v>610</v>
+        <v>599</v>
       </c>
       <c r="AT165">
         <v>38.43</v>
@@ -22747,31 +22756,31 @@
         <v>514</v>
       </c>
       <c r="AI166">
-        <v>75677887</v>
+        <v>76458068</v>
       </c>
       <c r="AJ166">
-        <v>41822606</v>
+        <v>42167285</v>
       </c>
       <c r="AK166">
-        <v>33855281</v>
+        <v>34290783</v>
       </c>
       <c r="AM166">
-        <v>634586</v>
+        <v>780181</v>
       </c>
       <c r="AN166">
-        <v>663517</v>
+        <v>508917</v>
       </c>
       <c r="AO166">
-        <v>51.86</v>
+        <v>52.39</v>
       </c>
       <c r="AP166">
-        <v>28.66</v>
+        <v>28.89</v>
       </c>
       <c r="AQ166">
-        <v>23.2</v>
+        <v>23.5</v>
       </c>
       <c r="AS166">
-        <v>4547</v>
+        <v>3487</v>
       </c>
       <c r="AT166">
         <v>46.76</v>
@@ -22899,28 +22908,31 @@
         <v>516</v>
       </c>
       <c r="AI167">
-        <v>1344627</v>
+        <v>1399797</v>
       </c>
       <c r="AJ167">
-        <v>951795</v>
+        <v>980082</v>
       </c>
       <c r="AK167">
-        <v>392832</v>
+        <v>419715</v>
+      </c>
+      <c r="AM167">
+        <v>55170</v>
       </c>
       <c r="AN167">
-        <v>38761</v>
+        <v>41105</v>
       </c>
       <c r="AO167">
-        <v>10.38</v>
+        <v>10.81</v>
       </c>
       <c r="AP167">
-        <v>7.35</v>
+        <v>7.57</v>
       </c>
       <c r="AQ167">
-        <v>3.03</v>
+        <v>3.24</v>
       </c>
       <c r="AS167">
-        <v>2993</v>
+        <v>3174</v>
       </c>
       <c r="AT167">
         <v>54.63</v>
@@ -23048,28 +23060,31 @@
         <v>513</v>
       </c>
       <c r="AI168">
-        <v>44124</v>
+        <v>44750</v>
       </c>
       <c r="AJ168">
-        <v>24030</v>
+        <v>24146</v>
       </c>
       <c r="AK168">
-        <v>20094</v>
+        <v>20604</v>
+      </c>
+      <c r="AM168">
+        <v>626</v>
       </c>
       <c r="AN168">
-        <v>57</v>
+        <v>136</v>
       </c>
       <c r="AO168">
-        <v>82.95</v>
+        <v>84.13</v>
       </c>
       <c r="AP168">
-        <v>45.18</v>
+        <v>45.39</v>
       </c>
       <c r="AQ168">
-        <v>37.78</v>
+        <v>38.74</v>
       </c>
       <c r="AS168">
-        <v>1072</v>
+        <v>2557</v>
       </c>
       <c r="AU168">
         <v>53192</v>
@@ -23146,31 +23161,31 @@
         <v>1.55</v>
       </c>
       <c r="AI169">
-        <v>61566</v>
+        <v>61823</v>
       </c>
       <c r="AJ169">
-        <v>34464</v>
+        <v>34601</v>
       </c>
       <c r="AK169">
-        <v>27102</v>
+        <v>27222</v>
       </c>
       <c r="AM169">
-        <v>551</v>
+        <v>257</v>
       </c>
       <c r="AN169">
-        <v>290</v>
+        <v>309</v>
       </c>
       <c r="AO169">
-        <v>33.53</v>
+        <v>33.67</v>
       </c>
       <c r="AP169">
-        <v>18.77</v>
+        <v>18.84</v>
       </c>
       <c r="AQ169">
-        <v>14.76</v>
+        <v>14.82</v>
       </c>
       <c r="AS169">
-        <v>1579</v>
+        <v>1683</v>
       </c>
       <c r="AU169">
         <v>183629</v>
@@ -23262,28 +23277,28 @@
         <v>1.02</v>
       </c>
       <c r="AI170">
-        <v>25833</v>
+        <v>26690</v>
       </c>
       <c r="AJ170">
-        <v>15799</v>
+        <v>16417</v>
       </c>
       <c r="AK170">
-        <v>10034</v>
+        <v>10273</v>
       </c>
       <c r="AN170">
-        <v>9</v>
+        <v>122</v>
       </c>
       <c r="AO170">
-        <v>23.28</v>
+        <v>24.06</v>
       </c>
       <c r="AP170">
-        <v>14.24</v>
+        <v>14.8</v>
       </c>
       <c r="AQ170">
-        <v>9.039999999999999</v>
+        <v>9.26</v>
       </c>
       <c r="AS170">
-        <v>81</v>
+        <v>1100</v>
       </c>
       <c r="AU170">
         <v>110947</v>
@@ -23714,31 +23729,31 @@
         <v>514</v>
       </c>
       <c r="AI174">
-        <v>33487478</v>
+        <v>33735074</v>
       </c>
       <c r="AJ174">
-        <v>21256778</v>
+        <v>21329504</v>
       </c>
       <c r="AK174">
-        <v>12230700</v>
+        <v>12405570</v>
       </c>
       <c r="AM174">
-        <v>215659</v>
+        <v>247596</v>
       </c>
       <c r="AN174">
-        <v>290742</v>
+        <v>297267</v>
       </c>
       <c r="AO174">
-        <v>96.19</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="AP174">
-        <v>61.06</v>
+        <v>61.27</v>
       </c>
       <c r="AQ174">
-        <v>35.13</v>
+        <v>35.63</v>
       </c>
       <c r="AS174">
-        <v>8351</v>
+        <v>8539</v>
       </c>
       <c r="AU174">
         <v>34813867</v>
@@ -24378,31 +24393,31 @@
         <v>516</v>
       </c>
       <c r="AI179">
-        <v>8681501</v>
+        <v>8709548</v>
       </c>
       <c r="AJ179">
-        <v>4543481</v>
+        <v>4551878</v>
       </c>
       <c r="AK179">
-        <v>4266439</v>
+        <v>4329835</v>
       </c>
       <c r="AM179">
-        <v>97219</v>
+        <v>28047</v>
       </c>
       <c r="AN179">
-        <v>36036</v>
+        <v>31624</v>
       </c>
       <c r="AO179">
-        <v>148.39</v>
+        <v>148.87</v>
       </c>
       <c r="AP179">
-        <v>77.66</v>
+        <v>77.81</v>
       </c>
       <c r="AQ179">
-        <v>72.93000000000001</v>
+        <v>74.01000000000001</v>
       </c>
       <c r="AS179">
-        <v>6160</v>
+        <v>5405</v>
       </c>
       <c r="AT179">
         <v>47.22</v>
@@ -24762,31 +24777,31 @@
         <v>514</v>
       </c>
       <c r="AI182">
-        <v>1843331</v>
+        <v>1844406</v>
       </c>
       <c r="AJ182">
-        <v>971753</v>
+        <v>972303</v>
       </c>
       <c r="AK182">
-        <v>871578</v>
+        <v>872103</v>
       </c>
       <c r="AM182">
-        <v>7324</v>
+        <v>891</v>
       </c>
       <c r="AN182">
-        <v>5395</v>
+        <v>5435</v>
       </c>
       <c r="AO182">
-        <v>88.67</v>
+        <v>88.72</v>
       </c>
       <c r="AP182">
-        <v>46.74</v>
+        <v>46.77</v>
       </c>
       <c r="AQ182">
-        <v>41.92</v>
+        <v>41.95</v>
       </c>
       <c r="AS182">
-        <v>2595</v>
+        <v>2614</v>
       </c>
       <c r="AT182">
         <v>29.63</v>
@@ -25193,37 +25208,37 @@
         <v>2.882</v>
       </c>
       <c r="AI186">
-        <v>324023697</v>
+        <v>326138552</v>
       </c>
       <c r="AJ186">
-        <v>217815178</v>
+        <v>218393602</v>
       </c>
       <c r="AK186">
-        <v>112087919</v>
+        <v>113553057</v>
       </c>
       <c r="AL186">
-        <v>978753</v>
+        <v>1077914</v>
       </c>
       <c r="AM186">
-        <v>897576</v>
+        <v>503359</v>
       </c>
       <c r="AN186">
-        <v>3485234</v>
+        <v>2831513</v>
       </c>
       <c r="AO186">
-        <v>75.22</v>
+        <v>75.70999999999999</v>
       </c>
       <c r="AP186">
-        <v>50.57</v>
+        <v>50.7</v>
       </c>
       <c r="AQ186">
-        <v>26.02</v>
+        <v>26.36</v>
       </c>
       <c r="AR186">
-        <v>0.23</v>
+        <v>0.25</v>
       </c>
       <c r="AS186">
-        <v>8091</v>
+        <v>6573</v>
       </c>
       <c r="AU186">
         <v>430759772</v>
@@ -25309,31 +25324,31 @@
         <v>513</v>
       </c>
       <c r="AI187">
-        <v>35811299</v>
+        <v>36299704</v>
       </c>
       <c r="AJ187">
-        <v>25501990</v>
+        <v>25866970</v>
       </c>
       <c r="AK187">
-        <v>11439093</v>
+        <v>11562518</v>
       </c>
       <c r="AM187">
-        <v>1016975</v>
+        <v>482304</v>
       </c>
       <c r="AN187">
-        <v>736431</v>
+        <v>759680</v>
       </c>
       <c r="AO187">
-        <v>69.84999999999999</v>
+        <v>70.8</v>
       </c>
       <c r="AP187">
-        <v>49.74</v>
+        <v>50.45</v>
       </c>
       <c r="AQ187">
-        <v>22.31</v>
+        <v>22.55</v>
       </c>
       <c r="AS187">
-        <v>14364</v>
+        <v>14817</v>
       </c>
       <c r="AT187">
         <v>50.93</v>
@@ -25702,31 +25717,31 @@
         <v>514</v>
       </c>
       <c r="AI190">
-        <v>17068274</v>
+        <v>17587688</v>
       </c>
       <c r="AJ190">
-        <v>11799191</v>
+        <v>12073373</v>
       </c>
       <c r="AK190">
-        <v>5269083</v>
+        <v>5514315</v>
       </c>
       <c r="AM190">
-        <v>138622</v>
+        <v>519414</v>
       </c>
       <c r="AN190">
-        <v>200265</v>
+        <v>223653</v>
       </c>
       <c r="AO190">
-        <v>79.70999999999999</v>
+        <v>82.13</v>
       </c>
       <c r="AP190">
-        <v>55.1</v>
+        <v>56.38</v>
       </c>
       <c r="AQ190">
-        <v>24.61</v>
+        <v>25.75</v>
       </c>
       <c r="AS190">
-        <v>9352</v>
+        <v>10445</v>
       </c>
       <c r="AT190">
         <v>79.63</v>
@@ -25940,31 +25955,31 @@
         <v>1.12</v>
       </c>
       <c r="AI192">
-        <v>292810</v>
+        <v>299732</v>
       </c>
       <c r="AJ192">
-        <v>195367</v>
+        <v>196031</v>
       </c>
       <c r="AK192">
-        <v>97443</v>
+        <v>103701</v>
       </c>
       <c r="AM192">
-        <v>4580</v>
+        <v>6922</v>
       </c>
       <c r="AN192">
-        <v>3020</v>
+        <v>3430</v>
       </c>
       <c r="AO192">
-        <v>49.91</v>
+        <v>51.09</v>
       </c>
       <c r="AP192">
-        <v>33.3</v>
+        <v>33.42</v>
       </c>
       <c r="AQ192">
-        <v>16.61</v>
+        <v>17.68</v>
       </c>
       <c r="AS192">
-        <v>5148</v>
+        <v>5847</v>
       </c>
       <c r="AT192">
         <v>83.33</v>
@@ -27360,31 +27375,31 @@
         <v>513</v>
       </c>
       <c r="AI203">
-        <v>828768</v>
+        <v>844205</v>
       </c>
       <c r="AJ203">
-        <v>472946</v>
+        <v>479626</v>
       </c>
       <c r="AK203">
-        <v>355822</v>
+        <v>364579</v>
       </c>
       <c r="AM203">
-        <v>15298</v>
+        <v>15437</v>
       </c>
       <c r="AN203">
-        <v>14270</v>
+        <v>14603</v>
       </c>
       <c r="AO203">
-        <v>59.22</v>
+        <v>60.32</v>
       </c>
       <c r="AP203">
-        <v>33.79</v>
+        <v>34.27</v>
       </c>
       <c r="AQ203">
-        <v>25.43</v>
+        <v>26.05</v>
       </c>
       <c r="AS203">
-        <v>10197</v>
+        <v>10435</v>
       </c>
       <c r="AU203">
         <v>1399491</v>
@@ -27503,31 +27518,31 @@
         <v>513</v>
       </c>
       <c r="AI204">
-        <v>4782139</v>
+        <v>4891225</v>
       </c>
       <c r="AJ204">
-        <v>3455432</v>
+        <v>3525959</v>
       </c>
       <c r="AK204">
-        <v>1621713</v>
+        <v>1671876</v>
       </c>
       <c r="AM204">
-        <v>44857</v>
+        <v>57204</v>
       </c>
       <c r="AN204">
-        <v>144501</v>
+        <v>124085</v>
       </c>
       <c r="AO204">
-        <v>40.46</v>
+        <v>41.39</v>
       </c>
       <c r="AP204">
-        <v>29.24</v>
+        <v>29.83</v>
       </c>
       <c r="AQ204">
-        <v>13.72</v>
+        <v>14.15</v>
       </c>
       <c r="AS204">
-        <v>12227</v>
+        <v>10499</v>
       </c>
       <c r="AT204">
         <v>79.63</v>
@@ -27631,37 +27646,37 @@
         <v>0.87</v>
       </c>
       <c r="AI205">
-        <v>88059440</v>
+        <v>88443350</v>
       </c>
       <c r="AJ205">
-        <v>45636614</v>
+        <v>45796679</v>
       </c>
       <c r="AK205">
-        <v>34791602</v>
+        <v>34963740</v>
       </c>
       <c r="AL205">
-        <v>7631224</v>
+        <v>7682931</v>
       </c>
       <c r="AM205">
-        <v>863866</v>
+        <v>383910</v>
       </c>
       <c r="AN205">
-        <v>862559</v>
+        <v>796836</v>
       </c>
       <c r="AO205">
-        <v>104.41</v>
+        <v>104.87</v>
       </c>
       <c r="AP205">
-        <v>54.11</v>
+        <v>54.3</v>
       </c>
       <c r="AQ205">
-        <v>41.25</v>
+        <v>41.46</v>
       </c>
       <c r="AR205">
-        <v>9.050000000000001</v>
+        <v>9.109999999999999</v>
       </c>
       <c r="AS205">
-        <v>10227</v>
+        <v>9448</v>
       </c>
       <c r="AT205">
         <v>50</v>
@@ -27836,22 +27851,28 @@
         <v>516</v>
       </c>
       <c r="AI207">
-        <v>1235052</v>
+        <v>1163451</v>
       </c>
       <c r="AJ207">
-        <v>1235052</v>
+        <v>901900</v>
+      </c>
+      <c r="AK207">
+        <v>242310</v>
       </c>
       <c r="AN207">
-        <v>11042</v>
+        <v>705</v>
       </c>
       <c r="AO207">
-        <v>2.7</v>
+        <v>2.54</v>
       </c>
       <c r="AP207">
-        <v>2.7</v>
+        <v>1.97</v>
+      </c>
+      <c r="AQ207">
+        <v>0.53</v>
       </c>
       <c r="AS207">
-        <v>241</v>
+        <v>15</v>
       </c>
       <c r="AT207">
         <v>78.7</v>
@@ -27982,31 +28003,31 @@
         <v>514</v>
       </c>
       <c r="AI208">
-        <v>8099146</v>
+        <v>8165319</v>
       </c>
       <c r="AJ208">
-        <v>5032720</v>
+        <v>5057068</v>
       </c>
       <c r="AK208">
-        <v>3066426</v>
+        <v>3108251</v>
       </c>
       <c r="AM208">
-        <v>147118</v>
+        <v>66173</v>
       </c>
       <c r="AN208">
-        <v>109514</v>
+        <v>107946</v>
       </c>
       <c r="AO208">
-        <v>18.52</v>
+        <v>18.67</v>
       </c>
       <c r="AP208">
-        <v>11.51</v>
+        <v>11.56</v>
       </c>
       <c r="AQ208">
-        <v>7.01</v>
+        <v>7.11</v>
       </c>
       <c r="AS208">
-        <v>2504</v>
+        <v>2468</v>
       </c>
       <c r="AU208">
         <v>43733759</v>
@@ -28131,31 +28152,31 @@
         <v>514</v>
       </c>
       <c r="AI209">
-        <v>17622541</v>
+        <v>17683483</v>
       </c>
       <c r="AJ209">
-        <v>8297964</v>
+        <v>8327923</v>
       </c>
       <c r="AK209">
-        <v>7308934</v>
+        <v>7328967</v>
       </c>
       <c r="AM209">
-        <v>56131</v>
+        <v>60942</v>
       </c>
       <c r="AN209">
-        <v>44197</v>
+        <v>48405</v>
       </c>
       <c r="AO209">
-        <v>178.18</v>
+        <v>178.79</v>
       </c>
       <c r="AP209">
-        <v>83.90000000000001</v>
+        <v>84.2</v>
       </c>
       <c r="AQ209">
-        <v>73.90000000000001</v>
+        <v>74.09999999999999</v>
       </c>
       <c r="AS209">
-        <v>4469</v>
+        <v>4894</v>
       </c>
       <c r="AT209">
         <v>65.28</v>
@@ -28298,31 +28319,31 @@
         <v>514</v>
       </c>
       <c r="AI210">
-        <v>88848633</v>
+        <v>89070370</v>
       </c>
       <c r="AJ210">
-        <v>47516505</v>
+        <v>47573794</v>
       </c>
       <c r="AK210">
-        <v>41332128</v>
+        <v>41496576</v>
       </c>
       <c r="AM210">
-        <v>231038</v>
+        <v>221737</v>
       </c>
       <c r="AN210">
-        <v>203893</v>
+        <v>205273</v>
       </c>
       <c r="AO210">
-        <v>130.88</v>
+        <v>131.21</v>
       </c>
       <c r="AP210">
-        <v>69.98999999999999</v>
+        <v>70.08</v>
       </c>
       <c r="AQ210">
-        <v>60.88</v>
+        <v>61.13</v>
       </c>
       <c r="AS210">
-        <v>3003</v>
+        <v>3024</v>
       </c>
       <c r="AT210">
         <v>43.98</v>
@@ -28468,31 +28489,31 @@
         <v>514</v>
       </c>
       <c r="AI211">
-        <v>360634287</v>
+        <v>361684564</v>
       </c>
       <c r="AJ211">
-        <v>200421787</v>
+        <v>200947556</v>
       </c>
       <c r="AK211">
-        <v>169998983</v>
+        <v>170406785</v>
       </c>
       <c r="AM211">
-        <v>1010907</v>
+        <v>1050277</v>
       </c>
       <c r="AN211">
-        <v>836620</v>
+        <v>845106</v>
       </c>
       <c r="AO211">
-        <v>107.83</v>
+        <v>108.15</v>
       </c>
       <c r="AP211">
-        <v>59.93</v>
+        <v>60.08</v>
       </c>
       <c r="AQ211">
-        <v>50.83</v>
+        <v>50.95</v>
       </c>
       <c r="AS211">
-        <v>2502</v>
+        <v>2527</v>
       </c>
       <c r="AT211">
         <v>56.02</v>
@@ -28620,37 +28641,37 @@
         <v>514</v>
       </c>
       <c r="AI212">
-        <v>5277908</v>
+        <v>5286154</v>
       </c>
       <c r="AJ212">
-        <v>2642057</v>
+        <v>2642614</v>
       </c>
       <c r="AK212">
-        <v>2464276</v>
+        <v>2466457</v>
       </c>
       <c r="AL212">
-        <v>171575</v>
+        <v>177083</v>
       </c>
       <c r="AM212">
-        <v>48886</v>
+        <v>8245</v>
       </c>
       <c r="AN212">
-        <v>37654</v>
+        <v>38530</v>
       </c>
       <c r="AO212">
-        <v>151.94</v>
+        <v>152.18</v>
       </c>
       <c r="AP212">
-        <v>76.06</v>
+        <v>76.06999999999999</v>
       </c>
       <c r="AQ212">
-        <v>70.94</v>
+        <v>71</v>
       </c>
       <c r="AR212">
-        <v>4.94</v>
+        <v>5.1</v>
       </c>
       <c r="AS212">
-        <v>10840</v>
+        <v>11092</v>
       </c>
       <c r="AT212">
         <v>55.56</v>
@@ -29327,37 +29348,37 @@
         <v>1.03</v>
       </c>
       <c r="AI219">
-        <v>4910059376</v>
+        <v>4934496760</v>
       </c>
       <c r="AJ219">
-        <v>2519399685</v>
+        <v>2526534611</v>
       </c>
       <c r="AK219">
-        <v>1893336388</v>
+        <v>1899999918</v>
       </c>
       <c r="AL219">
-        <v>10894564</v>
+        <v>11100088</v>
       </c>
       <c r="AM219">
-        <v>29072187</v>
+        <v>22718353</v>
       </c>
       <c r="AN219">
-        <v>34959746</v>
+        <v>34253036</v>
       </c>
       <c r="AO219">
-        <v>62.99</v>
+        <v>63.3</v>
       </c>
       <c r="AP219">
-        <v>32.32</v>
+        <v>32.41</v>
       </c>
       <c r="AQ219">
-        <v>24.29</v>
+        <v>24.38</v>
       </c>
       <c r="AR219">
         <v>0.14</v>
       </c>
       <c r="AS219">
-        <v>4485</v>
+        <v>4394</v>
       </c>
       <c r="AU219">
         <v>7794798729</v>
@@ -29583,31 +29604,31 @@
         <v>514</v>
       </c>
       <c r="AI221">
-        <v>536479</v>
+        <v>548267</v>
       </c>
       <c r="AJ221">
-        <v>308604</v>
+        <v>309115</v>
       </c>
       <c r="AK221">
-        <v>227875</v>
+        <v>239152</v>
       </c>
       <c r="AM221">
         <v>4594</v>
       </c>
       <c r="AN221">
-        <v>2947</v>
+        <v>3864</v>
       </c>
       <c r="AO221">
-        <v>2.92</v>
+        <v>2.98</v>
       </c>
       <c r="AP221">
         <v>1.68</v>
       </c>
       <c r="AQ221">
-        <v>1.24</v>
+        <v>1.3</v>
       </c>
       <c r="AS221">
-        <v>160</v>
+        <v>210</v>
       </c>
       <c r="AT221">
         <v>50.93</v>
@@ -29738,31 +29759,31 @@
         <v>514</v>
       </c>
       <c r="AI222">
-        <v>3699508</v>
+        <v>3753242</v>
       </c>
       <c r="AJ222">
-        <v>2271429</v>
+        <v>2301341</v>
       </c>
       <c r="AK222">
-        <v>1428079</v>
+        <v>1451901</v>
       </c>
       <c r="AM222">
-        <v>78571</v>
+        <v>53734</v>
       </c>
       <c r="AN222">
-        <v>69346</v>
+        <v>74048</v>
       </c>
       <c r="AO222">
-        <v>24.89</v>
+        <v>25.25</v>
       </c>
       <c r="AP222">
-        <v>15.28</v>
+        <v>15.48</v>
       </c>
       <c r="AQ222">
-        <v>9.609999999999999</v>
+        <v>9.77</v>
       </c>
       <c r="AS222">
-        <v>4666</v>
+        <v>4982</v>
       </c>
       <c r="AT222">
         <v>73.15000000000001</v>

--- a/public/data/latest/owid-covid-latest.xlsx
+++ b/public/data/latest/owid-covid-latest.xlsx
@@ -3275,40 +3275,40 @@
         <v>504</v>
       </c>
       <c r="E12">
-        <v>67544780</v>
+        <v>67575728</v>
       </c>
       <c r="F12">
-        <v>212127</v>
+        <v>243075</v>
       </c>
       <c r="G12">
-        <v>254508.857</v>
+        <v>258930</v>
       </c>
       <c r="H12">
-        <v>995836</v>
+        <v>996239</v>
       </c>
       <c r="I12">
-        <v>3910</v>
+        <v>4313</v>
       </c>
       <c r="J12">
-        <v>4513.143</v>
+        <v>4570.714</v>
       </c>
       <c r="K12">
-        <v>14557.543</v>
+        <v>14564.213</v>
       </c>
       <c r="L12">
-        <v>45.719</v>
+        <v>52.389</v>
       </c>
       <c r="M12">
-        <v>54.853</v>
+        <v>55.806</v>
       </c>
       <c r="N12">
-        <v>214.627</v>
+        <v>214.714</v>
       </c>
       <c r="O12">
-        <v>0.843</v>
+        <v>0.93</v>
       </c>
       <c r="P12">
-        <v>0.973</v>
+        <v>0.985</v>
       </c>
       <c r="AI12">
         <v>3237705582</v>
@@ -13442,40 +13442,40 @@
         <v>504</v>
       </c>
       <c r="E93">
-        <v>32393286</v>
+        <v>32424234</v>
       </c>
       <c r="F93">
-        <v>0</v>
+        <v>30948</v>
       </c>
       <c r="G93">
-        <v>28672.857</v>
+        <v>33094</v>
       </c>
       <c r="H93">
-        <v>433964</v>
+        <v>434367</v>
       </c>
       <c r="I93">
-        <v>0</v>
+        <v>403</v>
       </c>
       <c r="J93">
-        <v>391.286</v>
+        <v>448.857</v>
       </c>
       <c r="K93">
-        <v>23473.321</v>
+        <v>23495.747</v>
       </c>
       <c r="L93">
-        <v>0</v>
+        <v>22.426</v>
       </c>
       <c r="M93">
-        <v>20.777</v>
+        <v>23.981</v>
       </c>
       <c r="N93">
-        <v>314.466</v>
+        <v>314.758</v>
       </c>
       <c r="O93">
-        <v>0</v>
+        <v>0.292</v>
       </c>
       <c r="P93">
-        <v>0.284</v>
+        <v>0.325</v>
       </c>
       <c r="Q93">
         <v>0.9399999999999999</v>
@@ -29309,40 +29309,40 @@
         <v>504</v>
       </c>
       <c r="E219">
-        <v>211364677</v>
+        <v>211395625</v>
       </c>
       <c r="F219">
-        <v>500567</v>
+        <v>531515</v>
       </c>
       <c r="G219">
-        <v>651024</v>
+        <v>655445.143</v>
       </c>
       <c r="H219">
-        <v>4423507</v>
+        <v>4423910</v>
       </c>
       <c r="I219">
-        <v>8255</v>
+        <v>8658</v>
       </c>
       <c r="J219">
-        <v>9821.286</v>
+        <v>9878.857</v>
       </c>
       <c r="K219">
-        <v>27116.117</v>
+        <v>27120.088</v>
       </c>
       <c r="L219">
-        <v>64.218</v>
+        <v>68.188</v>
       </c>
       <c r="M219">
-        <v>83.52</v>
+        <v>84.08799999999999</v>
       </c>
       <c r="N219">
-        <v>567.495</v>
+        <v>567.546</v>
       </c>
       <c r="O219">
-        <v>1.059</v>
+        <v>1.111</v>
       </c>
       <c r="P219">
-        <v>1.26</v>
+        <v>1.267</v>
       </c>
       <c r="Q219">
         <v>1.03</v>
